--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX52"/>
+  <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -535,7 +535,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="31.34765625"/>
     <col customWidth="true" min="2" max="2" width="25.6328125"/>
-    <col customWidth="true" min="3" max="3" width="20.9453125"/>
+    <col customWidth="true" min="3" max="3" width="33.25"/>
     <col customWidth="true" min="4" max="4" width="30.17578125"/>
     <col customWidth="true" min="5" max="5" width="14.5"/>
     <col customWidth="true" min="6" max="6" width="27.5390625"/>
@@ -583,6 +583,7 @@
     <col customWidth="true" min="48" max="48" width="9.375"/>
     <col customWidth="true" min="49" max="49" width="9.375"/>
     <col customWidth="true" min="50" max="50" width="18.1640625"/>
+    <col customWidth="true" min="51" max="51" width="26.8046875"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -593,7 +594,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>ZNr</t>
+          <t>Tab_7a_Daten.ZNr</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -834,6 +835,11 @@
       <c r="AX1" s="2" t="inlineStr">
         <is>
           <t>IbNr</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>Tab_6a_Zeitreihen.ZNr</t>
         </is>
       </c>
     </row>
@@ -920,6 +926,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY2" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -1001,6 +1012,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY3" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -1079,6 +1095,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY4" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -1157,6 +1178,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY5" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -1235,6 +1261,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY6" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1316,6 +1347,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY7" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -1397,6 +1433,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY8" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1478,6 +1519,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY9" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1550,6 +1596,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY10" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1631,6 +1682,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY11" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -1709,6 +1765,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY12" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1790,6 +1851,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY13" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1835,6 +1901,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY14" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1913,6 +1984,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY15" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1994,6 +2070,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY16" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -2075,6 +2156,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY17" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -2153,6 +2239,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY18" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -2240,6 +2331,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY19" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -2321,6 +2417,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY20" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -2399,6 +2500,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY21" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -2477,6 +2583,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY22" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -2555,6 +2666,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY23" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -2636,6 +2752,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY24" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -2717,6 +2838,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY25" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2798,6 +2924,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY26" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2876,6 +3007,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY27" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -2957,6 +3093,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY28" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -3035,6 +3176,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY29" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -3116,6 +3262,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY30" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -3185,6 +3336,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY31" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -3263,6 +3419,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY32" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -3344,6 +3505,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY33" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -3425,6 +3591,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY34" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -3470,6 +3641,11 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY35" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -3566,6 +3742,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY36" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -3656,6 +3837,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY37" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -3746,6 +3932,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY38" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -3833,6 +4024,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY39" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3920,6 +4116,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY40" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -4010,6 +4211,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY41" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -4097,6 +4303,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY42" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -4187,6 +4398,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY43" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -4232,6 +4448,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY44" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -4316,6 +4537,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY45" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -4406,6 +4632,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY46" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -4496,6 +4727,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY47" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -4574,6 +4810,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY48" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -4664,6 +4905,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY49" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -4754,6 +5000,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY50" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -4844,6 +5095,11 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="AY51" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -4929,6 +5185,11 @@
       <c r="AX52" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="AY52" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
         </is>
       </c>
     </row>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX52"/>
+  <dimension ref="A1:AX85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -840,12 +840,12 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D001</t>
+          <t>Z02_B01_P01_Ib01_I01_Z02_D002</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib01_I01_Z02</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -870,76 +870,94 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_KGPHA</t>
         </is>
       </c>
       <c r="I2" s="6" t="b">
         <v>1</v>
       </c>
+      <c r="T2" s="7">
+        <v>108.3</v>
+      </c>
+      <c r="U2" s="7">
+        <v>107.8</v>
+      </c>
+      <c r="V2" s="7">
+        <v>105.1</v>
+      </c>
+      <c r="W2" s="7">
+        <v>102.5</v>
+      </c>
+      <c r="X2" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>102.2</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>101.8</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>99.1</v>
+      </c>
       <c r="AB2" s="7">
-        <v>100</v>
+        <v>96.6</v>
       </c>
       <c r="AC2" s="7">
-        <v>99.7</v>
+        <v>96.8</v>
       </c>
       <c r="AD2" s="7">
-        <v>96.7</v>
+        <v>94.9</v>
       </c>
       <c r="AE2" s="7">
-        <v>105.3</v>
+        <v>93</v>
       </c>
       <c r="AF2" s="7">
-        <v>105.3</v>
+        <v>93.2</v>
       </c>
       <c r="AG2" s="7">
-        <v>102.8</v>
+        <v>95.6</v>
       </c>
       <c r="AH2" s="7">
-        <v>110.8</v>
+        <v>94</v>
       </c>
       <c r="AI2" s="7">
-        <v>110</v>
+        <v>93.8</v>
       </c>
       <c r="AJ2" s="7">
-        <v>110.3</v>
+        <v>92.7</v>
       </c>
       <c r="AK2" s="7">
-        <v>111.7</v>
+        <v>91.5</v>
       </c>
       <c r="AL2" s="7">
-        <v>116.3</v>
-      </c>
-      <c r="AM2" s="7">
-        <v>116.9</v>
-      </c>
-      <c r="AN2" s="7">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="AX2" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D002</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D001</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t/>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -954,63 +972,69 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>95.6</v>
+        <v>1</v>
+      </c>
+      <c r="U3" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="W3" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>5.1</v>
       </c>
       <c r="AD3" s="7">
-        <v>100.4</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>109.6</v>
+        <v>5.6</v>
       </c>
       <c r="AF3" s="7">
-        <v>111.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG3" s="7">
-        <v>107.7</v>
+        <v>6</v>
       </c>
       <c r="AH3" s="7">
-        <v>117.2</v>
+        <v>6.2</v>
       </c>
       <c r="AI3" s="7">
-        <v>116.7</v>
+        <v>6.3</v>
       </c>
       <c r="AJ3" s="7">
-        <v>115.3</v>
+        <v>6.8</v>
       </c>
       <c r="AK3" s="7">
-        <v>125.2</v>
+        <v>6.8</v>
       </c>
       <c r="AL3" s="7">
-        <v>123.6</v>
+        <v>7.3</v>
       </c>
       <c r="AM3" s="7">
-        <v>109.7</v>
+        <v>7.8</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>9.6</v>
       </c>
       <c r="AX3" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D003</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D002</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -1020,7 +1044,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1035,60 +1059,51 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB4" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>98.7</v>
+      <c r="U4" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="W4" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>6.6</v>
       </c>
       <c r="AD4" s="7">
-        <v>96.3</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>103.2</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>104.6</v>
+        <v>7</v>
       </c>
       <c r="AG4" s="7">
-        <v>105</v>
-      </c>
-      <c r="AH4" s="7">
-        <v>112.9</v>
-      </c>
-      <c r="AI4" s="7">
-        <v>112.1</v>
+        <v>7.8</v>
       </c>
       <c r="AJ4" s="7">
-        <v>111.3</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>115.7</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>117.9</v>
+        <v>9.3</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>12.3</v>
       </c>
       <c r="AX4" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D004</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D003</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1098,7 +1113,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1113,60 +1128,51 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB5" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>98.3</v>
+      <c r="U5" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="W5" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>4.5</v>
       </c>
       <c r="AD5" s="7">
-        <v>93.1</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>108.6</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>107.4</v>
+        <v>6.1</v>
       </c>
       <c r="AG5" s="7">
-        <v>104.1</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>115.5</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>122.1</v>
+        <v>6.8</v>
       </c>
       <c r="AJ5" s="7">
-        <v>124.5</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>131.4</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>145.9</v>
+        <v>8.3</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>12.1</v>
       </c>
       <c r="AX5" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D005</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D004</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1176,7 +1182,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1191,60 +1197,39 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB6" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>101.2</v>
-      </c>
       <c r="AD6" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>99.4</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>100.1</v>
+        <v>12.4</v>
       </c>
       <c r="AG6" s="7">
-        <v>96.4</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>103.7</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>106.5</v>
+        <v>15</v>
       </c>
       <c r="AJ6" s="7">
-        <v>103.6</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>101.5</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>105.2</v>
+        <v>15.6</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>15.8</v>
       </c>
       <c r="AX6" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D006</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D005</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1254,7 +1239,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1269,63 +1254,51 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB7" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>97.4</v>
+      <c r="U7" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="W7" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>9.8</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>10.1</v>
       </c>
       <c r="AD7" s="7">
-        <v>91.4</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>95.9</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>100.3</v>
+        <v>10.6</v>
       </c>
       <c r="AG7" s="7">
-        <v>99.9</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>95.3</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>97.4</v>
+        <v>10.3</v>
       </c>
       <c r="AJ7" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>107</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>115.1</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>113.4</v>
+        <v>10.4</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>13.3</v>
       </c>
       <c r="AX7" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D007</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D006</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -1335,7 +1308,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1350,63 +1323,39 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB8" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>97.6</v>
-      </c>
       <c r="AD8" s="7">
-        <v>94.2</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>100.9</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>99.3</v>
+        <v>9.8</v>
       </c>
       <c r="AG8" s="7">
-        <v>103.8</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>109.6</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>108.8</v>
+        <v>11.8</v>
       </c>
       <c r="AJ8" s="7">
-        <v>110.7</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>115</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>116.1</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>112.8</v>
+        <v>17.7</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>22.7</v>
       </c>
       <c r="AX8" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D008</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D007</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1416,7 +1365,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -1431,63 +1380,39 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB9" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>97.6</v>
-      </c>
       <c r="AD9" s="7">
-        <v>98.4</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>106.6</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>104.5</v>
+        <v>6.8</v>
       </c>
       <c r="AG9" s="7">
-        <v>102.6</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>106.3</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>104.6</v>
+        <v>6.9</v>
       </c>
       <c r="AJ9" s="7">
-        <v>104.9</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>110.4</v>
-      </c>
-      <c r="AL9" s="7">
-        <v>111.6</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>102.7</v>
+        <v>8.1</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>8.6</v>
       </c>
       <c r="AX9" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D009</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D008</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -1497,7 +1422,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1512,54 +1437,51 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB10" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>99.9</v>
+      <c r="U10" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="W10" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>7.8</v>
       </c>
       <c r="AD10" s="7">
-        <v>94.6</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>104.5</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>100.7</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="AH10" s="7">
-        <v>104.5</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>104.8</v>
+        <v>10.5</v>
       </c>
       <c r="AJ10" s="7">
-        <v>111.4</v>
+        <v>11.6</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>15</v>
       </c>
       <c r="AX10" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D010</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D009</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -1569,7 +1491,7 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -1584,63 +1506,51 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB11" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>99</v>
+      <c r="U11" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="W11" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>8.8</v>
       </c>
       <c r="AD11" s="7">
-        <v>97.7</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>108.1</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>111.9</v>
+        <v>8.7</v>
       </c>
       <c r="AG11" s="7">
-        <v>109</v>
-      </c>
-      <c r="AH11" s="7">
-        <v>114.8</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>114.9</v>
+        <v>9</v>
       </c>
       <c r="AJ11" s="7">
-        <v>120.1</v>
-      </c>
-      <c r="AK11" s="7">
-        <v>119.9</v>
-      </c>
-      <c r="AL11" s="7">
-        <v>122.3</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>111.4</v>
+        <v>9.4</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>12.2</v>
       </c>
       <c r="AX11" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D011</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D010</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
@@ -1650,7 +1560,7 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
@@ -1665,60 +1575,51 @@
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB12" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>106.8</v>
+      <c r="U12" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>2.9</v>
       </c>
       <c r="AD12" s="7">
-        <v>102.1</v>
-      </c>
-      <c r="AE12" s="7">
-        <v>111.6</v>
-      </c>
-      <c r="AF12" s="7">
-        <v>112.4</v>
+        <v>2.9</v>
       </c>
       <c r="AG12" s="7">
-        <v>111.9</v>
-      </c>
-      <c r="AH12" s="7">
-        <v>117.2</v>
-      </c>
-      <c r="AI12" s="7">
-        <v>118.9</v>
+        <v>2.9</v>
       </c>
       <c r="AJ12" s="7">
-        <v>110.8</v>
-      </c>
-      <c r="AK12" s="7">
-        <v>121.2</v>
-      </c>
-      <c r="AL12" s="7">
-        <v>107.7</v>
+        <v>3.2</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>4.8</v>
       </c>
       <c r="AX12" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D012</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D011</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -1728,7 +1629,7 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1743,63 +1644,51 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB13" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>99.4</v>
+      <c r="U13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="W13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>3.3</v>
       </c>
       <c r="AD13" s="7">
-        <v>100</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>110.2</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>112.8</v>
+        <v>3.6</v>
       </c>
       <c r="AG13" s="7">
-        <v>109.3</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>114.5</v>
-      </c>
-      <c r="AI13" s="7">
-        <v>115.4</v>
+        <v>4.2</v>
       </c>
       <c r="AJ13" s="7">
-        <v>114.1</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>115.5</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>113.1</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>101.6</v>
+        <v>4.2</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>5.7</v>
       </c>
       <c r="AX13" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D013</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D012</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -1809,7 +1698,7 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
@@ -1824,27 +1713,51 @@
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I14" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="U14" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="W14" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>11.3</v>
+      </c>
       <c r="AX14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D014</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D013</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -1854,7 +1767,7 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -1869,60 +1782,51 @@
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB15" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>97.3</v>
+      <c r="U15" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="W15" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>9.1</v>
       </c>
       <c r="AD15" s="7">
-        <v>94.8</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>105.3</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>101</v>
+        <v>10.6</v>
       </c>
       <c r="AG15" s="7">
-        <v>99.1</v>
-      </c>
-      <c r="AH15" s="7">
-        <v>107.8</v>
-      </c>
-      <c r="AI15" s="7">
-        <v>108</v>
+        <v>11.4</v>
       </c>
       <c r="AJ15" s="7">
-        <v>106.5</v>
-      </c>
-      <c r="AK15" s="7">
-        <v>108.9</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>115.5</v>
+        <v>14.9</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>18</v>
       </c>
       <c r="AX15" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D015</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D014</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -1932,7 +1836,7 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -1947,63 +1851,51 @@
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB16" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>95.9</v>
+      <c r="U16" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="W16" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>3.5</v>
       </c>
       <c r="AD16" s="7">
-        <v>92.2</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>95.7</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>94.7</v>
+        <v>3.7</v>
       </c>
       <c r="AG16" s="7">
-        <v>94.4</v>
-      </c>
-      <c r="AH16" s="7">
-        <v>99.4</v>
-      </c>
-      <c r="AI16" s="7">
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="AJ16" s="7">
-        <v>98.6</v>
-      </c>
-      <c r="AK16" s="7">
-        <v>102.6</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>104.2</v>
-      </c>
-      <c r="AM16" s="7">
-        <v>106.4</v>
+        <v>4.6</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>7.9</v>
       </c>
       <c r="AX16" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D016</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D015</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -2013,7 +1905,7 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t>A_LAENDER_ST</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
@@ -2028,63 +1920,51 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB17" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>99.6</v>
+      <c r="U17" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="W17" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>3.8</v>
       </c>
       <c r="AD17" s="7">
-        <v>95.5</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>103</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>104.7</v>
+        <v>4.2</v>
       </c>
       <c r="AG17" s="7">
-        <v>100.9</v>
-      </c>
-      <c r="AH17" s="7">
-        <v>109</v>
-      </c>
-      <c r="AI17" s="7">
-        <v>108.4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ17" s="7">
-        <v>110.1</v>
-      </c>
-      <c r="AK17" s="7">
-        <v>111.3</v>
-      </c>
-      <c r="AL17" s="7">
-        <v>115.4</v>
-      </c>
-      <c r="AM17" s="7">
-        <v>110.4</v>
+        <v>5</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>9</v>
       </c>
       <c r="AX17" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01_D017</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D016</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I01_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
@@ -2094,7 +1974,7 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t>A_LAENDER_SH</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -2109,70 +1989,61 @@
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB18" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>100.4</v>
+      <c r="U18" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="W18" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>2.9</v>
       </c>
       <c r="AD18" s="7">
-        <v>98.9</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>109.8</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>108.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG18" s="7">
-        <v>107</v>
-      </c>
-      <c r="AH18" s="7">
-        <v>117.5</v>
-      </c>
-      <c r="AI18" s="7">
-        <v>116.3</v>
+        <v>3.4</v>
       </c>
       <c r="AJ18" s="7">
-        <v>114.3</v>
-      </c>
-      <c r="AK18" s="7">
-        <v>116.9</v>
-      </c>
-      <c r="AL18" s="7">
-        <v>120.1</v>
+        <v>4</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>6.4</v>
       </c>
       <c r="AX18" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D001</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D017</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_LAENDER_TH</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -2187,79 +2058,61 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>94.1</v>
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="W19" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>5.1</v>
       </c>
       <c r="AD19" s="7">
-        <v>98.9</v>
-      </c>
-      <c r="AE19" s="7">
-        <v>94.6</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>93.5</v>
+        <v>4.4</v>
       </c>
       <c r="AG19" s="7">
-        <v>96.1</v>
-      </c>
-      <c r="AH19" s="7">
-        <v>91.7</v>
-      </c>
-      <c r="AI19" s="7">
-        <v>92.2</v>
+        <v>4.4</v>
       </c>
       <c r="AJ19" s="7">
-        <v>93.8</v>
-      </c>
-      <c r="AK19" s="7">
-        <v>94</v>
-      </c>
-      <c r="AL19" s="7">
-        <v>91.3</v>
-      </c>
-      <c r="AM19" s="7">
-        <v>89</v>
+        <v>4.3</v>
       </c>
       <c r="AN19" s="7">
-        <v>82.7</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>84.8</v>
+        <v>6.6</v>
       </c>
       <c r="AX19" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D002</t>
+          <t>Z02_B01_P01_Ib02_I01_Z02_D001</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z02_B01_P01_Ib02_I01_Z02</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t/>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
@@ -2274,73 +2127,97 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I20" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="U20" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="V20" s="7">
+        <v>4.1</v>
+      </c>
+      <c r="W20" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="X20" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>5.1</v>
+      </c>
       <c r="AB20" s="7">
-        <v>100</v>
+        <v>5.4</v>
       </c>
       <c r="AC20" s="7">
-        <v>95.1</v>
+        <v>5.6</v>
       </c>
       <c r="AD20" s="7">
-        <v>95.2</v>
+        <v>5.9</v>
       </c>
       <c r="AE20" s="7">
-        <v>88.3</v>
+        <v>6.1</v>
       </c>
       <c r="AF20" s="7">
-        <v>85.7</v>
+        <v>6.2</v>
       </c>
       <c r="AG20" s="7">
-        <v>88.9</v>
+        <v>6.3</v>
       </c>
       <c r="AH20" s="7">
-        <v>85.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI20" s="7">
-        <v>87.2</v>
+        <v>6.5</v>
       </c>
       <c r="AJ20" s="7">
-        <v>89.3</v>
+        <v>7.5</v>
       </c>
       <c r="AK20" s="7">
-        <v>92.3</v>
+        <v>8.2</v>
       </c>
       <c r="AL20" s="7">
-        <v>90.9</v>
+        <v>9.1</v>
       </c>
       <c r="AM20" s="7">
-        <v>98.1</v>
+        <v>9.7</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>10.3</v>
       </c>
       <c r="AX20" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D003</t>
+          <t>Z02_B02_P01_Ib01_I01_Z01_D0019</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z02_B02_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t/>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
@@ -2355,70 +2232,43 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2008</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="I21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC21" s="7">
-        <v>98.3</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>102</v>
-      </c>
-      <c r="AE21" s="7">
-        <v>99.9</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>97.6</v>
-      </c>
-      <c r="AG21" s="7">
-        <v>98.2</v>
-      </c>
-      <c r="AH21" s="7">
-        <v>94.7</v>
-      </c>
-      <c r="AI21" s="7">
-        <v>94.8</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="7">
-        <v>95</v>
-      </c>
-      <c r="AK21" s="7">
-        <v>97.1</v>
+        <v>16.71</v>
       </c>
       <c r="AL21" s="7">
-        <v>88</v>
+        <v>18.32</v>
       </c>
       <c r="AX21" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01</t>
+          <t>Z02_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D004</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D001</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t/>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
@@ -2437,40 +2287,46 @@
         </is>
       </c>
       <c r="I22" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="7">
         <v>100</v>
       </c>
       <c r="AC22" s="7">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
       <c r="AD22" s="7">
-        <v>107.7</v>
+        <v>96.7</v>
       </c>
       <c r="AE22" s="7">
-        <v>96.2</v>
+        <v>105.3</v>
       </c>
       <c r="AF22" s="7">
-        <v>97.4</v>
+        <v>105.3</v>
       </c>
       <c r="AG22" s="7">
-        <v>100.9</v>
+        <v>102.8</v>
       </c>
       <c r="AH22" s="7">
-        <v>94.4</v>
+        <v>110.8</v>
       </c>
       <c r="AI22" s="7">
-        <v>91.9</v>
+        <v>110</v>
       </c>
       <c r="AJ22" s="7">
-        <v>94.5</v>
+        <v>110.3</v>
       </c>
       <c r="AK22" s="7">
-        <v>95.2</v>
+        <v>111.7</v>
       </c>
       <c r="AL22" s="7">
-        <v>86.1</v>
+        <v>116.3</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>116.9</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>120</v>
       </c>
       <c r="AX22" s="4" t="inlineStr">
         <is>
@@ -2481,12 +2337,12 @@
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D005</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D002</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -2496,7 +2352,7 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -2521,34 +2377,37 @@
         <v>100</v>
       </c>
       <c r="AC23" s="7">
-        <v>96.3</v>
+        <v>95.6</v>
       </c>
       <c r="AD23" s="7">
-        <v>101.4</v>
+        <v>100.4</v>
       </c>
       <c r="AE23" s="7">
-        <v>104.9</v>
+        <v>109.6</v>
       </c>
       <c r="AF23" s="7">
-        <v>104.2</v>
+        <v>111.9</v>
       </c>
       <c r="AG23" s="7">
-        <v>102.7</v>
+        <v>107.7</v>
       </c>
       <c r="AH23" s="7">
-        <v>101.5</v>
+        <v>117.2</v>
       </c>
       <c r="AI23" s="7">
-        <v>102.2</v>
+        <v>116.7</v>
       </c>
       <c r="AJ23" s="7">
-        <v>102.8</v>
+        <v>115.3</v>
       </c>
       <c r="AK23" s="7">
-        <v>108.6</v>
+        <v>125.2</v>
       </c>
       <c r="AL23" s="7">
-        <v>106.6</v>
+        <v>123.6</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>109.7</v>
       </c>
       <c r="AX23" s="4" t="inlineStr">
         <is>
@@ -2559,12 +2418,12 @@
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D006</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D003</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -2574,7 +2433,7 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -2599,37 +2458,34 @@
         <v>100</v>
       </c>
       <c r="AC24" s="7">
-        <v>96.2</v>
+        <v>98.7</v>
       </c>
       <c r="AD24" s="7">
-        <v>105.8</v>
+        <v>96.3</v>
       </c>
       <c r="AE24" s="7">
-        <v>100.2</v>
+        <v>103.2</v>
       </c>
       <c r="AF24" s="7">
-        <v>100.1</v>
+        <v>104.6</v>
       </c>
       <c r="AG24" s="7">
-        <v>99.2</v>
+        <v>105</v>
       </c>
       <c r="AH24" s="7">
-        <v>101.2</v>
+        <v>112.9</v>
       </c>
       <c r="AI24" s="7">
-        <v>99.7</v>
+        <v>112.1</v>
       </c>
       <c r="AJ24" s="7">
-        <v>100.2</v>
+        <v>111.3</v>
       </c>
       <c r="AK24" s="7">
-        <v>105.9</v>
+        <v>115.7</v>
       </c>
       <c r="AL24" s="7">
-        <v>90.9</v>
-      </c>
-      <c r="AM24" s="7">
-        <v>90.1</v>
+        <v>117.9</v>
       </c>
       <c r="AX24" s="4" t="inlineStr">
         <is>
@@ -2640,12 +2496,12 @@
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D007</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D004</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -2655,7 +2511,7 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -2680,37 +2536,34 @@
         <v>100</v>
       </c>
       <c r="AC25" s="7">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="AD25" s="7">
-        <v>106.2</v>
+        <v>93.1</v>
       </c>
       <c r="AE25" s="7">
-        <v>99.5</v>
+        <v>108.6</v>
       </c>
       <c r="AF25" s="7">
-        <v>100</v>
+        <v>107.4</v>
       </c>
       <c r="AG25" s="7">
-        <v>99.2</v>
+        <v>104.1</v>
       </c>
       <c r="AH25" s="7">
-        <v>99.9</v>
+        <v>115.5</v>
       </c>
       <c r="AI25" s="7">
-        <v>107.1</v>
+        <v>122.1</v>
       </c>
       <c r="AJ25" s="7">
-        <v>110.2</v>
+        <v>124.5</v>
       </c>
       <c r="AK25" s="7">
-        <v>113</v>
+        <v>131.4</v>
       </c>
       <c r="AL25" s="7">
-        <v>109</v>
-      </c>
-      <c r="AM25" s="7">
-        <v>111.2</v>
+        <v>145.9</v>
       </c>
       <c r="AX25" s="4" t="inlineStr">
         <is>
@@ -2721,12 +2574,12 @@
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D008</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D005</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
@@ -2736,7 +2589,7 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
@@ -2761,37 +2614,34 @@
         <v>100</v>
       </c>
       <c r="AC26" s="7">
-        <v>83.7</v>
+        <v>101.2</v>
       </c>
       <c r="AD26" s="7">
-        <v>95.2</v>
+        <v>97.5</v>
       </c>
       <c r="AE26" s="7">
-        <v>83.5</v>
+        <v>99.4</v>
       </c>
       <c r="AF26" s="7">
-        <v>80.8</v>
+        <v>100.1</v>
       </c>
       <c r="AG26" s="7">
-        <v>81.4</v>
+        <v>96.4</v>
       </c>
       <c r="AH26" s="7">
-        <v>80.3</v>
+        <v>103.7</v>
       </c>
       <c r="AI26" s="7">
-        <v>81.5</v>
+        <v>106.5</v>
       </c>
       <c r="AJ26" s="7">
-        <v>83.5</v>
+        <v>103.6</v>
       </c>
       <c r="AK26" s="7">
-        <v>99.1</v>
+        <v>101.5</v>
       </c>
       <c r="AL26" s="7">
-        <v>85.8</v>
-      </c>
-      <c r="AM26" s="7">
-        <v>99</v>
+        <v>105.2</v>
       </c>
       <c r="AX26" s="4" t="inlineStr">
         <is>
@@ -2802,12 +2652,12 @@
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D009</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D006</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -2817,7 +2667,7 @@
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -2842,34 +2692,37 @@
         <v>100</v>
       </c>
       <c r="AC27" s="7">
-        <v>95.1</v>
+        <v>97.4</v>
       </c>
       <c r="AD27" s="7">
-        <v>101.9</v>
+        <v>91.4</v>
       </c>
       <c r="AE27" s="7">
-        <v>98.3</v>
+        <v>95.9</v>
       </c>
       <c r="AF27" s="7">
-        <v>103.9</v>
+        <v>100.3</v>
       </c>
       <c r="AG27" s="7">
-        <v>104.6</v>
+        <v>99.9</v>
       </c>
       <c r="AH27" s="7">
-        <v>104.2</v>
+        <v>95.3</v>
       </c>
       <c r="AI27" s="7">
-        <v>102.1</v>
+        <v>97.4</v>
       </c>
       <c r="AJ27" s="7">
-        <v>106.1</v>
+        <v>98.5</v>
       </c>
       <c r="AK27" s="7">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AL27" s="7">
-        <v>89.3</v>
+        <v>115.1</v>
+      </c>
+      <c r="AM27" s="7">
+        <v>113.4</v>
       </c>
       <c r="AX27" s="4" t="inlineStr">
         <is>
@@ -2880,12 +2733,12 @@
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D010</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D007</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
@@ -2895,7 +2748,7 @@
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
@@ -2920,37 +2773,37 @@
         <v>100</v>
       </c>
       <c r="AC28" s="7">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="AD28" s="7">
-        <v>100.8</v>
+        <v>94.2</v>
       </c>
       <c r="AE28" s="7">
-        <v>91.8</v>
+        <v>100.9</v>
       </c>
       <c r="AF28" s="7">
-        <v>90.6</v>
+        <v>99.3</v>
       </c>
       <c r="AG28" s="7">
-        <v>91</v>
+        <v>103.8</v>
       </c>
       <c r="AH28" s="7">
-        <v>90.2</v>
+        <v>109.6</v>
       </c>
       <c r="AI28" s="7">
-        <v>89.5</v>
+        <v>108.8</v>
       </c>
       <c r="AJ28" s="7">
-        <v>89.5</v>
+        <v>110.7</v>
       </c>
       <c r="AK28" s="7">
-        <v>92.2</v>
+        <v>115</v>
       </c>
       <c r="AL28" s="7">
-        <v>91.1</v>
+        <v>116.1</v>
       </c>
       <c r="AM28" s="7">
-        <v>98.3</v>
+        <v>112.8</v>
       </c>
       <c r="AX28" s="4" t="inlineStr">
         <is>
@@ -2961,12 +2814,12 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D011</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D008</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -2976,7 +2829,7 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -3001,34 +2854,37 @@
         <v>100</v>
       </c>
       <c r="AC29" s="7">
-        <v>100.7</v>
+        <v>97.6</v>
       </c>
       <c r="AD29" s="7">
-        <v>105.7</v>
+        <v>98.4</v>
       </c>
       <c r="AE29" s="7">
-        <v>101.9</v>
+        <v>106.6</v>
       </c>
       <c r="AF29" s="7">
-        <v>100.6</v>
+        <v>104.5</v>
       </c>
       <c r="AG29" s="7">
-        <v>100.5</v>
+        <v>102.6</v>
       </c>
       <c r="AH29" s="7">
-        <v>102.5</v>
+        <v>106.3</v>
       </c>
       <c r="AI29" s="7">
-        <v>101.6</v>
+        <v>104.6</v>
       </c>
       <c r="AJ29" s="7">
-        <v>96.7</v>
+        <v>104.9</v>
       </c>
       <c r="AK29" s="7">
-        <v>94.3</v>
+        <v>110.4</v>
       </c>
       <c r="AL29" s="7">
-        <v>84.5</v>
+        <v>111.6</v>
+      </c>
+      <c r="AM29" s="7">
+        <v>102.7</v>
       </c>
       <c r="AX29" s="4" t="inlineStr">
         <is>
@@ -3039,12 +2895,12 @@
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D012</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D009</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
@@ -3054,7 +2910,7 @@
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
@@ -3079,37 +2935,28 @@
         <v>100</v>
       </c>
       <c r="AC30" s="7">
-        <v>92.7</v>
+        <v>99.9</v>
       </c>
       <c r="AD30" s="7">
-        <v>100.1</v>
+        <v>94.6</v>
       </c>
       <c r="AE30" s="7">
-        <v>94.5</v>
+        <v>104.5</v>
       </c>
       <c r="AF30" s="7">
-        <v>94.3</v>
+        <v>100.7</v>
       </c>
       <c r="AG30" s="7">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
       <c r="AH30" s="7">
-        <v>92.6</v>
+        <v>104.5</v>
       </c>
       <c r="AI30" s="7">
-        <v>95.1</v>
+        <v>104.8</v>
       </c>
       <c r="AJ30" s="7">
-        <v>96.3</v>
-      </c>
-      <c r="AK30" s="7">
-        <v>106</v>
-      </c>
-      <c r="AL30" s="7">
-        <v>95.6</v>
-      </c>
-      <c r="AM30" s="7">
-        <v>101.8</v>
+        <v>111.4</v>
       </c>
       <c r="AX30" s="4" t="inlineStr">
         <is>
@@ -3120,12 +2967,12 @@
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D013</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D010</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -3135,7 +2982,7 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -3160,25 +3007,37 @@
         <v>100</v>
       </c>
       <c r="AC31" s="7">
-        <v>82.9</v>
+        <v>99</v>
       </c>
       <c r="AD31" s="7">
-        <v>87.4</v>
+        <v>97.7</v>
       </c>
       <c r="AE31" s="7">
-        <v>91.7</v>
+        <v>108.1</v>
       </c>
       <c r="AF31" s="7">
-        <v>94.8</v>
+        <v>111.9</v>
       </c>
       <c r="AG31" s="7">
-        <v>99.3</v>
+        <v>109</v>
       </c>
       <c r="AH31" s="7">
-        <v>90.8</v>
+        <v>114.8</v>
       </c>
       <c r="AI31" s="7">
-        <v>87.7</v>
+        <v>114.9</v>
+      </c>
+      <c r="AJ31" s="7">
+        <v>120.1</v>
+      </c>
+      <c r="AK31" s="7">
+        <v>119.9</v>
+      </c>
+      <c r="AL31" s="7">
+        <v>122.3</v>
+      </c>
+      <c r="AM31" s="7">
+        <v>111.4</v>
       </c>
       <c r="AX31" s="4" t="inlineStr">
         <is>
@@ -3189,12 +3048,12 @@
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D014</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D011</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
@@ -3204,7 +3063,7 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
@@ -3229,34 +3088,34 @@
         <v>100</v>
       </c>
       <c r="AC32" s="7">
-        <v>99.5</v>
+        <v>106.8</v>
       </c>
       <c r="AD32" s="7">
-        <v>101.2</v>
+        <v>102.1</v>
       </c>
       <c r="AE32" s="7">
-        <v>96.7</v>
+        <v>111.6</v>
       </c>
       <c r="AF32" s="7">
-        <v>98.4</v>
+        <v>112.4</v>
       </c>
       <c r="AG32" s="7">
-        <v>101.5</v>
+        <v>111.9</v>
       </c>
       <c r="AH32" s="7">
-        <v>99.4</v>
+        <v>117.2</v>
       </c>
       <c r="AI32" s="7">
-        <v>97.7</v>
+        <v>118.9</v>
       </c>
       <c r="AJ32" s="7">
-        <v>100.5</v>
+        <v>110.8</v>
       </c>
       <c r="AK32" s="7">
-        <v>104.3</v>
+        <v>121.2</v>
       </c>
       <c r="AL32" s="7">
-        <v>101.9</v>
+        <v>107.7</v>
       </c>
       <c r="AX32" s="4" t="inlineStr">
         <is>
@@ -3267,12 +3126,12 @@
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D015</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D012</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -3282,7 +3141,7 @@
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -3307,37 +3166,37 @@
         <v>100</v>
       </c>
       <c r="AC33" s="7">
-        <v>99.1</v>
+        <v>99.4</v>
       </c>
       <c r="AD33" s="7">
-        <v>104.3</v>
+        <v>100</v>
       </c>
       <c r="AE33" s="7">
-        <v>102.3</v>
+        <v>110.2</v>
       </c>
       <c r="AF33" s="7">
-        <v>102.8</v>
+        <v>112.8</v>
       </c>
       <c r="AG33" s="7">
-        <v>97</v>
+        <v>109.3</v>
       </c>
       <c r="AH33" s="7">
-        <v>97</v>
+        <v>114.5</v>
       </c>
       <c r="AI33" s="7">
-        <v>100.2</v>
+        <v>115.4</v>
       </c>
       <c r="AJ33" s="7">
-        <v>103.2</v>
+        <v>114.1</v>
       </c>
       <c r="AK33" s="7">
-        <v>100.3</v>
+        <v>115.5</v>
       </c>
       <c r="AL33" s="7">
-        <v>103.8</v>
+        <v>113.1</v>
       </c>
       <c r="AM33" s="7">
-        <v>99.2</v>
+        <v>101.6</v>
       </c>
       <c r="AX33" s="4" t="inlineStr">
         <is>
@@ -3348,12 +3207,12 @@
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D016</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D013</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
@@ -3363,7 +3222,7 @@
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
@@ -3384,42 +3243,6 @@
       <c r="I34" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AB34" s="7">
-        <v>100</v>
-      </c>
-      <c r="AC34" s="7">
-        <v>97.2</v>
-      </c>
-      <c r="AD34" s="7">
-        <v>102.1</v>
-      </c>
-      <c r="AE34" s="7">
-        <v>97.3</v>
-      </c>
-      <c r="AF34" s="7">
-        <v>96.8</v>
-      </c>
-      <c r="AG34" s="7">
-        <v>100.2</v>
-      </c>
-      <c r="AH34" s="7">
-        <v>96.7</v>
-      </c>
-      <c r="AI34" s="7">
-        <v>93.9</v>
-      </c>
-      <c r="AJ34" s="7">
-        <v>95.9</v>
-      </c>
-      <c r="AK34" s="7">
-        <v>88.9</v>
-      </c>
-      <c r="AL34" s="7">
-        <v>95.5</v>
-      </c>
-      <c r="AM34" s="7">
-        <v>97.7</v>
-      </c>
       <c r="AX34" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
@@ -3429,12 +3252,12 @@
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01_D017</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D014</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -3444,7 +3267,7 @@
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -3465,6 +3288,39 @@
       <c r="I35" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AB35" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>94.8</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>105.3</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>101</v>
+      </c>
+      <c r="AG35" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="AH35" s="7">
+        <v>107.8</v>
+      </c>
+      <c r="AI35" s="7">
+        <v>108</v>
+      </c>
+      <c r="AJ35" s="7">
+        <v>106.5</v>
+      </c>
+      <c r="AK35" s="7">
+        <v>108.9</v>
+      </c>
+      <c r="AL35" s="7">
+        <v>115.5</v>
+      </c>
       <c r="AX35" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
@@ -3474,22 +3330,22 @@
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D001</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D015</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_LAENDER_ST</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
@@ -3504,78 +3360,63 @@
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I36" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>7.1</v>
-      </c>
-      <c r="Z36" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="AA36" s="7">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="7">
-        <v>10.1</v>
+        <v>100</v>
       </c>
       <c r="AC36" s="7">
-        <v>10.7</v>
+        <v>95.9</v>
       </c>
       <c r="AD36" s="7">
-        <v>11.4</v>
+        <v>92.2</v>
       </c>
       <c r="AE36" s="7">
-        <v>12.5</v>
+        <v>95.7</v>
       </c>
       <c r="AF36" s="7">
-        <v>13.6</v>
+        <v>94.7</v>
       </c>
       <c r="AG36" s="7">
-        <v>13.8</v>
+        <v>94.4</v>
       </c>
       <c r="AH36" s="7">
-        <v>14.3</v>
+        <v>99.4</v>
       </c>
       <c r="AI36" s="7">
-        <v>15.2</v>
+        <v>100</v>
       </c>
       <c r="AJ36" s="7">
-        <v>14.9</v>
+        <v>98.6</v>
       </c>
       <c r="AK36" s="7">
-        <v>16</v>
+        <v>102.6</v>
       </c>
       <c r="AL36" s="7">
-        <v>16.8</v>
+        <v>104.2</v>
       </c>
       <c r="AM36" s="7">
-        <v>17.7</v>
-      </c>
-      <c r="AN36" s="7">
-        <v>19.7</v>
-      </c>
-      <c r="AO36" s="7">
-        <v>19.2</v>
+        <v>106.4</v>
       </c>
       <c r="AX36" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D002</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D016</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -3585,7 +3426,7 @@
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t>A_LAENDER_SH</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -3600,72 +3441,63 @@
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I37" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y37" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="Z37" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="AA37" s="7">
-        <v>9.7</v>
-      </c>
       <c r="AB37" s="7">
-        <v>9.4</v>
+        <v>100</v>
       </c>
       <c r="AC37" s="7">
-        <v>9.9</v>
+        <v>99.6</v>
       </c>
       <c r="AD37" s="7">
-        <v>11.3</v>
+        <v>95.5</v>
       </c>
       <c r="AE37" s="7">
-        <v>11.4</v>
+        <v>103</v>
       </c>
       <c r="AF37" s="7">
-        <v>12.5</v>
+        <v>104.7</v>
       </c>
       <c r="AG37" s="7">
-        <v>12.6</v>
+        <v>100.9</v>
       </c>
       <c r="AH37" s="7">
-        <v>13.1</v>
+        <v>109</v>
       </c>
       <c r="AI37" s="7">
-        <v>13</v>
+        <v>108.4</v>
       </c>
       <c r="AJ37" s="7">
-        <v>13.4</v>
+        <v>110.1</v>
       </c>
       <c r="AK37" s="7">
-        <v>13.7</v>
+        <v>111.3</v>
       </c>
       <c r="AL37" s="7">
-        <v>15.6</v>
+        <v>115.4</v>
       </c>
       <c r="AM37" s="7">
-        <v>15.6</v>
+        <v>110.4</v>
       </c>
       <c r="AX37" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D003</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01_D017</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I01_Z01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
@@ -3675,7 +3507,7 @@
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t>A_LAENDER_TH</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
@@ -3690,82 +3522,70 @@
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y38" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="Z38" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="AA38" s="7">
-        <v>10.5</v>
-      </c>
       <c r="AB38" s="7">
-        <v>10.1</v>
+        <v>100</v>
       </c>
       <c r="AC38" s="7">
-        <v>10.8</v>
+        <v>100.4</v>
       </c>
       <c r="AD38" s="7">
-        <v>14.6</v>
+        <v>98.9</v>
       </c>
       <c r="AE38" s="7">
-        <v>15.5</v>
+        <v>109.8</v>
       </c>
       <c r="AF38" s="7">
-        <v>17.8</v>
+        <v>108.2</v>
       </c>
       <c r="AG38" s="7">
-        <v>18.3</v>
+        <v>107</v>
       </c>
       <c r="AH38" s="7">
-        <v>18.4</v>
+        <v>117.5</v>
       </c>
       <c r="AI38" s="7">
-        <v>19.1</v>
+        <v>116.3</v>
       </c>
       <c r="AJ38" s="7">
-        <v>19.8</v>
+        <v>114.3</v>
       </c>
       <c r="AK38" s="7">
-        <v>20.3</v>
+        <v>116.9</v>
       </c>
       <c r="AL38" s="7">
-        <v>21.2</v>
-      </c>
-      <c r="AM38" s="7">
-        <v>20.7</v>
+        <v>120.1</v>
       </c>
       <c r="AX38" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D004</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D001</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t/>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -3780,69 +3600,69 @@
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I39" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="Z39" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="AA39" s="7">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="7">
-        <v>1.6</v>
+        <v>100</v>
       </c>
       <c r="AC39" s="7">
-        <v>2.2</v>
+        <v>94.1</v>
       </c>
       <c r="AD39" s="7">
-        <v>2.8</v>
+        <v>98.9</v>
       </c>
       <c r="AE39" s="7">
-        <v>3.3</v>
+        <v>94.6</v>
       </c>
       <c r="AF39" s="7">
-        <v>3.4</v>
+        <v>93.5</v>
       </c>
       <c r="AG39" s="7">
-        <v>3.6</v>
+        <v>96.1</v>
       </c>
       <c r="AH39" s="7">
-        <v>3.4</v>
+        <v>91.7</v>
       </c>
       <c r="AI39" s="7">
-        <v>3.6</v>
+        <v>92.2</v>
       </c>
       <c r="AJ39" s="7">
-        <v>3.5</v>
+        <v>93.8</v>
       </c>
       <c r="AK39" s="7">
-        <v>3.7</v>
+        <v>94</v>
       </c>
       <c r="AL39" s="7">
-        <v>4.1</v>
+        <v>91.3</v>
+      </c>
+      <c r="AM39" s="7">
+        <v>89</v>
+      </c>
+      <c r="AN39" s="7">
+        <v>82.7</v>
+      </c>
+      <c r="AO39" s="7">
+        <v>84.8</v>
       </c>
       <c r="AX39" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D005</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D002</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -3852,7 +3672,7 @@
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
@@ -3867,69 +3687,63 @@
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I40" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y40" s="7">
-        <v>9.8</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>16.3</v>
-      </c>
-      <c r="AA40" s="7">
-        <v>21</v>
-      </c>
       <c r="AB40" s="7">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AC40" s="7">
-        <v>22.3</v>
+        <v>95.1</v>
       </c>
       <c r="AD40" s="7">
-        <v>23.6</v>
+        <v>95.2</v>
       </c>
       <c r="AE40" s="7">
-        <v>26.2</v>
+        <v>88.3</v>
       </c>
       <c r="AF40" s="7">
-        <v>22.2</v>
+        <v>85.7</v>
       </c>
       <c r="AG40" s="7">
-        <v>22.9</v>
+        <v>88.9</v>
       </c>
       <c r="AH40" s="7">
-        <v>23.7</v>
+        <v>85.4</v>
       </c>
       <c r="AI40" s="7">
-        <v>25.9</v>
+        <v>87.2</v>
       </c>
       <c r="AJ40" s="7">
-        <v>24.4</v>
+        <v>89.3</v>
       </c>
       <c r="AK40" s="7">
-        <v>27.2</v>
+        <v>92.3</v>
       </c>
       <c r="AL40" s="7">
-        <v>28</v>
+        <v>90.9</v>
+      </c>
+      <c r="AM40" s="7">
+        <v>98.1</v>
       </c>
       <c r="AX40" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D006</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D003</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -3939,7 +3753,7 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -3954,72 +3768,60 @@
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I41" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y41" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="Z41" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="AA41" s="7">
-        <v>2.7</v>
-      </c>
       <c r="AB41" s="7">
-        <v>2.7</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="7">
-        <v>2.9</v>
+        <v>98.3</v>
       </c>
       <c r="AD41" s="7">
-        <v>3.2</v>
+        <v>102</v>
       </c>
       <c r="AE41" s="7">
-        <v>3.5</v>
+        <v>99.9</v>
       </c>
       <c r="AF41" s="7">
-        <v>3.7</v>
+        <v>97.6</v>
       </c>
       <c r="AG41" s="7">
-        <v>4.3</v>
+        <v>98.2</v>
       </c>
       <c r="AH41" s="7">
-        <v>5.1</v>
+        <v>94.7</v>
       </c>
       <c r="AI41" s="7">
-        <v>4.6</v>
+        <v>94.8</v>
       </c>
       <c r="AJ41" s="7">
-        <v>4.2</v>
+        <v>95</v>
       </c>
       <c r="AK41" s="7">
-        <v>4.5</v>
+        <v>97.1</v>
       </c>
       <c r="AL41" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="AM41" s="7">
-        <v>5.4</v>
+        <v>88</v>
       </c>
       <c r="AX41" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D007</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D004</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
@@ -4029,7 +3831,7 @@
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
@@ -4044,69 +3846,60 @@
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I42" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y42" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="Z42" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="AA42" s="7">
-        <v>4.6</v>
-      </c>
       <c r="AB42" s="7">
-        <v>4.1</v>
+        <v>100</v>
       </c>
       <c r="AC42" s="7">
-        <v>4.6</v>
+        <v>98.7</v>
       </c>
       <c r="AD42" s="7">
-        <v>4.2</v>
+        <v>107.7</v>
       </c>
       <c r="AE42" s="7">
-        <v>4.5</v>
+        <v>96.2</v>
       </c>
       <c r="AF42" s="7">
-        <v>4.6</v>
+        <v>97.4</v>
       </c>
       <c r="AG42" s="7">
-        <v>4.5</v>
+        <v>100.9</v>
       </c>
       <c r="AH42" s="7">
-        <v>4.9</v>
+        <v>94.4</v>
       </c>
       <c r="AI42" s="7">
-        <v>4.9</v>
+        <v>91.9</v>
       </c>
       <c r="AJ42" s="7">
-        <v>4.7</v>
+        <v>94.5</v>
       </c>
       <c r="AK42" s="7">
-        <v>4.9</v>
+        <v>95.2</v>
       </c>
       <c r="AL42" s="7">
-        <v>5.6</v>
+        <v>86.1</v>
       </c>
       <c r="AX42" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D008</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D005</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -4116,7 +3909,7 @@
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -4131,72 +3924,60 @@
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I43" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y43" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="Z43" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="AA43" s="7">
-        <v>6.1</v>
-      </c>
       <c r="AB43" s="7">
-        <v>5.8</v>
+        <v>100</v>
       </c>
       <c r="AC43" s="7">
-        <v>6.3</v>
+        <v>96.3</v>
       </c>
       <c r="AD43" s="7">
-        <v>7.5</v>
+        <v>101.4</v>
       </c>
       <c r="AE43" s="7">
-        <v>8.1</v>
+        <v>104.9</v>
       </c>
       <c r="AF43" s="7">
-        <v>8.3</v>
+        <v>104.2</v>
       </c>
       <c r="AG43" s="7">
-        <v>8.7</v>
+        <v>102.7</v>
       </c>
       <c r="AH43" s="7">
-        <v>8.7</v>
+        <v>101.5</v>
       </c>
       <c r="AI43" s="7">
-        <v>9.5</v>
+        <v>102.2</v>
       </c>
       <c r="AJ43" s="7">
-        <v>9.6</v>
+        <v>102.8</v>
       </c>
       <c r="AK43" s="7">
-        <v>10.2</v>
+        <v>108.6</v>
       </c>
       <c r="AL43" s="7">
-        <v>11.5</v>
-      </c>
-      <c r="AM43" s="7">
-        <v>11.5</v>
+        <v>106.6</v>
       </c>
       <c r="AX43" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D009</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D006</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
@@ -4206,7 +3987,7 @@
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
@@ -4221,27 +4002,63 @@
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I44" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AB44" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC44" s="7">
+        <v>96.2</v>
+      </c>
+      <c r="AD44" s="7">
+        <v>105.8</v>
+      </c>
+      <c r="AE44" s="7">
+        <v>100.2</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>100.1</v>
+      </c>
+      <c r="AG44" s="7">
+        <v>99.2</v>
+      </c>
+      <c r="AH44" s="7">
+        <v>101.2</v>
+      </c>
+      <c r="AI44" s="7">
+        <v>99.7</v>
+      </c>
+      <c r="AJ44" s="7">
+        <v>100.2</v>
+      </c>
+      <c r="AK44" s="7">
+        <v>105.9</v>
+      </c>
+      <c r="AL44" s="7">
+        <v>90.9</v>
+      </c>
+      <c r="AM44" s="7">
+        <v>90.1</v>
+      </c>
       <c r="AX44" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D010</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D007</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -4251,7 +4068,7 @@
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
@@ -4266,66 +4083,63 @@
       </c>
       <c r="G45" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Z45" s="7">
-        <v>8.7</v>
-      </c>
       <c r="AB45" s="7">
-        <v>10.9</v>
+        <v>100</v>
       </c>
       <c r="AC45" s="7">
-        <v>11.4</v>
+        <v>98.7</v>
       </c>
       <c r="AD45" s="7">
-        <v>12.3</v>
+        <v>106.2</v>
       </c>
       <c r="AE45" s="7">
-        <v>13.8</v>
+        <v>99.5</v>
       </c>
       <c r="AF45" s="7">
-        <v>15.6</v>
+        <v>100</v>
       </c>
       <c r="AG45" s="7">
-        <v>15.6</v>
+        <v>99.2</v>
       </c>
       <c r="AH45" s="7">
-        <v>16.2</v>
+        <v>99.9</v>
       </c>
       <c r="AI45" s="7">
-        <v>18.5</v>
+        <v>107.1</v>
       </c>
       <c r="AJ45" s="7">
-        <v>18.6</v>
+        <v>110.2</v>
       </c>
       <c r="AK45" s="7">
-        <v>20.9</v>
+        <v>113</v>
       </c>
       <c r="AL45" s="7">
-        <v>22.3</v>
+        <v>109</v>
       </c>
       <c r="AM45" s="7">
-        <v>24.1</v>
+        <v>111.2</v>
       </c>
       <c r="AX45" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D011</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D008</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
@@ -4335,7 +4149,7 @@
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
@@ -4350,72 +4164,63 @@
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I46" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y46" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="Z46" s="7">
-        <v>4.1</v>
-      </c>
-      <c r="AA46" s="7">
-        <v>4.6</v>
-      </c>
       <c r="AB46" s="7">
-        <v>3.9</v>
+        <v>100</v>
       </c>
       <c r="AC46" s="7">
-        <v>4.9</v>
+        <v>83.7</v>
       </c>
       <c r="AD46" s="7">
-        <v>5</v>
+        <v>95.2</v>
       </c>
       <c r="AE46" s="7">
-        <v>5.3</v>
+        <v>83.5</v>
       </c>
       <c r="AF46" s="7">
-        <v>5.8</v>
+        <v>80.8</v>
       </c>
       <c r="AG46" s="7">
-        <v>5.8</v>
+        <v>81.4</v>
       </c>
       <c r="AH46" s="7">
-        <v>5.8</v>
+        <v>80.3</v>
       </c>
       <c r="AI46" s="7">
-        <v>6.3</v>
+        <v>81.5</v>
       </c>
       <c r="AJ46" s="7">
-        <v>6.4</v>
+        <v>83.5</v>
       </c>
       <c r="AK46" s="7">
-        <v>6.8</v>
+        <v>99.1</v>
       </c>
       <c r="AL46" s="7">
-        <v>7.3</v>
+        <v>85.8</v>
       </c>
       <c r="AM46" s="7">
-        <v>7.9</v>
+        <v>99</v>
       </c>
       <c r="AX46" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D012</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D009</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
@@ -4425,7 +4230,7 @@
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
@@ -4440,72 +4245,60 @@
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y47" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="Z47" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="AA47" s="7">
-        <v>9.2</v>
-      </c>
       <c r="AB47" s="7">
-        <v>8.7</v>
+        <v>100</v>
       </c>
       <c r="AC47" s="7">
-        <v>9.2</v>
+        <v>95.1</v>
       </c>
       <c r="AD47" s="7">
-        <v>10</v>
+        <v>101.9</v>
       </c>
       <c r="AE47" s="7">
-        <v>10.8</v>
+        <v>98.3</v>
       </c>
       <c r="AF47" s="7">
-        <v>12.3</v>
+        <v>103.9</v>
       </c>
       <c r="AG47" s="7">
-        <v>12.8</v>
+        <v>104.6</v>
       </c>
       <c r="AH47" s="7">
-        <v>13</v>
+        <v>104.2</v>
       </c>
       <c r="AI47" s="7">
-        <v>14.3</v>
+        <v>102.1</v>
       </c>
       <c r="AJ47" s="7">
-        <v>14.1</v>
+        <v>106.1</v>
       </c>
       <c r="AK47" s="7">
-        <v>14.7</v>
+        <v>98</v>
       </c>
       <c r="AL47" s="7">
-        <v>15.4</v>
-      </c>
-      <c r="AM47" s="7">
-        <v>16</v>
+        <v>89.3</v>
       </c>
       <c r="AX47" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D013</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D010</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
@@ -4515,7 +4308,7 @@
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
@@ -4530,60 +4323,63 @@
       </c>
       <c r="G48" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I48" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y48" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="Z48" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="AA48" s="7">
-        <v>2.7</v>
-      </c>
       <c r="AB48" s="7">
-        <v>2.4</v>
+        <v>100</v>
       </c>
       <c r="AC48" s="7">
-        <v>3</v>
+        <v>97.7</v>
       </c>
       <c r="AD48" s="7">
-        <v>3.4</v>
+        <v>100.8</v>
       </c>
       <c r="AE48" s="7">
-        <v>3.3</v>
+        <v>91.8</v>
       </c>
       <c r="AF48" s="7">
-        <v>3.3</v>
+        <v>90.6</v>
       </c>
       <c r="AG48" s="7">
-        <v>3.7</v>
+        <v>91</v>
       </c>
       <c r="AH48" s="7">
-        <v>3.9</v>
+        <v>90.2</v>
       </c>
       <c r="AI48" s="7">
-        <v>4.4</v>
+        <v>89.5</v>
+      </c>
+      <c r="AJ48" s="7">
+        <v>89.5</v>
+      </c>
+      <c r="AK48" s="7">
+        <v>92.2</v>
+      </c>
+      <c r="AL48" s="7">
+        <v>91.1</v>
+      </c>
+      <c r="AM48" s="7">
+        <v>98.3</v>
       </c>
       <c r="AX48" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D014</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D011</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -4593,7 +4389,7 @@
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
@@ -4608,72 +4404,60 @@
       </c>
       <c r="G49" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I49" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y49" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="Z49" s="7">
-        <v>6.6</v>
-      </c>
-      <c r="AA49" s="7">
-        <v>7.9</v>
-      </c>
       <c r="AB49" s="7">
-        <v>7.6</v>
+        <v>100</v>
       </c>
       <c r="AC49" s="7">
-        <v>8.1</v>
+        <v>100.7</v>
       </c>
       <c r="AD49" s="7">
-        <v>9</v>
+        <v>105.7</v>
       </c>
       <c r="AE49" s="7">
-        <v>10</v>
+        <v>101.9</v>
       </c>
       <c r="AF49" s="7">
-        <v>10.2</v>
+        <v>100.6</v>
       </c>
       <c r="AG49" s="7">
-        <v>10.6</v>
+        <v>100.5</v>
       </c>
       <c r="AH49" s="7">
-        <v>11.1</v>
+        <v>102.5</v>
       </c>
       <c r="AI49" s="7">
-        <v>12</v>
+        <v>101.6</v>
       </c>
       <c r="AJ49" s="7">
-        <v>11.7</v>
+        <v>96.7</v>
       </c>
       <c r="AK49" s="7">
-        <v>12</v>
+        <v>94.3</v>
       </c>
       <c r="AL49" s="7">
-        <v>12.1</v>
-      </c>
-      <c r="AM49" s="7">
-        <v>12.6</v>
+        <v>84.5</v>
       </c>
       <c r="AX49" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D015</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D012</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
@@ -4683,7 +4467,7 @@
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
@@ -4698,72 +4482,63 @@
       </c>
       <c r="G50" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I50" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y50" s="7">
-        <v>7.9</v>
-      </c>
-      <c r="Z50" s="7">
-        <v>12.4</v>
-      </c>
-      <c r="AA50" s="7">
-        <v>16.3</v>
-      </c>
       <c r="AB50" s="7">
-        <v>16.8</v>
+        <v>100</v>
       </c>
       <c r="AC50" s="7">
-        <v>17.8</v>
+        <v>92.7</v>
       </c>
       <c r="AD50" s="7">
-        <v>18.2</v>
+        <v>100.1</v>
       </c>
       <c r="AE50" s="7">
-        <v>20.6</v>
+        <v>94.5</v>
       </c>
       <c r="AF50" s="7">
-        <v>20.8</v>
+        <v>94.3</v>
       </c>
       <c r="AG50" s="7">
-        <v>21.9</v>
+        <v>97.8</v>
       </c>
       <c r="AH50" s="7">
-        <v>22.9</v>
+        <v>92.6</v>
       </c>
       <c r="AI50" s="7">
-        <v>25.7</v>
+        <v>95.1</v>
       </c>
       <c r="AJ50" s="7">
-        <v>23.4</v>
+        <v>96.3</v>
       </c>
       <c r="AK50" s="7">
-        <v>26.3</v>
+        <v>106</v>
       </c>
       <c r="AL50" s="7">
-        <v>25.2</v>
+        <v>95.6</v>
       </c>
       <c r="AM50" s="7">
-        <v>26</v>
+        <v>101.8</v>
       </c>
       <c r="AX50" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D016</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D013</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -4773,7 +4548,7 @@
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -4788,72 +4563,51 @@
       </c>
       <c r="G51" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I51" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y51" s="7">
-        <v>9.3</v>
-      </c>
-      <c r="Z51" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="AA51" s="7">
-        <v>14</v>
-      </c>
       <c r="AB51" s="7">
-        <v>14.4</v>
+        <v>100</v>
       </c>
       <c r="AC51" s="7">
-        <v>15.1</v>
+        <v>82.9</v>
       </c>
       <c r="AD51" s="7">
-        <v>17.2</v>
+        <v>87.4</v>
       </c>
       <c r="AE51" s="7">
-        <v>19.8</v>
+        <v>91.7</v>
       </c>
       <c r="AF51" s="7">
-        <v>21.8</v>
+        <v>94.8</v>
       </c>
       <c r="AG51" s="7">
-        <v>21.3</v>
+        <v>99.3</v>
       </c>
       <c r="AH51" s="7">
-        <v>24</v>
+        <v>90.8</v>
       </c>
       <c r="AI51" s="7">
-        <v>31.7</v>
-      </c>
-      <c r="AJ51" s="7">
-        <v>33.1</v>
-      </c>
-      <c r="AK51" s="7">
-        <v>37.1</v>
-      </c>
-      <c r="AL51" s="7">
-        <v>37.9</v>
-      </c>
-      <c r="AM51" s="7">
-        <v>7.8</v>
+        <v>87.7</v>
       </c>
       <c r="AX51" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01</t>
+          <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01_D017</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D014</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
@@ -4863,7 +4617,7 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
@@ -4878,57 +4632,2748 @@
       </c>
       <c r="G52" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2008</t>
         </is>
       </c>
       <c r="I52" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Y52" s="7">
+      <c r="AB52" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>99.5</v>
+      </c>
+      <c r="AD52" s="7">
+        <v>101.2</v>
+      </c>
+      <c r="AE52" s="7">
+        <v>96.7</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>98.4</v>
+      </c>
+      <c r="AG52" s="7">
+        <v>101.5</v>
+      </c>
+      <c r="AH52" s="7">
+        <v>99.4</v>
+      </c>
+      <c r="AI52" s="7">
+        <v>97.7</v>
+      </c>
+      <c r="AJ52" s="7">
+        <v>100.5</v>
+      </c>
+      <c r="AK52" s="7">
+        <v>104.3</v>
+      </c>
+      <c r="AL52" s="7">
+        <v>101.9</v>
+      </c>
+      <c r="AX52" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D015</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_ST</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>E_IDX2008</t>
+        </is>
+      </c>
+      <c r="I53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC53" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="AD53" s="7">
+        <v>104.3</v>
+      </c>
+      <c r="AE53" s="7">
+        <v>102.3</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>102.8</v>
+      </c>
+      <c r="AG53" s="7">
+        <v>97</v>
+      </c>
+      <c r="AH53" s="7">
+        <v>97</v>
+      </c>
+      <c r="AI53" s="7">
+        <v>100.2</v>
+      </c>
+      <c r="AJ53" s="7">
+        <v>103.2</v>
+      </c>
+      <c r="AK53" s="7">
+        <v>100.3</v>
+      </c>
+      <c r="AL53" s="7">
+        <v>103.8</v>
+      </c>
+      <c r="AM53" s="7">
+        <v>99.2</v>
+      </c>
+      <c r="AX53" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D016</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_SH</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>E_IDX2008</t>
+        </is>
+      </c>
+      <c r="I54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="AD54" s="7">
+        <v>102.1</v>
+      </c>
+      <c r="AE54" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="AF54" s="7">
+        <v>96.8</v>
+      </c>
+      <c r="AG54" s="7">
+        <v>100.2</v>
+      </c>
+      <c r="AH54" s="7">
+        <v>96.7</v>
+      </c>
+      <c r="AI54" s="7">
+        <v>93.9</v>
+      </c>
+      <c r="AJ54" s="7">
+        <v>95.9</v>
+      </c>
+      <c r="AK54" s="7">
+        <v>88.9</v>
+      </c>
+      <c r="AL54" s="7">
+        <v>95.5</v>
+      </c>
+      <c r="AM54" s="7">
+        <v>97.7</v>
+      </c>
+      <c r="AX54" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01_D017</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_TH</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>E_IDX2008</t>
+        </is>
+      </c>
+      <c r="I55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D001</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="AB56" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="AC56" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="AD56" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="AE56" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AF56" s="7">
+        <v>13.6</v>
+      </c>
+      <c r="AG56" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="AH56" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="AI56" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="AJ56" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="AK56" s="7">
+        <v>16</v>
+      </c>
+      <c r="AL56" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="AM56" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="AN56" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="AO56" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="AX56" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D002</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_BW</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>9.7</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="AC57" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="AD57" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="AE57" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="AF57" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AG57" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="AH57" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="AI57" s="7">
+        <v>13</v>
+      </c>
+      <c r="AJ57" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="AK57" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="AL57" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="AM57" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="AX57" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D003</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_BY</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G58" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AB58" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="AC58" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AD58" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="AE58" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="AF58" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="AG58" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="AH58" s="7">
+        <v>18.4</v>
+      </c>
+      <c r="AI58" s="7">
+        <v>19.1</v>
+      </c>
+      <c r="AJ58" s="7">
+        <v>19.8</v>
+      </c>
+      <c r="AK58" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="AL58" s="7">
+        <v>21.2</v>
+      </c>
+      <c r="AM58" s="7">
+        <v>20.7</v>
+      </c>
+      <c r="AX58" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D004</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_BE</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I59" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>2.3</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="AD59" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AE59" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AF59" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AG59" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AH59" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AI59" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AJ59" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AK59" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AL59" s="7">
+        <v>4.1</v>
+      </c>
+      <c r="AX59" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D005</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_BB</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>9.8</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>16.3</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>21</v>
+      </c>
+      <c r="AB60" s="7">
+        <v>21</v>
+      </c>
+      <c r="AC60" s="7">
+        <v>22.3</v>
+      </c>
+      <c r="AD60" s="7">
+        <v>23.6</v>
+      </c>
+      <c r="AE60" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="AF60" s="7">
+        <v>22.2</v>
+      </c>
+      <c r="AG60" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="AH60" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="AI60" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="AJ60" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="AK60" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="AL60" s="7">
+        <v>28</v>
+      </c>
+      <c r="AX60" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D006</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_HB</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I61" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AC61" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="AD61" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AE61" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="AF61" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AG61" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AH61" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="AI61" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="AJ61" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AK61" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AL61" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AM61" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="AX61" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D007</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_HH</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>2.3</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="AB62" s="7">
+        <v>4.1</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="AD62" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AE62" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AF62" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="AG62" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AH62" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="AI62" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="AJ62" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AK62" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="AL62" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AX62" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D008</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_HE</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AC63" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="AD63" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="AE63" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AF63" s="7">
+        <v>8.3</v>
+      </c>
+      <c r="AG63" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="AH63" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="AI63" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="AJ63" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="AK63" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="AL63" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AM63" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AX63" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D009</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_MV</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D010</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_NI</t>
+        </is>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="AC65" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="AD65" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="AE65" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="AF65" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="AG65" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="AH65" s="7">
+        <v>16.2</v>
+      </c>
+      <c r="AI65" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="AJ65" s="7">
+        <v>18.6</v>
+      </c>
+      <c r="AK65" s="7">
+        <v>20.9</v>
+      </c>
+      <c r="AL65" s="7">
+        <v>22.3</v>
+      </c>
+      <c r="AM65" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="AX65" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D011</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_NW</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I66" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="Z66" s="7">
+        <v>4.1</v>
+      </c>
+      <c r="AA66" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="AB66" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AC66" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="AD66" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE66" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AF66" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AG66" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AH66" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AI66" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="AJ66" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="AK66" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AL66" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="AM66" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="AX66" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D012</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_RP</t>
+        </is>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G67" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="Z67" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="AA67" s="7">
+        <v>9.2</v>
+      </c>
+      <c r="AB67" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="AC67" s="7">
+        <v>9.2</v>
+      </c>
+      <c r="AD67" s="7">
+        <v>10</v>
+      </c>
+      <c r="AE67" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AF67" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="AG67" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="AH67" s="7">
+        <v>13</v>
+      </c>
+      <c r="AI67" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="AJ67" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="AK67" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="AL67" s="7">
+        <v>15.4</v>
+      </c>
+      <c r="AM67" s="7">
+        <v>16</v>
+      </c>
+      <c r="AX67" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D013</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_SL</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="AA68" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AB68" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="AC68" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD68" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AE68" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AF68" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AG68" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AH68" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AI68" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="AX68" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D014</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_SN</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G69" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I69" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="AA69" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="AB69" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="AC69" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AD69" s="7">
+        <v>9</v>
+      </c>
+      <c r="AE69" s="7">
+        <v>10</v>
+      </c>
+      <c r="AF69" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="AG69" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="AH69" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="AI69" s="7">
+        <v>12</v>
+      </c>
+      <c r="AJ69" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="AK69" s="7">
+        <v>12</v>
+      </c>
+      <c r="AL69" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="AM69" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="AX69" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D015</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_ST</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I70" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="Z70" s="7">
         <v>12.4</v>
       </c>
-      <c r="Z52" s="7">
+      <c r="AA70" s="7">
+        <v>16.3</v>
+      </c>
+      <c r="AB70" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="AC70" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="AD70" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="AE70" s="7">
+        <v>20.6</v>
+      </c>
+      <c r="AF70" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="AG70" s="7">
+        <v>21.9</v>
+      </c>
+      <c r="AH70" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="AI70" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="AJ70" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="AK70" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="AL70" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="AM70" s="7">
+        <v>26</v>
+      </c>
+      <c r="AX70" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D016</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_SH</t>
+        </is>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G71" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="7">
+        <v>9.3</v>
+      </c>
+      <c r="Z71" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AA71" s="7">
+        <v>14</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="AC71" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="AD71" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="AE71" s="7">
+        <v>19.8</v>
+      </c>
+      <c r="AF71" s="7">
+        <v>21.8</v>
+      </c>
+      <c r="AG71" s="7">
+        <v>21.3</v>
+      </c>
+      <c r="AH71" s="7">
+        <v>24</v>
+      </c>
+      <c r="AI71" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="AJ71" s="7">
+        <v>33.1</v>
+      </c>
+      <c r="AK71" s="7">
+        <v>37.1</v>
+      </c>
+      <c r="AL71" s="7">
+        <v>37.9</v>
+      </c>
+      <c r="AM71" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="AX71" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01_D017</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_TH</t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I72" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="Z72" s="7">
         <v>13.7</v>
       </c>
-      <c r="AA52" s="7">
+      <c r="AA72" s="7">
         <v>16.7</v>
       </c>
-      <c r="AB52" s="7">
+      <c r="AB72" s="7">
         <v>15.4</v>
       </c>
-      <c r="AC52" s="7">
+      <c r="AC72" s="7">
         <v>15</v>
       </c>
-      <c r="AD52" s="7">
+      <c r="AD72" s="7">
         <v>16.5</v>
       </c>
-      <c r="AE52" s="7">
+      <c r="AE72" s="7">
         <v>17.1</v>
       </c>
-      <c r="AF52" s="7">
+      <c r="AF72" s="7">
         <v>16.9</v>
       </c>
-      <c r="AG52" s="7">
+      <c r="AG72" s="7">
         <v>18</v>
       </c>
-      <c r="AH52" s="7">
+      <c r="AH72" s="7">
         <v>18.7</v>
       </c>
-      <c r="AI52" s="7">
+      <c r="AI72" s="7">
         <v>19.8</v>
       </c>
-      <c r="AJ52" s="7">
+      <c r="AJ72" s="7">
         <v>20.5</v>
       </c>
-      <c r="AK52" s="7">
+      <c r="AK72" s="7">
         <v>22.4</v>
       </c>
-      <c r="AL52" s="7">
+      <c r="AL72" s="7">
         <v>21.1</v>
       </c>
-      <c r="AX52" s="4" t="inlineStr">
+      <c r="AX72" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D001</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E73" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G73" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="AE73" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="AF73" s="7">
+        <v>19.8</v>
+      </c>
+      <c r="AG73" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="AH73" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="AI73" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="AJ73" s="7">
+        <v>16</v>
+      </c>
+      <c r="AK73" s="7">
+        <v>14</v>
+      </c>
+      <c r="AL73" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="AM73" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AN73" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="AX73" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D002</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_F</t>
+        </is>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="7">
+        <v>18.4</v>
+      </c>
+      <c r="AE74" s="7">
+        <v>19.1</v>
+      </c>
+      <c r="AF74" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="AG74" s="7">
+        <v>20.1</v>
+      </c>
+      <c r="AH74" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="AI74" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="AJ74" s="7">
+        <v>16.9</v>
+      </c>
+      <c r="AK74" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="AL74" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="AM74" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="AN74" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="AX74" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D003</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G75" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="AE75" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="AF75" s="7">
+        <v>19.1</v>
+      </c>
+      <c r="AG75" s="7">
+        <v>18.9</v>
+      </c>
+      <c r="AH75" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="AI75" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="AJ75" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="AK75" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="AL75" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="AM75" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AN75" s="7">
+        <v>12</v>
+      </c>
+      <c r="AX75" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D004</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I76" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="AE76" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AF76" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="AG76" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="AH76" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="AI76" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="AJ76" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="AK76" s="7">
+        <v>8.3</v>
+      </c>
+      <c r="AL76" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="AM76" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AN76" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="AX76" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D005</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_F</t>
+        </is>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G77" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AE77" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="AF77" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="AG77" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AH77" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="AI77" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="AJ77" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AK77" s="7">
+        <v>9</v>
+      </c>
+      <c r="AL77" s="7">
+        <v>8.2</v>
+      </c>
+      <c r="AM77" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="AN77" s="7">
+        <v>9.3</v>
+      </c>
+      <c r="AX77" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D006</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="AE78" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AF78" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AG78" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="AH78" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="AI78" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="AJ78" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="AK78" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="AL78" s="7">
+        <v>7</v>
+      </c>
+      <c r="AM78" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="AN78" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="AX78" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D007</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E79" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G79" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I79" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="AE79" s="7">
+        <v>8.8</v>
+      </c>
+      <c r="AF79" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="AG79" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="AH79" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="AI79" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AJ79" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="AK79" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="AL79" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="AM79" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AN79" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="AX79" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D008</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_F</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G80" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="AF80" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="AG80" s="7">
+        <v>9.8</v>
+      </c>
+      <c r="AH80" s="7">
+        <v>9</v>
+      </c>
+      <c r="AI80" s="7">
+        <v>8.2</v>
+      </c>
+      <c r="AJ80" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="AK80" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AL80" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="AM80" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AN80" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="AX80" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D009</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="E81" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G81" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="AF81" s="7">
+        <v>9.7</v>
+      </c>
+      <c r="AG81" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="AH81" s="7">
+        <v>8.8</v>
+      </c>
+      <c r="AI81" s="7">
+        <v>8</v>
+      </c>
+      <c r="AJ81" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="AK81" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="AL81" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="AM81" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="AN81" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AX81" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D010</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G82" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I82" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AE82" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AF82" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="AG82" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="AH82" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI82" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="AJ82" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AK82" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AL82" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AM82" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="AN82" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AX82" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D011</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_F</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="AF83" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AG83" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AH83" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="AI83" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="AJ83" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK83" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AL83" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AM83" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AN83" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="AX83" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D012</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="E84" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G84" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF84" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AG84" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AH84" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="AI84" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AJ84" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AK84" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="AL84" s="7">
+        <v>3</v>
+      </c>
+      <c r="AM84" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="AN84" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AX84" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_Z01_D001</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G85" s="4" t="inlineStr">
+        <is>
+          <t>E_KGPHA</t>
+        </is>
+      </c>
+      <c r="I85" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7">
+        <v>115.3</v>
+      </c>
+      <c r="U85" s="7">
+        <v>101.7</v>
+      </c>
+      <c r="V85" s="7">
+        <v>105.8</v>
+      </c>
+      <c r="W85" s="7">
+        <v>105.4</v>
+      </c>
+      <c r="X85" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="Y85" s="7">
+        <v>102.4</v>
+      </c>
+      <c r="Z85" s="7">
+        <v>105.7</v>
+      </c>
+      <c r="AA85" s="7">
+        <v>100.4</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>103.2</v>
+      </c>
+      <c r="AC85" s="7">
+        <v>83.7</v>
+      </c>
+      <c r="AD85" s="7">
+        <v>90.3</v>
+      </c>
+      <c r="AE85" s="7">
+        <v>106.2</v>
+      </c>
+      <c r="AF85" s="7">
+        <v>91</v>
+      </c>
+      <c r="AG85" s="7">
+        <v>93.6</v>
+      </c>
+      <c r="AH85" s="7">
+        <v>84.8</v>
+      </c>
+      <c r="AI85" s="7">
+        <v>102.1</v>
+      </c>
+      <c r="AJ85" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="AK85" s="7">
+        <v>90</v>
+      </c>
+      <c r="AL85" s="7">
+        <v>87.9</v>
+      </c>
+      <c r="AM85" s="7">
+        <v>78.7</v>
+      </c>
+      <c r="AN85" s="7">
+        <v>79.7</v>
+      </c>
+      <c r="AX85" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01</t>
         </is>
       </c>
     </row>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -3295,12 +3295,12 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t/>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t/>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -3430,22 +3430,22 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t/>
         </is>
       </c>
       <c r="G36" s="4" t="inlineStr">
@@ -3565,22 +3565,22 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t/>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
@@ -3700,22 +3700,22 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t/>
         </is>
       </c>
       <c r="G38" s="4" t="inlineStr">
@@ -3835,22 +3835,22 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t/>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
@@ -3970,22 +3970,22 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t/>
         </is>
       </c>
       <c r="G40" s="4" t="inlineStr">
@@ -4105,22 +4105,22 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t/>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
@@ -4240,22 +4240,22 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t/>
         </is>
       </c>
       <c r="G42" s="4" t="inlineStr">
@@ -4375,22 +4375,22 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t/>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -4510,22 +4510,22 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t/>
         </is>
       </c>
       <c r="G44" s="4" t="inlineStr">
@@ -4645,22 +4645,22 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t/>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
@@ -4780,22 +4780,22 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t/>
         </is>
       </c>
       <c r="G46" s="4" t="inlineStr">
@@ -4915,22 +4915,22 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t/>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
@@ -5050,22 +5050,22 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t/>
         </is>
       </c>
       <c r="G48" s="4" t="inlineStr">
@@ -5185,22 +5185,22 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_ST</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t/>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
@@ -5320,22 +5320,22 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_SH</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t/>
         </is>
       </c>
       <c r="G50" s="4" t="inlineStr">
@@ -5455,22 +5455,22 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_LAENDER_TH</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t/>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t/>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t/>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
@@ -5725,22 +5725,22 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_BW</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BW</t>
+          <t/>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_BY</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BY</t>
+          <t/>
         </is>
       </c>
       <c r="G54" s="4" t="inlineStr">
@@ -5995,22 +5995,22 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_BE</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BE</t>
+          <t/>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
@@ -6130,22 +6130,22 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_BB</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_BB</t>
+          <t/>
         </is>
       </c>
       <c r="G56" s="4" t="inlineStr">
@@ -6265,22 +6265,22 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_HB</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HB</t>
+          <t/>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
@@ -6400,22 +6400,22 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_HH</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HH</t>
+          <t/>
         </is>
       </c>
       <c r="G58" s="4" t="inlineStr">
@@ -6535,22 +6535,22 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_HE</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_HE</t>
+          <t/>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
@@ -6670,22 +6670,22 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_MV</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_MV</t>
+          <t/>
         </is>
       </c>
       <c r="G60" s="4" t="inlineStr">
@@ -6805,22 +6805,22 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_NI</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NI</t>
+          <t/>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
@@ -6940,22 +6940,22 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_NW</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_NW</t>
+          <t/>
         </is>
       </c>
       <c r="G62" s="4" t="inlineStr">
@@ -7075,22 +7075,22 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_RP</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_RP</t>
+          <t/>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
@@ -7210,22 +7210,22 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_SL</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SL</t>
+          <t/>
         </is>
       </c>
       <c r="G64" s="4" t="inlineStr">
@@ -7345,22 +7345,22 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_SN</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SN</t>
+          <t/>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
@@ -7480,22 +7480,22 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_ST</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_ST</t>
+          <t/>
         </is>
       </c>
       <c r="G66" s="4" t="inlineStr">
@@ -7615,22 +7615,22 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_SH</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_SH</t>
+          <t/>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
@@ -7750,22 +7750,22 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_LAENDER</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_LAENDER_TH</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>K_LAENDER</t>
+          <t/>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>A_LAENDER_TH</t>
+          <t/>
         </is>
       </c>
       <c r="G68" s="4" t="inlineStr">

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP232"/>
+  <dimension ref="A1:CP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -35361,12 +35361,12 @@
     <row outlineLevel="0" r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01_D001</t>
+          <t>Z11_B01_P01_Ib03_I01_D001</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
@@ -35401,7 +35401,7 @@
       </c>
       <c r="I167" s="4" t="inlineStr">
         <is>
-          <t>E_QMPA</t>
+          <t>E_IDX2000</t>
         </is>
       </c>
       <c r="K167" s="6" t="b">
@@ -35413,62 +35413,74 @@
       <c r="M167" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="X167" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y167" s="7">
+        <v>99.177</v>
+      </c>
+      <c r="Z167" s="7">
+        <v>98.269</v>
+      </c>
+      <c r="AA167" s="7">
+        <v>97.261</v>
+      </c>
       <c r="AB167" s="7">
-        <v>-5.156</v>
+        <v>96.24</v>
       </c>
       <c r="AC167" s="7">
-        <v>-5.03</v>
+        <v>95.29</v>
       </c>
       <c r="AD167" s="7">
-        <v>-4.908</v>
+        <v>94.287</v>
       </c>
       <c r="AE167" s="7">
-        <v>-4.789</v>
+        <v>93.328</v>
       </c>
       <c r="AF167" s="7">
-        <v>-4.67</v>
+        <v>92.246</v>
       </c>
       <c r="AG167" s="7">
-        <v>-4.389</v>
+        <v>91.382</v>
       </c>
       <c r="AH167" s="7">
-        <v>-4.095</v>
+        <v>90.705</v>
       </c>
       <c r="AI167" s="7">
-        <v>-4.268</v>
+        <v>90.013</v>
       </c>
       <c r="AJ167" s="7">
-        <v>-3.83</v>
+        <v>89.792</v>
       </c>
       <c r="AK167" s="7">
-        <v>-3.657</v>
+        <v>89.64</v>
       </c>
       <c r="AL167" s="7">
-        <v>-3.704</v>
+        <v>89.571</v>
       </c>
       <c r="AM167" s="7">
-        <v>-2.891</v>
+        <v>90.332</v>
       </c>
       <c r="AN167" s="7">
-        <v>-2.731</v>
+        <v>90.365</v>
       </c>
       <c r="AO167" s="7">
-        <v>-2.78</v>
+        <v>90.203</v>
       </c>
       <c r="AP167" s="7">
-        <v>-2.809</v>
+        <v>89.88</v>
       </c>
       <c r="AQ167" s="7">
-        <v>-2.775</v>
+        <v>89.744</v>
       </c>
       <c r="AR167" s="7">
-        <v>-2.842</v>
+        <v>89.351</v>
       </c>
       <c r="AS167" s="7">
-        <v>-2.715</v>
+        <v>89.066</v>
       </c>
       <c r="AT167" s="7">
-        <v>-2.239</v>
+        <v>89.986</v>
       </c>
       <c r="BC167" s="4" t="inlineStr">
         <is>
@@ -35572,19 +35584,19 @@
       </c>
       <c r="CP167" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01_D002</t>
+          <t>Z11_B01_P01_Ib03_I01_D002</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="C168" s="4" t="inlineStr">
@@ -35619,7 +35631,7 @@
       </c>
       <c r="I168" s="4" t="inlineStr">
         <is>
-          <t>E_QMPA</t>
+          <t>E_IDX2000</t>
         </is>
       </c>
       <c r="K168" s="6" t="b">
@@ -35631,62 +35643,74 @@
       <c r="M168" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="X168" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y168" s="7">
+        <v>99.601</v>
+      </c>
+      <c r="Z168" s="7">
+        <v>99.098</v>
+      </c>
+      <c r="AA168" s="7">
+        <v>98.523</v>
+      </c>
       <c r="AB168" s="7">
-        <v>-1.828</v>
+        <v>97.906</v>
       </c>
       <c r="AC168" s="7">
-        <v>-1.794</v>
+        <v>97.438</v>
       </c>
       <c r="AD168" s="7">
-        <v>-1.762</v>
+        <v>96.994</v>
       </c>
       <c r="AE168" s="7">
-        <v>-1.729</v>
+        <v>96.568</v>
       </c>
       <c r="AF168" s="7">
-        <v>-1.696</v>
+        <v>95.999</v>
       </c>
       <c r="AG168" s="7">
-        <v>-1.573</v>
+        <v>95.565</v>
       </c>
       <c r="AH168" s="7">
-        <v>-1.499</v>
+        <v>95.343</v>
       </c>
       <c r="AI168" s="7">
-        <v>-1.411</v>
+        <v>94.924</v>
       </c>
       <c r="AJ168" s="7">
-        <v>-1.243</v>
+        <v>95.28</v>
       </c>
       <c r="AK168" s="7">
-        <v>-1.191</v>
+        <v>95.617</v>
       </c>
       <c r="AL168" s="7">
-        <v>-1.056</v>
+        <v>96.139</v>
       </c>
       <c r="AM168" s="7">
-        <v>-0.96</v>
+        <v>97.237</v>
       </c>
       <c r="AN168" s="7">
-        <v>-0.651</v>
+        <v>97.983</v>
       </c>
       <c r="AO168" s="7">
-        <v>-0.647</v>
+        <v>98.154</v>
       </c>
       <c r="AP168" s="7">
-        <v>-0.577</v>
+        <v>98.38</v>
       </c>
       <c r="AQ168" s="7">
-        <v>-0.482</v>
+        <v>98.465</v>
       </c>
       <c r="AR168" s="7">
-        <v>-0.654</v>
+        <v>98.182</v>
       </c>
       <c r="AS168" s="7">
-        <v>-0.54</v>
+        <v>98.01</v>
       </c>
       <c r="AT168" s="7">
-        <v>-0.508</v>
+        <v>99.275</v>
       </c>
       <c r="BC168" s="4" t="inlineStr">
         <is>
@@ -35790,19 +35814,19 @@
       </c>
       <c r="CP168" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01_D003</t>
+          <t>Z11_B01_P01_Ib03_I01_D003</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02_I01</t>
+          <t>Z11_B01_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
@@ -35837,7 +35861,7 @@
       </c>
       <c r="I169" s="4" t="inlineStr">
         <is>
-          <t>E_QMPA</t>
+          <t>E_IDX2000</t>
         </is>
       </c>
       <c r="K169" s="6" t="b">
@@ -35849,62 +35873,74 @@
       <c r="M169" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="X169" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y169" s="7">
+        <v>99.014</v>
+      </c>
+      <c r="Z169" s="7">
+        <v>97.954</v>
+      </c>
+      <c r="AA169" s="7">
+        <v>96.77</v>
+      </c>
       <c r="AB169" s="7">
-        <v>-7.528</v>
+        <v>95.592</v>
       </c>
       <c r="AC169" s="7">
-        <v>-7.34</v>
+        <v>94.407</v>
       </c>
       <c r="AD169" s="7">
-        <v>-7.159</v>
+        <v>93.113</v>
       </c>
       <c r="AE169" s="7">
-        <v>-6.986</v>
+        <v>91.882</v>
       </c>
       <c r="AF169" s="7">
-        <v>-6.816</v>
+        <v>90.54</v>
       </c>
       <c r="AG169" s="7">
-        <v>-6.431</v>
+        <v>89.455</v>
       </c>
       <c r="AH169" s="7">
-        <v>-5.986</v>
+        <v>88.513</v>
       </c>
       <c r="AI169" s="7">
-        <v>-6.364</v>
+        <v>87.811</v>
       </c>
       <c r="AJ169" s="7">
-        <v>-5.734</v>
+        <v>87.26</v>
       </c>
       <c r="AK169" s="7">
-        <v>-5.48</v>
+        <v>86.833</v>
       </c>
       <c r="AL169" s="7">
-        <v>-5.669</v>
+        <v>86.495</v>
       </c>
       <c r="AM169" s="7">
-        <v>-4.331</v>
+        <v>87.056</v>
       </c>
       <c r="AN169" s="7">
-        <v>-4.292</v>
+        <v>86.799</v>
       </c>
       <c r="AO169" s="7">
-        <v>-4.388</v>
+        <v>86.485</v>
       </c>
       <c r="AP169" s="7">
-        <v>-4.502</v>
+        <v>85.973</v>
       </c>
       <c r="AQ169" s="7">
-        <v>-4.517</v>
+        <v>85.743</v>
       </c>
       <c r="AR169" s="7">
-        <v>-4.509</v>
+        <v>85.38</v>
       </c>
       <c r="AS169" s="7">
-        <v>-4.374</v>
+        <v>85.116</v>
       </c>
       <c r="AT169" s="7">
-        <v>-3.562</v>
+        <v>85.895</v>
       </c>
       <c r="BC169" s="4" t="inlineStr">
         <is>
@@ -36008,14 +36044,14 @@
       </c>
       <c r="CP169" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib02</t>
+          <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01_D001</t>
+          <t>Z11_B01_P01_Ib03_I01_D020</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
@@ -36055,86 +36091,86 @@
       </c>
       <c r="I170" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2000</t>
+          <t>E_EWPKM2</t>
         </is>
       </c>
       <c r="K170" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L170" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="X170" s="7">
-        <v>100</v>
+        <v>1854.062</v>
       </c>
       <c r="Y170" s="7">
-        <v>99.177</v>
+        <v>1838.803</v>
       </c>
       <c r="Z170" s="7">
-        <v>98.269</v>
+        <v>1821.977</v>
       </c>
       <c r="AA170" s="7">
-        <v>97.261</v>
+        <v>1803.284</v>
       </c>
       <c r="AB170" s="7">
-        <v>96.24</v>
+        <v>1784.352</v>
       </c>
       <c r="AC170" s="7">
-        <v>95.29</v>
+        <v>1766.733</v>
       </c>
       <c r="AD170" s="7">
-        <v>94.287</v>
+        <v>1748.132</v>
       </c>
       <c r="AE170" s="7">
-        <v>93.328</v>
+        <v>1730.352</v>
       </c>
       <c r="AF170" s="7">
-        <v>92.246</v>
+        <v>1710.307</v>
       </c>
       <c r="AG170" s="7">
-        <v>91.382</v>
+        <v>1694.28</v>
       </c>
       <c r="AH170" s="7">
-        <v>90.705</v>
+        <v>1681.729</v>
       </c>
       <c r="AI170" s="7">
-        <v>90.013</v>
+        <v>1668.888</v>
       </c>
       <c r="AJ170" s="7">
-        <v>89.792</v>
+        <v>1664.808</v>
       </c>
       <c r="AK170" s="7">
-        <v>89.64</v>
+        <v>1661.983</v>
       </c>
       <c r="AL170" s="7">
-        <v>89.571</v>
+        <v>1660.694</v>
       </c>
       <c r="AM170" s="7">
-        <v>90.332</v>
+        <v>1674.81</v>
       </c>
       <c r="AN170" s="7">
-        <v>90.365</v>
+        <v>1675.431</v>
       </c>
       <c r="AO170" s="7">
-        <v>90.203</v>
+        <v>1672.418</v>
       </c>
       <c r="AP170" s="7">
-        <v>89.88</v>
+        <v>1666.437</v>
       </c>
       <c r="AQ170" s="7">
-        <v>89.744</v>
+        <v>1663.907</v>
       </c>
       <c r="AR170" s="7">
-        <v>89.351</v>
+        <v>1656.618</v>
       </c>
       <c r="AS170" s="7">
-        <v>89.066</v>
+        <v>1651.338</v>
       </c>
       <c r="AT170" s="7">
-        <v>89.986</v>
+        <v>1668.389</v>
       </c>
       <c r="BC170" s="4" t="inlineStr">
         <is>
@@ -36245,7 +36281,7 @@
     <row outlineLevel="0" r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01_D002</t>
+          <t>Z11_B01_P01_Ib03_I01_D021</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
@@ -36285,11 +36321,11 @@
       </c>
       <c r="I171" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2000</t>
+          <t>E_EWPKM2</t>
         </is>
       </c>
       <c r="K171" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L171" s="6" t="b">
         <v>0</v>
@@ -36298,73 +36334,73 @@
         <v>0</v>
       </c>
       <c r="X171" s="7">
-        <v>100</v>
+        <v>3398.556</v>
       </c>
       <c r="Y171" s="7">
-        <v>99.601</v>
+        <v>3384.981</v>
       </c>
       <c r="Z171" s="7">
-        <v>99.098</v>
+        <v>3367.915</v>
       </c>
       <c r="AA171" s="7">
-        <v>98.523</v>
+        <v>3348.367</v>
       </c>
       <c r="AB171" s="7">
-        <v>97.906</v>
+        <v>3327.384</v>
       </c>
       <c r="AC171" s="7">
-        <v>97.438</v>
+        <v>3311.494</v>
       </c>
       <c r="AD171" s="7">
-        <v>96.994</v>
+        <v>3296.41</v>
       </c>
       <c r="AE171" s="7">
-        <v>96.568</v>
+        <v>3281.903</v>
       </c>
       <c r="AF171" s="7">
-        <v>95.999</v>
+        <v>3262.576</v>
       </c>
       <c r="AG171" s="7">
-        <v>95.565</v>
+        <v>3247.815</v>
       </c>
       <c r="AH171" s="7">
-        <v>95.343</v>
+        <v>3240.292</v>
       </c>
       <c r="AI171" s="7">
-        <v>94.924</v>
+        <v>3226.06</v>
       </c>
       <c r="AJ171" s="7">
-        <v>95.28</v>
+        <v>3238.135</v>
       </c>
       <c r="AK171" s="7">
-        <v>95.617</v>
+        <v>3249.607</v>
       </c>
       <c r="AL171" s="7">
-        <v>96.139</v>
+        <v>3267.353</v>
       </c>
       <c r="AM171" s="7">
-        <v>97.237</v>
+        <v>3304.669</v>
       </c>
       <c r="AN171" s="7">
-        <v>97.983</v>
+        <v>3329.999</v>
       </c>
       <c r="AO171" s="7">
-        <v>98.154</v>
+        <v>3335.804</v>
       </c>
       <c r="AP171" s="7">
-        <v>98.38</v>
+        <v>3343.507</v>
       </c>
       <c r="AQ171" s="7">
-        <v>98.465</v>
+        <v>3346.403</v>
       </c>
       <c r="AR171" s="7">
-        <v>98.182</v>
+        <v>3336.769</v>
       </c>
       <c r="AS171" s="7">
-        <v>98.01</v>
+        <v>3330.908</v>
       </c>
       <c r="AT171" s="7">
-        <v>99.275</v>
+        <v>3373.914</v>
       </c>
       <c r="BC171" s="4" t="inlineStr">
         <is>
@@ -36475,7 +36511,7 @@
     <row outlineLevel="0" r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01_D003</t>
+          <t>Z11_B01_P01_Ib03_I01_D022</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
@@ -36515,11 +36551,11 @@
       </c>
       <c r="I172" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2000</t>
+          <t>E_EWPKM2</t>
         </is>
       </c>
       <c r="K172" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L172" s="6" t="b">
         <v>0</v>
@@ -36528,73 +36564,73 @@
         <v>0</v>
       </c>
       <c r="X172" s="7">
-        <v>100</v>
+        <v>1401.418</v>
       </c>
       <c r="Y172" s="7">
-        <v>99.014</v>
+        <v>1387.603</v>
       </c>
       <c r="Z172" s="7">
-        <v>97.954</v>
+        <v>1372.746</v>
       </c>
       <c r="AA172" s="7">
-        <v>96.77</v>
+        <v>1356.159</v>
       </c>
       <c r="AB172" s="7">
-        <v>95.592</v>
+        <v>1339.638</v>
       </c>
       <c r="AC172" s="7">
-        <v>94.407</v>
+        <v>1323.032</v>
       </c>
       <c r="AD172" s="7">
-        <v>93.113</v>
+        <v>1304.908</v>
       </c>
       <c r="AE172" s="7">
-        <v>91.882</v>
+        <v>1287.655</v>
       </c>
       <c r="AF172" s="7">
-        <v>90.54</v>
+        <v>1268.845</v>
       </c>
       <c r="AG172" s="7">
-        <v>89.455</v>
+        <v>1253.642</v>
       </c>
       <c r="AH172" s="7">
-        <v>88.513</v>
+        <v>1240.431</v>
       </c>
       <c r="AI172" s="7">
-        <v>87.811</v>
+        <v>1230.603</v>
       </c>
       <c r="AJ172" s="7">
-        <v>87.26</v>
+        <v>1222.874</v>
       </c>
       <c r="AK172" s="7">
-        <v>86.833</v>
+        <v>1216.889</v>
       </c>
       <c r="AL172" s="7">
-        <v>86.495</v>
+        <v>1212.151</v>
       </c>
       <c r="AM172" s="7">
-        <v>87.056</v>
+        <v>1220.017</v>
       </c>
       <c r="AN172" s="7">
-        <v>86.799</v>
+        <v>1216.413</v>
       </c>
       <c r="AO172" s="7">
-        <v>86.485</v>
+        <v>1212.02</v>
       </c>
       <c r="AP172" s="7">
-        <v>85.973</v>
+        <v>1204.835</v>
       </c>
       <c r="AQ172" s="7">
-        <v>85.743</v>
+        <v>1201.622</v>
       </c>
       <c r="AR172" s="7">
-        <v>85.38</v>
+        <v>1196.536</v>
       </c>
       <c r="AS172" s="7">
-        <v>85.116</v>
+        <v>1192.833</v>
       </c>
       <c r="AT172" s="7">
-        <v>85.895</v>
+        <v>1203.752</v>
       </c>
       <c r="BC172" s="4" t="inlineStr">
         <is>
@@ -36705,22 +36741,22 @@
     <row outlineLevel="0" r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01_D020</t>
+          <t>Z11_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_FINENTRANS</t>
         </is>
       </c>
       <c r="E173" s="4" t="inlineStr">
@@ -36745,86 +36781,71 @@
       </c>
       <c r="I173" s="4" t="inlineStr">
         <is>
-          <t>E_EWPKM2</t>
+          <t>E_IDX2005</t>
         </is>
       </c>
       <c r="K173" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="X173" s="7">
-        <v>1854.062</v>
-      </c>
-      <c r="Y173" s="7">
-        <v>1838.803</v>
-      </c>
-      <c r="Z173" s="7">
-        <v>1821.977</v>
-      </c>
-      <c r="AA173" s="7">
-        <v>1803.284</v>
-      </c>
-      <c r="AB173" s="7">
-        <v>1784.352</v>
-      </c>
       <c r="AC173" s="7">
-        <v>1766.733</v>
+        <v>100</v>
       </c>
       <c r="AD173" s="7">
-        <v>1748.132</v>
+        <v>104.383</v>
       </c>
       <c r="AE173" s="7">
-        <v>1730.352</v>
+        <v>107.154</v>
       </c>
       <c r="AF173" s="7">
-        <v>1710.307</v>
+        <v>105.073</v>
       </c>
       <c r="AG173" s="7">
-        <v>1694.28</v>
+        <v>95.201</v>
       </c>
       <c r="AH173" s="7">
-        <v>1681.729</v>
+        <v>98.657</v>
       </c>
       <c r="AI173" s="7">
-        <v>1668.888</v>
+        <v>100.215</v>
       </c>
       <c r="AJ173" s="7">
-        <v>1664.808</v>
+        <v>98.273</v>
       </c>
       <c r="AK173" s="7">
-        <v>1661.983</v>
+        <v>99.252</v>
       </c>
       <c r="AL173" s="7">
-        <v>1660.694</v>
+        <v>100.776</v>
       </c>
       <c r="AM173" s="7">
-        <v>1674.81</v>
+        <v>102.18</v>
       </c>
       <c r="AN173" s="7">
-        <v>1675.431</v>
+        <v>104.005</v>
       </c>
       <c r="AO173" s="7">
-        <v>1672.418</v>
+        <v>106.407</v>
       </c>
       <c r="AP173" s="7">
-        <v>1666.437</v>
+        <v>108.002</v>
       </c>
       <c r="AQ173" s="7">
-        <v>1663.907</v>
+        <v>106.892</v>
       </c>
       <c r="AR173" s="7">
-        <v>1656.618</v>
+        <v>103.892</v>
       </c>
       <c r="AS173" s="7">
-        <v>1651.338</v>
+        <v>106.295</v>
       </c>
       <c r="AT173" s="7">
-        <v>1668.389</v>
+        <v>104.111</v>
       </c>
       <c r="BC173" s="4" t="inlineStr">
         <is>
@@ -36928,29 +36949,29 @@
       </c>
       <c r="CP173" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01_D021</t>
+          <t>Z11_B02_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D174" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_NONRURAL</t>
+          <t>A_SERIES_GOODSTRANS</t>
         </is>
       </c>
       <c r="E174" s="4" t="inlineStr">
@@ -36975,11 +36996,11 @@
       </c>
       <c r="I174" s="4" t="inlineStr">
         <is>
-          <t>E_EWPKM2</t>
+          <t>E_IDX2005</t>
         </is>
       </c>
       <c r="K174" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174" s="6" t="b">
         <v>0</v>
@@ -36987,74 +37008,59 @@
       <c r="M174" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="X174" s="7">
-        <v>3398.556</v>
-      </c>
-      <c r="Y174" s="7">
-        <v>3384.981</v>
-      </c>
-      <c r="Z174" s="7">
-        <v>3367.915</v>
-      </c>
-      <c r="AA174" s="7">
-        <v>3348.367</v>
-      </c>
-      <c r="AB174" s="7">
-        <v>3327.384</v>
-      </c>
       <c r="AC174" s="7">
-        <v>3311.494</v>
+        <v>100</v>
       </c>
       <c r="AD174" s="7">
-        <v>3296.41</v>
+        <v>107.457</v>
       </c>
       <c r="AE174" s="7">
-        <v>3281.903</v>
+        <v>112.232</v>
       </c>
       <c r="AF174" s="7">
-        <v>3262.576</v>
+        <v>112.914</v>
       </c>
       <c r="AG174" s="7">
-        <v>3247.815</v>
+        <v>100.475</v>
       </c>
       <c r="AH174" s="7">
-        <v>3240.292</v>
+        <v>108.179</v>
       </c>
       <c r="AI174" s="7">
-        <v>3226.06</v>
+        <v>108.284</v>
       </c>
       <c r="AJ174" s="7">
-        <v>3238.135</v>
+        <v>106.515</v>
       </c>
       <c r="AK174" s="7">
-        <v>3249.607</v>
+        <v>109.191</v>
       </c>
       <c r="AL174" s="7">
-        <v>3267.353</v>
+        <v>111.07</v>
       </c>
       <c r="AM174" s="7">
-        <v>3304.669</v>
+        <v>113.689</v>
       </c>
       <c r="AN174" s="7">
-        <v>3329.999</v>
+        <v>116.579</v>
       </c>
       <c r="AO174" s="7">
-        <v>3335.804</v>
+        <v>119.437</v>
       </c>
       <c r="AP174" s="7">
-        <v>3343.507</v>
+        <v>119.709</v>
       </c>
       <c r="AQ174" s="7">
-        <v>3346.403</v>
+        <v>120.41</v>
       </c>
       <c r="AR174" s="7">
-        <v>3336.769</v>
+        <v>115.966</v>
       </c>
       <c r="AS174" s="7">
-        <v>3330.908</v>
+        <v>121.501</v>
       </c>
       <c r="AT174" s="7">
-        <v>3373.914</v>
+        <v>120.6</v>
       </c>
       <c r="BC174" s="4" t="inlineStr">
         <is>
@@ -37158,29 +37164,29 @@
       </c>
       <c r="CP174" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01_D022</t>
+          <t>Z11_B02_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03_I01</t>
+          <t>Z11_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>K_URBAN</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>A_URBAN_RURAL</t>
+          <t>A_SERIES_ENCONSPTK</t>
         </is>
       </c>
       <c r="E175" s="4" t="inlineStr">
@@ -37205,11 +37211,11 @@
       </c>
       <c r="I175" s="4" t="inlineStr">
         <is>
-          <t>E_EWPKM2</t>
+          <t>E_IDX2005</t>
         </is>
       </c>
       <c r="K175" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" s="6" t="b">
         <v>0</v>
@@ -37217,74 +37223,59 @@
       <c r="M175" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="X175" s="7">
-        <v>1401.418</v>
-      </c>
-      <c r="Y175" s="7">
-        <v>1387.603</v>
-      </c>
-      <c r="Z175" s="7">
-        <v>1372.746</v>
-      </c>
-      <c r="AA175" s="7">
-        <v>1356.159</v>
-      </c>
-      <c r="AB175" s="7">
-        <v>1339.638</v>
-      </c>
       <c r="AC175" s="7">
-        <v>1323.032</v>
+        <v>100</v>
       </c>
       <c r="AD175" s="7">
-        <v>1304.908</v>
+        <v>97.139</v>
       </c>
       <c r="AE175" s="7">
-        <v>1287.655</v>
+        <v>95.475</v>
       </c>
       <c r="AF175" s="7">
-        <v>1268.845</v>
+        <v>93.056</v>
       </c>
       <c r="AG175" s="7">
-        <v>1253.642</v>
+        <v>94.751</v>
       </c>
       <c r="AH175" s="7">
-        <v>1240.431</v>
+        <v>91.198</v>
       </c>
       <c r="AI175" s="7">
-        <v>1230.603</v>
+        <v>92.548</v>
       </c>
       <c r="AJ175" s="7">
-        <v>1222.874</v>
+        <v>92.263</v>
       </c>
       <c r="AK175" s="7">
-        <v>1216.889</v>
+        <v>90.898</v>
       </c>
       <c r="AL175" s="7">
-        <v>1212.151</v>
+        <v>90.732</v>
       </c>
       <c r="AM175" s="7">
-        <v>1220.017</v>
+        <v>89.877</v>
       </c>
       <c r="AN175" s="7">
-        <v>1216.413</v>
+        <v>89.214</v>
       </c>
       <c r="AO175" s="7">
-        <v>1212.02</v>
+        <v>89.091</v>
       </c>
       <c r="AP175" s="7">
-        <v>1204.835</v>
+        <v>90.22</v>
       </c>
       <c r="AQ175" s="7">
-        <v>1201.622</v>
+        <v>88.773</v>
       </c>
       <c r="AR175" s="7">
-        <v>1196.536</v>
+        <v>89.589</v>
       </c>
       <c r="AS175" s="7">
-        <v>1192.833</v>
+        <v>87.485</v>
       </c>
       <c r="AT175" s="7">
-        <v>1203.752</v>
+        <v>86.328</v>
       </c>
       <c r="BC175" s="4" t="inlineStr">
         <is>
@@ -37388,19 +37379,19 @@
       </c>
       <c r="CP175" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01_Ib03</t>
+          <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01_D001</t>
+          <t>Z11_B02_P01_Ib02_I01_D001</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
@@ -37410,7 +37401,7 @@
       </c>
       <c r="D176" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FINENTRANS</t>
+          <t>A_SERIES_ENINPASSTRA</t>
         </is>
       </c>
       <c r="E176" s="4" t="inlineStr">
@@ -37451,55 +37442,55 @@
         <v>100</v>
       </c>
       <c r="AD176" s="7">
-        <v>104.383</v>
+        <v>99.247</v>
       </c>
       <c r="AE176" s="7">
-        <v>107.154</v>
+        <v>99.354</v>
       </c>
       <c r="AF176" s="7">
-        <v>105.073</v>
+        <v>98.264</v>
       </c>
       <c r="AG176" s="7">
-        <v>95.201</v>
+        <v>99.414</v>
       </c>
       <c r="AH176" s="7">
-        <v>98.657</v>
+        <v>99.328</v>
       </c>
       <c r="AI176" s="7">
-        <v>100.215</v>
+        <v>100.062</v>
       </c>
       <c r="AJ176" s="7">
-        <v>98.273</v>
+        <v>99.38</v>
       </c>
       <c r="AK176" s="7">
-        <v>99.252</v>
+        <v>99.318</v>
       </c>
       <c r="AL176" s="7">
-        <v>100.776</v>
+        <v>100.347</v>
       </c>
       <c r="AM176" s="7">
-        <v>102.18</v>
+        <v>100.1</v>
       </c>
       <c r="AN176" s="7">
-        <v>104.005</v>
+        <v>102.077</v>
       </c>
       <c r="AO176" s="7">
-        <v>106.407</v>
+        <v>102.59</v>
       </c>
       <c r="AP176" s="7">
-        <v>108.002</v>
+        <v>102.445</v>
       </c>
       <c r="AQ176" s="7">
-        <v>106.892</v>
+        <v>103.038</v>
       </c>
       <c r="AR176" s="7">
-        <v>103.892</v>
+        <v>86.663</v>
       </c>
       <c r="AS176" s="7">
-        <v>106.295</v>
+        <v>85.669</v>
       </c>
       <c r="AT176" s="7">
-        <v>104.111</v>
+        <v>88.478</v>
       </c>
       <c r="BC176" s="4" t="inlineStr">
         <is>
@@ -37603,19 +37594,19 @@
       </c>
       <c r="CP176" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01_D002</t>
+          <t>Z11_B02_P01_Ib02_I01_D002</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -37625,7 +37616,7 @@
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_GOODSTRANS</t>
+          <t>A_SERIES_PASSTRANS</t>
         </is>
       </c>
       <c r="E177" s="4" t="inlineStr">
@@ -37666,55 +37657,55 @@
         <v>100</v>
       </c>
       <c r="AD177" s="7">
-        <v>107.457</v>
+        <v>101.148</v>
       </c>
       <c r="AE177" s="7">
-        <v>112.232</v>
+        <v>101.49</v>
       </c>
       <c r="AF177" s="7">
-        <v>112.914</v>
+        <v>102.317</v>
       </c>
       <c r="AG177" s="7">
-        <v>100.475</v>
+        <v>102.231</v>
       </c>
       <c r="AH177" s="7">
-        <v>108.179</v>
+        <v>102.739</v>
       </c>
       <c r="AI177" s="7">
-        <v>108.284</v>
+        <v>103.307</v>
       </c>
       <c r="AJ177" s="7">
-        <v>106.515</v>
+        <v>103.925</v>
       </c>
       <c r="AK177" s="7">
-        <v>109.191</v>
+        <v>103.957</v>
       </c>
       <c r="AL177" s="7">
-        <v>111.07</v>
+        <v>104.256</v>
       </c>
       <c r="AM177" s="7">
-        <v>113.689</v>
+        <v>104.957</v>
       </c>
       <c r="AN177" s="7">
-        <v>116.579</v>
+        <v>105.942</v>
       </c>
       <c r="AO177" s="7">
-        <v>119.437</v>
+        <v>106.264</v>
       </c>
       <c r="AP177" s="7">
-        <v>119.709</v>
+        <v>106.422</v>
       </c>
       <c r="AQ177" s="7">
-        <v>120.41</v>
+        <v>107.005</v>
       </c>
       <c r="AR177" s="7">
-        <v>115.966</v>
+        <v>84.077</v>
       </c>
       <c r="AS177" s="7">
-        <v>121.501</v>
+        <v>83.276</v>
       </c>
       <c r="AT177" s="7">
-        <v>120.6</v>
+        <v>91.693</v>
       </c>
       <c r="BC177" s="4" t="inlineStr">
         <is>
@@ -37818,19 +37809,19 @@
       </c>
       <c r="CP177" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01_D003</t>
+          <t>Z11_B02_P01_Ib02_I01_D003</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01_I01</t>
+          <t>Z11_B02_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
@@ -37840,7 +37831,7 @@
       </c>
       <c r="D178" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENCONSPTK</t>
+          <t>A_SERIES_ENPERPK</t>
         </is>
       </c>
       <c r="E178" s="4" t="inlineStr">
@@ -37881,55 +37872,55 @@
         <v>100</v>
       </c>
       <c r="AD178" s="7">
-        <v>97.139</v>
+        <v>98.12</v>
       </c>
       <c r="AE178" s="7">
-        <v>95.475</v>
+        <v>97.896</v>
       </c>
       <c r="AF178" s="7">
-        <v>93.056</v>
+        <v>96.039</v>
       </c>
       <c r="AG178" s="7">
-        <v>94.751</v>
+        <v>97.245</v>
       </c>
       <c r="AH178" s="7">
-        <v>91.198</v>
+        <v>96.679</v>
       </c>
       <c r="AI178" s="7">
-        <v>92.548</v>
+        <v>96.859</v>
       </c>
       <c r="AJ178" s="7">
-        <v>92.263</v>
+        <v>95.627</v>
       </c>
       <c r="AK178" s="7">
-        <v>90.898</v>
+        <v>95.537</v>
       </c>
       <c r="AL178" s="7">
-        <v>90.732</v>
+        <v>96.25</v>
       </c>
       <c r="AM178" s="7">
-        <v>89.877</v>
+        <v>96.326</v>
       </c>
       <c r="AN178" s="7">
-        <v>89.214</v>
+        <v>96.351</v>
       </c>
       <c r="AO178" s="7">
-        <v>89.091</v>
+        <v>96.543</v>
       </c>
       <c r="AP178" s="7">
-        <v>90.22</v>
+        <v>96.263</v>
       </c>
       <c r="AQ178" s="7">
-        <v>88.773</v>
+        <v>96.293</v>
       </c>
       <c r="AR178" s="7">
-        <v>89.589</v>
+        <v>103.076</v>
       </c>
       <c r="AS178" s="7">
-        <v>87.485</v>
+        <v>102.874</v>
       </c>
       <c r="AT178" s="7">
-        <v>86.328</v>
+        <v>96.494</v>
       </c>
       <c r="BC178" s="4" t="inlineStr">
         <is>
@@ -38033,19 +38024,19 @@
       </c>
       <c r="CP178" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib01</t>
+          <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01_D001</t>
+          <t>Z11_B02_P01_Ib03_I01_D001</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -38055,7 +38046,7 @@
       </c>
       <c r="D179" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENINPASSTRA</t>
+          <t>A_SERIES_YEARINQUEST</t>
         </is>
       </c>
       <c r="E179" s="4" t="inlineStr">
@@ -38080,7 +38071,7 @@
       </c>
       <c r="I179" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2005</t>
+          <t>E_MIN</t>
         </is>
       </c>
       <c r="K179" s="6" t="b">
@@ -38092,59 +38083,17 @@
       <c r="M179" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC179" s="7">
-        <v>100</v>
-      </c>
-      <c r="AD179" s="7">
-        <v>99.247</v>
-      </c>
-      <c r="AE179" s="7">
-        <v>99.354</v>
-      </c>
-      <c r="AF179" s="7">
-        <v>98.264</v>
-      </c>
-      <c r="AG179" s="7">
-        <v>99.414</v>
-      </c>
-      <c r="AH179" s="7">
-        <v>99.328</v>
-      </c>
-      <c r="AI179" s="7">
-        <v>100.062</v>
-      </c>
       <c r="AJ179" s="7">
-        <v>99.38</v>
-      </c>
-      <c r="AK179" s="7">
-        <v>99.318</v>
-      </c>
-      <c r="AL179" s="7">
-        <v>100.347</v>
-      </c>
-      <c r="AM179" s="7">
-        <v>100.1</v>
+        <v>23.49</v>
       </c>
       <c r="AN179" s="7">
-        <v>102.077</v>
-      </c>
-      <c r="AO179" s="7">
-        <v>102.59</v>
+        <v>22.41</v>
       </c>
       <c r="AP179" s="7">
-        <v>102.445</v>
-      </c>
-      <c r="AQ179" s="7">
-        <v>103.038</v>
+        <v>21.86</v>
       </c>
       <c r="AR179" s="7">
-        <v>86.663</v>
-      </c>
-      <c r="AS179" s="7">
-        <v>85.669</v>
-      </c>
-      <c r="AT179" s="7">
-        <v>88.478</v>
+        <v>20.59</v>
       </c>
       <c r="BC179" s="4" t="inlineStr">
         <is>
@@ -38248,19 +38197,19 @@
       </c>
       <c r="CP179" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01_D002</t>
+          <t>Z11_B02_P01_Ib03_I01_D002</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B02_P01_Ib03_I01</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
@@ -38270,7 +38219,7 @@
       </c>
       <c r="D180" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_PASSTRANS</t>
+          <t>A_SERIES_YEAR2012</t>
         </is>
       </c>
       <c r="E180" s="4" t="inlineStr">
@@ -38295,11 +38244,11 @@
       </c>
       <c r="I180" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2005</t>
+          <t>E_MIN</t>
         </is>
       </c>
       <c r="K180" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L180" s="6" t="b">
         <v>0</v>
@@ -38307,59 +38256,17 @@
       <c r="M180" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC180" s="7">
-        <v>100</v>
-      </c>
-      <c r="AD180" s="7">
-        <v>101.148</v>
-      </c>
-      <c r="AE180" s="7">
-        <v>101.49</v>
-      </c>
-      <c r="AF180" s="7">
-        <v>102.317</v>
-      </c>
-      <c r="AG180" s="7">
-        <v>102.231</v>
-      </c>
-      <c r="AH180" s="7">
-        <v>102.739</v>
-      </c>
-      <c r="AI180" s="7">
-        <v>103.307</v>
-      </c>
       <c r="AJ180" s="7">
-        <v>103.925</v>
-      </c>
-      <c r="AK180" s="7">
-        <v>103.957</v>
-      </c>
-      <c r="AL180" s="7">
-        <v>104.256</v>
-      </c>
-      <c r="AM180" s="7">
-        <v>104.957</v>
+        <v>23.5</v>
       </c>
       <c r="AN180" s="7">
-        <v>105.942</v>
-      </c>
-      <c r="AO180" s="7">
-        <v>106.264</v>
+        <v>22.75</v>
       </c>
       <c r="AP180" s="7">
-        <v>106.422</v>
-      </c>
-      <c r="AQ180" s="7">
-        <v>107.005</v>
+        <v>22.5</v>
       </c>
       <c r="AR180" s="7">
-        <v>84.077</v>
-      </c>
-      <c r="AS180" s="7">
-        <v>83.276</v>
-      </c>
-      <c r="AT180" s="7">
-        <v>91.693</v>
+        <v>21.3</v>
       </c>
       <c r="BC180" s="4" t="inlineStr">
         <is>
@@ -38463,29 +38370,29 @@
       </c>
       <c r="CP180" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01_D003</t>
+          <t>Z11_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D181" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ENPERPK</t>
+          <t/>
         </is>
       </c>
       <c r="E181" s="4" t="inlineStr">
@@ -38510,71 +38417,59 @@
       </c>
       <c r="I181" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2005</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K181" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L181" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC181" s="7">
-        <v>100</v>
-      </c>
-      <c r="AD181" s="7">
-        <v>98.12</v>
-      </c>
-      <c r="AE181" s="7">
-        <v>97.896</v>
-      </c>
-      <c r="AF181" s="7">
-        <v>96.039</v>
-      </c>
-      <c r="AG181" s="7">
-        <v>97.245</v>
-      </c>
       <c r="AH181" s="7">
-        <v>96.679</v>
+        <v>14.5</v>
       </c>
       <c r="AI181" s="7">
-        <v>96.859</v>
+        <v>16.1</v>
       </c>
       <c r="AJ181" s="7">
-        <v>95.627</v>
+        <v>16.6</v>
       </c>
       <c r="AK181" s="7">
-        <v>95.537</v>
+        <v>16.4</v>
       </c>
       <c r="AL181" s="7">
-        <v>96.25</v>
+        <v>15.9</v>
       </c>
       <c r="AM181" s="7">
-        <v>96.326</v>
+        <v>15.6</v>
       </c>
       <c r="AN181" s="7">
-        <v>96.351</v>
+        <v>15.8</v>
       </c>
       <c r="AO181" s="7">
-        <v>96.543</v>
+        <v>14.5</v>
       </c>
       <c r="AP181" s="7">
-        <v>96.263</v>
+        <v>14.2</v>
       </c>
       <c r="AQ181" s="7">
-        <v>96.293</v>
+        <v>13.9</v>
       </c>
       <c r="AR181" s="7">
-        <v>103.076</v>
+        <v>9</v>
       </c>
       <c r="AS181" s="7">
-        <v>102.874</v>
+        <v>11</v>
       </c>
       <c r="AT181" s="7">
-        <v>96.494</v>
+        <v>11.9</v>
+      </c>
+      <c r="AU181" s="7">
+        <v>13</v>
       </c>
       <c r="BC181" s="4" t="inlineStr">
         <is>
@@ -38678,29 +38573,29 @@
       </c>
       <c r="CP181" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib02</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01_D001</t>
+          <t>Z11_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="D182" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEARINQUEST</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="E182" s="4" t="inlineStr">
@@ -38725,29 +38620,59 @@
       </c>
       <c r="I182" s="4" t="inlineStr">
         <is>
-          <t>E_MIN</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K182" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AH182" s="7">
+        <v>15.4</v>
+      </c>
+      <c r="AI182" s="7">
+        <v>17.5</v>
+      </c>
       <c r="AJ182" s="7">
-        <v>23.49</v>
+        <v>18</v>
+      </c>
+      <c r="AK182" s="7">
+        <v>18</v>
+      </c>
+      <c r="AL182" s="7">
+        <v>18</v>
+      </c>
+      <c r="AM182" s="7">
+        <v>17.3</v>
       </c>
       <c r="AN182" s="7">
-        <v>22.41</v>
+        <v>17.5</v>
+      </c>
+      <c r="AO182" s="7">
+        <v>15.7</v>
       </c>
       <c r="AP182" s="7">
-        <v>21.86</v>
+        <v>15.4</v>
+      </c>
+      <c r="AQ182" s="7">
+        <v>15.3</v>
       </c>
       <c r="AR182" s="7">
-        <v>20.59</v>
+        <v>9.6</v>
+      </c>
+      <c r="AS182" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="AT182" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="AU182" s="7">
+        <v>13.9</v>
       </c>
       <c r="BC182" s="4" t="inlineStr">
         <is>
@@ -38851,29 +38776,29 @@
       </c>
       <c r="CP182" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01_D002</t>
+          <t>Z11_B03_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03_I01</t>
+          <t>Z11_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_YEAR2012</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="E183" s="4" t="inlineStr">
@@ -38898,7 +38823,7 @@
       </c>
       <c r="I183" s="4" t="inlineStr">
         <is>
-          <t>E_MIN</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K183" s="6" t="b">
@@ -38910,17 +38835,47 @@
       <c r="M183" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AH183" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="AI183" s="7">
+        <v>14.7</v>
+      </c>
       <c r="AJ183" s="7">
-        <v>23.5</v>
+        <v>15.2</v>
+      </c>
+      <c r="AK183" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="AL183" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="AM183" s="7">
+        <v>13.8</v>
       </c>
       <c r="AN183" s="7">
-        <v>22.75</v>
+        <v>14.1</v>
+      </c>
+      <c r="AO183" s="7">
+        <v>13.2</v>
       </c>
       <c r="AP183" s="7">
-        <v>22.5</v>
+        <v>12.9</v>
+      </c>
+      <c r="AQ183" s="7">
+        <v>12.5</v>
       </c>
       <c r="AR183" s="7">
-        <v>21.3</v>
+        <v>8.5</v>
+      </c>
+      <c r="AS183" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="AT183" s="7">
+        <v>11</v>
+      </c>
+      <c r="AU183" s="7">
+        <v>12.1</v>
       </c>
       <c r="BC183" s="4" t="inlineStr">
         <is>
@@ -39024,19 +38979,19 @@
       </c>
       <c r="CP183" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01_Ib03</t>
+          <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01_D001</t>
+          <t>Z11_B03_P02_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z11_B03_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
@@ -39083,47 +39038,14 @@
       <c r="M184" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AH184" s="7">
-        <v>14.5</v>
-      </c>
-      <c r="AI184" s="7">
-        <v>16.1</v>
-      </c>
-      <c r="AJ184" s="7">
-        <v>16.6</v>
-      </c>
-      <c r="AK184" s="7">
-        <v>16.4</v>
-      </c>
-      <c r="AL184" s="7">
-        <v>15.9</v>
-      </c>
-      <c r="AM184" s="7">
-        <v>15.6</v>
-      </c>
-      <c r="AN184" s="7">
-        <v>15.8</v>
-      </c>
-      <c r="AO184" s="7">
-        <v>14.5</v>
-      </c>
-      <c r="AP184" s="7">
-        <v>14.2</v>
-      </c>
       <c r="AQ184" s="7">
-        <v>13.9</v>
+        <v>83.2</v>
       </c>
       <c r="AR184" s="7">
-        <v>9</v>
+        <v>83.1</v>
       </c>
       <c r="AS184" s="7">
-        <v>11</v>
-      </c>
-      <c r="AT184" s="7">
-        <v>11.9</v>
-      </c>
-      <c r="AU184" s="7">
-        <v>13</v>
+        <v>83.3</v>
       </c>
       <c r="BC184" s="4" t="inlineStr">
         <is>
@@ -39227,29 +39149,29 @@
       </c>
       <c r="CP184" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z11_B03_P02_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01_D002</t>
+          <t>Z12_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t/>
         </is>
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t/>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
@@ -39278,54 +39200,45 @@
         </is>
       </c>
       <c r="K185" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M185" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AH185" s="7">
-        <v>15.4</v>
-      </c>
-      <c r="AI185" s="7">
-        <v>17.5</v>
-      </c>
       <c r="AJ185" s="7">
-        <v>18</v>
+        <v>3.6</v>
       </c>
       <c r="AK185" s="7">
-        <v>18</v>
+        <v>4.4</v>
       </c>
       <c r="AL185" s="7">
-        <v>18</v>
+        <v>5.9</v>
       </c>
       <c r="AM185" s="7">
-        <v>17.3</v>
+        <v>7.6</v>
       </c>
       <c r="AN185" s="7">
-        <v>17.5</v>
+        <v>8.7</v>
       </c>
       <c r="AO185" s="7">
-        <v>15.7</v>
+        <v>8.4</v>
       </c>
       <c r="AP185" s="7">
-        <v>15.4</v>
+        <v>7.4</v>
       </c>
       <c r="AQ185" s="7">
-        <v>15.3</v>
+        <v>7.9</v>
       </c>
       <c r="AR185" s="7">
-        <v>9.6</v>
+        <v>13.4</v>
       </c>
       <c r="AS185" s="7">
-        <v>11.6</v>
+        <v>14.9</v>
       </c>
       <c r="AT185" s="7">
-        <v>12.9</v>
-      </c>
-      <c r="AU185" s="7">
         <v>13.9</v>
       </c>
       <c r="BC185" s="4" t="inlineStr">
@@ -39430,29 +39343,29 @@
       </c>
       <c r="CP185" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01_D003</t>
+          <t>Z12_B01_P01_Ib02_I01_D001</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C186" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t/>
         </is>
       </c>
       <c r="D186" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t/>
         </is>
       </c>
       <c r="E186" s="4" t="inlineStr">
@@ -39477,59 +39390,53 @@
       </c>
       <c r="I186" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2010</t>
         </is>
       </c>
       <c r="K186" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M186" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AH186" s="7">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="AI186" s="7">
-        <v>14.7</v>
+        <v>100.906</v>
       </c>
       <c r="AJ186" s="7">
-        <v>15.2</v>
+        <v>99.396</v>
       </c>
       <c r="AK186" s="7">
-        <v>14.8</v>
+        <v>98.792</v>
       </c>
       <c r="AL186" s="7">
-        <v>13.8</v>
+        <v>99.849</v>
       </c>
       <c r="AM186" s="7">
-        <v>13.8</v>
+        <v>97.885</v>
       </c>
       <c r="AN186" s="7">
-        <v>14.1</v>
+        <v>100.755</v>
       </c>
       <c r="AO186" s="7">
-        <v>13.2</v>
+        <v>99.396</v>
       </c>
       <c r="AP186" s="7">
-        <v>12.9</v>
+        <v>97.734</v>
       </c>
       <c r="AQ186" s="7">
-        <v>12.5</v>
+        <v>97.734</v>
       </c>
       <c r="AR186" s="7">
-        <v>8.5</v>
+        <v>96.073</v>
       </c>
       <c r="AS186" s="7">
-        <v>10.3</v>
-      </c>
-      <c r="AT186" s="7">
-        <v>11</v>
-      </c>
-      <c r="AU186" s="7">
-        <v>12.1</v>
+        <v>99.547</v>
       </c>
       <c r="BC186" s="4" t="inlineStr">
         <is>
@@ -39633,19 +39540,19 @@
       </c>
       <c r="CP186" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01_D001</t>
+          <t>Z12_B01_P01_Ib02_I02_D001</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I02</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
@@ -39680,7 +39587,7 @@
       </c>
       <c r="I187" s="4" t="inlineStr">
         <is>
-          <t>E_10H7</t>
+          <t>E_IDX2010</t>
         </is>
       </c>
       <c r="K187" s="6" t="b">
@@ -39692,41 +39599,29 @@
       <c r="M187" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AH187" s="7">
+        <v>100</v>
+      </c>
+      <c r="AI187" s="7">
+        <v>95.751</v>
+      </c>
       <c r="AJ187" s="7">
-        <v>5.6</v>
+        <v>95.038</v>
       </c>
       <c r="AK187" s="7">
-        <v>6.9</v>
+        <v>96.49</v>
       </c>
       <c r="AL187" s="7">
-        <v>11.2</v>
+        <v>90.044</v>
       </c>
       <c r="AM187" s="7">
-        <v>18.2</v>
+        <v>92.347</v>
       </c>
       <c r="AN187" s="7">
-        <v>20.4</v>
+        <v>95.038</v>
       </c>
       <c r="AO187" s="7">
-        <v>23.7</v>
-      </c>
-      <c r="AP187" s="7">
-        <v>24.2</v>
-      </c>
-      <c r="AQ187" s="7">
-        <v>32.1</v>
-      </c>
-      <c r="AR187" s="7">
-        <v>35.6</v>
-      </c>
-      <c r="AS187" s="7">
-        <v>40.2</v>
-      </c>
-      <c r="AT187" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="AU187" s="7">
-        <v>52.1</v>
+        <v>94.057</v>
       </c>
       <c r="BC187" s="4" t="inlineStr">
         <is>
@@ -39830,29 +39725,29 @@
       </c>
       <c r="CP187" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="188">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01_D002</t>
+          <t>Z12_B01_P01_Ib02_I03_D001</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z12_B01_P01_Ib02_I03</t>
         </is>
       </c>
       <c r="C188" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D188" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIGITOBJ</t>
+          <t/>
         </is>
       </c>
       <c r="E188" s="4" t="inlineStr">
@@ -39877,44 +39772,41 @@
       </c>
       <c r="I188" s="4" t="inlineStr">
         <is>
-          <t>E_10H7</t>
+          <t>E_IDX2010</t>
         </is>
       </c>
       <c r="K188" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AH188" s="7">
+        <v>100</v>
+      </c>
+      <c r="AI188" s="7">
+        <v>97.395</v>
+      </c>
+      <c r="AJ188" s="7">
+        <v>97.977</v>
+      </c>
+      <c r="AK188" s="7">
+        <v>98.721</v>
+      </c>
+      <c r="AL188" s="7">
+        <v>91.772</v>
+      </c>
       <c r="AM188" s="7">
-        <v>6.3</v>
+        <v>93.658</v>
       </c>
       <c r="AN188" s="7">
-        <v>8.1</v>
+        <v>93.839</v>
       </c>
       <c r="AO188" s="7">
-        <v>9.7</v>
-      </c>
-      <c r="AP188" s="7">
-        <v>9.7</v>
-      </c>
-      <c r="AQ188" s="7">
-        <v>13</v>
-      </c>
-      <c r="AR188" s="7">
-        <v>11.9</v>
-      </c>
-      <c r="AS188" s="7">
-        <v>14.4</v>
-      </c>
-      <c r="AT188" s="7">
-        <v>16.3</v>
-      </c>
-      <c r="AU188" s="7">
-        <v>19.3</v>
+        <v>92.089</v>
       </c>
       <c r="BC188" s="4" t="inlineStr">
         <is>
@@ -40018,19 +39910,19 @@
       </c>
       <c r="CP188" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01_D003</t>
+          <t>Z12_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
@@ -40040,7 +39932,7 @@
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_WITHOUTDIGI</t>
+          <t>A_SERIES_LOCATIONS</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
@@ -40065,44 +39957,74 @@
       </c>
       <c r="I189" s="4" t="inlineStr">
         <is>
-          <t>E_10H7</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K189" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M189" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC189" s="7">
+        <v>1958</v>
+      </c>
+      <c r="AD189" s="7">
+        <v>1985</v>
+      </c>
+      <c r="AE189" s="7">
+        <v>1956</v>
+      </c>
+      <c r="AF189" s="7">
+        <v>1917</v>
+      </c>
+      <c r="AG189" s="7">
+        <v>1906</v>
+      </c>
+      <c r="AH189" s="7">
+        <v>1913</v>
+      </c>
+      <c r="AI189" s="7">
+        <v>1909</v>
+      </c>
+      <c r="AJ189" s="7">
+        <v>1828</v>
+      </c>
+      <c r="AK189" s="7">
+        <v>1862</v>
+      </c>
+      <c r="AL189" s="7">
+        <v>1906</v>
+      </c>
       <c r="AM189" s="7">
-        <v>11.9</v>
+        <v>2004</v>
       </c>
       <c r="AN189" s="7">
-        <v>12.3</v>
+        <v>2073</v>
       </c>
       <c r="AO189" s="7">
-        <v>14</v>
+        <v>2182</v>
       </c>
       <c r="AP189" s="7">
-        <v>14.5</v>
+        <v>2167</v>
       </c>
       <c r="AQ189" s="7">
-        <v>19.1</v>
+        <v>2176</v>
       </c>
       <c r="AR189" s="7">
-        <v>23.6</v>
+        <v>2184</v>
       </c>
       <c r="AS189" s="7">
-        <v>25.8</v>
+        <v>2290</v>
       </c>
       <c r="AT189" s="7">
-        <v>28.6</v>
+        <v>2361</v>
       </c>
       <c r="AU189" s="7">
-        <v>32.6</v>
+        <v>2455</v>
       </c>
       <c r="BC189" s="4" t="inlineStr">
         <is>
@@ -40206,29 +40128,29 @@
       </c>
       <c r="CP189" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="190">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01_D001</t>
+          <t>Z12_B02_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C190" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D190" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_EMPLOYEES</t>
         </is>
       </c>
       <c r="E190" s="4" t="inlineStr">
@@ -40253,50 +40175,74 @@
       </c>
       <c r="I190" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_10H3</t>
         </is>
       </c>
       <c r="K190" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M190" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC190" s="7">
+        <v>961</v>
+      </c>
+      <c r="AD190" s="7">
+        <v>926</v>
+      </c>
+      <c r="AE190" s="7">
+        <v>860</v>
+      </c>
+      <c r="AF190" s="7">
+        <v>840</v>
+      </c>
+      <c r="AG190" s="7">
+        <v>803</v>
+      </c>
+      <c r="AH190" s="7">
+        <v>781</v>
+      </c>
+      <c r="AI190" s="7">
+        <v>765</v>
+      </c>
       <c r="AJ190" s="7">
-        <v>3.6</v>
+        <v>773</v>
       </c>
       <c r="AK190" s="7">
-        <v>4.4</v>
+        <v>788</v>
       </c>
       <c r="AL190" s="7">
-        <v>5.9</v>
+        <v>785</v>
       </c>
       <c r="AM190" s="7">
-        <v>7.6</v>
+        <v>801</v>
       </c>
       <c r="AN190" s="7">
-        <v>8.7</v>
+        <v>842</v>
       </c>
       <c r="AO190" s="7">
-        <v>8.4</v>
+        <v>985</v>
       </c>
       <c r="AP190" s="7">
-        <v>7.4</v>
+        <v>929</v>
       </c>
       <c r="AQ190" s="7">
-        <v>7.9</v>
+        <v>988</v>
       </c>
       <c r="AR190" s="7">
-        <v>13.4</v>
+        <v>860</v>
       </c>
       <c r="AS190" s="7">
-        <v>14.9</v>
+        <v>911</v>
       </c>
       <c r="AT190" s="7">
-        <v>13.9</v>
+        <v>915</v>
+      </c>
+      <c r="AU190" s="7">
+        <v>1180</v>
       </c>
       <c r="BC190" s="4" t="inlineStr">
         <is>
@@ -40400,29 +40346,29 @@
       </c>
       <c r="CP190" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib01</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01_D001</t>
+          <t>Z12_B02_P01_Ib01_I01_D019</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I01</t>
+          <t>Z12_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_ORGANISAT</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
@@ -40447,53 +40393,74 @@
       </c>
       <c r="I191" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2010</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K191" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC191" s="7">
+        <v>1491</v>
+      </c>
+      <c r="AD191" s="7">
+        <v>1490</v>
+      </c>
+      <c r="AE191" s="7">
+        <v>1466</v>
+      </c>
+      <c r="AF191" s="7">
+        <v>1408</v>
+      </c>
+      <c r="AG191" s="7">
+        <v>1354</v>
+      </c>
       <c r="AH191" s="7">
-        <v>100</v>
+        <v>1332</v>
       </c>
       <c r="AI191" s="7">
-        <v>100.906</v>
+        <v>1269</v>
       </c>
       <c r="AJ191" s="7">
-        <v>99.396</v>
+        <v>1212</v>
       </c>
       <c r="AK191" s="7">
-        <v>98.792</v>
+        <v>1228</v>
       </c>
       <c r="AL191" s="7">
-        <v>99.849</v>
+        <v>1223</v>
       </c>
       <c r="AM191" s="7">
-        <v>97.885</v>
+        <v>1216</v>
       </c>
       <c r="AN191" s="7">
-        <v>100.755</v>
+        <v>1225</v>
       </c>
       <c r="AO191" s="7">
-        <v>99.396</v>
+        <v>1240</v>
       </c>
       <c r="AP191" s="7">
-        <v>97.734</v>
+        <v>1183</v>
       </c>
       <c r="AQ191" s="7">
-        <v>97.734</v>
+        <v>1150</v>
       </c>
       <c r="AR191" s="7">
-        <v>96.073</v>
+        <v>1113</v>
       </c>
       <c r="AS191" s="7">
-        <v>99.547</v>
+        <v>1115</v>
+      </c>
+      <c r="AT191" s="7">
+        <v>1117</v>
+      </c>
+      <c r="AU191" s="7">
+        <v>1115</v>
       </c>
       <c r="BC191" s="4" t="inlineStr">
         <is>
@@ -40597,19 +40564,19 @@
       </c>
       <c r="CP191" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02_D001</t>
+          <t>Z12_B02_P02_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I02</t>
+          <t>Z12_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C192" s="4" t="inlineStr">
@@ -40644,41 +40611,20 @@
       </c>
       <c r="I192" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2010</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K192" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M192" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AH192" s="7">
-        <v>100</v>
-      </c>
-      <c r="AI192" s="7">
-        <v>95.751</v>
-      </c>
-      <c r="AJ192" s="7">
-        <v>95.038</v>
-      </c>
-      <c r="AK192" s="7">
-        <v>96.49</v>
-      </c>
-      <c r="AL192" s="7">
-        <v>90.044</v>
-      </c>
-      <c r="AM192" s="7">
-        <v>92.347</v>
-      </c>
-      <c r="AN192" s="7">
-        <v>95.038</v>
-      </c>
-      <c r="AO192" s="7">
-        <v>94.057</v>
+      <c r="AV192" s="7">
+        <v>93</v>
       </c>
       <c r="BC192" s="4" t="inlineStr">
         <is>
@@ -40782,19 +40728,19 @@
       </c>
       <c r="CP192" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B02_P02_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03_D001</t>
+          <t>Z12_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02_I03</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
@@ -40829,7 +40775,7 @@
       </c>
       <c r="I193" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2010</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K193" s="6" t="b">
@@ -40841,29 +40787,11 @@
       <c r="M193" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AH193" s="7">
-        <v>100</v>
-      </c>
-      <c r="AI193" s="7">
-        <v>97.395</v>
-      </c>
-      <c r="AJ193" s="7">
-        <v>97.977</v>
-      </c>
-      <c r="AK193" s="7">
-        <v>98.721</v>
-      </c>
-      <c r="AL193" s="7">
-        <v>91.772</v>
-      </c>
-      <c r="AM193" s="7">
-        <v>93.658</v>
-      </c>
-      <c r="AN193" s="7">
-        <v>93.839</v>
-      </c>
-      <c r="AO193" s="7">
-        <v>92.089</v>
+      <c r="AS193" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="AT193" s="7">
+        <v>12.8</v>
       </c>
       <c r="BC193" s="4" t="inlineStr">
         <is>
@@ -40967,29 +40895,29 @@
       </c>
       <c r="CP193" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01_Ib02</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="194">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01_D001</t>
+          <t>Z12_B03_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C194" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_LOCATIONS</t>
+          <t/>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
@@ -41014,7 +40942,7 @@
       </c>
       <c r="I194" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_IDX2015</t>
         </is>
       </c>
       <c r="K194" s="6" t="b">
@@ -41026,62 +40954,29 @@
       <c r="M194" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC194" s="7">
-        <v>1958</v>
-      </c>
-      <c r="AD194" s="7">
-        <v>1985</v>
-      </c>
-      <c r="AE194" s="7">
-        <v>1956</v>
-      </c>
-      <c r="AF194" s="7">
-        <v>1917</v>
-      </c>
-      <c r="AG194" s="7">
-        <v>1906</v>
-      </c>
-      <c r="AH194" s="7">
-        <v>1913</v>
-      </c>
-      <c r="AI194" s="7">
-        <v>1909</v>
-      </c>
-      <c r="AJ194" s="7">
-        <v>1828</v>
-      </c>
-      <c r="AK194" s="7">
-        <v>1862</v>
-      </c>
-      <c r="AL194" s="7">
-        <v>1906</v>
-      </c>
       <c r="AM194" s="7">
-        <v>2004</v>
+        <v>100</v>
       </c>
       <c r="AN194" s="7">
-        <v>2073</v>
+        <v>99.954</v>
       </c>
       <c r="AO194" s="7">
-        <v>2182</v>
+        <v>99.679</v>
       </c>
       <c r="AP194" s="7">
-        <v>2167</v>
+        <v>99.854</v>
       </c>
       <c r="AQ194" s="7">
-        <v>2176</v>
+        <v>100.427</v>
       </c>
       <c r="AR194" s="7">
-        <v>2184</v>
+        <v>101.93</v>
       </c>
       <c r="AS194" s="7">
-        <v>2290</v>
+        <v>102.998</v>
       </c>
       <c r="AT194" s="7">
-        <v>2361</v>
-      </c>
-      <c r="AU194" s="7">
-        <v>2455</v>
+        <v>101.606</v>
       </c>
       <c r="BC194" s="4" t="inlineStr">
         <is>
@@ -41185,29 +41080,29 @@
       </c>
       <c r="CP194" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01_D018</t>
+          <t>Z12_B03_P01_Ib01_I03_D001</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EMPLOYEES</t>
+          <t/>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">
@@ -41232,74 +41127,20 @@
       </c>
       <c r="I195" s="4" t="inlineStr">
         <is>
-          <t>E_10H3</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K195" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC195" s="7">
-        <v>961</v>
-      </c>
-      <c r="AD195" s="7">
-        <v>926</v>
-      </c>
-      <c r="AE195" s="7">
-        <v>860</v>
-      </c>
-      <c r="AF195" s="7">
-        <v>840</v>
-      </c>
-      <c r="AG195" s="7">
-        <v>803</v>
-      </c>
-      <c r="AH195" s="7">
-        <v>781</v>
-      </c>
-      <c r="AI195" s="7">
-        <v>765</v>
-      </c>
-      <c r="AJ195" s="7">
-        <v>773</v>
-      </c>
-      <c r="AK195" s="7">
-        <v>788</v>
-      </c>
-      <c r="AL195" s="7">
-        <v>785</v>
-      </c>
-      <c r="AM195" s="7">
-        <v>801</v>
-      </c>
-      <c r="AN195" s="7">
-        <v>842</v>
-      </c>
-      <c r="AO195" s="7">
-        <v>985</v>
-      </c>
-      <c r="AP195" s="7">
-        <v>929</v>
-      </c>
-      <c r="AQ195" s="7">
-        <v>988</v>
-      </c>
-      <c r="AR195" s="7">
-        <v>860</v>
-      </c>
-      <c r="AS195" s="7">
-        <v>911</v>
-      </c>
-      <c r="AT195" s="7">
-        <v>915</v>
-      </c>
-      <c r="AU195" s="7">
-        <v>1180</v>
+      <c r="AV195" s="7">
+        <v>99.999</v>
       </c>
       <c r="BC195" s="4" t="inlineStr">
         <is>
@@ -41403,29 +41244,29 @@
       </c>
       <c r="CP195" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="196">
       <c r="A196" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01_D019</t>
+          <t>Z12_B04_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01_I01</t>
+          <t>Z12_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C196" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D196" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_ORGANISAT</t>
+          <t/>
         </is>
       </c>
       <c r="E196" s="4" t="inlineStr">
@@ -41450,74 +41291,47 @@
       </c>
       <c r="I196" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K196" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC196" s="7">
-        <v>1491</v>
-      </c>
-      <c r="AD196" s="7">
-        <v>1490</v>
-      </c>
-      <c r="AE196" s="7">
-        <v>1466</v>
-      </c>
-      <c r="AF196" s="7">
-        <v>1408</v>
-      </c>
-      <c r="AG196" s="7">
-        <v>1354</v>
-      </c>
-      <c r="AH196" s="7">
-        <v>1332</v>
-      </c>
-      <c r="AI196" s="7">
-        <v>1269</v>
-      </c>
-      <c r="AJ196" s="7">
-        <v>1212</v>
-      </c>
-      <c r="AK196" s="7">
-        <v>1228</v>
-      </c>
       <c r="AL196" s="7">
-        <v>1223</v>
+        <v>15.891</v>
       </c>
       <c r="AM196" s="7">
-        <v>1216</v>
+        <v>15.386</v>
       </c>
       <c r="AN196" s="7">
-        <v>1225</v>
+        <v>15.051</v>
       </c>
       <c r="AO196" s="7">
-        <v>1240</v>
+        <v>14.627</v>
       </c>
       <c r="AP196" s="7">
-        <v>1183</v>
+        <v>14.307</v>
       </c>
       <c r="AQ196" s="7">
-        <v>1150</v>
+        <v>14.205</v>
       </c>
       <c r="AR196" s="7">
-        <v>1113</v>
+        <v>14.39</v>
       </c>
       <c r="AS196" s="7">
-        <v>1115</v>
+        <v>13.507</v>
       </c>
       <c r="AT196" s="7">
-        <v>1117</v>
+        <v>12.727</v>
       </c>
       <c r="AU196" s="7">
-        <v>1115</v>
+        <v>11.836</v>
       </c>
       <c r="BC196" s="4" t="inlineStr">
         <is>
@@ -41621,19 +41435,19 @@
       </c>
       <c r="CP196" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01_Ib01</t>
+          <t>Z12_B04_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01_D001</t>
+          <t>Z13_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
@@ -41668,7 +41482,7 @@
       </c>
       <c r="I197" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2015</t>
+          <t>E_IDX_1990</t>
         </is>
       </c>
       <c r="K197" s="6" t="b">
@@ -41680,29 +41494,107 @@
       <c r="M197" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N197" s="7">
+        <v>100</v>
+      </c>
+      <c r="O197" s="7">
+        <v>96.321</v>
+      </c>
+      <c r="P197" s="7">
+        <v>92.356</v>
+      </c>
+      <c r="Q197" s="7">
+        <v>91.622</v>
+      </c>
+      <c r="R197" s="7">
+        <v>90.173</v>
+      </c>
+      <c r="S197" s="7">
+        <v>89.601</v>
+      </c>
+      <c r="T197" s="7">
+        <v>90.981</v>
+      </c>
+      <c r="U197" s="7">
+        <v>88.122</v>
+      </c>
+      <c r="V197" s="7">
+        <v>86.166</v>
+      </c>
+      <c r="W197" s="7">
+        <v>83.428</v>
+      </c>
+      <c r="X197" s="7">
+        <v>83.191</v>
+      </c>
+      <c r="Y197" s="7">
+        <v>84.363</v>
+      </c>
+      <c r="Z197" s="7">
+        <v>82.625</v>
+      </c>
+      <c r="AA197" s="7">
+        <v>81.935</v>
+      </c>
+      <c r="AB197" s="7">
+        <v>80.056</v>
+      </c>
+      <c r="AC197" s="7">
+        <v>78.96</v>
+      </c>
+      <c r="AD197" s="7">
+        <v>80.038</v>
+      </c>
+      <c r="AE197" s="7">
+        <v>76.819</v>
+      </c>
+      <c r="AF197" s="7">
+        <v>77.447</v>
+      </c>
+      <c r="AG197" s="7">
+        <v>71.946</v>
+      </c>
+      <c r="AH197" s="7">
+        <v>74.194</v>
+      </c>
+      <c r="AI197" s="7">
+        <v>72.307</v>
+      </c>
+      <c r="AJ197" s="7">
+        <v>73.121</v>
+      </c>
+      <c r="AK197" s="7">
+        <v>74.479</v>
+      </c>
+      <c r="AL197" s="7">
+        <v>71.233</v>
+      </c>
       <c r="AM197" s="7">
-        <v>100</v>
+        <v>71.913</v>
       </c>
       <c r="AN197" s="7">
-        <v>136.802</v>
+        <v>71.539</v>
       </c>
       <c r="AO197" s="7">
-        <v>147.738</v>
+        <v>70.35</v>
       </c>
       <c r="AP197" s="7">
-        <v>197.464</v>
+        <v>68.1</v>
       </c>
       <c r="AQ197" s="7">
-        <v>204.067</v>
+        <v>63.707</v>
       </c>
       <c r="AR197" s="7">
-        <v>212.886</v>
+        <v>58.51</v>
       </c>
       <c r="AS197" s="7">
-        <v>208.58</v>
+        <v>60.736</v>
       </c>
       <c r="AT197" s="7">
-        <v>192.684</v>
+        <v>59.966</v>
+      </c>
+      <c r="AU197" s="7">
+        <v>53.888</v>
       </c>
       <c r="BC197" s="4" t="inlineStr">
         <is>
@@ -41806,19 +41698,19 @@
       </c>
       <c r="CP197" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="198">
       <c r="A198" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02_D001</t>
+          <t>Z13_B01_P02_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C198" s="4" t="inlineStr">
@@ -41853,11 +41745,11 @@
       </c>
       <c r="I198" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2015</t>
+          <t>E_BNEUR</t>
         </is>
       </c>
       <c r="K198" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198" s="6" t="b">
         <v>1</v>
@@ -41865,29 +41757,44 @@
       <c r="M198" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AI198" s="7">
+        <v>1.56</v>
+      </c>
+      <c r="AJ198" s="7">
+        <v>1.66</v>
+      </c>
+      <c r="AK198" s="7">
+        <v>1.95</v>
+      </c>
+      <c r="AL198" s="7">
+        <v>2.34</v>
+      </c>
       <c r="AM198" s="7">
-        <v>100</v>
+        <v>2.684</v>
       </c>
       <c r="AN198" s="7">
-        <v>99.954</v>
+        <v>3.362</v>
       </c>
       <c r="AO198" s="7">
-        <v>99.679</v>
+        <v>3.65</v>
       </c>
       <c r="AP198" s="7">
-        <v>99.854</v>
+        <v>3.37</v>
       </c>
       <c r="AQ198" s="7">
-        <v>100.427</v>
+        <v>4.34</v>
       </c>
       <c r="AR198" s="7">
-        <v>101.93</v>
+        <v>5.09</v>
       </c>
       <c r="AS198" s="7">
-        <v>102.998</v>
+        <v>5.34</v>
       </c>
       <c r="AT198" s="7">
-        <v>101.606</v>
+        <v>6.39</v>
+      </c>
+      <c r="AU198" s="7">
+        <v>5.66</v>
       </c>
       <c r="BC198" s="4" t="inlineStr">
         <is>
@@ -41991,19 +41898,19 @@
       </c>
       <c r="CP198" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01_D001</t>
+          <t>Z14_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
@@ -42038,7 +41945,7 @@
       </c>
       <c r="I199" s="4" t="inlineStr">
         <is>
-          <t>E_IDX_1990</t>
+          <t>E_MILIGPL</t>
         </is>
       </c>
       <c r="K199" s="6" t="b">
@@ -42050,107 +41957,74 @@
       <c r="M199" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N199" s="7">
-        <v>100</v>
-      </c>
-      <c r="O199" s="7">
-        <v>96.321</v>
-      </c>
-      <c r="P199" s="7">
-        <v>92.356</v>
-      </c>
-      <c r="Q199" s="7">
-        <v>91.622</v>
-      </c>
-      <c r="R199" s="7">
-        <v>90.173</v>
-      </c>
-      <c r="S199" s="7">
-        <v>89.601</v>
-      </c>
-      <c r="T199" s="7">
-        <v>90.981</v>
-      </c>
-      <c r="U199" s="7">
-        <v>88.122</v>
-      </c>
-      <c r="V199" s="7">
-        <v>86.166</v>
-      </c>
       <c r="W199" s="7">
-        <v>83.428</v>
+        <v>3.918</v>
       </c>
       <c r="X199" s="7">
-        <v>83.191</v>
+        <v>3.832</v>
       </c>
       <c r="Y199" s="7">
-        <v>84.363</v>
+        <v>3.958</v>
       </c>
       <c r="Z199" s="7">
-        <v>82.625</v>
+        <v>4.182</v>
       </c>
       <c r="AA199" s="7">
-        <v>81.935</v>
+        <v>3.741</v>
       </c>
       <c r="AB199" s="7">
-        <v>80.056</v>
+        <v>3.582</v>
       </c>
       <c r="AC199" s="7">
-        <v>78.96</v>
+        <v>3.577</v>
       </c>
       <c r="AD199" s="7">
-        <v>80.038</v>
+        <v>3.515</v>
       </c>
       <c r="AE199" s="7">
-        <v>76.819</v>
+        <v>3.524</v>
       </c>
       <c r="AF199" s="7">
-        <v>77.447</v>
+        <v>3.686</v>
       </c>
       <c r="AG199" s="7">
-        <v>71.946</v>
+        <v>3.602</v>
       </c>
       <c r="AH199" s="7">
-        <v>74.194</v>
+        <v>3.754</v>
       </c>
       <c r="AI199" s="7">
-        <v>72.307</v>
+        <v>3.785</v>
       </c>
       <c r="AJ199" s="7">
-        <v>73.121</v>
+        <v>3.447</v>
       </c>
       <c r="AK199" s="7">
-        <v>74.479</v>
+        <v>3.41</v>
       </c>
       <c r="AL199" s="7">
-        <v>71.233</v>
+        <v>3.352</v>
       </c>
       <c r="AM199" s="7">
-        <v>71.913</v>
+        <v>3.146</v>
       </c>
       <c r="AN199" s="7">
-        <v>71.539</v>
+        <v>2.954</v>
       </c>
       <c r="AO199" s="7">
-        <v>70.35</v>
+        <v>3.191</v>
       </c>
       <c r="AP199" s="7">
-        <v>68.1</v>
+        <v>3.145</v>
       </c>
       <c r="AQ199" s="7">
-        <v>63.707</v>
+        <v>3.17</v>
       </c>
       <c r="AR199" s="7">
-        <v>58.51</v>
+        <v>3.071</v>
       </c>
       <c r="AS199" s="7">
-        <v>60.736</v>
-      </c>
-      <c r="AT199" s="7">
-        <v>59.966</v>
-      </c>
-      <c r="AU199" s="7">
-        <v>53.888</v>
+        <v>3.196</v>
       </c>
       <c r="BC199" s="4" t="inlineStr">
         <is>
@@ -42254,19 +42128,19 @@
       </c>
       <c r="CP199" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="200">
       <c r="A200" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01_D001</t>
+          <t>Z14_B01_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C200" s="4" t="inlineStr">
@@ -42301,7 +42175,7 @@
       </c>
       <c r="I200" s="4" t="inlineStr">
         <is>
-          <t>E_BNEUR</t>
+          <t>E_MILIGPL</t>
         </is>
       </c>
       <c r="K200" s="6" t="b">
@@ -42313,44 +42187,74 @@
       <c r="M200" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="W200" s="7">
+        <v>4.131</v>
+      </c>
+      <c r="X200" s="7">
+        <v>4.022</v>
+      </c>
+      <c r="Y200" s="7">
+        <v>3.833</v>
+      </c>
+      <c r="Z200" s="7">
+        <v>3.76</v>
+      </c>
+      <c r="AA200" s="7">
+        <v>3.617</v>
+      </c>
+      <c r="AB200" s="7">
+        <v>3.583</v>
+      </c>
+      <c r="AC200" s="7">
+        <v>3.552</v>
+      </c>
+      <c r="AD200" s="7">
+        <v>3.558</v>
+      </c>
+      <c r="AE200" s="7">
+        <v>3.481</v>
+      </c>
+      <c r="AF200" s="7">
+        <v>3.446</v>
+      </c>
+      <c r="AG200" s="7">
+        <v>3.381</v>
+      </c>
+      <c r="AH200" s="7">
+        <v>3.385</v>
+      </c>
       <c r="AI200" s="7">
-        <v>1.56</v>
+        <v>3.296</v>
       </c>
       <c r="AJ200" s="7">
-        <v>1.66</v>
+        <v>3.169</v>
       </c>
       <c r="AK200" s="7">
-        <v>1.95</v>
+        <v>3.157</v>
       </c>
       <c r="AL200" s="7">
-        <v>2.34</v>
+        <v>3.086</v>
       </c>
       <c r="AM200" s="7">
-        <v>2.684</v>
+        <v>2.978</v>
       </c>
       <c r="AN200" s="7">
-        <v>3.362</v>
+        <v>2.921</v>
       </c>
       <c r="AO200" s="7">
-        <v>3.65</v>
+        <v>2.975</v>
       </c>
       <c r="AP200" s="7">
-        <v>3.37</v>
+        <v>2.838</v>
       </c>
       <c r="AQ200" s="7">
-        <v>4.34</v>
+        <v>2.815</v>
       </c>
       <c r="AR200" s="7">
-        <v>5.09</v>
+        <v>2.756</v>
       </c>
       <c r="AS200" s="7">
-        <v>5.34</v>
-      </c>
-      <c r="AT200" s="7">
-        <v>6.39</v>
-      </c>
-      <c r="AU200" s="7">
-        <v>5.66</v>
+        <v>2.75</v>
       </c>
       <c r="BC200" s="4" t="inlineStr">
         <is>
@@ -42454,29 +42358,29 @@
       </c>
       <c r="CP200" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01_D001</t>
+          <t>Z14_B01_P01_Ib02_I01_D001</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C201" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D201" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
@@ -42501,7 +42405,7 @@
       </c>
       <c r="I201" s="4" t="inlineStr">
         <is>
-          <t>E_MILIGPL</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K201" s="6" t="b">
@@ -42513,74 +42417,65 @@
       <c r="M201" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="W201" s="7">
-        <v>3.918</v>
-      </c>
-      <c r="X201" s="7">
-        <v>3.832</v>
-      </c>
-      <c r="Y201" s="7">
-        <v>3.958</v>
-      </c>
-      <c r="Z201" s="7">
-        <v>4.182</v>
-      </c>
       <c r="AA201" s="7">
-        <v>3.741</v>
+        <v>33.333</v>
       </c>
       <c r="AB201" s="7">
-        <v>3.582</v>
+        <v>24.242</v>
       </c>
       <c r="AC201" s="7">
-        <v>3.577</v>
+        <v>24.242</v>
       </c>
       <c r="AD201" s="7">
-        <v>3.515</v>
+        <v>18.182</v>
       </c>
       <c r="AE201" s="7">
-        <v>3.524</v>
+        <v>24.242</v>
       </c>
       <c r="AF201" s="7">
-        <v>3.686</v>
+        <v>30.303</v>
       </c>
       <c r="AG201" s="7">
-        <v>3.602</v>
+        <v>30.303</v>
       </c>
       <c r="AH201" s="7">
-        <v>3.754</v>
+        <v>33.333</v>
       </c>
       <c r="AI201" s="7">
-        <v>3.785</v>
+        <v>45.455</v>
       </c>
       <c r="AJ201" s="7">
-        <v>3.447</v>
+        <v>45.455</v>
       </c>
       <c r="AK201" s="7">
-        <v>3.41</v>
+        <v>45.455</v>
       </c>
       <c r="AL201" s="7">
-        <v>3.352</v>
+        <v>36.364</v>
       </c>
       <c r="AM201" s="7">
-        <v>3.146</v>
+        <v>39.394</v>
       </c>
       <c r="AN201" s="7">
-        <v>2.954</v>
+        <v>48.485</v>
       </c>
       <c r="AO201" s="7">
-        <v>3.191</v>
+        <v>47.059</v>
       </c>
       <c r="AP201" s="7">
-        <v>3.145</v>
+        <v>50</v>
       </c>
       <c r="AQ201" s="7">
-        <v>3.17</v>
+        <v>44.118</v>
       </c>
       <c r="AR201" s="7">
-        <v>3.071</v>
+        <v>47.059</v>
       </c>
       <c r="AS201" s="7">
-        <v>3.196</v>
+        <v>58.824</v>
+      </c>
+      <c r="AT201" s="7">
+        <v>61.765</v>
       </c>
       <c r="BC201" s="4" t="inlineStr">
         <is>
@@ -42684,39 +42579,39 @@
       </c>
       <c r="CP201" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="202">
       <c r="A202" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02_D001</t>
+          <t>Z14_B01_P01_Ib02_I01_D002</t>
         </is>
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C202" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D202" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="E202" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="F202" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEA_N</t>
         </is>
       </c>
       <c r="G202" s="4" t="inlineStr">
@@ -42731,86 +42626,77 @@
       </c>
       <c r="I202" s="4" t="inlineStr">
         <is>
-          <t>E_MILIGPL</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K202" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M202" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="W202" s="7">
-        <v>4.131</v>
-      </c>
-      <c r="X202" s="7">
-        <v>4.022</v>
-      </c>
-      <c r="Y202" s="7">
-        <v>3.833</v>
-      </c>
-      <c r="Z202" s="7">
-        <v>3.76</v>
-      </c>
       <c r="AA202" s="7">
-        <v>3.617</v>
+        <v>40</v>
       </c>
       <c r="AB202" s="7">
-        <v>3.583</v>
+        <v>28</v>
       </c>
       <c r="AC202" s="7">
-        <v>3.552</v>
+        <v>24</v>
       </c>
       <c r="AD202" s="7">
-        <v>3.558</v>
+        <v>20</v>
       </c>
       <c r="AE202" s="7">
-        <v>3.481</v>
+        <v>24</v>
       </c>
       <c r="AF202" s="7">
-        <v>3.446</v>
+        <v>32</v>
       </c>
       <c r="AG202" s="7">
-        <v>3.381</v>
+        <v>28</v>
       </c>
       <c r="AH202" s="7">
-        <v>3.385</v>
+        <v>32</v>
       </c>
       <c r="AI202" s="7">
-        <v>3.296</v>
+        <v>40</v>
       </c>
       <c r="AJ202" s="7">
-        <v>3.169</v>
+        <v>36</v>
       </c>
       <c r="AK202" s="7">
-        <v>3.157</v>
+        <v>40</v>
       </c>
       <c r="AL202" s="7">
-        <v>3.086</v>
+        <v>32</v>
       </c>
       <c r="AM202" s="7">
-        <v>2.978</v>
+        <v>40</v>
       </c>
       <c r="AN202" s="7">
-        <v>2.921</v>
+        <v>48</v>
       </c>
       <c r="AO202" s="7">
-        <v>2.975</v>
+        <v>42.308</v>
       </c>
       <c r="AP202" s="7">
-        <v>2.838</v>
+        <v>50</v>
       </c>
       <c r="AQ202" s="7">
-        <v>2.815</v>
+        <v>38.462</v>
       </c>
       <c r="AR202" s="7">
-        <v>2.756</v>
+        <v>42.308</v>
       </c>
       <c r="AS202" s="7">
-        <v>2.75</v>
+        <v>57.692</v>
+      </c>
+      <c r="AT202" s="7">
+        <v>53.846</v>
       </c>
       <c r="BC202" s="4" t="inlineStr">
         <is>
@@ -42914,14 +42800,14 @@
       </c>
       <c r="CP202" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01_D001</t>
+          <t>Z14_B01_P01_Ib02_I01_D003</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
@@ -42941,12 +42827,12 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="F203" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEA_B</t>
         </is>
       </c>
       <c r="G203" s="4" t="inlineStr">
@@ -42965,73 +42851,73 @@
         </is>
       </c>
       <c r="K203" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M203" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AA203" s="7">
-        <v>33.333</v>
+        <v>12.5</v>
       </c>
       <c r="AB203" s="7">
-        <v>24.242</v>
+        <v>12.5</v>
       </c>
       <c r="AC203" s="7">
-        <v>24.242</v>
+        <v>25</v>
       </c>
       <c r="AD203" s="7">
-        <v>18.182</v>
+        <v>12.5</v>
       </c>
       <c r="AE203" s="7">
-        <v>24.242</v>
+        <v>25</v>
       </c>
       <c r="AF203" s="7">
-        <v>30.303</v>
+        <v>25</v>
       </c>
       <c r="AG203" s="7">
-        <v>30.303</v>
+        <v>37.5</v>
       </c>
       <c r="AH203" s="7">
-        <v>33.333</v>
+        <v>37.5</v>
       </c>
       <c r="AI203" s="7">
-        <v>45.455</v>
+        <v>62.5</v>
       </c>
       <c r="AJ203" s="7">
-        <v>45.455</v>
+        <v>75</v>
       </c>
       <c r="AK203" s="7">
-        <v>45.455</v>
+        <v>62.5</v>
       </c>
       <c r="AL203" s="7">
-        <v>36.364</v>
+        <v>50</v>
       </c>
       <c r="AM203" s="7">
-        <v>39.394</v>
+        <v>37.5</v>
       </c>
       <c r="AN203" s="7">
-        <v>48.485</v>
+        <v>50</v>
       </c>
       <c r="AO203" s="7">
-        <v>47.059</v>
+        <v>62.5</v>
       </c>
       <c r="AP203" s="7">
         <v>50</v>
       </c>
       <c r="AQ203" s="7">
-        <v>44.118</v>
+        <v>62.5</v>
       </c>
       <c r="AR203" s="7">
-        <v>47.059</v>
+        <v>62.5</v>
       </c>
       <c r="AS203" s="7">
-        <v>58.824</v>
+        <v>62.5</v>
       </c>
       <c r="AT203" s="7">
-        <v>61.765</v>
+        <v>87.5</v>
       </c>
       <c r="BC203" s="4" t="inlineStr">
         <is>
@@ -43142,7 +43028,7 @@
     <row outlineLevel="0" r="204">
       <c r="A204" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01_D002</t>
+          <t>Z14_B01_P01_Ib02_I01_D004</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
@@ -43157,17 +43043,17 @@
       </c>
       <c r="D204" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="E204" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t/>
         </is>
       </c>
       <c r="F204" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_N</t>
+          <t/>
         </is>
       </c>
       <c r="G204" s="4" t="inlineStr">
@@ -43195,64 +43081,64 @@
         <v>0</v>
       </c>
       <c r="AA204" s="7">
-        <v>40</v>
+        <v>42.308</v>
       </c>
       <c r="AB204" s="7">
-        <v>28</v>
+        <v>42.308</v>
       </c>
       <c r="AC204" s="7">
-        <v>24</v>
+        <v>42.308</v>
       </c>
       <c r="AD204" s="7">
-        <v>20</v>
+        <v>42.308</v>
       </c>
       <c r="AE204" s="7">
-        <v>24</v>
+        <v>42.308</v>
       </c>
       <c r="AF204" s="7">
-        <v>32</v>
+        <v>42.308</v>
       </c>
       <c r="AG204" s="7">
-        <v>28</v>
+        <v>42.308</v>
       </c>
       <c r="AH204" s="7">
-        <v>32</v>
+        <v>42.308</v>
       </c>
       <c r="AI204" s="7">
-        <v>40</v>
+        <v>42.308</v>
       </c>
       <c r="AJ204" s="7">
-        <v>36</v>
+        <v>42.308</v>
       </c>
       <c r="AK204" s="7">
-        <v>40</v>
+        <v>42.308</v>
       </c>
       <c r="AL204" s="7">
-        <v>32</v>
+        <v>42.308</v>
       </c>
       <c r="AM204" s="7">
-        <v>40</v>
+        <v>42.308</v>
       </c>
       <c r="AN204" s="7">
-        <v>48</v>
+        <v>42.308</v>
       </c>
       <c r="AO204" s="7">
-        <v>42.308</v>
+        <v>43.59</v>
       </c>
       <c r="AP204" s="7">
-        <v>50</v>
+        <v>43.59</v>
       </c>
       <c r="AQ204" s="7">
-        <v>38.462</v>
+        <v>43.59</v>
       </c>
       <c r="AR204" s="7">
-        <v>42.308</v>
+        <v>43.59</v>
       </c>
       <c r="AS204" s="7">
-        <v>57.692</v>
+        <v>43.59</v>
       </c>
       <c r="AT204" s="7">
-        <v>53.846</v>
+        <v>43.59</v>
       </c>
       <c r="BC204" s="4" t="inlineStr">
         <is>
@@ -43363,32 +43249,32 @@
     <row outlineLevel="0" r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01_D003</t>
+          <t>Z15_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t/>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t/>
         </is>
       </c>
       <c r="F205" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_B</t>
+          <t/>
         </is>
       </c>
       <c r="G205" s="4" t="inlineStr">
@@ -43403,77 +43289,107 @@
       </c>
       <c r="I205" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX_2030</t>
         </is>
       </c>
       <c r="K205" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N205" s="7">
+        <v>136.263</v>
+      </c>
+      <c r="O205" s="7">
+        <v>127.755</v>
+      </c>
+      <c r="P205" s="7">
+        <v>119.916</v>
+      </c>
+      <c r="Q205" s="7">
+        <v>126.218</v>
+      </c>
+      <c r="R205" s="7">
+        <v>126.751</v>
+      </c>
+      <c r="S205" s="7">
+        <v>113.45</v>
+      </c>
+      <c r="T205" s="7">
+        <v>119.46</v>
+      </c>
+      <c r="U205" s="7">
+        <v>108.517</v>
+      </c>
+      <c r="V205" s="7">
+        <v>102.154</v>
+      </c>
+      <c r="W205" s="7">
+        <v>108.982</v>
+      </c>
+      <c r="X205" s="7">
+        <v>101.831</v>
+      </c>
+      <c r="Y205" s="7">
+        <v>99.816</v>
+      </c>
+      <c r="Z205" s="7">
+        <v>93.221</v>
+      </c>
       <c r="AA205" s="7">
-        <v>12.5</v>
+        <v>89.021</v>
       </c>
       <c r="AB205" s="7">
-        <v>12.5</v>
+        <v>92.82</v>
       </c>
       <c r="AC205" s="7">
-        <v>25</v>
+        <v>91.002</v>
       </c>
       <c r="AD205" s="7">
-        <v>12.5</v>
+        <v>86.532</v>
       </c>
       <c r="AE205" s="7">
-        <v>25</v>
+        <v>87.294</v>
       </c>
       <c r="AF205" s="7">
-        <v>25</v>
+        <v>88.442</v>
       </c>
       <c r="AG205" s="7">
-        <v>37.5</v>
+        <v>82.514</v>
       </c>
       <c r="AH205" s="7">
-        <v>37.5</v>
+        <v>79.533</v>
       </c>
       <c r="AI205" s="7">
-        <v>62.5</v>
+        <v>77.341</v>
       </c>
       <c r="AJ205" s="7">
-        <v>75</v>
+        <v>80.342</v>
       </c>
       <c r="AK205" s="7">
-        <v>62.5</v>
+        <v>76.917</v>
       </c>
       <c r="AL205" s="7">
-        <v>50</v>
+        <v>75.893</v>
       </c>
       <c r="AM205" s="7">
-        <v>37.5</v>
+        <v>79.976</v>
       </c>
       <c r="AN205" s="7">
-        <v>50</v>
+        <v>79.954</v>
       </c>
       <c r="AO205" s="7">
-        <v>62.5</v>
+        <v>75.555</v>
       </c>
       <c r="AP205" s="7">
-        <v>50</v>
+        <v>73.664</v>
       </c>
       <c r="AQ205" s="7">
-        <v>62.5</v>
-      </c>
-      <c r="AR205" s="7">
-        <v>62.5</v>
-      </c>
-      <c r="AS205" s="7">
-        <v>62.5</v>
-      </c>
-      <c r="AT205" s="7">
-        <v>87.5</v>
+        <v>75.343</v>
       </c>
       <c r="BC205" s="4" t="inlineStr">
         <is>
@@ -43577,29 +43493,29 @@
       </c>
       <c r="CP205" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="206">
       <c r="A206" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01_D004</t>
+          <t>Z15_B01_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C206" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
@@ -43624,7 +43540,7 @@
       </c>
       <c r="I206" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX_2030</t>
         </is>
       </c>
       <c r="K206" s="6" t="b">
@@ -43636,65 +43552,95 @@
       <c r="M206" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N206" s="7">
+        <v>93.091</v>
+      </c>
+      <c r="O206" s="7">
+        <v>85.588</v>
+      </c>
+      <c r="P206" s="7">
+        <v>82.071</v>
+      </c>
+      <c r="Q206" s="7">
+        <v>82.621</v>
+      </c>
+      <c r="R206" s="7">
+        <v>83.248</v>
+      </c>
+      <c r="S206" s="7">
+        <v>73.519</v>
+      </c>
+      <c r="T206" s="7">
+        <v>80.348</v>
+      </c>
+      <c r="U206" s="7">
+        <v>80.014</v>
+      </c>
+      <c r="V206" s="7">
+        <v>72.826</v>
+      </c>
+      <c r="W206" s="7">
+        <v>77.245</v>
+      </c>
+      <c r="X206" s="7">
+        <v>74.171</v>
+      </c>
+      <c r="Y206" s="7">
+        <v>74.499</v>
+      </c>
+      <c r="Z206" s="7">
+        <v>71.959</v>
+      </c>
       <c r="AA206" s="7">
-        <v>42.308</v>
+        <v>72.261</v>
       </c>
       <c r="AB206" s="7">
-        <v>42.308</v>
+        <v>73.984</v>
       </c>
       <c r="AC206" s="7">
-        <v>42.308</v>
+        <v>74.393</v>
       </c>
       <c r="AD206" s="7">
-        <v>42.308</v>
+        <v>75.605</v>
       </c>
       <c r="AE206" s="7">
-        <v>42.308</v>
+        <v>71.83</v>
       </c>
       <c r="AF206" s="7">
-        <v>42.308</v>
+        <v>78.006</v>
       </c>
       <c r="AG206" s="7">
-        <v>42.308</v>
+        <v>70.084</v>
       </c>
       <c r="AH206" s="7">
-        <v>42.308</v>
+        <v>76.674</v>
       </c>
       <c r="AI206" s="7">
-        <v>42.308</v>
+        <v>75.961</v>
       </c>
       <c r="AJ206" s="7">
-        <v>42.308</v>
+        <v>83.793</v>
       </c>
       <c r="AK206" s="7">
-        <v>42.308</v>
+        <v>81.828</v>
       </c>
       <c r="AL206" s="7">
-        <v>42.308</v>
+        <v>77.085</v>
       </c>
       <c r="AM206" s="7">
-        <v>42.308</v>
+        <v>82.96</v>
       </c>
       <c r="AN206" s="7">
-        <v>42.308</v>
+        <v>80.307</v>
       </c>
       <c r="AO206" s="7">
-        <v>43.59</v>
+        <v>79.886</v>
       </c>
       <c r="AP206" s="7">
-        <v>43.59</v>
+        <v>78.388</v>
       </c>
       <c r="AQ206" s="7">
-        <v>43.59</v>
-      </c>
-      <c r="AR206" s="7">
-        <v>43.59</v>
-      </c>
-      <c r="AS206" s="7">
-        <v>43.59</v>
-      </c>
-      <c r="AT206" s="7">
-        <v>43.59</v>
+        <v>80.942</v>
       </c>
       <c r="BC206" s="4" t="inlineStr">
         <is>
@@ -43798,14 +43744,14 @@
       </c>
       <c r="CP206" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D001</t>
+          <t>Z15_B01_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
@@ -43815,12 +43761,12 @@
       </c>
       <c r="C207" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
@@ -43849,103 +43795,103 @@
         </is>
       </c>
       <c r="K207" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L207" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M207" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N207" s="7">
-        <v>136.263</v>
+        <v>93.241</v>
       </c>
       <c r="O207" s="7">
-        <v>127.755</v>
+        <v>87.239</v>
       </c>
       <c r="P207" s="7">
-        <v>119.916</v>
+        <v>83.472</v>
       </c>
       <c r="Q207" s="7">
-        <v>126.218</v>
+        <v>91.762</v>
       </c>
       <c r="R207" s="7">
-        <v>126.751</v>
+        <v>87.149</v>
       </c>
       <c r="S207" s="7">
-        <v>113.45</v>
+        <v>92.875</v>
       </c>
       <c r="T207" s="7">
-        <v>119.46</v>
+        <v>104.822</v>
       </c>
       <c r="U207" s="7">
-        <v>108.517</v>
+        <v>96.197</v>
       </c>
       <c r="V207" s="7">
-        <v>102.154</v>
+        <v>93.287</v>
       </c>
       <c r="W207" s="7">
-        <v>108.982</v>
+        <v>90.942</v>
       </c>
       <c r="X207" s="7">
-        <v>101.831</v>
+        <v>85.785</v>
       </c>
       <c r="Y207" s="7">
-        <v>99.816</v>
+        <v>83.764</v>
       </c>
       <c r="Z207" s="7">
-        <v>93.221</v>
+        <v>76.126</v>
       </c>
       <c r="AA207" s="7">
-        <v>89.021</v>
+        <v>72.063</v>
       </c>
       <c r="AB207" s="7">
-        <v>92.82</v>
+        <v>80.454</v>
       </c>
       <c r="AC207" s="7">
-        <v>91.002</v>
+        <v>76.663</v>
       </c>
       <c r="AD207" s="7">
-        <v>86.532</v>
+        <v>74.543</v>
       </c>
       <c r="AE207" s="7">
-        <v>87.294</v>
+        <v>76.435</v>
       </c>
       <c r="AF207" s="7">
-        <v>88.442</v>
+        <v>69.799</v>
       </c>
       <c r="AG207" s="7">
-        <v>82.514</v>
+        <v>71.961</v>
       </c>
       <c r="AH207" s="7">
-        <v>79.533</v>
+        <v>73.897</v>
       </c>
       <c r="AI207" s="7">
-        <v>77.341</v>
+        <v>80.694</v>
       </c>
       <c r="AJ207" s="7">
-        <v>80.342</v>
+        <v>78.344</v>
       </c>
       <c r="AK207" s="7">
-        <v>76.917</v>
+        <v>75.87</v>
       </c>
       <c r="AL207" s="7">
-        <v>75.893</v>
+        <v>77.492</v>
       </c>
       <c r="AM207" s="7">
-        <v>79.976</v>
+        <v>78.863</v>
       </c>
       <c r="AN207" s="7">
-        <v>79.954</v>
+        <v>81.23</v>
       </c>
       <c r="AO207" s="7">
-        <v>75.555</v>
+        <v>81.395</v>
       </c>
       <c r="AP207" s="7">
-        <v>73.664</v>
+        <v>78.902</v>
       </c>
       <c r="AQ207" s="7">
-        <v>75.343</v>
+        <v>80.262</v>
       </c>
       <c r="BC207" s="4" t="inlineStr">
         <is>
@@ -44056,7 +44002,7 @@
     <row outlineLevel="0" r="208">
       <c r="A208" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D002</t>
+          <t>Z15_B01_P01_Ib01_I01_D004</t>
         </is>
       </c>
       <c r="B208" s="4" t="inlineStr">
@@ -44071,7 +44017,7 @@
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="E208" s="4" t="inlineStr">
@@ -44109,94 +44055,94 @@
         <v>0</v>
       </c>
       <c r="N208" s="7">
-        <v>93.091</v>
+        <v>183.023</v>
       </c>
       <c r="O208" s="7">
-        <v>85.588</v>
+        <v>174.228</v>
       </c>
       <c r="P208" s="7">
-        <v>82.071</v>
+        <v>161.626</v>
       </c>
       <c r="Q208" s="7">
-        <v>82.621</v>
+        <v>171.814</v>
       </c>
       <c r="R208" s="7">
-        <v>83.248</v>
+        <v>172.437</v>
       </c>
       <c r="S208" s="7">
-        <v>73.519</v>
+        <v>149.018</v>
       </c>
       <c r="T208" s="7">
-        <v>80.348</v>
+        <v>155.384</v>
       </c>
       <c r="U208" s="7">
-        <v>80.014</v>
+        <v>136.613</v>
       </c>
       <c r="V208" s="7">
-        <v>72.826</v>
+        <v>128.139</v>
       </c>
       <c r="W208" s="7">
-        <v>77.245</v>
+        <v>138.234</v>
       </c>
       <c r="X208" s="7">
-        <v>74.171</v>
+        <v>127.657</v>
       </c>
       <c r="Y208" s="7">
-        <v>74.499</v>
+        <v>121.82</v>
       </c>
       <c r="Z208" s="7">
-        <v>71.959</v>
+        <v>112.012</v>
       </c>
       <c r="AA208" s="7">
-        <v>72.261</v>
+        <v>104.203</v>
       </c>
       <c r="AB208" s="7">
-        <v>73.984</v>
+        <v>108.229</v>
       </c>
       <c r="AC208" s="7">
-        <v>74.393</v>
+        <v>106.132</v>
       </c>
       <c r="AD208" s="7">
-        <v>75.605</v>
+        <v>97.626</v>
       </c>
       <c r="AE208" s="7">
-        <v>71.83</v>
+        <v>98.24</v>
       </c>
       <c r="AF208" s="7">
-        <v>78.006</v>
+        <v>98.093</v>
       </c>
       <c r="AG208" s="7">
-        <v>70.084</v>
+        <v>92.29</v>
       </c>
       <c r="AH208" s="7">
-        <v>76.674</v>
+        <v>82.998</v>
       </c>
       <c r="AI208" s="7">
-        <v>75.961</v>
+        <v>76.914</v>
       </c>
       <c r="AJ208" s="7">
-        <v>83.793</v>
+        <v>78.849</v>
       </c>
       <c r="AK208" s="7">
-        <v>81.828</v>
+        <v>73.706</v>
       </c>
       <c r="AL208" s="7">
-        <v>77.085</v>
+        <v>73.317</v>
       </c>
       <c r="AM208" s="7">
-        <v>82.96</v>
+        <v>77.665</v>
       </c>
       <c r="AN208" s="7">
-        <v>80.307</v>
+        <v>77.989</v>
       </c>
       <c r="AO208" s="7">
-        <v>79.886</v>
+        <v>70.006</v>
       </c>
       <c r="AP208" s="7">
-        <v>78.388</v>
+        <v>68.249</v>
       </c>
       <c r="AQ208" s="7">
-        <v>80.942</v>
+        <v>69.854</v>
       </c>
       <c r="BC208" s="4" t="inlineStr">
         <is>
@@ -44307,7 +44253,7 @@
     <row outlineLevel="0" r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D003</t>
+          <t>Z15_B01_P01_Ib01_I01_D005</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
@@ -44322,7 +44268,7 @@
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="E209" s="4" t="inlineStr">
@@ -44360,94 +44306,94 @@
         <v>0</v>
       </c>
       <c r="N209" s="7">
-        <v>93.241</v>
+        <v>85.274</v>
       </c>
       <c r="O209" s="7">
-        <v>87.239</v>
+        <v>71.432</v>
       </c>
       <c r="P209" s="7">
-        <v>83.472</v>
+        <v>69.485</v>
       </c>
       <c r="Q209" s="7">
-        <v>91.762</v>
+        <v>70.155</v>
       </c>
       <c r="R209" s="7">
-        <v>87.149</v>
+        <v>77.507</v>
       </c>
       <c r="S209" s="7">
-        <v>92.875</v>
+        <v>79.066</v>
       </c>
       <c r="T209" s="7">
-        <v>104.822</v>
+        <v>71.816</v>
       </c>
       <c r="U209" s="7">
-        <v>96.197</v>
+        <v>65.963</v>
       </c>
       <c r="V209" s="7">
-        <v>93.287</v>
+        <v>68.413</v>
       </c>
       <c r="W209" s="7">
-        <v>90.942</v>
+        <v>78.883</v>
       </c>
       <c r="X209" s="7">
-        <v>85.785</v>
+        <v>74.293</v>
       </c>
       <c r="Y209" s="7">
-        <v>83.764</v>
+        <v>85.388</v>
       </c>
       <c r="Z209" s="7">
-        <v>76.126</v>
+        <v>84.779</v>
       </c>
       <c r="AA209" s="7">
-        <v>72.063</v>
+        <v>85.529</v>
       </c>
       <c r="AB209" s="7">
-        <v>80.454</v>
+        <v>87.869</v>
       </c>
       <c r="AC209" s="7">
-        <v>76.663</v>
+        <v>83.447</v>
       </c>
       <c r="AD209" s="7">
-        <v>74.543</v>
+        <v>79.224</v>
       </c>
       <c r="AE209" s="7">
-        <v>76.435</v>
+        <v>93.401</v>
       </c>
       <c r="AF209" s="7">
-        <v>69.799</v>
+        <v>97.148</v>
       </c>
       <c r="AG209" s="7">
-        <v>71.961</v>
+        <v>84.889</v>
       </c>
       <c r="AH209" s="7">
-        <v>73.897</v>
+        <v>78.303</v>
       </c>
       <c r="AI209" s="7">
-        <v>80.694</v>
+        <v>79.024</v>
       </c>
       <c r="AJ209" s="7">
-        <v>78.344</v>
+        <v>80.419</v>
       </c>
       <c r="AK209" s="7">
-        <v>75.87</v>
+        <v>80.194</v>
       </c>
       <c r="AL209" s="7">
-        <v>77.492</v>
+        <v>83.581</v>
       </c>
       <c r="AM209" s="7">
-        <v>78.863</v>
+        <v>84.605</v>
       </c>
       <c r="AN209" s="7">
-        <v>81.23</v>
+        <v>87.489</v>
       </c>
       <c r="AO209" s="7">
-        <v>81.395</v>
+        <v>83.014</v>
       </c>
       <c r="AP209" s="7">
-        <v>78.902</v>
+        <v>80.063</v>
       </c>
       <c r="AQ209" s="7">
-        <v>80.262</v>
+        <v>79.856</v>
       </c>
       <c r="BC209" s="4" t="inlineStr">
         <is>
@@ -44558,7 +44504,7 @@
     <row outlineLevel="0" r="210">
       <c r="A210" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D004</t>
+          <t>Z15_B01_P01_Ib01_I01_D006</t>
         </is>
       </c>
       <c r="B210" s="4" t="inlineStr">
@@ -44573,7 +44519,7 @@
       </c>
       <c r="D210" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="E210" s="4" t="inlineStr">
@@ -44611,94 +44557,91 @@
         <v>0</v>
       </c>
       <c r="N210" s="7">
-        <v>183.023</v>
+        <v>85.916</v>
       </c>
       <c r="O210" s="7">
-        <v>174.228</v>
+        <v>90.028</v>
       </c>
       <c r="P210" s="7">
-        <v>161.626</v>
+        <v>111.2</v>
       </c>
       <c r="Q210" s="7">
-        <v>171.814</v>
+        <v>99.726</v>
       </c>
       <c r="R210" s="7">
-        <v>172.437</v>
+        <v>113.608</v>
       </c>
       <c r="S210" s="7">
-        <v>149.018</v>
+        <v>116.409</v>
       </c>
       <c r="T210" s="7">
-        <v>155.384</v>
+        <v>100.1</v>
       </c>
       <c r="U210" s="7">
-        <v>136.613</v>
+        <v>105.099</v>
       </c>
       <c r="V210" s="7">
-        <v>128.139</v>
+        <v>109.743</v>
       </c>
       <c r="W210" s="7">
-        <v>138.234</v>
+        <v>109.177</v>
       </c>
       <c r="X210" s="7">
-        <v>127.657</v>
+        <v>111.739</v>
       </c>
       <c r="Y210" s="7">
-        <v>121.82</v>
+        <v>115.139</v>
       </c>
       <c r="Z210" s="7">
-        <v>112.012</v>
+        <v>107.665</v>
       </c>
       <c r="AA210" s="7">
-        <v>104.203</v>
+        <v>107.229</v>
       </c>
       <c r="AB210" s="7">
-        <v>108.229</v>
+        <v>96.337</v>
       </c>
       <c r="AC210" s="7">
-        <v>106.132</v>
+        <v>94.49</v>
       </c>
       <c r="AD210" s="7">
-        <v>97.626</v>
+        <v>94.579</v>
       </c>
       <c r="AE210" s="7">
-        <v>98.24</v>
+        <v>95.955</v>
       </c>
       <c r="AF210" s="7">
-        <v>98.093</v>
+        <v>91.275</v>
       </c>
       <c r="AG210" s="7">
-        <v>92.29</v>
+        <v>82.846</v>
       </c>
       <c r="AH210" s="7">
-        <v>82.998</v>
+        <v>82.839</v>
       </c>
       <c r="AI210" s="7">
-        <v>76.914</v>
+        <v>85.591</v>
       </c>
       <c r="AJ210" s="7">
-        <v>78.849</v>
+        <v>83.182</v>
       </c>
       <c r="AK210" s="7">
-        <v>73.706</v>
+        <v>81.026</v>
       </c>
       <c r="AL210" s="7">
-        <v>73.317</v>
+        <v>83.91</v>
       </c>
       <c r="AM210" s="7">
-        <v>77.665</v>
+        <v>81.405</v>
       </c>
       <c r="AN210" s="7">
-        <v>77.989</v>
+        <v>87.558</v>
       </c>
       <c r="AO210" s="7">
-        <v>70.006</v>
+        <v>81.979</v>
       </c>
       <c r="AP210" s="7">
-        <v>68.249</v>
-      </c>
-      <c r="AQ210" s="7">
-        <v>69.854</v>
+        <v>77.614</v>
       </c>
       <c r="BC210" s="4" t="inlineStr">
         <is>
@@ -44809,22 +44752,22 @@
     <row outlineLevel="0" r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D005</t>
+          <t>Z15_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t/>
         </is>
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t/>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
@@ -44849,107 +44792,41 @@
       </c>
       <c r="I211" s="4" t="inlineStr">
         <is>
-          <t>E_IDX_2030</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K211" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N211" s="7">
-        <v>85.274</v>
-      </c>
-      <c r="O211" s="7">
-        <v>71.432</v>
-      </c>
-      <c r="P211" s="7">
-        <v>69.485</v>
-      </c>
-      <c r="Q211" s="7">
-        <v>70.155</v>
-      </c>
-      <c r="R211" s="7">
-        <v>77.507</v>
-      </c>
-      <c r="S211" s="7">
-        <v>79.066</v>
-      </c>
-      <c r="T211" s="7">
-        <v>71.816</v>
-      </c>
-      <c r="U211" s="7">
-        <v>65.963</v>
-      </c>
-      <c r="V211" s="7">
-        <v>68.413</v>
-      </c>
-      <c r="W211" s="7">
-        <v>78.883</v>
-      </c>
       <c r="X211" s="7">
-        <v>74.293</v>
-      </c>
-      <c r="Y211" s="7">
-        <v>85.388</v>
-      </c>
-      <c r="Z211" s="7">
-        <v>84.779</v>
-      </c>
-      <c r="AA211" s="7">
-        <v>85.529</v>
-      </c>
-      <c r="AB211" s="7">
-        <v>87.869</v>
+        <v>84.377</v>
       </c>
       <c r="AC211" s="7">
-        <v>83.447</v>
-      </c>
-      <c r="AD211" s="7">
-        <v>79.224</v>
-      </c>
-      <c r="AE211" s="7">
-        <v>93.401</v>
-      </c>
-      <c r="AF211" s="7">
-        <v>97.148</v>
-      </c>
-      <c r="AG211" s="7">
-        <v>84.889</v>
+        <v>79.447</v>
       </c>
       <c r="AH211" s="7">
-        <v>78.303</v>
-      </c>
-      <c r="AI211" s="7">
-        <v>79.024</v>
-      </c>
-      <c r="AJ211" s="7">
-        <v>80.419</v>
-      </c>
-      <c r="AK211" s="7">
-        <v>80.194</v>
-      </c>
-      <c r="AL211" s="7">
-        <v>83.581</v>
+        <v>75.752</v>
       </c>
       <c r="AM211" s="7">
-        <v>84.605</v>
+        <v>68.677</v>
       </c>
       <c r="AN211" s="7">
-        <v>87.489</v>
+        <v>71.592</v>
       </c>
       <c r="AO211" s="7">
-        <v>83.014</v>
+        <v>71.334</v>
       </c>
       <c r="AP211" s="7">
-        <v>80.063</v>
+        <v>68.811</v>
       </c>
       <c r="AQ211" s="7">
-        <v>79.856</v>
+        <v>68.513</v>
       </c>
       <c r="BC211" s="4" t="inlineStr">
         <is>
@@ -45053,29 +44930,29 @@
       </c>
       <c r="CP211" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="212">
       <c r="A212" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D006</t>
+          <t>Z15_B02_P02_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C212" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t/>
         </is>
       </c>
       <c r="D212" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t/>
         </is>
       </c>
       <c r="E212" s="4" t="inlineStr">
@@ -45100,104 +44977,56 @@
       </c>
       <c r="I212" s="4" t="inlineStr">
         <is>
-          <t>E_IDX_2030</t>
+          <t>E_MNEUR</t>
         </is>
       </c>
       <c r="K212" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M212" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N212" s="7">
-        <v>85.916</v>
-      </c>
-      <c r="O212" s="7">
-        <v>90.028</v>
-      </c>
-      <c r="P212" s="7">
-        <v>111.2</v>
-      </c>
-      <c r="Q212" s="7">
-        <v>99.726</v>
-      </c>
-      <c r="R212" s="7">
-        <v>113.608</v>
-      </c>
-      <c r="S212" s="7">
-        <v>116.409</v>
-      </c>
-      <c r="T212" s="7">
-        <v>100.1</v>
-      </c>
-      <c r="U212" s="7">
-        <v>105.099</v>
-      </c>
-      <c r="V212" s="7">
-        <v>109.743</v>
-      </c>
-      <c r="W212" s="7">
-        <v>109.177</v>
-      </c>
-      <c r="X212" s="7">
-        <v>111.739</v>
-      </c>
-      <c r="Y212" s="7">
-        <v>115.139</v>
-      </c>
-      <c r="Z212" s="7">
-        <v>107.665</v>
-      </c>
-      <c r="AA212" s="7">
-        <v>107.229</v>
-      </c>
-      <c r="AB212" s="7">
-        <v>96.337</v>
-      </c>
-      <c r="AC212" s="7">
-        <v>94.49</v>
-      </c>
-      <c r="AD212" s="7">
-        <v>94.579</v>
-      </c>
-      <c r="AE212" s="7">
-        <v>95.955</v>
-      </c>
-      <c r="AF212" s="7">
-        <v>91.275</v>
-      </c>
       <c r="AG212" s="7">
-        <v>82.846</v>
+        <v>3</v>
       </c>
       <c r="AH212" s="7">
-        <v>82.839</v>
+        <v>20</v>
       </c>
       <c r="AI212" s="7">
-        <v>85.591</v>
+        <v>12</v>
       </c>
       <c r="AJ212" s="7">
-        <v>83.182</v>
+        <v>24.9</v>
       </c>
       <c r="AK212" s="7">
-        <v>81.026</v>
+        <v>36.3</v>
       </c>
       <c r="AL212" s="7">
-        <v>83.91</v>
+        <v>31</v>
       </c>
       <c r="AM212" s="7">
-        <v>81.405</v>
+        <v>15.7</v>
       </c>
       <c r="AN212" s="7">
-        <v>87.558</v>
+        <v>59.8</v>
       </c>
       <c r="AO212" s="7">
-        <v>81.979</v>
+        <v>68</v>
       </c>
       <c r="AP212" s="7">
-        <v>77.614</v>
+        <v>63</v>
+      </c>
+      <c r="AQ212" s="7">
+        <v>63.5</v>
+      </c>
+      <c r="AR212" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="AS212" s="7">
+        <v>4</v>
       </c>
       <c r="BC212" s="4" t="inlineStr">
         <is>
@@ -45301,19 +45130,19 @@
       </c>
       <c r="CP212" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01_D001</t>
+          <t>Z15_B02_P02_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B02_P02_Ib01_I02</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -45348,11 +45177,11 @@
       </c>
       <c r="I213" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_MNEUR</t>
         </is>
       </c>
       <c r="K213" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L213" s="6" t="b">
         <v>1</v>
@@ -45360,29 +45189,44 @@
       <c r="M213" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="X213" s="7">
-        <v>84.377</v>
-      </c>
-      <c r="AC213" s="7">
-        <v>79.447</v>
+      <c r="AG213" s="7">
+        <v>40</v>
       </c>
       <c r="AH213" s="7">
-        <v>75.752</v>
+        <v>152.5</v>
+      </c>
+      <c r="AI213" s="7">
+        <v>198.6</v>
+      </c>
+      <c r="AJ213" s="7">
+        <v>245.3</v>
+      </c>
+      <c r="AK213" s="7">
+        <v>248.7</v>
+      </c>
+      <c r="AL213" s="7">
+        <v>239.7</v>
       </c>
       <c r="AM213" s="7">
-        <v>68.677</v>
+        <v>271.9</v>
       </c>
       <c r="AN213" s="7">
-        <v>71.592</v>
+        <v>347.4</v>
       </c>
       <c r="AO213" s="7">
-        <v>71.334</v>
+        <v>483.4</v>
       </c>
       <c r="AP213" s="7">
-        <v>68.811</v>
+        <v>571.8</v>
       </c>
       <c r="AQ213" s="7">
-        <v>68.513</v>
+        <v>745.6</v>
+      </c>
+      <c r="AR213" s="7">
+        <v>703.5</v>
+      </c>
+      <c r="AS213" s="7">
+        <v>974.8</v>
       </c>
       <c r="BC213" s="4" t="inlineStr">
         <is>
@@ -45486,19 +45330,19 @@
       </c>
       <c r="CP213" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01_D001</t>
+          <t>Z16_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C214" s="4" t="inlineStr">
@@ -45533,7 +45377,7 @@
       </c>
       <c r="I214" s="4" t="inlineStr">
         <is>
-          <t>E_MNEUR</t>
+          <t>E_P10H6EWN</t>
         </is>
       </c>
       <c r="K214" s="6" t="b">
@@ -45545,44 +45389,98 @@
       <c r="M214" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Q214" s="7">
+        <v>8354.095</v>
+      </c>
+      <c r="R214" s="7">
+        <v>8062.642</v>
+      </c>
+      <c r="S214" s="7">
+        <v>8211.891</v>
+      </c>
+      <c r="T214" s="7">
+        <v>8165.843</v>
+      </c>
+      <c r="U214" s="7">
+        <v>8078.662</v>
+      </c>
+      <c r="V214" s="7">
+        <v>7923.243</v>
+      </c>
+      <c r="W214" s="7">
+        <v>7742.636</v>
+      </c>
+      <c r="X214" s="7">
+        <v>7691.754</v>
+      </c>
+      <c r="Y214" s="7">
+        <v>7811.684</v>
+      </c>
+      <c r="Z214" s="7">
+        <v>7977.821</v>
+      </c>
+      <c r="AA214" s="7">
+        <v>8055.254</v>
+      </c>
+      <c r="AB214" s="7">
+        <v>8137.919</v>
+      </c>
+      <c r="AC214" s="7">
+        <v>7851.874</v>
+      </c>
+      <c r="AD214" s="7">
+        <v>7757.168</v>
+      </c>
+      <c r="AE214" s="7">
+        <v>7751.507</v>
+      </c>
+      <c r="AF214" s="7">
+        <v>7556.892</v>
+      </c>
       <c r="AG214" s="7">
-        <v>3</v>
+        <v>7509.802</v>
       </c>
       <c r="AH214" s="7">
-        <v>20</v>
+        <v>7384.652</v>
       </c>
       <c r="AI214" s="7">
-        <v>12</v>
+        <v>7467.62</v>
       </c>
       <c r="AJ214" s="7">
-        <v>24.9</v>
+        <v>7465.7</v>
       </c>
       <c r="AK214" s="7">
-        <v>36.3</v>
+        <v>7403.6</v>
       </c>
       <c r="AL214" s="7">
-        <v>31</v>
+        <v>7530.3</v>
       </c>
       <c r="AM214" s="7">
-        <v>15.7</v>
+        <v>7796.6</v>
       </c>
       <c r="AN214" s="7">
-        <v>59.8</v>
+        <v>7754.8</v>
       </c>
       <c r="AO214" s="7">
-        <v>68</v>
+        <v>6982.4</v>
       </c>
       <c r="AP214" s="7">
-        <v>63</v>
+        <v>6710.185</v>
       </c>
       <c r="AQ214" s="7">
-        <v>63.5</v>
+        <v>6548.365</v>
       </c>
       <c r="AR214" s="7">
-        <v>24.2</v>
+        <v>6385.513</v>
       </c>
       <c r="AS214" s="7">
-        <v>4</v>
+        <v>6070.42</v>
+      </c>
+      <c r="AT214" s="7">
+        <v>6762.108</v>
+      </c>
+      <c r="AU214" s="7">
+        <v>7042.139</v>
       </c>
       <c r="BC214" s="4" t="inlineStr">
         <is>
@@ -45686,29 +45584,29 @@
       </c>
       <c r="CP214" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02_D001</t>
+          <t>Z16_B01_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CRIMOFF_BODYINJ</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
@@ -45733,56 +45631,110 @@
       </c>
       <c r="I215" s="4" t="inlineStr">
         <is>
-          <t>E_MNEUR</t>
+          <t>E_P10H6EWN</t>
         </is>
       </c>
       <c r="K215" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L215" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M215" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Q215" s="7">
+        <v>108.635</v>
+      </c>
+      <c r="R215" s="7">
+        <v>108.571</v>
+      </c>
+      <c r="S215" s="7">
+        <v>117.918</v>
+      </c>
+      <c r="T215" s="7">
+        <v>124.476</v>
+      </c>
+      <c r="U215" s="7">
+        <v>130.293</v>
+      </c>
+      <c r="V215" s="7">
+        <v>135.319</v>
+      </c>
+      <c r="W215" s="7">
+        <v>140.687</v>
+      </c>
+      <c r="X215" s="7">
+        <v>143.543</v>
+      </c>
+      <c r="Y215" s="7">
+        <v>147.724</v>
+      </c>
+      <c r="Z215" s="7">
+        <v>155.614</v>
+      </c>
+      <c r="AA215" s="7">
+        <v>162.542</v>
+      </c>
+      <c r="AB215" s="7">
+        <v>171.451</v>
+      </c>
+      <c r="AC215" s="7">
+        <v>180.731</v>
+      </c>
+      <c r="AD215" s="7">
+        <v>185.646</v>
+      </c>
+      <c r="AE215" s="7">
+        <v>190.991</v>
+      </c>
+      <c r="AF215" s="7">
+        <v>186.889</v>
+      </c>
       <c r="AG215" s="7">
-        <v>40</v>
+        <v>185.193</v>
       </c>
       <c r="AH215" s="7">
-        <v>152.5</v>
+        <v>177.859</v>
       </c>
       <c r="AI215" s="7">
-        <v>198.6</v>
+        <v>173.382</v>
       </c>
       <c r="AJ215" s="7">
-        <v>245.3</v>
+        <v>169.402</v>
       </c>
       <c r="AK215" s="7">
-        <v>248.7</v>
+        <v>158.8</v>
       </c>
       <c r="AL215" s="7">
-        <v>239.7</v>
+        <v>155.7</v>
       </c>
       <c r="AM215" s="7">
-        <v>271.9</v>
+        <v>156.9</v>
       </c>
       <c r="AN215" s="7">
-        <v>347.4</v>
+        <v>170.4</v>
       </c>
       <c r="AO215" s="7">
-        <v>483.4</v>
+        <v>166.1</v>
       </c>
       <c r="AP215" s="7">
-        <v>571.8</v>
+        <v>165.144</v>
       </c>
       <c r="AQ215" s="7">
-        <v>745.6</v>
+        <v>160.305</v>
       </c>
       <c r="AR215" s="7">
-        <v>703.5</v>
+        <v>156.857</v>
       </c>
       <c r="AS215" s="7">
-        <v>974.8</v>
+        <v>147.124</v>
+      </c>
+      <c r="AT215" s="7">
+        <v>173.796</v>
+      </c>
+      <c r="AU215" s="7">
+        <v>183.195</v>
       </c>
       <c r="BC215" s="4" t="inlineStr">
         <is>
@@ -45886,14 +45838,14 @@
       </c>
       <c r="CP215" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="216">
       <c r="A216" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D001</t>
+          <t>Z16_B01_P01_Ib01_I01_D019</t>
         </is>
       </c>
       <c r="B216" s="4" t="inlineStr">
@@ -45903,12 +45855,12 @@
       </c>
       <c r="C216" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CRIMOFF_FRAUD</t>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr">
@@ -45937,106 +45889,106 @@
         </is>
       </c>
       <c r="K216" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L216" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M216" s="6" t="b">
         <v>0</v>
       </c>
       <c r="Q216" s="7">
-        <v>8354.095</v>
+        <v>653.924</v>
       </c>
       <c r="R216" s="7">
-        <v>8062.642</v>
+        <v>724.436</v>
       </c>
       <c r="S216" s="7">
-        <v>8211.891</v>
+        <v>767.389</v>
       </c>
       <c r="T216" s="7">
-        <v>8165.843</v>
+        <v>796.795</v>
       </c>
       <c r="U216" s="7">
-        <v>8078.662</v>
+        <v>822.866</v>
       </c>
       <c r="V216" s="7">
-        <v>7923.243</v>
+        <v>865.74</v>
       </c>
       <c r="W216" s="7">
-        <v>7742.636</v>
+        <v>881.271</v>
       </c>
       <c r="X216" s="7">
-        <v>7691.754</v>
+        <v>947.075</v>
       </c>
       <c r="Y216" s="7">
-        <v>7811.684</v>
+        <v>973.907</v>
       </c>
       <c r="Z216" s="7">
-        <v>7977.821</v>
+        <v>966.313</v>
       </c>
       <c r="AA216" s="7">
-        <v>8055.254</v>
+        <v>1073.724</v>
       </c>
       <c r="AB216" s="7">
-        <v>8137.919</v>
+        <v>1155.524</v>
       </c>
       <c r="AC216" s="7">
-        <v>7851.874</v>
+        <v>1166.926</v>
       </c>
       <c r="AD216" s="7">
-        <v>7757.168</v>
+        <v>1174.211</v>
       </c>
       <c r="AE216" s="7">
-        <v>7751.507</v>
+        <v>1125.97</v>
       </c>
       <c r="AF216" s="7">
-        <v>7556.892</v>
+        <v>1097.427</v>
       </c>
       <c r="AG216" s="7">
-        <v>7509.802</v>
+        <v>1185.581</v>
       </c>
       <c r="AH216" s="7">
-        <v>7384.652</v>
+        <v>1204.99</v>
       </c>
       <c r="AI216" s="7">
-        <v>7467.62</v>
+        <v>1165.368</v>
       </c>
       <c r="AJ216" s="7">
-        <v>7465.7</v>
+        <v>1193.253</v>
       </c>
       <c r="AK216" s="7">
-        <v>7403.6</v>
+        <v>1164.7</v>
       </c>
       <c r="AL216" s="7">
-        <v>7530.3</v>
+        <v>1199.6</v>
       </c>
       <c r="AM216" s="7">
-        <v>7796.6</v>
+        <v>1190.1</v>
       </c>
       <c r="AN216" s="7">
-        <v>7754.8</v>
+        <v>1094</v>
       </c>
       <c r="AO216" s="7">
-        <v>6982.4</v>
+        <v>1103.2</v>
       </c>
       <c r="AP216" s="7">
-        <v>6710.185</v>
+        <v>1015.532</v>
       </c>
       <c r="AQ216" s="7">
-        <v>6548.365</v>
+        <v>1003.341</v>
       </c>
       <c r="AR216" s="7">
-        <v>6385.513</v>
+        <v>971.632</v>
       </c>
       <c r="AS216" s="7">
-        <v>6070.42</v>
+        <v>954.388</v>
       </c>
       <c r="AT216" s="7">
-        <v>6762.108</v>
+        <v>962.806</v>
       </c>
       <c r="AU216" s="7">
-        <v>7042.139</v>
+        <v>894.38</v>
       </c>
       <c r="BC216" s="4" t="inlineStr">
         <is>
@@ -46147,7 +46099,7 @@
     <row outlineLevel="0" r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D018</t>
+          <t>Z16_B01_P01_Ib01_I01_D020</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
@@ -46162,7 +46114,7 @@
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BODYINJ</t>
+          <t>A_CRIMOFF_BURGL</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
@@ -46200,97 +46152,97 @@
         <v>0</v>
       </c>
       <c r="Q217" s="7">
-        <v>108.635</v>
+        <v>281.031</v>
       </c>
       <c r="R217" s="7">
-        <v>108.571</v>
+        <v>260.192</v>
       </c>
       <c r="S217" s="7">
-        <v>117.918</v>
+        <v>260.099</v>
       </c>
       <c r="T217" s="7">
-        <v>124.476</v>
+        <v>240.52</v>
       </c>
       <c r="U217" s="7">
-        <v>130.293</v>
+        <v>223.254</v>
       </c>
       <c r="V217" s="7">
-        <v>135.319</v>
+        <v>204.606</v>
       </c>
       <c r="W217" s="7">
-        <v>140.687</v>
+        <v>183.106</v>
       </c>
       <c r="X217" s="7">
-        <v>143.543</v>
+        <v>171.909</v>
       </c>
       <c r="Y217" s="7">
-        <v>147.724</v>
+        <v>164.145</v>
       </c>
       <c r="Z217" s="7">
-        <v>155.614</v>
+        <v>159.443</v>
       </c>
       <c r="AA217" s="7">
-        <v>162.542</v>
+        <v>151.1</v>
       </c>
       <c r="AB217" s="7">
-        <v>171.451</v>
+        <v>152.32</v>
       </c>
       <c r="AC217" s="7">
-        <v>180.731</v>
+        <v>134.805</v>
       </c>
       <c r="AD217" s="7">
-        <v>185.646</v>
+        <v>130.562</v>
       </c>
       <c r="AE217" s="7">
-        <v>190.991</v>
+        <v>134.599</v>
       </c>
       <c r="AF217" s="7">
-        <v>186.889</v>
+        <v>133.836</v>
       </c>
       <c r="AG217" s="7">
-        <v>185.193</v>
+        <v>141.158</v>
       </c>
       <c r="AH217" s="7">
-        <v>177.859</v>
+        <v>151.03</v>
       </c>
       <c r="AI217" s="7">
-        <v>173.382</v>
+        <v>165.285</v>
       </c>
       <c r="AJ217" s="7">
-        <v>169.402</v>
+        <v>179.411</v>
       </c>
       <c r="AK217" s="7">
-        <v>158.8</v>
+        <v>185.7</v>
       </c>
       <c r="AL217" s="7">
-        <v>155.7</v>
+        <v>188.3</v>
       </c>
       <c r="AM217" s="7">
-        <v>156.9</v>
+        <v>205.8</v>
       </c>
       <c r="AN217" s="7">
-        <v>170.4</v>
+        <v>184.1</v>
       </c>
       <c r="AO217" s="7">
-        <v>166.1</v>
+        <v>141.2</v>
       </c>
       <c r="AP217" s="7">
-        <v>165.144</v>
+        <v>117.769</v>
       </c>
       <c r="AQ217" s="7">
-        <v>160.305</v>
+        <v>104.97</v>
       </c>
       <c r="AR217" s="7">
-        <v>156.857</v>
+        <v>90.208</v>
       </c>
       <c r="AS217" s="7">
-        <v>147.124</v>
+        <v>65.223</v>
       </c>
       <c r="AT217" s="7">
-        <v>173.796</v>
+        <v>79.181</v>
       </c>
       <c r="AU217" s="7">
-        <v>183.195</v>
+        <v>92.248</v>
       </c>
       <c r="BC217" s="4" t="inlineStr">
         <is>
@@ -46401,7 +46353,7 @@
     <row outlineLevel="0" r="218">
       <c r="A218" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D019</t>
+          <t>Z16_B01_P01_Ib01_I01_D021</t>
         </is>
       </c>
       <c r="B218" s="4" t="inlineStr">
@@ -46416,7 +46368,7 @@
       </c>
       <c r="D218" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_FRAUD</t>
+          <t>A_CRIMOFF_OTHER</t>
         </is>
       </c>
       <c r="E218" s="4" t="inlineStr">
@@ -46454,97 +46406,97 @@
         <v>0</v>
       </c>
       <c r="Q218" s="7">
-        <v>653.924</v>
+        <v>7310.504</v>
       </c>
       <c r="R218" s="7">
-        <v>724.436</v>
+        <v>6969.442</v>
       </c>
       <c r="S218" s="7">
-        <v>767.389</v>
+        <v>7066.485</v>
       </c>
       <c r="T218" s="7">
-        <v>796.795</v>
+        <v>7004.051</v>
       </c>
       <c r="U218" s="7">
-        <v>822.866</v>
+        <v>6902.249</v>
       </c>
       <c r="V218" s="7">
-        <v>865.74</v>
+        <v>6717.579</v>
       </c>
       <c r="W218" s="7">
-        <v>881.271</v>
+        <v>6537.571</v>
       </c>
       <c r="X218" s="7">
-        <v>947.075</v>
+        <v>6429.227</v>
       </c>
       <c r="Y218" s="7">
-        <v>973.907</v>
+        <v>6525.908</v>
       </c>
       <c r="Z218" s="7">
-        <v>966.313</v>
+        <v>6696.451</v>
       </c>
       <c r="AA218" s="7">
-        <v>1073.724</v>
+        <v>6667.887</v>
       </c>
       <c r="AB218" s="7">
-        <v>1155.524</v>
+        <v>6658.625</v>
       </c>
       <c r="AC218" s="7">
-        <v>1166.926</v>
+        <v>6369.412</v>
       </c>
       <c r="AD218" s="7">
-        <v>1174.211</v>
+        <v>6266.75</v>
       </c>
       <c r="AE218" s="7">
-        <v>1125.97</v>
+        <v>6299.947</v>
       </c>
       <c r="AF218" s="7">
-        <v>1097.427</v>
+        <v>6138.74</v>
       </c>
       <c r="AG218" s="7">
-        <v>1185.581</v>
+        <v>5997.87</v>
       </c>
       <c r="AH218" s="7">
-        <v>1204.99</v>
+        <v>5850.772</v>
       </c>
       <c r="AI218" s="7">
-        <v>1165.368</v>
+        <v>5963.585</v>
       </c>
       <c r="AJ218" s="7">
-        <v>1193.253</v>
+        <v>5923.634</v>
       </c>
       <c r="AK218" s="7">
-        <v>1164.7</v>
+        <v>5894.4</v>
       </c>
       <c r="AL218" s="7">
-        <v>1199.6</v>
+        <v>5986.7</v>
       </c>
       <c r="AM218" s="7">
-        <v>1190.1</v>
+        <v>6243.8</v>
       </c>
       <c r="AN218" s="7">
-        <v>1094</v>
+        <v>6306.3</v>
       </c>
       <c r="AO218" s="7">
-        <v>1103.2</v>
+        <v>5571.9</v>
       </c>
       <c r="AP218" s="7">
-        <v>1015.532</v>
+        <v>5411.739</v>
       </c>
       <c r="AQ218" s="7">
-        <v>1003.341</v>
+        <v>5279.749</v>
       </c>
       <c r="AR218" s="7">
-        <v>971.632</v>
+        <v>5166.816</v>
       </c>
       <c r="AS218" s="7">
-        <v>954.388</v>
+        <v>4903.685</v>
       </c>
       <c r="AT218" s="7">
-        <v>962.806</v>
+        <v>5546.324</v>
       </c>
       <c r="AU218" s="7">
-        <v>894.38</v>
+        <v>5872.316</v>
       </c>
       <c r="BC218" s="4" t="inlineStr">
         <is>
@@ -46655,22 +46607,22 @@
     <row outlineLevel="0" r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D020</t>
+          <t>Z16_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t/>
         </is>
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BURGL</t>
+          <t/>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
@@ -46695,110 +46647,68 @@
       </c>
       <c r="I219" s="4" t="inlineStr">
         <is>
-          <t>E_P10H6EWN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K219" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L219" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M219" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q219" s="7">
-        <v>281.031</v>
-      </c>
-      <c r="R219" s="7">
-        <v>260.192</v>
-      </c>
-      <c r="S219" s="7">
-        <v>260.099</v>
-      </c>
-      <c r="T219" s="7">
-        <v>240.52</v>
-      </c>
-      <c r="U219" s="7">
-        <v>223.254</v>
-      </c>
-      <c r="V219" s="7">
-        <v>204.606</v>
-      </c>
-      <c r="W219" s="7">
-        <v>183.106</v>
-      </c>
-      <c r="X219" s="7">
-        <v>171.909</v>
-      </c>
-      <c r="Y219" s="7">
-        <v>164.145</v>
-      </c>
-      <c r="Z219" s="7">
-        <v>159.443</v>
-      </c>
-      <c r="AA219" s="7">
-        <v>151.1</v>
-      </c>
-      <c r="AB219" s="7">
-        <v>152.32</v>
-      </c>
-      <c r="AC219" s="7">
-        <v>134.805</v>
-      </c>
       <c r="AD219" s="7">
-        <v>130.562</v>
+        <v>8</v>
       </c>
       <c r="AE219" s="7">
-        <v>134.599</v>
+        <v>6</v>
       </c>
       <c r="AF219" s="7">
-        <v>133.836</v>
+        <v>8</v>
       </c>
       <c r="AG219" s="7">
-        <v>141.158</v>
+        <v>2</v>
       </c>
       <c r="AH219" s="7">
-        <v>151.03</v>
+        <v>3</v>
       </c>
       <c r="AI219" s="7">
-        <v>165.285</v>
+        <v>11</v>
       </c>
       <c r="AJ219" s="7">
-        <v>179.411</v>
+        <v>15</v>
       </c>
       <c r="AK219" s="7">
-        <v>185.7</v>
+        <v>14</v>
       </c>
       <c r="AL219" s="7">
-        <v>188.3</v>
+        <v>15</v>
       </c>
       <c r="AM219" s="7">
-        <v>205.8</v>
+        <v>26</v>
       </c>
       <c r="AN219" s="7">
-        <v>184.1</v>
+        <v>26</v>
       </c>
       <c r="AO219" s="7">
-        <v>141.2</v>
+        <v>19</v>
       </c>
       <c r="AP219" s="7">
-        <v>117.769</v>
+        <v>36</v>
       </c>
       <c r="AQ219" s="7">
-        <v>104.97</v>
+        <v>31</v>
       </c>
       <c r="AR219" s="7">
-        <v>90.208</v>
+        <v>38</v>
       </c>
       <c r="AS219" s="7">
-        <v>65.223</v>
+        <v>38</v>
       </c>
       <c r="AT219" s="7">
-        <v>79.181</v>
-      </c>
-      <c r="AU219" s="7">
-        <v>92.248</v>
+        <v>32</v>
       </c>
       <c r="BC219" s="4" t="inlineStr">
         <is>
@@ -46902,29 +46812,29 @@
       </c>
       <c r="CP219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D021</t>
+          <t>Z16_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C220" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t/>
         </is>
       </c>
       <c r="D220" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_OTHER</t>
+          <t/>
         </is>
       </c>
       <c r="E220" s="4" t="inlineStr">
@@ -46949,110 +46859,53 @@
       </c>
       <c r="I220" s="4" t="inlineStr">
         <is>
-          <t>E_P10H6EWN</t>
+          <t>E_NN</t>
         </is>
       </c>
       <c r="K220" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M220" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q220" s="7">
-        <v>7310.504</v>
-      </c>
-      <c r="R220" s="7">
-        <v>6969.442</v>
-      </c>
-      <c r="S220" s="7">
-        <v>7066.485</v>
-      </c>
-      <c r="T220" s="7">
-        <v>7004.051</v>
-      </c>
-      <c r="U220" s="7">
-        <v>6902.249</v>
-      </c>
-      <c r="V220" s="7">
-        <v>6717.579</v>
-      </c>
-      <c r="W220" s="7">
-        <v>6537.571</v>
-      </c>
-      <c r="X220" s="7">
-        <v>6429.227</v>
-      </c>
-      <c r="Y220" s="7">
-        <v>6525.908</v>
-      </c>
-      <c r="Z220" s="7">
-        <v>6696.451</v>
-      </c>
-      <c r="AA220" s="7">
-        <v>6667.887</v>
-      </c>
-      <c r="AB220" s="7">
-        <v>6658.625</v>
-      </c>
-      <c r="AC220" s="7">
-        <v>6369.412</v>
-      </c>
-      <c r="AD220" s="7">
-        <v>6266.75</v>
-      </c>
-      <c r="AE220" s="7">
-        <v>6299.947</v>
-      </c>
-      <c r="AF220" s="7">
-        <v>6138.74</v>
-      </c>
-      <c r="AG220" s="7">
-        <v>5997.87</v>
-      </c>
-      <c r="AH220" s="7">
-        <v>5850.772</v>
-      </c>
-      <c r="AI220" s="7">
-        <v>5963.585</v>
-      </c>
       <c r="AJ220" s="7">
-        <v>5923.634</v>
+        <v>79</v>
       </c>
       <c r="AK220" s="7">
-        <v>5894.4</v>
+        <v>78</v>
       </c>
       <c r="AL220" s="7">
-        <v>5986.7</v>
+        <v>79</v>
       </c>
       <c r="AM220" s="7">
-        <v>6243.8</v>
+        <v>81</v>
       </c>
       <c r="AN220" s="7">
-        <v>6306.3</v>
+        <v>81</v>
       </c>
       <c r="AO220" s="7">
-        <v>5571.9</v>
+        <v>81</v>
       </c>
       <c r="AP220" s="7">
-        <v>5411.739</v>
+        <v>80</v>
       </c>
       <c r="AQ220" s="7">
-        <v>5279.749</v>
+        <v>80</v>
       </c>
       <c r="AR220" s="7">
-        <v>5166.816</v>
+        <v>80</v>
       </c>
       <c r="AS220" s="7">
-        <v>4903.685</v>
+        <v>80</v>
       </c>
       <c r="AT220" s="7">
-        <v>5546.324</v>
+        <v>79</v>
       </c>
       <c r="AU220" s="7">
-        <v>5872.316</v>
+        <v>78</v>
       </c>
       <c r="BC220" s="4" t="inlineStr">
         <is>
@@ -47156,19 +47009,19 @@
       </c>
       <c r="CP220" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D001</t>
+          <t>Z16_B03_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
@@ -47215,56 +47068,38 @@
       <c r="M221" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AD221" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE221" s="7">
-        <v>6</v>
-      </c>
-      <c r="AF221" s="7">
-        <v>8</v>
-      </c>
-      <c r="AG221" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH221" s="7">
-        <v>3</v>
-      </c>
-      <c r="AI221" s="7">
-        <v>11</v>
-      </c>
-      <c r="AJ221" s="7">
-        <v>15</v>
-      </c>
       <c r="AK221" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL221" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AM221" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AN221" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AO221" s="7">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AP221" s="7">
+        <v>31</v>
+      </c>
+      <c r="AQ221" s="7">
+        <v>34</v>
+      </c>
+      <c r="AR221" s="7">
         <v>36</v>
       </c>
-      <c r="AQ221" s="7">
-        <v>31</v>
-      </c>
-      <c r="AR221" s="7">
-        <v>38</v>
-      </c>
       <c r="AS221" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AT221" s="7">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="AU221" s="7">
+        <v>34</v>
       </c>
       <c r="BC221" s="4" t="inlineStr">
         <is>
@@ -47368,29 +47203,29 @@
       </c>
       <c r="CP221" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01_D001</t>
+          <t>Z17_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B222" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C222" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="D222" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_NETEXP</t>
         </is>
       </c>
       <c r="E222" s="4" t="inlineStr">
@@ -47415,53 +47250,86 @@
       </c>
       <c r="I222" s="4" t="inlineStr">
         <is>
-          <t>E_NN</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K222" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L222" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M222" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="S222" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="T222" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="U222" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="V222" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W222" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="X222" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Y222" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Z222" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AA222" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AB222" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AC222" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AD222" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AE222" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="AF222" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="AG222" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AH222" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="AI222" s="7">
+        <v>0.39</v>
+      </c>
       <c r="AJ222" s="7">
-        <v>79</v>
+        <v>0.37</v>
       </c>
       <c r="AK222" s="7">
-        <v>78</v>
+        <v>0.38</v>
       </c>
       <c r="AL222" s="7">
-        <v>79</v>
+        <v>0.42</v>
       </c>
       <c r="AM222" s="7">
-        <v>81</v>
+        <v>0.52</v>
       </c>
       <c r="AN222" s="7">
-        <v>81</v>
+        <v>0.7</v>
       </c>
       <c r="AO222" s="7">
-        <v>81</v>
-      </c>
-      <c r="AP222" s="7">
-        <v>80</v>
-      </c>
-      <c r="AQ222" s="7">
-        <v>80</v>
-      </c>
-      <c r="AR222" s="7">
-        <v>80</v>
-      </c>
-      <c r="AS222" s="7">
-        <v>80</v>
-      </c>
-      <c r="AT222" s="7">
-        <v>79</v>
-      </c>
-      <c r="AU222" s="7">
-        <v>78</v>
+        <v>0.67</v>
       </c>
       <c r="BC222" s="4" t="inlineStr">
         <is>
@@ -47565,29 +47433,29 @@
       </c>
       <c r="CP222" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02_D001</t>
+          <t>Z17_B01_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
@@ -47612,7 +47480,7 @@
       </c>
       <c r="I223" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K223" s="6" t="b">
@@ -47624,38 +47492,23 @@
       <c r="M223" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AK223" s="7">
-        <v>16</v>
-      </c>
-      <c r="AL223" s="7">
-        <v>30</v>
-      </c>
-      <c r="AM223" s="7">
-        <v>30</v>
-      </c>
-      <c r="AN223" s="7">
-        <v>31</v>
-      </c>
-      <c r="AO223" s="7">
-        <v>32</v>
-      </c>
       <c r="AP223" s="7">
-        <v>31</v>
+        <v>0.61</v>
       </c>
       <c r="AQ223" s="7">
-        <v>34</v>
+        <v>0.61</v>
       </c>
       <c r="AR223" s="7">
-        <v>36</v>
+        <v>0.73</v>
       </c>
       <c r="AS223" s="7">
-        <v>36</v>
+        <v>0.76</v>
       </c>
       <c r="AT223" s="7">
-        <v>30</v>
+        <v>0.85</v>
       </c>
       <c r="AU223" s="7">
-        <v>34</v>
+        <v>0.82</v>
       </c>
       <c r="BC223" s="4" t="inlineStr">
         <is>
@@ -47759,29 +47612,29 @@
       </c>
       <c r="CP223" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="224">
       <c r="A224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C224" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t/>
         </is>
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_NETEXP</t>
+          <t/>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
@@ -47806,86 +47659,74 @@
       </c>
       <c r="I224" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K224" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L224" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M224" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S224" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="T224" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="U224" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="V224" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W224" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="X224" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Y224" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Z224" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="AA224" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AB224" s="7">
-        <v>0.28</v>
-      </c>
       <c r="AC224" s="7">
-        <v>0.36</v>
+        <v>140519</v>
       </c>
       <c r="AD224" s="7">
-        <v>0.36</v>
+        <v>141289</v>
       </c>
       <c r="AE224" s="7">
-        <v>0.37</v>
+        <v>136087</v>
       </c>
       <c r="AF224" s="7">
-        <v>0.38</v>
+        <v>140832</v>
       </c>
       <c r="AG224" s="7">
-        <v>0.35</v>
+        <v>147152</v>
       </c>
       <c r="AH224" s="7">
-        <v>0.39</v>
+        <v>153690</v>
       </c>
       <c r="AI224" s="7">
-        <v>0.39</v>
+        <v>158557</v>
       </c>
       <c r="AJ224" s="7">
-        <v>0.37</v>
+        <v>170618</v>
       </c>
       <c r="AK224" s="7">
-        <v>0.38</v>
+        <v>185787</v>
       </c>
       <c r="AL224" s="7">
-        <v>0.42</v>
+        <v>200349</v>
       </c>
       <c r="AM224" s="7">
-        <v>0.52</v>
+        <v>215258</v>
       </c>
       <c r="AN224" s="7">
-        <v>0.7</v>
+        <v>230689</v>
       </c>
       <c r="AO224" s="7">
-        <v>0.67</v>
+        <v>247436</v>
+      </c>
+      <c r="AP224" s="7">
+        <v>267250</v>
+      </c>
+      <c r="AQ224" s="7">
+        <v>285450</v>
+      </c>
+      <c r="AR224" s="7">
+        <v>298149</v>
+      </c>
+      <c r="AS224" s="7">
+        <v>316001</v>
+      </c>
+      <c r="AT224" s="7">
+        <v>335016</v>
+      </c>
+      <c r="AU224" s="7">
+        <v>348976</v>
       </c>
       <c r="BC224" s="4" t="inlineStr">
         <is>
@@ -47989,29 +47830,29 @@
       </c>
       <c r="CP224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D002</t>
+          <t>Z17_B02_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
@@ -48036,35 +47877,74 @@
       </c>
       <c r="I225" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K225" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L225" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M225" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC225" s="7">
+        <v>4960</v>
+      </c>
+      <c r="AD225" s="7">
+        <v>5012</v>
+      </c>
+      <c r="AE225" s="7">
+        <v>4933</v>
+      </c>
+      <c r="AF225" s="7">
+        <v>5331</v>
+      </c>
+      <c r="AG225" s="7">
+        <v>5738</v>
+      </c>
+      <c r="AH225" s="7">
+        <v>6300</v>
+      </c>
+      <c r="AI225" s="7">
+        <v>6925</v>
+      </c>
+      <c r="AJ225" s="7">
+        <v>7577</v>
+      </c>
+      <c r="AK225" s="7">
+        <v>8348</v>
+      </c>
+      <c r="AL225" s="7">
+        <v>9244</v>
+      </c>
+      <c r="AM225" s="7">
+        <v>9746</v>
+      </c>
+      <c r="AN225" s="7">
+        <v>10119</v>
+      </c>
+      <c r="AO225" s="7">
+        <v>10576</v>
+      </c>
       <c r="AP225" s="7">
-        <v>0.61</v>
+        <v>11525</v>
       </c>
       <c r="AQ225" s="7">
-        <v>0.61</v>
+        <v>13067</v>
       </c>
       <c r="AR225" s="7">
-        <v>0.73</v>
+        <v>15055</v>
       </c>
       <c r="AS225" s="7">
-        <v>0.76</v>
+        <v>17113</v>
       </c>
       <c r="AT225" s="7">
-        <v>0.85</v>
+        <v>18315</v>
       </c>
       <c r="AU225" s="7">
-        <v>0.82</v>
+        <v>19505</v>
       </c>
       <c r="BC225" s="4" t="inlineStr">
         <is>
@@ -48168,14 +48048,14 @@
       </c>
       <c r="CP225" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="226">
       <c r="A226" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D035</t>
         </is>
       </c>
       <c r="B226" s="4" t="inlineStr">
@@ -48185,12 +48065,12 @@
       </c>
       <c r="C226" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -48219,70 +48099,70 @@
         </is>
       </c>
       <c r="K226" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L226" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M226" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC226" s="7">
-        <v>140519</v>
+        <v>129502</v>
       </c>
       <c r="AD226" s="7">
-        <v>141289</v>
+        <v>129631</v>
       </c>
       <c r="AE226" s="7">
-        <v>136087</v>
+        <v>124181</v>
       </c>
       <c r="AF226" s="7">
-        <v>140832</v>
+        <v>127067</v>
       </c>
       <c r="AG226" s="7">
-        <v>147152</v>
+        <v>131633</v>
       </c>
       <c r="AH226" s="7">
-        <v>153690</v>
+        <v>136445</v>
       </c>
       <c r="AI226" s="7">
-        <v>158557</v>
+        <v>140304</v>
       </c>
       <c r="AJ226" s="7">
-        <v>170618</v>
+        <v>150880</v>
       </c>
       <c r="AK226" s="7">
-        <v>185787</v>
+        <v>164098</v>
       </c>
       <c r="AL226" s="7">
-        <v>200349</v>
+        <v>176768</v>
       </c>
       <c r="AM226" s="7">
-        <v>215258</v>
+        <v>190403</v>
       </c>
       <c r="AN226" s="7">
-        <v>230689</v>
+        <v>204695</v>
       </c>
       <c r="AO226" s="7">
-        <v>247436</v>
+        <v>219307</v>
       </c>
       <c r="AP226" s="7">
-        <v>267250</v>
+        <v>236609</v>
       </c>
       <c r="AQ226" s="7">
-        <v>285450</v>
+        <v>251488</v>
       </c>
       <c r="AR226" s="7">
-        <v>298149</v>
+        <v>259999</v>
       </c>
       <c r="AS226" s="7">
-        <v>316001</v>
+        <v>273340</v>
       </c>
       <c r="AT226" s="7">
-        <v>335016</v>
+        <v>288586</v>
       </c>
       <c r="AU226" s="7">
-        <v>348976</v>
+        <v>299158</v>
       </c>
       <c r="BC226" s="4" t="inlineStr">
         <is>
@@ -48393,7 +48273,7 @@
     <row outlineLevel="0" r="227">
       <c r="A227" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D018</t>
+          <t>Z17_B02_P01_Ib01_I01_D052</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
@@ -48408,7 +48288,7 @@
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
@@ -48446,61 +48326,61 @@
         <v>0</v>
       </c>
       <c r="AC227" s="7">
-        <v>4960</v>
+        <v>209</v>
       </c>
       <c r="AD227" s="7">
-        <v>5012</v>
+        <v>212</v>
       </c>
       <c r="AE227" s="7">
-        <v>4933</v>
+        <v>207</v>
       </c>
       <c r="AF227" s="7">
-        <v>5331</v>
+        <v>254</v>
       </c>
       <c r="AG227" s="7">
-        <v>5738</v>
+        <v>299</v>
       </c>
       <c r="AH227" s="7">
-        <v>6300</v>
+        <v>331</v>
       </c>
       <c r="AI227" s="7">
-        <v>6925</v>
+        <v>382</v>
       </c>
       <c r="AJ227" s="7">
-        <v>7577</v>
+        <v>420</v>
       </c>
       <c r="AK227" s="7">
-        <v>8348</v>
+        <v>476</v>
       </c>
       <c r="AL227" s="7">
-        <v>9244</v>
+        <v>500</v>
       </c>
       <c r="AM227" s="7">
-        <v>9746</v>
+        <v>517</v>
       </c>
       <c r="AN227" s="7">
-        <v>10119</v>
+        <v>558</v>
       </c>
       <c r="AO227" s="7">
-        <v>10576</v>
+        <v>649</v>
       </c>
       <c r="AP227" s="7">
-        <v>11525</v>
+        <v>687</v>
       </c>
       <c r="AQ227" s="7">
-        <v>13067</v>
+        <v>681</v>
       </c>
       <c r="AR227" s="7">
-        <v>15055</v>
+        <v>838</v>
       </c>
       <c r="AS227" s="7">
-        <v>17113</v>
+        <v>924</v>
       </c>
       <c r="AT227" s="7">
-        <v>18315</v>
+        <v>1070</v>
       </c>
       <c r="AU227" s="7">
-        <v>19505</v>
+        <v>1190</v>
       </c>
       <c r="BC227" s="4" t="inlineStr">
         <is>
@@ -48611,7 +48491,7 @@
     <row outlineLevel="0" r="228">
       <c r="A228" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D035</t>
+          <t>Z17_B02_P01_Ib01_I01_D069</t>
         </is>
       </c>
       <c r="B228" s="4" t="inlineStr">
@@ -48626,7 +48506,7 @@
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
@@ -48664,61 +48544,61 @@
         <v>0</v>
       </c>
       <c r="AC228" s="7">
-        <v>129502</v>
+        <v>5848</v>
       </c>
       <c r="AD228" s="7">
-        <v>129631</v>
+        <v>6434</v>
       </c>
       <c r="AE228" s="7">
-        <v>124181</v>
+        <v>6766</v>
       </c>
       <c r="AF228" s="7">
-        <v>127067</v>
+        <v>8180</v>
       </c>
       <c r="AG228" s="7">
-        <v>131633</v>
+        <v>9482</v>
       </c>
       <c r="AH228" s="7">
-        <v>136445</v>
+        <v>10614</v>
       </c>
       <c r="AI228" s="7">
-        <v>140304</v>
+        <v>10946</v>
       </c>
       <c r="AJ228" s="7">
-        <v>150880</v>
+        <v>11741</v>
       </c>
       <c r="AK228" s="7">
-        <v>164098</v>
+        <v>12865</v>
       </c>
       <c r="AL228" s="7">
-        <v>176768</v>
+        <v>13837</v>
       </c>
       <c r="AM228" s="7">
-        <v>190403</v>
+        <v>14592</v>
       </c>
       <c r="AN228" s="7">
-        <v>204695</v>
+        <v>15317</v>
       </c>
       <c r="AO228" s="7">
-        <v>219307</v>
+        <v>16904</v>
       </c>
       <c r="AP228" s="7">
-        <v>236609</v>
+        <v>18429</v>
       </c>
       <c r="AQ228" s="7">
-        <v>251488</v>
+        <v>20214</v>
       </c>
       <c r="AR228" s="7">
-        <v>259999</v>
+        <v>22257</v>
       </c>
       <c r="AS228" s="7">
-        <v>273340</v>
+        <v>24624</v>
       </c>
       <c r="AT228" s="7">
-        <v>288586</v>
+        <v>27044</v>
       </c>
       <c r="AU228" s="7">
-        <v>299158</v>
+        <v>29123</v>
       </c>
       <c r="BC228" s="4" t="inlineStr">
         <is>
@@ -48829,12 +48709,12 @@
     <row outlineLevel="0" r="229">
       <c r="A229" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D052</t>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
@@ -48844,7 +48724,7 @@
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="E229" s="4" t="inlineStr">
@@ -48869,74 +48749,83 @@
       </c>
       <c r="I229" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K229" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L229" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M229" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Z229" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AA229" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AB229" s="7">
+        <v>0.52</v>
+      </c>
       <c r="AC229" s="7">
-        <v>209</v>
+        <v>0.44</v>
       </c>
       <c r="AD229" s="7">
-        <v>212</v>
+        <v>0.49</v>
       </c>
       <c r="AE229" s="7">
-        <v>207</v>
+        <v>0.52</v>
       </c>
       <c r="AF229" s="7">
-        <v>254</v>
+        <v>0.46</v>
       </c>
       <c r="AG229" s="7">
-        <v>299</v>
+        <v>0.58</v>
       </c>
       <c r="AH229" s="7">
-        <v>331</v>
+        <v>0.53</v>
       </c>
       <c r="AI229" s="7">
-        <v>382</v>
+        <v>0.67</v>
       </c>
       <c r="AJ229" s="7">
-        <v>420</v>
+        <v>0.62</v>
       </c>
       <c r="AK229" s="7">
-        <v>476</v>
+        <v>0.71</v>
       </c>
       <c r="AL229" s="7">
-        <v>500</v>
+        <v>0.71</v>
       </c>
       <c r="AM229" s="7">
-        <v>517</v>
+        <v>0.81</v>
       </c>
       <c r="AN229" s="7">
-        <v>558</v>
+        <v>0.88</v>
       </c>
       <c r="AO229" s="7">
-        <v>649</v>
+        <v>0.94</v>
       </c>
       <c r="AP229" s="7">
-        <v>687</v>
+        <v>0.94</v>
       </c>
       <c r="AQ229" s="7">
-        <v>681</v>
+        <v>0.94</v>
       </c>
       <c r="AR229" s="7">
-        <v>838</v>
+        <v>0.98</v>
       </c>
       <c r="AS229" s="7">
-        <v>924</v>
+        <v>1.04</v>
       </c>
       <c r="AT229" s="7">
-        <v>1070</v>
+        <v>1.15</v>
       </c>
       <c r="AU229" s="7">
-        <v>1190</v>
+        <v>1.02</v>
       </c>
       <c r="BC229" s="4" t="inlineStr">
         <is>
@@ -49040,19 +48929,19 @@
       </c>
       <c r="CP229" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="230">
       <c r="A230" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D069</t>
+          <t>Z17_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B230" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C230" s="4" t="inlineStr">
@@ -49062,7 +48951,7 @@
       </c>
       <c r="D230" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="E230" s="4" t="inlineStr">
@@ -49087,7 +48976,7 @@
       </c>
       <c r="I230" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K230" s="6" t="b">
@@ -49099,62 +48988,71 @@
       <c r="M230" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Z230" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AA230" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AB230" s="7">
+        <v>0.49</v>
+      </c>
       <c r="AC230" s="7">
-        <v>5848</v>
+        <v>0.4</v>
       </c>
       <c r="AD230" s="7">
-        <v>6434</v>
+        <v>0.45</v>
       </c>
       <c r="AE230" s="7">
-        <v>6766</v>
+        <v>0.45</v>
       </c>
       <c r="AF230" s="7">
-        <v>8180</v>
+        <v>0.36</v>
       </c>
       <c r="AG230" s="7">
-        <v>9482</v>
+        <v>0.52</v>
       </c>
       <c r="AH230" s="7">
-        <v>10614</v>
+        <v>0.47</v>
       </c>
       <c r="AI230" s="7">
-        <v>10946</v>
+        <v>0.54</v>
       </c>
       <c r="AJ230" s="7">
-        <v>11741</v>
+        <v>0.54</v>
       </c>
       <c r="AK230" s="7">
-        <v>12865</v>
+        <v>0.62</v>
       </c>
       <c r="AL230" s="7">
-        <v>13837</v>
+        <v>0.66</v>
       </c>
       <c r="AM230" s="7">
-        <v>14592</v>
+        <v>0.76</v>
       </c>
       <c r="AN230" s="7">
-        <v>15317</v>
+        <v>0.82</v>
       </c>
       <c r="AO230" s="7">
-        <v>16904</v>
+        <v>0.88</v>
       </c>
       <c r="AP230" s="7">
-        <v>18429</v>
+        <v>0.89</v>
       </c>
       <c r="AQ230" s="7">
-        <v>20214</v>
+        <v>0.89</v>
       </c>
       <c r="AR230" s="7">
-        <v>22257</v>
+        <v>0.92</v>
       </c>
       <c r="AS230" s="7">
-        <v>24624</v>
+        <v>0.92</v>
       </c>
       <c r="AT230" s="7">
-        <v>27044</v>
+        <v>1.02</v>
       </c>
       <c r="AU230" s="7">
-        <v>29123</v>
+        <v>0.92</v>
       </c>
       <c r="BC230" s="4" t="inlineStr">
         <is>
@@ -49257,460 +49155,6 @@
         </is>
       </c>
       <c r="CP230" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="231">
-      <c r="A231" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01_D001</t>
-        </is>
-      </c>
-      <c r="B231" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C231" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D231" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_IMP</t>
-        </is>
-      </c>
-      <c r="E231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I231" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNT</t>
-        </is>
-      </c>
-      <c r="K231" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M231" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z231" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AA231" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AB231" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AC231" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AD231" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AE231" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AF231" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="AG231" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="AH231" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="AI231" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="AJ231" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="AK231" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="AL231" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="AM231" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="AN231" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="AO231" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AP231" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AQ231" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AR231" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="AS231" s="7">
-        <v>1.04</v>
-      </c>
-      <c r="AT231" s="7">
-        <v>1.15</v>
-      </c>
-      <c r="AU231" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="BC231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO231" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP231" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="232">
-      <c r="A232" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01_D002</t>
-        </is>
-      </c>
-      <c r="B232" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C232" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D232" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_PROCIMP</t>
-        </is>
-      </c>
-      <c r="E232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I232" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNT</t>
-        </is>
-      </c>
-      <c r="K232" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M232" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z232" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AA232" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AB232" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AC232" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="AD232" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="AE232" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="AF232" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AG232" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AH232" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="AI232" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="AJ232" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="AK232" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="AL232" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="AM232" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="AN232" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="AO232" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="AP232" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="AQ232" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="AR232" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AS232" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AT232" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="AU232" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="BC232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO232" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP232" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP230"/>
+  <dimension ref="A1:CP229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -44937,12 +44937,12 @@
     <row outlineLevel="0" r="212">
       <c r="A212" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01_D001</t>
+          <t>Z15_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I01</t>
+          <t>Z15_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C212" s="4" t="inlineStr">
@@ -44977,56 +44977,32 @@
       </c>
       <c r="I212" s="4" t="inlineStr">
         <is>
-          <t>E_MNEUR</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K212" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M212" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AD212" s="7">
+        <v>4.18</v>
+      </c>
       <c r="AG212" s="7">
-        <v>3</v>
-      </c>
-      <c r="AH212" s="7">
-        <v>20</v>
-      </c>
-      <c r="AI212" s="7">
-        <v>12</v>
+        <v>4.23</v>
       </c>
       <c r="AJ212" s="7">
-        <v>24.9</v>
-      </c>
-      <c r="AK212" s="7">
-        <v>36.3</v>
-      </c>
-      <c r="AL212" s="7">
-        <v>31</v>
+        <v>4.29</v>
       </c>
       <c r="AM212" s="7">
-        <v>15.7</v>
-      </c>
-      <c r="AN212" s="7">
-        <v>59.8</v>
-      </c>
-      <c r="AO212" s="7">
-        <v>68</v>
+        <v>4.31</v>
       </c>
       <c r="AP212" s="7">
-        <v>63</v>
-      </c>
-      <c r="AQ212" s="7">
-        <v>63.5</v>
-      </c>
-      <c r="AR212" s="7">
-        <v>24.2</v>
-      </c>
-      <c r="AS212" s="7">
-        <v>4</v>
+        <v>5.19</v>
       </c>
       <c r="BC212" s="4" t="inlineStr">
         <is>
@@ -45130,19 +45106,19 @@
       </c>
       <c r="CP212" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z15_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02_D001</t>
+          <t>Z16_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01_I02</t>
+          <t>Z16_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -45177,11 +45153,11 @@
       </c>
       <c r="I213" s="4" t="inlineStr">
         <is>
-          <t>E_MNEUR</t>
+          <t>E_P10H6EWN</t>
         </is>
       </c>
       <c r="K213" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213" s="6" t="b">
         <v>1</v>
@@ -45189,44 +45165,98 @@
       <c r="M213" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Q213" s="7">
+        <v>8354.095</v>
+      </c>
+      <c r="R213" s="7">
+        <v>8062.642</v>
+      </c>
+      <c r="S213" s="7">
+        <v>8211.891</v>
+      </c>
+      <c r="T213" s="7">
+        <v>8165.843</v>
+      </c>
+      <c r="U213" s="7">
+        <v>8078.662</v>
+      </c>
+      <c r="V213" s="7">
+        <v>7923.243</v>
+      </c>
+      <c r="W213" s="7">
+        <v>7742.636</v>
+      </c>
+      <c r="X213" s="7">
+        <v>7691.754</v>
+      </c>
+      <c r="Y213" s="7">
+        <v>7811.684</v>
+      </c>
+      <c r="Z213" s="7">
+        <v>7977.821</v>
+      </c>
+      <c r="AA213" s="7">
+        <v>8055.254</v>
+      </c>
+      <c r="AB213" s="7">
+        <v>8137.919</v>
+      </c>
+      <c r="AC213" s="7">
+        <v>7851.874</v>
+      </c>
+      <c r="AD213" s="7">
+        <v>7757.168</v>
+      </c>
+      <c r="AE213" s="7">
+        <v>7751.507</v>
+      </c>
+      <c r="AF213" s="7">
+        <v>7556.892</v>
+      </c>
       <c r="AG213" s="7">
-        <v>40</v>
+        <v>7509.802</v>
       </c>
       <c r="AH213" s="7">
-        <v>152.5</v>
+        <v>7384.652</v>
       </c>
       <c r="AI213" s="7">
-        <v>198.6</v>
+        <v>7467.62</v>
       </c>
       <c r="AJ213" s="7">
-        <v>245.3</v>
+        <v>7465.7</v>
       </c>
       <c r="AK213" s="7">
-        <v>248.7</v>
+        <v>7403.6</v>
       </c>
       <c r="AL213" s="7">
-        <v>239.7</v>
+        <v>7530.3</v>
       </c>
       <c r="AM213" s="7">
-        <v>271.9</v>
+        <v>7796.6</v>
       </c>
       <c r="AN213" s="7">
-        <v>347.4</v>
+        <v>7754.8</v>
       </c>
       <c r="AO213" s="7">
-        <v>483.4</v>
+        <v>6982.4</v>
       </c>
       <c r="AP213" s="7">
-        <v>571.8</v>
+        <v>6710.185</v>
       </c>
       <c r="AQ213" s="7">
-        <v>745.6</v>
+        <v>6548.365</v>
       </c>
       <c r="AR213" s="7">
-        <v>703.5</v>
+        <v>6385.513</v>
       </c>
       <c r="AS213" s="7">
-        <v>974.8</v>
+        <v>6070.42</v>
+      </c>
+      <c r="AT213" s="7">
+        <v>6762.108</v>
+      </c>
+      <c r="AU213" s="7">
+        <v>7042.139</v>
       </c>
       <c r="BC213" s="4" t="inlineStr">
         <is>
@@ -45330,14 +45360,14 @@
       </c>
       <c r="CP213" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02_Ib01</t>
+          <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D001</t>
+          <t>Z16_B01_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B214" s="4" t="inlineStr">
@@ -45347,12 +45377,12 @@
       </c>
       <c r="C214" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CRIMOFF</t>
         </is>
       </c>
       <c r="D214" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CRIMOFF_BODYINJ</t>
         </is>
       </c>
       <c r="E214" s="4" t="inlineStr">
@@ -45381,106 +45411,106 @@
         </is>
       </c>
       <c r="K214" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L214" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M214" s="6" t="b">
         <v>0</v>
       </c>
       <c r="Q214" s="7">
-        <v>8354.095</v>
+        <v>108.635</v>
       </c>
       <c r="R214" s="7">
-        <v>8062.642</v>
+        <v>108.571</v>
       </c>
       <c r="S214" s="7">
-        <v>8211.891</v>
+        <v>117.918</v>
       </c>
       <c r="T214" s="7">
-        <v>8165.843</v>
+        <v>124.476</v>
       </c>
       <c r="U214" s="7">
-        <v>8078.662</v>
+        <v>130.293</v>
       </c>
       <c r="V214" s="7">
-        <v>7923.243</v>
+        <v>135.319</v>
       </c>
       <c r="W214" s="7">
-        <v>7742.636</v>
+        <v>140.687</v>
       </c>
       <c r="X214" s="7">
-        <v>7691.754</v>
+        <v>143.543</v>
       </c>
       <c r="Y214" s="7">
-        <v>7811.684</v>
+        <v>147.724</v>
       </c>
       <c r="Z214" s="7">
-        <v>7977.821</v>
+        <v>155.614</v>
       </c>
       <c r="AA214" s="7">
-        <v>8055.254</v>
+        <v>162.542</v>
       </c>
       <c r="AB214" s="7">
-        <v>8137.919</v>
+        <v>171.451</v>
       </c>
       <c r="AC214" s="7">
-        <v>7851.874</v>
+        <v>180.731</v>
       </c>
       <c r="AD214" s="7">
-        <v>7757.168</v>
+        <v>185.646</v>
       </c>
       <c r="AE214" s="7">
-        <v>7751.507</v>
+        <v>190.991</v>
       </c>
       <c r="AF214" s="7">
-        <v>7556.892</v>
+        <v>186.889</v>
       </c>
       <c r="AG214" s="7">
-        <v>7509.802</v>
+        <v>185.193</v>
       </c>
       <c r="AH214" s="7">
-        <v>7384.652</v>
+        <v>177.859</v>
       </c>
       <c r="AI214" s="7">
-        <v>7467.62</v>
+        <v>173.382</v>
       </c>
       <c r="AJ214" s="7">
-        <v>7465.7</v>
+        <v>169.402</v>
       </c>
       <c r="AK214" s="7">
-        <v>7403.6</v>
+        <v>158.8</v>
       </c>
       <c r="AL214" s="7">
-        <v>7530.3</v>
+        <v>155.7</v>
       </c>
       <c r="AM214" s="7">
-        <v>7796.6</v>
+        <v>156.9</v>
       </c>
       <c r="AN214" s="7">
-        <v>7754.8</v>
+        <v>170.4</v>
       </c>
       <c r="AO214" s="7">
-        <v>6982.4</v>
+        <v>166.1</v>
       </c>
       <c r="AP214" s="7">
-        <v>6710.185</v>
+        <v>165.144</v>
       </c>
       <c r="AQ214" s="7">
-        <v>6548.365</v>
+        <v>160.305</v>
       </c>
       <c r="AR214" s="7">
-        <v>6385.513</v>
+        <v>156.857</v>
       </c>
       <c r="AS214" s="7">
-        <v>6070.42</v>
+        <v>147.124</v>
       </c>
       <c r="AT214" s="7">
-        <v>6762.108</v>
+        <v>173.796</v>
       </c>
       <c r="AU214" s="7">
-        <v>7042.139</v>
+        <v>183.195</v>
       </c>
       <c r="BC214" s="4" t="inlineStr">
         <is>
@@ -45591,7 +45621,7 @@
     <row outlineLevel="0" r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D018</t>
+          <t>Z16_B01_P01_Ib01_I01_D019</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
@@ -45606,7 +45636,7 @@
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BODYINJ</t>
+          <t>A_CRIMOFF_FRAUD</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
@@ -45644,97 +45674,97 @@
         <v>0</v>
       </c>
       <c r="Q215" s="7">
-        <v>108.635</v>
+        <v>653.924</v>
       </c>
       <c r="R215" s="7">
-        <v>108.571</v>
+        <v>724.436</v>
       </c>
       <c r="S215" s="7">
-        <v>117.918</v>
+        <v>767.389</v>
       </c>
       <c r="T215" s="7">
-        <v>124.476</v>
+        <v>796.795</v>
       </c>
       <c r="U215" s="7">
-        <v>130.293</v>
+        <v>822.866</v>
       </c>
       <c r="V215" s="7">
-        <v>135.319</v>
+        <v>865.74</v>
       </c>
       <c r="W215" s="7">
-        <v>140.687</v>
+        <v>881.271</v>
       </c>
       <c r="X215" s="7">
-        <v>143.543</v>
+        <v>947.075</v>
       </c>
       <c r="Y215" s="7">
-        <v>147.724</v>
+        <v>973.907</v>
       </c>
       <c r="Z215" s="7">
-        <v>155.614</v>
+        <v>966.313</v>
       </c>
       <c r="AA215" s="7">
-        <v>162.542</v>
+        <v>1073.724</v>
       </c>
       <c r="AB215" s="7">
-        <v>171.451</v>
+        <v>1155.524</v>
       </c>
       <c r="AC215" s="7">
-        <v>180.731</v>
+        <v>1166.926</v>
       </c>
       <c r="AD215" s="7">
-        <v>185.646</v>
+        <v>1174.211</v>
       </c>
       <c r="AE215" s="7">
-        <v>190.991</v>
+        <v>1125.97</v>
       </c>
       <c r="AF215" s="7">
-        <v>186.889</v>
+        <v>1097.427</v>
       </c>
       <c r="AG215" s="7">
-        <v>185.193</v>
+        <v>1185.581</v>
       </c>
       <c r="AH215" s="7">
-        <v>177.859</v>
+        <v>1204.99</v>
       </c>
       <c r="AI215" s="7">
-        <v>173.382</v>
+        <v>1165.368</v>
       </c>
       <c r="AJ215" s="7">
-        <v>169.402</v>
+        <v>1193.253</v>
       </c>
       <c r="AK215" s="7">
-        <v>158.8</v>
+        <v>1164.7</v>
       </c>
       <c r="AL215" s="7">
-        <v>155.7</v>
+        <v>1199.6</v>
       </c>
       <c r="AM215" s="7">
-        <v>156.9</v>
+        <v>1190.1</v>
       </c>
       <c r="AN215" s="7">
-        <v>170.4</v>
+        <v>1094</v>
       </c>
       <c r="AO215" s="7">
-        <v>166.1</v>
+        <v>1103.2</v>
       </c>
       <c r="AP215" s="7">
-        <v>165.144</v>
+        <v>1015.532</v>
       </c>
       <c r="AQ215" s="7">
-        <v>160.305</v>
+        <v>1003.341</v>
       </c>
       <c r="AR215" s="7">
-        <v>156.857</v>
+        <v>971.632</v>
       </c>
       <c r="AS215" s="7">
-        <v>147.124</v>
+        <v>954.388</v>
       </c>
       <c r="AT215" s="7">
-        <v>173.796</v>
+        <v>962.806</v>
       </c>
       <c r="AU215" s="7">
-        <v>183.195</v>
+        <v>894.38</v>
       </c>
       <c r="BC215" s="4" t="inlineStr">
         <is>
@@ -45845,7 +45875,7 @@
     <row outlineLevel="0" r="216">
       <c r="A216" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D019</t>
+          <t>Z16_B01_P01_Ib01_I01_D020</t>
         </is>
       </c>
       <c r="B216" s="4" t="inlineStr">
@@ -45860,7 +45890,7 @@
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_FRAUD</t>
+          <t>A_CRIMOFF_BURGL</t>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr">
@@ -45898,97 +45928,97 @@
         <v>0</v>
       </c>
       <c r="Q216" s="7">
-        <v>653.924</v>
+        <v>281.031</v>
       </c>
       <c r="R216" s="7">
-        <v>724.436</v>
+        <v>260.192</v>
       </c>
       <c r="S216" s="7">
-        <v>767.389</v>
+        <v>260.099</v>
       </c>
       <c r="T216" s="7">
-        <v>796.795</v>
+        <v>240.52</v>
       </c>
       <c r="U216" s="7">
-        <v>822.866</v>
+        <v>223.254</v>
       </c>
       <c r="V216" s="7">
-        <v>865.74</v>
+        <v>204.606</v>
       </c>
       <c r="W216" s="7">
-        <v>881.271</v>
+        <v>183.106</v>
       </c>
       <c r="X216" s="7">
-        <v>947.075</v>
+        <v>171.909</v>
       </c>
       <c r="Y216" s="7">
-        <v>973.907</v>
+        <v>164.145</v>
       </c>
       <c r="Z216" s="7">
-        <v>966.313</v>
+        <v>159.443</v>
       </c>
       <c r="AA216" s="7">
-        <v>1073.724</v>
+        <v>151.1</v>
       </c>
       <c r="AB216" s="7">
-        <v>1155.524</v>
+        <v>152.32</v>
       </c>
       <c r="AC216" s="7">
-        <v>1166.926</v>
+        <v>134.805</v>
       </c>
       <c r="AD216" s="7">
-        <v>1174.211</v>
+        <v>130.562</v>
       </c>
       <c r="AE216" s="7">
-        <v>1125.97</v>
+        <v>134.599</v>
       </c>
       <c r="AF216" s="7">
-        <v>1097.427</v>
+        <v>133.836</v>
       </c>
       <c r="AG216" s="7">
-        <v>1185.581</v>
+        <v>141.158</v>
       </c>
       <c r="AH216" s="7">
-        <v>1204.99</v>
+        <v>151.03</v>
       </c>
       <c r="AI216" s="7">
-        <v>1165.368</v>
+        <v>165.285</v>
       </c>
       <c r="AJ216" s="7">
-        <v>1193.253</v>
+        <v>179.411</v>
       </c>
       <c r="AK216" s="7">
-        <v>1164.7</v>
+        <v>185.7</v>
       </c>
       <c r="AL216" s="7">
-        <v>1199.6</v>
+        <v>188.3</v>
       </c>
       <c r="AM216" s="7">
-        <v>1190.1</v>
+        <v>205.8</v>
       </c>
       <c r="AN216" s="7">
-        <v>1094</v>
+        <v>184.1</v>
       </c>
       <c r="AO216" s="7">
-        <v>1103.2</v>
+        <v>141.2</v>
       </c>
       <c r="AP216" s="7">
-        <v>1015.532</v>
+        <v>117.769</v>
       </c>
       <c r="AQ216" s="7">
-        <v>1003.341</v>
+        <v>104.97</v>
       </c>
       <c r="AR216" s="7">
-        <v>971.632</v>
+        <v>90.208</v>
       </c>
       <c r="AS216" s="7">
-        <v>954.388</v>
+        <v>65.223</v>
       </c>
       <c r="AT216" s="7">
-        <v>962.806</v>
+        <v>79.181</v>
       </c>
       <c r="AU216" s="7">
-        <v>894.38</v>
+        <v>92.248</v>
       </c>
       <c r="BC216" s="4" t="inlineStr">
         <is>
@@ -46099,7 +46129,7 @@
     <row outlineLevel="0" r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D020</t>
+          <t>Z16_B01_P01_Ib01_I01_D021</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
@@ -46114,7 +46144,7 @@
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BURGL</t>
+          <t>A_CRIMOFF_OTHER</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
@@ -46152,97 +46182,97 @@
         <v>0</v>
       </c>
       <c r="Q217" s="7">
-        <v>281.031</v>
+        <v>7310.504</v>
       </c>
       <c r="R217" s="7">
-        <v>260.192</v>
+        <v>6969.442</v>
       </c>
       <c r="S217" s="7">
-        <v>260.099</v>
+        <v>7066.485</v>
       </c>
       <c r="T217" s="7">
-        <v>240.52</v>
+        <v>7004.051</v>
       </c>
       <c r="U217" s="7">
-        <v>223.254</v>
+        <v>6902.249</v>
       </c>
       <c r="V217" s="7">
-        <v>204.606</v>
+        <v>6717.579</v>
       </c>
       <c r="W217" s="7">
-        <v>183.106</v>
+        <v>6537.571</v>
       </c>
       <c r="X217" s="7">
-        <v>171.909</v>
+        <v>6429.227</v>
       </c>
       <c r="Y217" s="7">
-        <v>164.145</v>
+        <v>6525.908</v>
       </c>
       <c r="Z217" s="7">
-        <v>159.443</v>
+        <v>6696.451</v>
       </c>
       <c r="AA217" s="7">
-        <v>151.1</v>
+        <v>6667.887</v>
       </c>
       <c r="AB217" s="7">
-        <v>152.32</v>
+        <v>6658.625</v>
       </c>
       <c r="AC217" s="7">
-        <v>134.805</v>
+        <v>6369.412</v>
       </c>
       <c r="AD217" s="7">
-        <v>130.562</v>
+        <v>6266.75</v>
       </c>
       <c r="AE217" s="7">
-        <v>134.599</v>
+        <v>6299.947</v>
       </c>
       <c r="AF217" s="7">
-        <v>133.836</v>
+        <v>6138.74</v>
       </c>
       <c r="AG217" s="7">
-        <v>141.158</v>
+        <v>5997.87</v>
       </c>
       <c r="AH217" s="7">
-        <v>151.03</v>
+        <v>5850.772</v>
       </c>
       <c r="AI217" s="7">
-        <v>165.285</v>
+        <v>5963.585</v>
       </c>
       <c r="AJ217" s="7">
-        <v>179.411</v>
+        <v>5923.634</v>
       </c>
       <c r="AK217" s="7">
-        <v>185.7</v>
+        <v>5894.4</v>
       </c>
       <c r="AL217" s="7">
-        <v>188.3</v>
+        <v>5986.7</v>
       </c>
       <c r="AM217" s="7">
-        <v>205.8</v>
+        <v>6243.8</v>
       </c>
       <c r="AN217" s="7">
-        <v>184.1</v>
+        <v>6306.3</v>
       </c>
       <c r="AO217" s="7">
-        <v>141.2</v>
+        <v>5571.9</v>
       </c>
       <c r="AP217" s="7">
-        <v>117.769</v>
+        <v>5411.739</v>
       </c>
       <c r="AQ217" s="7">
-        <v>104.97</v>
+        <v>5279.749</v>
       </c>
       <c r="AR217" s="7">
-        <v>90.208</v>
+        <v>5166.816</v>
       </c>
       <c r="AS217" s="7">
-        <v>65.223</v>
+        <v>4903.685</v>
       </c>
       <c r="AT217" s="7">
-        <v>79.181</v>
+        <v>5546.324</v>
       </c>
       <c r="AU217" s="7">
-        <v>92.248</v>
+        <v>5872.316</v>
       </c>
       <c r="BC217" s="4" t="inlineStr">
         <is>
@@ -46353,22 +46383,22 @@
     <row outlineLevel="0" r="218">
       <c r="A218" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D021</t>
+          <t>Z16_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C218" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t/>
         </is>
       </c>
       <c r="D218" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_OTHER</t>
+          <t/>
         </is>
       </c>
       <c r="E218" s="4" t="inlineStr">
@@ -46393,110 +46423,68 @@
       </c>
       <c r="I218" s="4" t="inlineStr">
         <is>
-          <t>E_P10H6EWN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K218" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M218" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q218" s="7">
-        <v>7310.504</v>
-      </c>
-      <c r="R218" s="7">
-        <v>6969.442</v>
-      </c>
-      <c r="S218" s="7">
-        <v>7066.485</v>
-      </c>
-      <c r="T218" s="7">
-        <v>7004.051</v>
-      </c>
-      <c r="U218" s="7">
-        <v>6902.249</v>
-      </c>
-      <c r="V218" s="7">
-        <v>6717.579</v>
-      </c>
-      <c r="W218" s="7">
-        <v>6537.571</v>
-      </c>
-      <c r="X218" s="7">
-        <v>6429.227</v>
-      </c>
-      <c r="Y218" s="7">
-        <v>6525.908</v>
-      </c>
-      <c r="Z218" s="7">
-        <v>6696.451</v>
-      </c>
-      <c r="AA218" s="7">
-        <v>6667.887</v>
-      </c>
-      <c r="AB218" s="7">
-        <v>6658.625</v>
-      </c>
-      <c r="AC218" s="7">
-        <v>6369.412</v>
-      </c>
       <c r="AD218" s="7">
-        <v>6266.75</v>
+        <v>8</v>
       </c>
       <c r="AE218" s="7">
-        <v>6299.947</v>
+        <v>6</v>
       </c>
       <c r="AF218" s="7">
-        <v>6138.74</v>
+        <v>8</v>
       </c>
       <c r="AG218" s="7">
-        <v>5997.87</v>
+        <v>2</v>
       </c>
       <c r="AH218" s="7">
-        <v>5850.772</v>
+        <v>3</v>
       </c>
       <c r="AI218" s="7">
-        <v>5963.585</v>
+        <v>11</v>
       </c>
       <c r="AJ218" s="7">
-        <v>5923.634</v>
+        <v>15</v>
       </c>
       <c r="AK218" s="7">
-        <v>5894.4</v>
+        <v>14</v>
       </c>
       <c r="AL218" s="7">
-        <v>5986.7</v>
+        <v>15</v>
       </c>
       <c r="AM218" s="7">
-        <v>6243.8</v>
+        <v>26</v>
       </c>
       <c r="AN218" s="7">
-        <v>6306.3</v>
+        <v>26</v>
       </c>
       <c r="AO218" s="7">
-        <v>5571.9</v>
+        <v>19</v>
       </c>
       <c r="AP218" s="7">
-        <v>5411.739</v>
+        <v>36</v>
       </c>
       <c r="AQ218" s="7">
-        <v>5279.749</v>
+        <v>31</v>
       </c>
       <c r="AR218" s="7">
-        <v>5166.816</v>
+        <v>38</v>
       </c>
       <c r="AS218" s="7">
-        <v>4903.685</v>
+        <v>38</v>
       </c>
       <c r="AT218" s="7">
-        <v>5546.324</v>
-      </c>
-      <c r="AU218" s="7">
-        <v>5872.316</v>
+        <v>32</v>
       </c>
       <c r="BC218" s="4" t="inlineStr">
         <is>
@@ -46600,19 +46588,19 @@
       </c>
       <c r="CP218" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D001</t>
+          <t>Z16_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
@@ -46647,7 +46635,7 @@
       </c>
       <c r="I219" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_NN</t>
         </is>
       </c>
       <c r="K219" s="6" t="b">
@@ -46659,56 +46647,41 @@
       <c r="M219" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AD219" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE219" s="7">
-        <v>6</v>
-      </c>
-      <c r="AF219" s="7">
-        <v>8</v>
-      </c>
-      <c r="AG219" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH219" s="7">
-        <v>3</v>
-      </c>
-      <c r="AI219" s="7">
-        <v>11</v>
-      </c>
       <c r="AJ219" s="7">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="AK219" s="7">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="AL219" s="7">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="AM219" s="7">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AN219" s="7">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AO219" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="AP219" s="7">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AQ219" s="7">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="AR219" s="7">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AS219" s="7">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AT219" s="7">
-        <v>32</v>
+        <v>79</v>
+      </c>
+      <c r="AU219" s="7">
+        <v>78</v>
       </c>
       <c r="BC219" s="4" t="inlineStr">
         <is>
@@ -46812,19 +46785,19 @@
       </c>
       <c r="CP219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01_D001</t>
+          <t>Z16_B03_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C220" s="4" t="inlineStr">
@@ -46859,7 +46832,7 @@
       </c>
       <c r="I220" s="4" t="inlineStr">
         <is>
-          <t>E_NN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K220" s="6" t="b">
@@ -46871,41 +46844,38 @@
       <c r="M220" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ220" s="7">
-        <v>79</v>
-      </c>
       <c r="AK220" s="7">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="AL220" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="AM220" s="7">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="AN220" s="7">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="AO220" s="7">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="AP220" s="7">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="AQ220" s="7">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AR220" s="7">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AS220" s="7">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AT220" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="AU220" s="7">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="BC220" s="4" t="inlineStr">
         <is>
@@ -47016,22 +46986,22 @@
     <row outlineLevel="0" r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02_D001</t>
+          <t>Z17_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_NETEXP</t>
         </is>
       </c>
       <c r="E221" s="4" t="inlineStr">
@@ -47056,50 +47026,86 @@
       </c>
       <c r="I221" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K221" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L221" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M221" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="S221" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="T221" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="U221" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="V221" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W221" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="X221" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Y221" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Z221" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AA221" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AB221" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AC221" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AD221" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AE221" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="AF221" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="AG221" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AH221" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="AI221" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="AJ221" s="7">
+        <v>0.37</v>
+      </c>
       <c r="AK221" s="7">
-        <v>16</v>
+        <v>0.38</v>
       </c>
       <c r="AL221" s="7">
-        <v>30</v>
+        <v>0.42</v>
       </c>
       <c r="AM221" s="7">
-        <v>30</v>
+        <v>0.52</v>
       </c>
       <c r="AN221" s="7">
-        <v>31</v>
+        <v>0.7</v>
       </c>
       <c r="AO221" s="7">
-        <v>32</v>
-      </c>
-      <c r="AP221" s="7">
-        <v>31</v>
-      </c>
-      <c r="AQ221" s="7">
-        <v>34</v>
-      </c>
-      <c r="AR221" s="7">
-        <v>36</v>
-      </c>
-      <c r="AS221" s="7">
-        <v>36</v>
-      </c>
-      <c r="AT221" s="7">
-        <v>30</v>
-      </c>
-      <c r="AU221" s="7">
-        <v>34</v>
+        <v>0.67</v>
       </c>
       <c r="BC221" s="4" t="inlineStr">
         <is>
@@ -47203,14 +47209,14 @@
       </c>
       <c r="CP221" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D001</t>
+          <t>Z17_B01_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B222" s="4" t="inlineStr">
@@ -47225,7 +47231,7 @@
       </c>
       <c r="D222" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_NETEXP</t>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="E222" s="4" t="inlineStr">
@@ -47257,79 +47263,28 @@
         <v>1</v>
       </c>
       <c r="L222" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M222" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S222" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="T222" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="U222" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="V222" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W222" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="X222" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Y222" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Z222" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="AA222" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AB222" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AC222" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AD222" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AE222" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AF222" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AG222" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="AH222" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AI222" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AJ222" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AK222" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AL222" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="AM222" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AN222" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="AO222" s="7">
-        <v>0.67</v>
+      <c r="AP222" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AQ222" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AR222" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="AS222" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="AT222" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="AU222" s="7">
+        <v>0.82</v>
       </c>
       <c r="BC222" s="4" t="inlineStr">
         <is>
@@ -47440,22 +47395,22 @@
     <row outlineLevel="0" r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D002</t>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t/>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t/>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
@@ -47480,7 +47435,7 @@
       </c>
       <c r="I223" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K223" s="6" t="b">
@@ -47492,23 +47447,62 @@
       <c r="M223" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC223" s="7">
+        <v>140519</v>
+      </c>
+      <c r="AD223" s="7">
+        <v>141289</v>
+      </c>
+      <c r="AE223" s="7">
+        <v>136087</v>
+      </c>
+      <c r="AF223" s="7">
+        <v>140832</v>
+      </c>
+      <c r="AG223" s="7">
+        <v>147152</v>
+      </c>
+      <c r="AH223" s="7">
+        <v>153690</v>
+      </c>
+      <c r="AI223" s="7">
+        <v>158557</v>
+      </c>
+      <c r="AJ223" s="7">
+        <v>170618</v>
+      </c>
+      <c r="AK223" s="7">
+        <v>185787</v>
+      </c>
+      <c r="AL223" s="7">
+        <v>200349</v>
+      </c>
+      <c r="AM223" s="7">
+        <v>215258</v>
+      </c>
+      <c r="AN223" s="7">
+        <v>230689</v>
+      </c>
+      <c r="AO223" s="7">
+        <v>247436</v>
+      </c>
       <c r="AP223" s="7">
-        <v>0.61</v>
+        <v>267250</v>
       </c>
       <c r="AQ223" s="7">
-        <v>0.61</v>
+        <v>285450</v>
       </c>
       <c r="AR223" s="7">
-        <v>0.73</v>
+        <v>298149</v>
       </c>
       <c r="AS223" s="7">
-        <v>0.76</v>
+        <v>316001</v>
       </c>
       <c r="AT223" s="7">
-        <v>0.85</v>
+        <v>335016</v>
       </c>
       <c r="AU223" s="7">
-        <v>0.82</v>
+        <v>348976</v>
       </c>
       <c r="BC223" s="4" t="inlineStr">
         <is>
@@ -47612,14 +47606,14 @@
       </c>
       <c r="CP223" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="224">
       <c r="A224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B224" s="4" t="inlineStr">
@@ -47629,12 +47623,12 @@
       </c>
       <c r="C224" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
@@ -47663,70 +47657,70 @@
         </is>
       </c>
       <c r="K224" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L224" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M224" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC224" s="7">
-        <v>140519</v>
+        <v>4960</v>
       </c>
       <c r="AD224" s="7">
-        <v>141289</v>
+        <v>5012</v>
       </c>
       <c r="AE224" s="7">
-        <v>136087</v>
+        <v>4933</v>
       </c>
       <c r="AF224" s="7">
-        <v>140832</v>
+        <v>5331</v>
       </c>
       <c r="AG224" s="7">
-        <v>147152</v>
+        <v>5738</v>
       </c>
       <c r="AH224" s="7">
-        <v>153690</v>
+        <v>6300</v>
       </c>
       <c r="AI224" s="7">
-        <v>158557</v>
+        <v>6925</v>
       </c>
       <c r="AJ224" s="7">
-        <v>170618</v>
+        <v>7577</v>
       </c>
       <c r="AK224" s="7">
-        <v>185787</v>
+        <v>8348</v>
       </c>
       <c r="AL224" s="7">
-        <v>200349</v>
+        <v>9244</v>
       </c>
       <c r="AM224" s="7">
-        <v>215258</v>
+        <v>9746</v>
       </c>
       <c r="AN224" s="7">
-        <v>230689</v>
+        <v>10119</v>
       </c>
       <c r="AO224" s="7">
-        <v>247436</v>
+        <v>10576</v>
       </c>
       <c r="AP224" s="7">
-        <v>267250</v>
+        <v>11525</v>
       </c>
       <c r="AQ224" s="7">
-        <v>285450</v>
+        <v>13067</v>
       </c>
       <c r="AR224" s="7">
-        <v>298149</v>
+        <v>15055</v>
       </c>
       <c r="AS224" s="7">
-        <v>316001</v>
+        <v>17113</v>
       </c>
       <c r="AT224" s="7">
-        <v>335016</v>
+        <v>18315</v>
       </c>
       <c r="AU224" s="7">
-        <v>348976</v>
+        <v>19505</v>
       </c>
       <c r="BC224" s="4" t="inlineStr">
         <is>
@@ -47837,7 +47831,7 @@
     <row outlineLevel="0" r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D018</t>
+          <t>Z17_B02_P01_Ib01_I01_D035</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
@@ -47852,7 +47846,7 @@
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
@@ -47890,61 +47884,61 @@
         <v>0</v>
       </c>
       <c r="AC225" s="7">
-        <v>4960</v>
+        <v>129502</v>
       </c>
       <c r="AD225" s="7">
-        <v>5012</v>
+        <v>129631</v>
       </c>
       <c r="AE225" s="7">
-        <v>4933</v>
+        <v>124181</v>
       </c>
       <c r="AF225" s="7">
-        <v>5331</v>
+        <v>127067</v>
       </c>
       <c r="AG225" s="7">
-        <v>5738</v>
+        <v>131633</v>
       </c>
       <c r="AH225" s="7">
-        <v>6300</v>
+        <v>136445</v>
       </c>
       <c r="AI225" s="7">
-        <v>6925</v>
+        <v>140304</v>
       </c>
       <c r="AJ225" s="7">
-        <v>7577</v>
+        <v>150880</v>
       </c>
       <c r="AK225" s="7">
-        <v>8348</v>
+        <v>164098</v>
       </c>
       <c r="AL225" s="7">
-        <v>9244</v>
+        <v>176768</v>
       </c>
       <c r="AM225" s="7">
-        <v>9746</v>
+        <v>190403</v>
       </c>
       <c r="AN225" s="7">
-        <v>10119</v>
+        <v>204695</v>
       </c>
       <c r="AO225" s="7">
-        <v>10576</v>
+        <v>219307</v>
       </c>
       <c r="AP225" s="7">
-        <v>11525</v>
+        <v>236609</v>
       </c>
       <c r="AQ225" s="7">
-        <v>13067</v>
+        <v>251488</v>
       </c>
       <c r="AR225" s="7">
-        <v>15055</v>
+        <v>259999</v>
       </c>
       <c r="AS225" s="7">
-        <v>17113</v>
+        <v>273340</v>
       </c>
       <c r="AT225" s="7">
-        <v>18315</v>
+        <v>288586</v>
       </c>
       <c r="AU225" s="7">
-        <v>19505</v>
+        <v>299158</v>
       </c>
       <c r="BC225" s="4" t="inlineStr">
         <is>
@@ -48055,7 +48049,7 @@
     <row outlineLevel="0" r="226">
       <c r="A226" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D035</t>
+          <t>Z17_B02_P01_Ib01_I01_D052</t>
         </is>
       </c>
       <c r="B226" s="4" t="inlineStr">
@@ -48070,7 +48064,7 @@
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
@@ -48108,61 +48102,61 @@
         <v>0</v>
       </c>
       <c r="AC226" s="7">
-        <v>129502</v>
+        <v>209</v>
       </c>
       <c r="AD226" s="7">
-        <v>129631</v>
+        <v>212</v>
       </c>
       <c r="AE226" s="7">
-        <v>124181</v>
+        <v>207</v>
       </c>
       <c r="AF226" s="7">
-        <v>127067</v>
+        <v>254</v>
       </c>
       <c r="AG226" s="7">
-        <v>131633</v>
+        <v>299</v>
       </c>
       <c r="AH226" s="7">
-        <v>136445</v>
+        <v>331</v>
       </c>
       <c r="AI226" s="7">
-        <v>140304</v>
+        <v>382</v>
       </c>
       <c r="AJ226" s="7">
-        <v>150880</v>
+        <v>420</v>
       </c>
       <c r="AK226" s="7">
-        <v>164098</v>
+        <v>476</v>
       </c>
       <c r="AL226" s="7">
-        <v>176768</v>
+        <v>500</v>
       </c>
       <c r="AM226" s="7">
-        <v>190403</v>
+        <v>517</v>
       </c>
       <c r="AN226" s="7">
-        <v>204695</v>
+        <v>558</v>
       </c>
       <c r="AO226" s="7">
-        <v>219307</v>
+        <v>649</v>
       </c>
       <c r="AP226" s="7">
-        <v>236609</v>
+        <v>687</v>
       </c>
       <c r="AQ226" s="7">
-        <v>251488</v>
+        <v>681</v>
       </c>
       <c r="AR226" s="7">
-        <v>259999</v>
+        <v>838</v>
       </c>
       <c r="AS226" s="7">
-        <v>273340</v>
+        <v>924</v>
       </c>
       <c r="AT226" s="7">
-        <v>288586</v>
+        <v>1070</v>
       </c>
       <c r="AU226" s="7">
-        <v>299158</v>
+        <v>1190</v>
       </c>
       <c r="BC226" s="4" t="inlineStr">
         <is>
@@ -48273,7 +48267,7 @@
     <row outlineLevel="0" r="227">
       <c r="A227" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D052</t>
+          <t>Z17_B02_P01_Ib01_I01_D069</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
@@ -48288,7 +48282,7 @@
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
@@ -48326,61 +48320,61 @@
         <v>0</v>
       </c>
       <c r="AC227" s="7">
-        <v>209</v>
+        <v>5848</v>
       </c>
       <c r="AD227" s="7">
-        <v>212</v>
+        <v>6434</v>
       </c>
       <c r="AE227" s="7">
-        <v>207</v>
+        <v>6766</v>
       </c>
       <c r="AF227" s="7">
-        <v>254</v>
+        <v>8180</v>
       </c>
       <c r="AG227" s="7">
-        <v>299</v>
+        <v>9482</v>
       </c>
       <c r="AH227" s="7">
-        <v>331</v>
+        <v>10614</v>
       </c>
       <c r="AI227" s="7">
-        <v>382</v>
+        <v>10946</v>
       </c>
       <c r="AJ227" s="7">
-        <v>420</v>
+        <v>11741</v>
       </c>
       <c r="AK227" s="7">
-        <v>476</v>
+        <v>12865</v>
       </c>
       <c r="AL227" s="7">
-        <v>500</v>
+        <v>13837</v>
       </c>
       <c r="AM227" s="7">
-        <v>517</v>
+        <v>14592</v>
       </c>
       <c r="AN227" s="7">
-        <v>558</v>
+        <v>15317</v>
       </c>
       <c r="AO227" s="7">
-        <v>649</v>
+        <v>16904</v>
       </c>
       <c r="AP227" s="7">
-        <v>687</v>
+        <v>18429</v>
       </c>
       <c r="AQ227" s="7">
-        <v>681</v>
+        <v>20214</v>
       </c>
       <c r="AR227" s="7">
-        <v>838</v>
+        <v>22257</v>
       </c>
       <c r="AS227" s="7">
-        <v>924</v>
+        <v>24624</v>
       </c>
       <c r="AT227" s="7">
-        <v>1070</v>
+        <v>27044</v>
       </c>
       <c r="AU227" s="7">
-        <v>1190</v>
+        <v>29123</v>
       </c>
       <c r="BC227" s="4" t="inlineStr">
         <is>
@@ -48491,12 +48485,12 @@
     <row outlineLevel="0" r="228">
       <c r="A228" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D069</t>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C228" s="4" t="inlineStr">
@@ -48506,7 +48500,7 @@
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
@@ -48531,74 +48525,83 @@
       </c>
       <c r="I228" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K228" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L228" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M228" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Z228" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AA228" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AB228" s="7">
+        <v>0.52</v>
+      </c>
       <c r="AC228" s="7">
-        <v>5848</v>
+        <v>0.44</v>
       </c>
       <c r="AD228" s="7">
-        <v>6434</v>
+        <v>0.49</v>
       </c>
       <c r="AE228" s="7">
-        <v>6766</v>
+        <v>0.52</v>
       </c>
       <c r="AF228" s="7">
-        <v>8180</v>
+        <v>0.46</v>
       </c>
       <c r="AG228" s="7">
-        <v>9482</v>
+        <v>0.58</v>
       </c>
       <c r="AH228" s="7">
-        <v>10614</v>
+        <v>0.53</v>
       </c>
       <c r="AI228" s="7">
-        <v>10946</v>
+        <v>0.67</v>
       </c>
       <c r="AJ228" s="7">
-        <v>11741</v>
+        <v>0.62</v>
       </c>
       <c r="AK228" s="7">
-        <v>12865</v>
+        <v>0.71</v>
       </c>
       <c r="AL228" s="7">
-        <v>13837</v>
+        <v>0.71</v>
       </c>
       <c r="AM228" s="7">
-        <v>14592</v>
+        <v>0.81</v>
       </c>
       <c r="AN228" s="7">
-        <v>15317</v>
+        <v>0.88</v>
       </c>
       <c r="AO228" s="7">
-        <v>16904</v>
+        <v>0.94</v>
       </c>
       <c r="AP228" s="7">
-        <v>18429</v>
+        <v>0.94</v>
       </c>
       <c r="AQ228" s="7">
-        <v>20214</v>
+        <v>0.94</v>
       </c>
       <c r="AR228" s="7">
-        <v>22257</v>
+        <v>0.98</v>
       </c>
       <c r="AS228" s="7">
-        <v>24624</v>
+        <v>1.04</v>
       </c>
       <c r="AT228" s="7">
-        <v>27044</v>
+        <v>1.15</v>
       </c>
       <c r="AU228" s="7">
-        <v>29123</v>
+        <v>1.02</v>
       </c>
       <c r="BC228" s="4" t="inlineStr">
         <is>
@@ -48702,14 +48705,14 @@
       </c>
       <c r="CP228" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="229">
       <c r="A229" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01_D001</t>
+          <t>Z17_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
@@ -48724,7 +48727,7 @@
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="E229" s="4" t="inlineStr">
@@ -48753,79 +48756,79 @@
         </is>
       </c>
       <c r="K229" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L229" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M229" s="6" t="b">
         <v>0</v>
       </c>
       <c r="Z229" s="7">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="AA229" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AB229" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AC229" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AD229" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="AE229" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="AF229" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AG229" s="7">
         <v>0.52</v>
       </c>
-      <c r="AB229" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AC229" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AD229" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AE229" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AF229" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="AG229" s="7">
-        <v>0.58</v>
-      </c>
       <c r="AH229" s="7">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="AI229" s="7">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="AJ229" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="AK229" s="7">
         <v>0.62</v>
       </c>
-      <c r="AK229" s="7">
-        <v>0.71</v>
-      </c>
       <c r="AL229" s="7">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="AM229" s="7">
-        <v>0.81</v>
+        <v>0.76</v>
       </c>
       <c r="AN229" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="AO229" s="7">
         <v>0.88</v>
       </c>
-      <c r="AO229" s="7">
-        <v>0.94</v>
-      </c>
       <c r="AP229" s="7">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="AQ229" s="7">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="AR229" s="7">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="AS229" s="7">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="AT229" s="7">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="AU229" s="7">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="BC229" s="4" t="inlineStr">
         <is>
@@ -48928,233 +48931,6 @@
         </is>
       </c>
       <c r="CP229" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="230">
-      <c r="A230" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01_D002</t>
-        </is>
-      </c>
-      <c r="B230" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C230" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D230" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_PROCIMP</t>
-        </is>
-      </c>
-      <c r="E230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I230" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNT</t>
-        </is>
-      </c>
-      <c r="K230" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M230" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z230" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AA230" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AB230" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AC230" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="AD230" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="AE230" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="AF230" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AG230" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AH230" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="AI230" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="AJ230" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="AK230" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="AL230" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="AM230" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="AN230" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="AO230" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="AP230" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="AQ230" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="AR230" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AS230" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AT230" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="AU230" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="BC230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO230" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP230" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP229"/>
+  <dimension ref="A1:CP225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -39233,13 +39233,13 @@
         <v>7.9</v>
       </c>
       <c r="AR185" s="7">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="AS185" s="7">
-        <v>14.9</v>
+        <v>13.3</v>
       </c>
       <c r="AT185" s="7">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="BC185" s="4" t="inlineStr">
         <is>
@@ -40026,6 +40026,9 @@
       <c r="AU189" s="7">
         <v>2455</v>
       </c>
+      <c r="AV189" s="7">
+        <v>4533</v>
+      </c>
       <c r="BC189" s="4" t="inlineStr">
         <is>
           <t/>
@@ -40244,6 +40247,9 @@
       <c r="AU190" s="7">
         <v>1180</v>
       </c>
+      <c r="AV190" s="7">
+        <v>1258</v>
+      </c>
       <c r="BC190" s="4" t="inlineStr">
         <is>
           <t/>
@@ -40462,6 +40468,9 @@
       <c r="AU191" s="7">
         <v>1115</v>
       </c>
+      <c r="AV191" s="7">
+        <v>1122</v>
+      </c>
       <c r="BC191" s="4" t="inlineStr">
         <is>
           <t/>
@@ -45113,12 +45122,12 @@
     <row outlineLevel="0" r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D001</t>
+          <t>Z15_B04_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z15_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -45153,110 +45162,26 @@
       </c>
       <c r="I213" s="4" t="inlineStr">
         <is>
-          <t>E_P10H6EWN</t>
+          <t>E_HA</t>
         </is>
       </c>
       <c r="K213" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L213" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M213" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q213" s="7">
-        <v>8354.095</v>
-      </c>
-      <c r="R213" s="7">
-        <v>8062.642</v>
-      </c>
-      <c r="S213" s="7">
-        <v>8211.891</v>
-      </c>
-      <c r="T213" s="7">
-        <v>8165.843</v>
-      </c>
-      <c r="U213" s="7">
-        <v>8078.662</v>
-      </c>
-      <c r="V213" s="7">
-        <v>7923.243</v>
-      </c>
-      <c r="W213" s="7">
-        <v>7742.636</v>
-      </c>
-      <c r="X213" s="7">
-        <v>7691.754</v>
-      </c>
-      <c r="Y213" s="7">
-        <v>7811.684</v>
-      </c>
-      <c r="Z213" s="7">
-        <v>7977.821</v>
-      </c>
-      <c r="AA213" s="7">
-        <v>8055.254</v>
-      </c>
-      <c r="AB213" s="7">
-        <v>8137.919</v>
-      </c>
-      <c r="AC213" s="7">
-        <v>7851.874</v>
-      </c>
-      <c r="AD213" s="7">
-        <v>7757.168</v>
-      </c>
-      <c r="AE213" s="7">
-        <v>7751.507</v>
-      </c>
-      <c r="AF213" s="7">
-        <v>7556.892</v>
-      </c>
-      <c r="AG213" s="7">
-        <v>7509.802</v>
-      </c>
-      <c r="AH213" s="7">
-        <v>7384.652</v>
-      </c>
-      <c r="AI213" s="7">
-        <v>7467.62</v>
-      </c>
-      <c r="AJ213" s="7">
-        <v>7465.7</v>
-      </c>
-      <c r="AK213" s="7">
-        <v>7403.6</v>
-      </c>
-      <c r="AL213" s="7">
-        <v>7530.3</v>
-      </c>
-      <c r="AM213" s="7">
-        <v>7796.6</v>
-      </c>
-      <c r="AN213" s="7">
-        <v>7754.8</v>
-      </c>
-      <c r="AO213" s="7">
-        <v>6982.4</v>
-      </c>
-      <c r="AP213" s="7">
-        <v>6710.185</v>
-      </c>
-      <c r="AQ213" s="7">
-        <v>6548.365</v>
-      </c>
-      <c r="AR213" s="7">
-        <v>6385.513</v>
-      </c>
       <c r="AS213" s="7">
-        <v>6070.42</v>
+        <v>999</v>
       </c>
       <c r="AT213" s="7">
-        <v>6762.108</v>
+        <v>999</v>
       </c>
       <c r="AU213" s="7">
-        <v>7042.139</v>
+        <v>999</v>
       </c>
       <c r="BC213" s="4" t="inlineStr">
         <is>
@@ -45360,29 +45285,29 @@
       </c>
       <c r="CP213" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z15_B04_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D018</t>
+          <t>Z16_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C214" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t/>
         </is>
       </c>
       <c r="D214" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BODYINJ</t>
+          <t/>
         </is>
       </c>
       <c r="E214" s="4" t="inlineStr">
@@ -45407,110 +45332,68 @@
       </c>
       <c r="I214" s="4" t="inlineStr">
         <is>
-          <t>E_P10H6EWN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K214" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M214" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q214" s="7">
-        <v>108.635</v>
-      </c>
-      <c r="R214" s="7">
-        <v>108.571</v>
-      </c>
-      <c r="S214" s="7">
-        <v>117.918</v>
-      </c>
-      <c r="T214" s="7">
-        <v>124.476</v>
-      </c>
-      <c r="U214" s="7">
-        <v>130.293</v>
-      </c>
-      <c r="V214" s="7">
-        <v>135.319</v>
-      </c>
-      <c r="W214" s="7">
-        <v>140.687</v>
-      </c>
-      <c r="X214" s="7">
-        <v>143.543</v>
-      </c>
-      <c r="Y214" s="7">
-        <v>147.724</v>
-      </c>
-      <c r="Z214" s="7">
-        <v>155.614</v>
-      </c>
-      <c r="AA214" s="7">
-        <v>162.542</v>
-      </c>
-      <c r="AB214" s="7">
-        <v>171.451</v>
-      </c>
-      <c r="AC214" s="7">
-        <v>180.731</v>
-      </c>
       <c r="AD214" s="7">
-        <v>185.646</v>
+        <v>8</v>
       </c>
       <c r="AE214" s="7">
-        <v>190.991</v>
+        <v>6</v>
       </c>
       <c r="AF214" s="7">
-        <v>186.889</v>
+        <v>8</v>
       </c>
       <c r="AG214" s="7">
-        <v>185.193</v>
+        <v>2</v>
       </c>
       <c r="AH214" s="7">
-        <v>177.859</v>
+        <v>3</v>
       </c>
       <c r="AI214" s="7">
-        <v>173.382</v>
+        <v>11</v>
       </c>
       <c r="AJ214" s="7">
-        <v>169.402</v>
+        <v>15</v>
       </c>
       <c r="AK214" s="7">
-        <v>158.8</v>
+        <v>14</v>
       </c>
       <c r="AL214" s="7">
-        <v>155.7</v>
+        <v>15</v>
       </c>
       <c r="AM214" s="7">
-        <v>156.9</v>
+        <v>26</v>
       </c>
       <c r="AN214" s="7">
-        <v>170.4</v>
+        <v>26</v>
       </c>
       <c r="AO214" s="7">
-        <v>166.1</v>
+        <v>19</v>
       </c>
       <c r="AP214" s="7">
-        <v>165.144</v>
+        <v>36</v>
       </c>
       <c r="AQ214" s="7">
-        <v>160.305</v>
+        <v>31</v>
       </c>
       <c r="AR214" s="7">
-        <v>156.857</v>
+        <v>38</v>
       </c>
       <c r="AS214" s="7">
-        <v>147.124</v>
+        <v>38</v>
       </c>
       <c r="AT214" s="7">
-        <v>173.796</v>
-      </c>
-      <c r="AU214" s="7">
-        <v>183.195</v>
+        <v>32</v>
       </c>
       <c r="BC214" s="4" t="inlineStr">
         <is>
@@ -45614,29 +45497,29 @@
       </c>
       <c r="CP214" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D019</t>
+          <t>Z16_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t/>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_FRAUD</t>
+          <t/>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
@@ -45661,110 +45544,53 @@
       </c>
       <c r="I215" s="4" t="inlineStr">
         <is>
-          <t>E_P10H6EWN</t>
+          <t>E_NN</t>
         </is>
       </c>
       <c r="K215" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L215" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M215" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q215" s="7">
-        <v>653.924</v>
-      </c>
-      <c r="R215" s="7">
-        <v>724.436</v>
-      </c>
-      <c r="S215" s="7">
-        <v>767.389</v>
-      </c>
-      <c r="T215" s="7">
-        <v>796.795</v>
-      </c>
-      <c r="U215" s="7">
-        <v>822.866</v>
-      </c>
-      <c r="V215" s="7">
-        <v>865.74</v>
-      </c>
-      <c r="W215" s="7">
-        <v>881.271</v>
-      </c>
-      <c r="X215" s="7">
-        <v>947.075</v>
-      </c>
-      <c r="Y215" s="7">
-        <v>973.907</v>
-      </c>
-      <c r="Z215" s="7">
-        <v>966.313</v>
-      </c>
-      <c r="AA215" s="7">
-        <v>1073.724</v>
-      </c>
-      <c r="AB215" s="7">
-        <v>1155.524</v>
-      </c>
-      <c r="AC215" s="7">
-        <v>1166.926</v>
-      </c>
-      <c r="AD215" s="7">
-        <v>1174.211</v>
-      </c>
-      <c r="AE215" s="7">
-        <v>1125.97</v>
-      </c>
-      <c r="AF215" s="7">
-        <v>1097.427</v>
-      </c>
-      <c r="AG215" s="7">
-        <v>1185.581</v>
-      </c>
-      <c r="AH215" s="7">
-        <v>1204.99</v>
-      </c>
-      <c r="AI215" s="7">
-        <v>1165.368</v>
-      </c>
       <c r="AJ215" s="7">
-        <v>1193.253</v>
+        <v>79</v>
       </c>
       <c r="AK215" s="7">
-        <v>1164.7</v>
+        <v>78</v>
       </c>
       <c r="AL215" s="7">
-        <v>1199.6</v>
+        <v>79</v>
       </c>
       <c r="AM215" s="7">
-        <v>1190.1</v>
+        <v>81</v>
       </c>
       <c r="AN215" s="7">
-        <v>1094</v>
+        <v>81</v>
       </c>
       <c r="AO215" s="7">
-        <v>1103.2</v>
+        <v>81</v>
       </c>
       <c r="AP215" s="7">
-        <v>1015.532</v>
+        <v>80</v>
       </c>
       <c r="AQ215" s="7">
-        <v>1003.341</v>
+        <v>80</v>
       </c>
       <c r="AR215" s="7">
-        <v>971.632</v>
+        <v>80</v>
       </c>
       <c r="AS215" s="7">
-        <v>954.388</v>
+        <v>80</v>
       </c>
       <c r="AT215" s="7">
-        <v>962.806</v>
+        <v>79</v>
       </c>
       <c r="AU215" s="7">
-        <v>894.38</v>
+        <v>78</v>
       </c>
       <c r="BC215" s="4" t="inlineStr">
         <is>
@@ -45868,29 +45694,29 @@
       </c>
       <c r="CP215" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="216">
       <c r="A216" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D020</t>
+          <t>Z16_B03_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C216" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t/>
         </is>
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_BURGL</t>
+          <t/>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr">
@@ -45915,110 +45741,50 @@
       </c>
       <c r="I216" s="4" t="inlineStr">
         <is>
-          <t>E_P10H6EWN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K216" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M216" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q216" s="7">
-        <v>281.031</v>
-      </c>
-      <c r="R216" s="7">
-        <v>260.192</v>
-      </c>
-      <c r="S216" s="7">
-        <v>260.099</v>
-      </c>
-      <c r="T216" s="7">
-        <v>240.52</v>
-      </c>
-      <c r="U216" s="7">
-        <v>223.254</v>
-      </c>
-      <c r="V216" s="7">
-        <v>204.606</v>
-      </c>
-      <c r="W216" s="7">
-        <v>183.106</v>
-      </c>
-      <c r="X216" s="7">
-        <v>171.909</v>
-      </c>
-      <c r="Y216" s="7">
-        <v>164.145</v>
-      </c>
-      <c r="Z216" s="7">
-        <v>159.443</v>
-      </c>
-      <c r="AA216" s="7">
-        <v>151.1</v>
-      </c>
-      <c r="AB216" s="7">
-        <v>152.32</v>
-      </c>
-      <c r="AC216" s="7">
-        <v>134.805</v>
-      </c>
-      <c r="AD216" s="7">
-        <v>130.562</v>
-      </c>
-      <c r="AE216" s="7">
-        <v>134.599</v>
-      </c>
-      <c r="AF216" s="7">
-        <v>133.836</v>
-      </c>
-      <c r="AG216" s="7">
-        <v>141.158</v>
-      </c>
-      <c r="AH216" s="7">
-        <v>151.03</v>
-      </c>
-      <c r="AI216" s="7">
-        <v>165.285</v>
-      </c>
-      <c r="AJ216" s="7">
-        <v>179.411</v>
-      </c>
       <c r="AK216" s="7">
-        <v>185.7</v>
+        <v>16</v>
       </c>
       <c r="AL216" s="7">
-        <v>188.3</v>
+        <v>30</v>
       </c>
       <c r="AM216" s="7">
-        <v>205.8</v>
+        <v>30</v>
       </c>
       <c r="AN216" s="7">
-        <v>184.1</v>
+        <v>31</v>
       </c>
       <c r="AO216" s="7">
-        <v>141.2</v>
+        <v>32</v>
       </c>
       <c r="AP216" s="7">
-        <v>117.769</v>
+        <v>31</v>
       </c>
       <c r="AQ216" s="7">
-        <v>104.97</v>
+        <v>34</v>
       </c>
       <c r="AR216" s="7">
-        <v>90.208</v>
+        <v>36</v>
       </c>
       <c r="AS216" s="7">
-        <v>65.223</v>
+        <v>36</v>
       </c>
       <c r="AT216" s="7">
-        <v>79.181</v>
+        <v>30</v>
       </c>
       <c r="AU216" s="7">
-        <v>92.248</v>
+        <v>34</v>
       </c>
       <c r="BC216" s="4" t="inlineStr">
         <is>
@@ -46122,29 +45888,29 @@
       </c>
       <c r="CP216" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01_D021</t>
+          <t>Z17_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
         <is>
-          <t>K_CRIMOFF</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>A_CRIMOFF_OTHER</t>
+          <t>A_CALCMETH_NETEXP</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
@@ -46169,11 +45935,11 @@
       </c>
       <c r="I217" s="4" t="inlineStr">
         <is>
-          <t>E_P10H6EWN</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K217" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217" s="6" t="b">
         <v>0</v>
@@ -46181,98 +45947,74 @@
       <c r="M217" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q217" s="7">
-        <v>7310.504</v>
-      </c>
-      <c r="R217" s="7">
-        <v>6969.442</v>
-      </c>
       <c r="S217" s="7">
-        <v>7066.485</v>
+        <v>0.31</v>
       </c>
       <c r="T217" s="7">
-        <v>7004.051</v>
+        <v>0.32</v>
       </c>
       <c r="U217" s="7">
-        <v>6902.249</v>
+        <v>0.28</v>
       </c>
       <c r="V217" s="7">
-        <v>6717.579</v>
+        <v>0.26</v>
       </c>
       <c r="W217" s="7">
-        <v>6537.571</v>
+        <v>0.26</v>
       </c>
       <c r="X217" s="7">
-        <v>6429.227</v>
+        <v>0.27</v>
       </c>
       <c r="Y217" s="7">
-        <v>6525.908</v>
+        <v>0.27</v>
       </c>
       <c r="Z217" s="7">
-        <v>6696.451</v>
+        <v>0.27</v>
       </c>
       <c r="AA217" s="7">
-        <v>6667.887</v>
+        <v>0.28</v>
       </c>
       <c r="AB217" s="7">
-        <v>6658.625</v>
+        <v>0.28</v>
       </c>
       <c r="AC217" s="7">
-        <v>6369.412</v>
+        <v>0.36</v>
       </c>
       <c r="AD217" s="7">
-        <v>6266.75</v>
+        <v>0.36</v>
       </c>
       <c r="AE217" s="7">
-        <v>6299.947</v>
+        <v>0.37</v>
       </c>
       <c r="AF217" s="7">
-        <v>6138.74</v>
+        <v>0.38</v>
       </c>
       <c r="AG217" s="7">
-        <v>5997.87</v>
+        <v>0.35</v>
       </c>
       <c r="AH217" s="7">
-        <v>5850.772</v>
+        <v>0.39</v>
       </c>
       <c r="AI217" s="7">
-        <v>5963.585</v>
+        <v>0.39</v>
       </c>
       <c r="AJ217" s="7">
-        <v>5923.634</v>
+        <v>0.37</v>
       </c>
       <c r="AK217" s="7">
-        <v>5894.4</v>
+        <v>0.38</v>
       </c>
       <c r="AL217" s="7">
-        <v>5986.7</v>
+        <v>0.42</v>
       </c>
       <c r="AM217" s="7">
-        <v>6243.8</v>
+        <v>0.52</v>
       </c>
       <c r="AN217" s="7">
-        <v>6306.3</v>
+        <v>0.7</v>
       </c>
       <c r="AO217" s="7">
-        <v>5571.9</v>
-      </c>
-      <c r="AP217" s="7">
-        <v>5411.739</v>
-      </c>
-      <c r="AQ217" s="7">
-        <v>5279.749</v>
-      </c>
-      <c r="AR217" s="7">
-        <v>5166.816</v>
-      </c>
-      <c r="AS217" s="7">
-        <v>4903.685</v>
-      </c>
-      <c r="AT217" s="7">
-        <v>5546.324</v>
-      </c>
-      <c r="AU217" s="7">
-        <v>5872.316</v>
+        <v>0.67</v>
       </c>
       <c r="BC217" s="4" t="inlineStr">
         <is>
@@ -46376,29 +46118,29 @@
       </c>
       <c r="CP217" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D001</t>
+          <t>Z17_B01_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C218" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="D218" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="E218" s="4" t="inlineStr">
@@ -46423,7 +46165,7 @@
       </c>
       <c r="I218" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K218" s="6" t="b">
@@ -46435,56 +46177,23 @@
       <c r="M218" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AD218" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE218" s="7">
-        <v>6</v>
-      </c>
-      <c r="AF218" s="7">
-        <v>8</v>
-      </c>
-      <c r="AG218" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH218" s="7">
-        <v>3</v>
-      </c>
-      <c r="AI218" s="7">
-        <v>11</v>
-      </c>
-      <c r="AJ218" s="7">
-        <v>15</v>
-      </c>
-      <c r="AK218" s="7">
-        <v>14</v>
-      </c>
-      <c r="AL218" s="7">
-        <v>15</v>
-      </c>
-      <c r="AM218" s="7">
-        <v>26</v>
-      </c>
-      <c r="AN218" s="7">
-        <v>26</v>
-      </c>
-      <c r="AO218" s="7">
-        <v>19</v>
-      </c>
       <c r="AP218" s="7">
-        <v>36</v>
+        <v>0.61</v>
       </c>
       <c r="AQ218" s="7">
-        <v>31</v>
+        <v>0.61</v>
       </c>
       <c r="AR218" s="7">
-        <v>38</v>
+        <v>0.73</v>
       </c>
       <c r="AS218" s="7">
-        <v>38</v>
+        <v>0.76</v>
       </c>
       <c r="AT218" s="7">
-        <v>32</v>
+        <v>0.85</v>
+      </c>
+      <c r="AU218" s="7">
+        <v>0.82</v>
       </c>
       <c r="BC218" s="4" t="inlineStr">
         <is>
@@ -46588,19 +46297,19 @@
       </c>
       <c r="CP218" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
@@ -46635,7 +46344,7 @@
       </c>
       <c r="I219" s="4" t="inlineStr">
         <is>
-          <t>E_NN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K219" s="6" t="b">
@@ -46647,41 +46356,62 @@
       <c r="M219" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC219" s="7">
+        <v>140519</v>
+      </c>
+      <c r="AD219" s="7">
+        <v>141289</v>
+      </c>
+      <c r="AE219" s="7">
+        <v>136087</v>
+      </c>
+      <c r="AF219" s="7">
+        <v>140832</v>
+      </c>
+      <c r="AG219" s="7">
+        <v>147152</v>
+      </c>
+      <c r="AH219" s="7">
+        <v>153690</v>
+      </c>
+      <c r="AI219" s="7">
+        <v>158557</v>
+      </c>
       <c r="AJ219" s="7">
-        <v>79</v>
+        <v>170618</v>
       </c>
       <c r="AK219" s="7">
-        <v>78</v>
+        <v>185787</v>
       </c>
       <c r="AL219" s="7">
-        <v>79</v>
+        <v>200349</v>
       </c>
       <c r="AM219" s="7">
-        <v>81</v>
+        <v>215258</v>
       </c>
       <c r="AN219" s="7">
-        <v>81</v>
+        <v>230689</v>
       </c>
       <c r="AO219" s="7">
-        <v>81</v>
+        <v>247436</v>
       </c>
       <c r="AP219" s="7">
-        <v>80</v>
+        <v>267250</v>
       </c>
       <c r="AQ219" s="7">
-        <v>80</v>
+        <v>285450</v>
       </c>
       <c r="AR219" s="7">
-        <v>80</v>
+        <v>298149</v>
       </c>
       <c r="AS219" s="7">
-        <v>80</v>
+        <v>316001</v>
       </c>
       <c r="AT219" s="7">
-        <v>79</v>
+        <v>335016</v>
       </c>
       <c r="AU219" s="7">
-        <v>78</v>
+        <v>348976</v>
       </c>
       <c r="BC219" s="4" t="inlineStr">
         <is>
@@ -46785,29 +46515,29 @@
       </c>
       <c r="CP219" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C220" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D220" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="E220" s="4" t="inlineStr">
@@ -46836,46 +46566,70 @@
         </is>
       </c>
       <c r="K220" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M220" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC220" s="7">
+        <v>4960</v>
+      </c>
+      <c r="AD220" s="7">
+        <v>5012</v>
+      </c>
+      <c r="AE220" s="7">
+        <v>4933</v>
+      </c>
+      <c r="AF220" s="7">
+        <v>5331</v>
+      </c>
+      <c r="AG220" s="7">
+        <v>5738</v>
+      </c>
+      <c r="AH220" s="7">
+        <v>6300</v>
+      </c>
+      <c r="AI220" s="7">
+        <v>6925</v>
+      </c>
+      <c r="AJ220" s="7">
+        <v>7577</v>
+      </c>
       <c r="AK220" s="7">
-        <v>16</v>
+        <v>8348</v>
       </c>
       <c r="AL220" s="7">
-        <v>30</v>
+        <v>9244</v>
       </c>
       <c r="AM220" s="7">
-        <v>30</v>
+        <v>9746</v>
       </c>
       <c r="AN220" s="7">
-        <v>31</v>
+        <v>10119</v>
       </c>
       <c r="AO220" s="7">
-        <v>32</v>
+        <v>10576</v>
       </c>
       <c r="AP220" s="7">
-        <v>31</v>
+        <v>11525</v>
       </c>
       <c r="AQ220" s="7">
-        <v>34</v>
+        <v>13067</v>
       </c>
       <c r="AR220" s="7">
-        <v>36</v>
+        <v>15055</v>
       </c>
       <c r="AS220" s="7">
-        <v>36</v>
+        <v>17113</v>
       </c>
       <c r="AT220" s="7">
-        <v>30</v>
+        <v>18315</v>
       </c>
       <c r="AU220" s="7">
-        <v>34</v>
+        <v>19505</v>
       </c>
       <c r="BC220" s="4" t="inlineStr">
         <is>
@@ -46979,29 +46733,29 @@
       </c>
       <c r="CP220" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D035</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_NETEXP</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="E221" s="4" t="inlineStr">
@@ -47026,11 +46780,11 @@
       </c>
       <c r="I221" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K221" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L221" s="6" t="b">
         <v>0</v>
@@ -47038,74 +46792,62 @@
       <c r="M221" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S221" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="T221" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="U221" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="V221" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W221" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="X221" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Y221" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Z221" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="AA221" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AB221" s="7">
-        <v>0.28</v>
-      </c>
       <c r="AC221" s="7">
-        <v>0.36</v>
+        <v>129502</v>
       </c>
       <c r="AD221" s="7">
-        <v>0.36</v>
+        <v>129631</v>
       </c>
       <c r="AE221" s="7">
-        <v>0.37</v>
+        <v>124181</v>
       </c>
       <c r="AF221" s="7">
-        <v>0.38</v>
+        <v>127067</v>
       </c>
       <c r="AG221" s="7">
-        <v>0.35</v>
+        <v>131633</v>
       </c>
       <c r="AH221" s="7">
-        <v>0.39</v>
+        <v>136445</v>
       </c>
       <c r="AI221" s="7">
-        <v>0.39</v>
+        <v>140304</v>
       </c>
       <c r="AJ221" s="7">
-        <v>0.37</v>
+        <v>150880</v>
       </c>
       <c r="AK221" s="7">
-        <v>0.38</v>
+        <v>164098</v>
       </c>
       <c r="AL221" s="7">
-        <v>0.42</v>
+        <v>176768</v>
       </c>
       <c r="AM221" s="7">
-        <v>0.52</v>
+        <v>190403</v>
       </c>
       <c r="AN221" s="7">
-        <v>0.7</v>
+        <v>204695</v>
       </c>
       <c r="AO221" s="7">
-        <v>0.67</v>
+        <v>219307</v>
+      </c>
+      <c r="AP221" s="7">
+        <v>236609</v>
+      </c>
+      <c r="AQ221" s="7">
+        <v>251488</v>
+      </c>
+      <c r="AR221" s="7">
+        <v>259999</v>
+      </c>
+      <c r="AS221" s="7">
+        <v>273340</v>
+      </c>
+      <c r="AT221" s="7">
+        <v>288586</v>
+      </c>
+      <c r="AU221" s="7">
+        <v>299158</v>
       </c>
       <c r="BC221" s="4" t="inlineStr">
         <is>
@@ -47209,29 +46951,29 @@
       </c>
       <c r="CP221" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="222">
       <c r="A222" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D002</t>
+          <t>Z17_B02_P01_Ib01_I01_D052</t>
         </is>
       </c>
       <c r="B222" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C222" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D222" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="E222" s="4" t="inlineStr">
@@ -47256,35 +46998,74 @@
       </c>
       <c r="I222" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K222" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L222" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M222" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC222" s="7">
+        <v>209</v>
+      </c>
+      <c r="AD222" s="7">
+        <v>212</v>
+      </c>
+      <c r="AE222" s="7">
+        <v>207</v>
+      </c>
+      <c r="AF222" s="7">
+        <v>254</v>
+      </c>
+      <c r="AG222" s="7">
+        <v>299</v>
+      </c>
+      <c r="AH222" s="7">
+        <v>331</v>
+      </c>
+      <c r="AI222" s="7">
+        <v>382</v>
+      </c>
+      <c r="AJ222" s="7">
+        <v>420</v>
+      </c>
+      <c r="AK222" s="7">
+        <v>476</v>
+      </c>
+      <c r="AL222" s="7">
+        <v>500</v>
+      </c>
+      <c r="AM222" s="7">
+        <v>517</v>
+      </c>
+      <c r="AN222" s="7">
+        <v>558</v>
+      </c>
+      <c r="AO222" s="7">
+        <v>649</v>
+      </c>
       <c r="AP222" s="7">
-        <v>0.61</v>
+        <v>687</v>
       </c>
       <c r="AQ222" s="7">
-        <v>0.61</v>
+        <v>681</v>
       </c>
       <c r="AR222" s="7">
-        <v>0.73</v>
+        <v>838</v>
       </c>
       <c r="AS222" s="7">
-        <v>0.76</v>
+        <v>924</v>
       </c>
       <c r="AT222" s="7">
-        <v>0.85</v>
+        <v>1070</v>
       </c>
       <c r="AU222" s="7">
-        <v>0.82</v>
+        <v>1190</v>
       </c>
       <c r="BC222" s="4" t="inlineStr">
         <is>
@@ -47388,14 +47169,14 @@
       </c>
       <c r="CP222" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D069</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
@@ -47405,12 +47186,12 @@
       </c>
       <c r="C223" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
@@ -47439,70 +47220,70 @@
         </is>
       </c>
       <c r="K223" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L223" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M223" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC223" s="7">
-        <v>140519</v>
+        <v>5848</v>
       </c>
       <c r="AD223" s="7">
-        <v>141289</v>
+        <v>6434</v>
       </c>
       <c r="AE223" s="7">
-        <v>136087</v>
+        <v>6766</v>
       </c>
       <c r="AF223" s="7">
-        <v>140832</v>
+        <v>8180</v>
       </c>
       <c r="AG223" s="7">
-        <v>147152</v>
+        <v>9482</v>
       </c>
       <c r="AH223" s="7">
-        <v>153690</v>
+        <v>10614</v>
       </c>
       <c r="AI223" s="7">
-        <v>158557</v>
+        <v>10946</v>
       </c>
       <c r="AJ223" s="7">
-        <v>170618</v>
+        <v>11741</v>
       </c>
       <c r="AK223" s="7">
-        <v>185787</v>
+        <v>12865</v>
       </c>
       <c r="AL223" s="7">
-        <v>200349</v>
+        <v>13837</v>
       </c>
       <c r="AM223" s="7">
-        <v>215258</v>
+        <v>14592</v>
       </c>
       <c r="AN223" s="7">
-        <v>230689</v>
+        <v>15317</v>
       </c>
       <c r="AO223" s="7">
-        <v>247436</v>
+        <v>16904</v>
       </c>
       <c r="AP223" s="7">
-        <v>267250</v>
+        <v>18429</v>
       </c>
       <c r="AQ223" s="7">
-        <v>285450</v>
+        <v>20214</v>
       </c>
       <c r="AR223" s="7">
-        <v>298149</v>
+        <v>22257</v>
       </c>
       <c r="AS223" s="7">
-        <v>316001</v>
+        <v>24624</v>
       </c>
       <c r="AT223" s="7">
-        <v>335016</v>
+        <v>27044</v>
       </c>
       <c r="AU223" s="7">
-        <v>348976</v>
+        <v>29123</v>
       </c>
       <c r="BC223" s="4" t="inlineStr">
         <is>
@@ -47613,12 +47394,12 @@
     <row outlineLevel="0" r="224">
       <c r="A224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D018</t>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C224" s="4" t="inlineStr">
@@ -47628,7 +47409,7 @@
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
@@ -47653,74 +47434,83 @@
       </c>
       <c r="I224" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K224" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L224" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M224" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Z224" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AA224" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AB224" s="7">
+        <v>0.52</v>
+      </c>
       <c r="AC224" s="7">
-        <v>4960</v>
+        <v>0.44</v>
       </c>
       <c r="AD224" s="7">
-        <v>5012</v>
+        <v>0.49</v>
       </c>
       <c r="AE224" s="7">
-        <v>4933</v>
+        <v>0.52</v>
       </c>
       <c r="AF224" s="7">
-        <v>5331</v>
+        <v>0.46</v>
       </c>
       <c r="AG224" s="7">
-        <v>5738</v>
+        <v>0.58</v>
       </c>
       <c r="AH224" s="7">
-        <v>6300</v>
+        <v>0.53</v>
       </c>
       <c r="AI224" s="7">
-        <v>6925</v>
+        <v>0.67</v>
       </c>
       <c r="AJ224" s="7">
-        <v>7577</v>
+        <v>0.62</v>
       </c>
       <c r="AK224" s="7">
-        <v>8348</v>
+        <v>0.71</v>
       </c>
       <c r="AL224" s="7">
-        <v>9244</v>
+        <v>0.71</v>
       </c>
       <c r="AM224" s="7">
-        <v>9746</v>
+        <v>0.81</v>
       </c>
       <c r="AN224" s="7">
-        <v>10119</v>
+        <v>0.88</v>
       </c>
       <c r="AO224" s="7">
-        <v>10576</v>
+        <v>0.94</v>
       </c>
       <c r="AP224" s="7">
-        <v>11525</v>
+        <v>0.94</v>
       </c>
       <c r="AQ224" s="7">
-        <v>13067</v>
+        <v>0.94</v>
       </c>
       <c r="AR224" s="7">
-        <v>15055</v>
+        <v>0.98</v>
       </c>
       <c r="AS224" s="7">
-        <v>17113</v>
+        <v>1.04</v>
       </c>
       <c r="AT224" s="7">
-        <v>18315</v>
+        <v>1.15</v>
       </c>
       <c r="AU224" s="7">
-        <v>19505</v>
+        <v>1.02</v>
       </c>
       <c r="BC224" s="4" t="inlineStr">
         <is>
@@ -47824,19 +47614,19 @@
       </c>
       <c r="CP224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D035</t>
+          <t>Z17_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
@@ -47846,7 +47636,7 @@
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
@@ -47871,7 +47661,7 @@
       </c>
       <c r="I225" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K225" s="6" t="b">
@@ -47883,62 +47673,71 @@
       <c r="M225" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Z225" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AA225" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AB225" s="7">
+        <v>0.49</v>
+      </c>
       <c r="AC225" s="7">
-        <v>129502</v>
+        <v>0.4</v>
       </c>
       <c r="AD225" s="7">
-        <v>129631</v>
+        <v>0.45</v>
       </c>
       <c r="AE225" s="7">
-        <v>124181</v>
+        <v>0.45</v>
       </c>
       <c r="AF225" s="7">
-        <v>127067</v>
+        <v>0.36</v>
       </c>
       <c r="AG225" s="7">
-        <v>131633</v>
+        <v>0.52</v>
       </c>
       <c r="AH225" s="7">
-        <v>136445</v>
+        <v>0.47</v>
       </c>
       <c r="AI225" s="7">
-        <v>140304</v>
+        <v>0.54</v>
       </c>
       <c r="AJ225" s="7">
-        <v>150880</v>
+        <v>0.54</v>
       </c>
       <c r="AK225" s="7">
-        <v>164098</v>
+        <v>0.62</v>
       </c>
       <c r="AL225" s="7">
-        <v>176768</v>
+        <v>0.66</v>
       </c>
       <c r="AM225" s="7">
-        <v>190403</v>
+        <v>0.76</v>
       </c>
       <c r="AN225" s="7">
-        <v>204695</v>
+        <v>0.82</v>
       </c>
       <c r="AO225" s="7">
-        <v>219307</v>
+        <v>0.88</v>
       </c>
       <c r="AP225" s="7">
-        <v>236609</v>
+        <v>0.89</v>
       </c>
       <c r="AQ225" s="7">
-        <v>251488</v>
+        <v>0.89</v>
       </c>
       <c r="AR225" s="7">
-        <v>259999</v>
+        <v>0.92</v>
       </c>
       <c r="AS225" s="7">
-        <v>273340</v>
+        <v>0.92</v>
       </c>
       <c r="AT225" s="7">
-        <v>288586</v>
+        <v>1.02</v>
       </c>
       <c r="AU225" s="7">
-        <v>299158</v>
+        <v>0.92</v>
       </c>
       <c r="BC225" s="4" t="inlineStr">
         <is>
@@ -48041,896 +47840,6 @@
         </is>
       </c>
       <c r="CP225" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="226">
-      <c r="A226" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01_I01_D052</t>
-        </is>
-      </c>
-      <c r="B226" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C226" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D226" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_RESLDC</t>
-        </is>
-      </c>
-      <c r="E226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I226" s="4" t="inlineStr">
-        <is>
-          <t>E_NUM</t>
-        </is>
-      </c>
-      <c r="K226" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M226" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC226" s="7">
-        <v>209</v>
-      </c>
-      <c r="AD226" s="7">
-        <v>212</v>
-      </c>
-      <c r="AE226" s="7">
-        <v>207</v>
-      </c>
-      <c r="AF226" s="7">
-        <v>254</v>
-      </c>
-      <c r="AG226" s="7">
-        <v>299</v>
-      </c>
-      <c r="AH226" s="7">
-        <v>331</v>
-      </c>
-      <c r="AI226" s="7">
-        <v>382</v>
-      </c>
-      <c r="AJ226" s="7">
-        <v>420</v>
-      </c>
-      <c r="AK226" s="7">
-        <v>476</v>
-      </c>
-      <c r="AL226" s="7">
-        <v>500</v>
-      </c>
-      <c r="AM226" s="7">
-        <v>517</v>
-      </c>
-      <c r="AN226" s="7">
-        <v>558</v>
-      </c>
-      <c r="AO226" s="7">
-        <v>649</v>
-      </c>
-      <c r="AP226" s="7">
-        <v>687</v>
-      </c>
-      <c r="AQ226" s="7">
-        <v>681</v>
-      </c>
-      <c r="AR226" s="7">
-        <v>838</v>
-      </c>
-      <c r="AS226" s="7">
-        <v>924</v>
-      </c>
-      <c r="AT226" s="7">
-        <v>1070</v>
-      </c>
-      <c r="AU226" s="7">
-        <v>1190</v>
-      </c>
-      <c r="BC226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO226" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP226" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="227">
-      <c r="A227" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01_I01_D069</t>
-        </is>
-      </c>
-      <c r="B227" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C227" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D227" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_RESOTHER</t>
-        </is>
-      </c>
-      <c r="E227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I227" s="4" t="inlineStr">
-        <is>
-          <t>E_NUM</t>
-        </is>
-      </c>
-      <c r="K227" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M227" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC227" s="7">
-        <v>5848</v>
-      </c>
-      <c r="AD227" s="7">
-        <v>6434</v>
-      </c>
-      <c r="AE227" s="7">
-        <v>6766</v>
-      </c>
-      <c r="AF227" s="7">
-        <v>8180</v>
-      </c>
-      <c r="AG227" s="7">
-        <v>9482</v>
-      </c>
-      <c r="AH227" s="7">
-        <v>10614</v>
-      </c>
-      <c r="AI227" s="7">
-        <v>10946</v>
-      </c>
-      <c r="AJ227" s="7">
-        <v>11741</v>
-      </c>
-      <c r="AK227" s="7">
-        <v>12865</v>
-      </c>
-      <c r="AL227" s="7">
-        <v>13837</v>
-      </c>
-      <c r="AM227" s="7">
-        <v>14592</v>
-      </c>
-      <c r="AN227" s="7">
-        <v>15317</v>
-      </c>
-      <c r="AO227" s="7">
-        <v>16904</v>
-      </c>
-      <c r="AP227" s="7">
-        <v>18429</v>
-      </c>
-      <c r="AQ227" s="7">
-        <v>20214</v>
-      </c>
-      <c r="AR227" s="7">
-        <v>22257</v>
-      </c>
-      <c r="AS227" s="7">
-        <v>24624</v>
-      </c>
-      <c r="AT227" s="7">
-        <v>27044</v>
-      </c>
-      <c r="AU227" s="7">
-        <v>29123</v>
-      </c>
-      <c r="BC227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO227" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP227" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="228">
-      <c r="A228" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01_D001</t>
-        </is>
-      </c>
-      <c r="B228" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C228" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D228" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_IMP</t>
-        </is>
-      </c>
-      <c r="E228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I228" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNT</t>
-        </is>
-      </c>
-      <c r="K228" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M228" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z228" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AA228" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AB228" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AC228" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AD228" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AE228" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AF228" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="AG228" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="AH228" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="AI228" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="AJ228" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="AK228" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="AL228" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="AM228" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="AN228" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="AO228" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AP228" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AQ228" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AR228" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="AS228" s="7">
-        <v>1.04</v>
-      </c>
-      <c r="AT228" s="7">
-        <v>1.15</v>
-      </c>
-      <c r="AU228" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="BC228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO228" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP228" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="229">
-      <c r="A229" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01_D002</t>
-        </is>
-      </c>
-      <c r="B229" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C229" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D229" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_PROCIMP</t>
-        </is>
-      </c>
-      <c r="E229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I229" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNT</t>
-        </is>
-      </c>
-      <c r="K229" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M229" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z229" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AA229" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AB229" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AC229" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="AD229" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="AE229" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="AF229" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AG229" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AH229" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="AI229" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="AJ229" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="AK229" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="AL229" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="AM229" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="AN229" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="AO229" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="AP229" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="AQ229" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="AR229" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AS229" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AT229" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="AU229" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="BC229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO229" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP229" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP225"/>
+  <dimension ref="A1:CP227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -45344,56 +45344,14 @@
       <c r="M214" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AD214" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE214" s="7">
-        <v>6</v>
-      </c>
-      <c r="AF214" s="7">
-        <v>8</v>
-      </c>
-      <c r="AG214" s="7">
-        <v>2</v>
-      </c>
-      <c r="AH214" s="7">
-        <v>3</v>
-      </c>
-      <c r="AI214" s="7">
-        <v>11</v>
-      </c>
-      <c r="AJ214" s="7">
-        <v>15</v>
-      </c>
-      <c r="AK214" s="7">
-        <v>14</v>
-      </c>
-      <c r="AL214" s="7">
-        <v>15</v>
-      </c>
-      <c r="AM214" s="7">
-        <v>26</v>
-      </c>
-      <c r="AN214" s="7">
-        <v>26</v>
-      </c>
-      <c r="AO214" s="7">
-        <v>19</v>
-      </c>
-      <c r="AP214" s="7">
-        <v>36</v>
-      </c>
-      <c r="AQ214" s="7">
-        <v>31</v>
-      </c>
-      <c r="AR214" s="7">
-        <v>38</v>
-      </c>
       <c r="AS214" s="7">
-        <v>38</v>
+        <v>999</v>
       </c>
       <c r="AT214" s="7">
-        <v>32</v>
+        <v>999</v>
+      </c>
+      <c r="AU214" s="7">
+        <v>999</v>
       </c>
       <c r="BC214" s="4" t="inlineStr">
         <is>
@@ -45895,22 +45853,22 @@
     <row outlineLevel="0" r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D001</t>
+          <t>Z16_B04_P01_IB01_I01_D001</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_NETEXP</t>
+          <t>A_BEWERTUNG_PRO</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
@@ -45935,86 +45893,20 @@
       </c>
       <c r="I217" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K217" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L217" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M217" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S217" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="T217" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="U217" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="V217" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W217" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="X217" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Y217" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Z217" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="AA217" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AB217" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AC217" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AD217" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AE217" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AF217" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AG217" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="AH217" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AI217" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AJ217" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AK217" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AL217" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="AM217" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AN217" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="AO217" s="7">
-        <v>0.67</v>
+      <c r="AT217" s="7">
+        <v>4</v>
       </c>
       <c r="BC217" s="4" t="inlineStr">
         <is>
@@ -46118,29 +46010,29 @@
       </c>
       <c r="CP217" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="218">
       <c r="A218" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D002</t>
+          <t>Z16_B04_P01_IB01_I01_D002</t>
         </is>
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C218" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="D218" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t>A_BEWERTUNG_CON</t>
         </is>
       </c>
       <c r="E218" s="4" t="inlineStr">
@@ -46165,35 +46057,20 @@
       </c>
       <c r="I218" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K218" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L218" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M218" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AP218" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="AQ218" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="AR218" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="AS218" s="7">
-        <v>0.76</v>
-      </c>
       <c r="AT218" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="AU218" s="7">
-        <v>0.82</v>
+        <v>7</v>
       </c>
       <c r="BC218" s="4" t="inlineStr">
         <is>
@@ -46297,29 +46174,29 @@
       </c>
       <c r="CP218" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D001</t>
+          <t>Z17_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_CALCMETH_NETEXP</t>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
@@ -46344,74 +46221,86 @@
       </c>
       <c r="I219" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K219" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L219" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M219" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="S219" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="T219" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="U219" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="V219" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W219" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="X219" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Y219" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Z219" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AA219" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AB219" s="7">
+        <v>0.28</v>
+      </c>
       <c r="AC219" s="7">
-        <v>140519</v>
+        <v>0.36</v>
       </c>
       <c r="AD219" s="7">
-        <v>141289</v>
+        <v>0.36</v>
       </c>
       <c r="AE219" s="7">
-        <v>136087</v>
+        <v>0.37</v>
       </c>
       <c r="AF219" s="7">
-        <v>140832</v>
+        <v>0.38</v>
       </c>
       <c r="AG219" s="7">
-        <v>147152</v>
+        <v>0.35</v>
       </c>
       <c r="AH219" s="7">
-        <v>153690</v>
+        <v>0.39</v>
       </c>
       <c r="AI219" s="7">
-        <v>158557</v>
+        <v>0.39</v>
       </c>
       <c r="AJ219" s="7">
-        <v>170618</v>
+        <v>0.37</v>
       </c>
       <c r="AK219" s="7">
-        <v>185787</v>
+        <v>0.38</v>
       </c>
       <c r="AL219" s="7">
-        <v>200349</v>
+        <v>0.42</v>
       </c>
       <c r="AM219" s="7">
-        <v>215258</v>
+        <v>0.52</v>
       </c>
       <c r="AN219" s="7">
-        <v>230689</v>
+        <v>0.7</v>
       </c>
       <c r="AO219" s="7">
-        <v>247436</v>
-      </c>
-      <c r="AP219" s="7">
-        <v>267250</v>
-      </c>
-      <c r="AQ219" s="7">
-        <v>285450</v>
-      </c>
-      <c r="AR219" s="7">
-        <v>298149</v>
-      </c>
-      <c r="AS219" s="7">
-        <v>316001</v>
-      </c>
-      <c r="AT219" s="7">
-        <v>335016</v>
-      </c>
-      <c r="AU219" s="7">
-        <v>348976</v>
+        <v>0.67</v>
       </c>
       <c r="BC219" s="4" t="inlineStr">
         <is>
@@ -46515,29 +46404,29 @@
       </c>
       <c r="CP219" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="220">
       <c r="A220" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D018</t>
+          <t>Z17_B01_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C220" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_CALCMETH</t>
         </is>
       </c>
       <c r="D220" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_CALCMETH_GRANTEQU</t>
         </is>
       </c>
       <c r="E220" s="4" t="inlineStr">
@@ -46562,74 +46451,35 @@
       </c>
       <c r="I220" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K220" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M220" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC220" s="7">
-        <v>4960</v>
-      </c>
-      <c r="AD220" s="7">
-        <v>5012</v>
-      </c>
-      <c r="AE220" s="7">
-        <v>4933</v>
-      </c>
-      <c r="AF220" s="7">
-        <v>5331</v>
-      </c>
-      <c r="AG220" s="7">
-        <v>5738</v>
-      </c>
-      <c r="AH220" s="7">
-        <v>6300</v>
-      </c>
-      <c r="AI220" s="7">
-        <v>6925</v>
-      </c>
-      <c r="AJ220" s="7">
-        <v>7577</v>
-      </c>
-      <c r="AK220" s="7">
-        <v>8348</v>
-      </c>
-      <c r="AL220" s="7">
-        <v>9244</v>
-      </c>
-      <c r="AM220" s="7">
-        <v>9746</v>
-      </c>
-      <c r="AN220" s="7">
-        <v>10119</v>
-      </c>
-      <c r="AO220" s="7">
-        <v>10576</v>
-      </c>
       <c r="AP220" s="7">
-        <v>11525</v>
+        <v>0.61</v>
       </c>
       <c r="AQ220" s="7">
-        <v>13067</v>
+        <v>0.61</v>
       </c>
       <c r="AR220" s="7">
-        <v>15055</v>
+        <v>0.73</v>
       </c>
       <c r="AS220" s="7">
-        <v>17113</v>
+        <v>0.76</v>
       </c>
       <c r="AT220" s="7">
-        <v>18315</v>
+        <v>0.85</v>
       </c>
       <c r="AU220" s="7">
-        <v>19505</v>
+        <v>0.82</v>
       </c>
       <c r="BC220" s="4" t="inlineStr">
         <is>
@@ -46733,14 +46583,14 @@
       </c>
       <c r="CP220" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D035</t>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
@@ -46750,12 +46600,12 @@
       </c>
       <c r="C221" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t/>
         </is>
       </c>
       <c r="E221" s="4" t="inlineStr">
@@ -46784,70 +46634,70 @@
         </is>
       </c>
       <c r="K221" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L221" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M221" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC221" s="7">
-        <v>129502</v>
+        <v>140519</v>
       </c>
       <c r="AD221" s="7">
-        <v>129631</v>
+        <v>141289</v>
       </c>
       <c r="AE221" s="7">
-        <v>124181</v>
+        <v>136087</v>
       </c>
       <c r="AF221" s="7">
-        <v>127067</v>
+        <v>140832</v>
       </c>
       <c r="AG221" s="7">
-        <v>131633</v>
+        <v>147152</v>
       </c>
       <c r="AH221" s="7">
-        <v>136445</v>
+        <v>153690</v>
       </c>
       <c r="AI221" s="7">
-        <v>140304</v>
+        <v>158557</v>
       </c>
       <c r="AJ221" s="7">
-        <v>150880</v>
+        <v>170618</v>
       </c>
       <c r="AK221" s="7">
-        <v>164098</v>
+        <v>185787</v>
       </c>
       <c r="AL221" s="7">
-        <v>176768</v>
+        <v>200349</v>
       </c>
       <c r="AM221" s="7">
-        <v>190403</v>
+        <v>215258</v>
       </c>
       <c r="AN221" s="7">
-        <v>204695</v>
+        <v>230689</v>
       </c>
       <c r="AO221" s="7">
-        <v>219307</v>
+        <v>247436</v>
       </c>
       <c r="AP221" s="7">
-        <v>236609</v>
+        <v>267250</v>
       </c>
       <c r="AQ221" s="7">
-        <v>251488</v>
+        <v>285450</v>
       </c>
       <c r="AR221" s="7">
-        <v>259999</v>
+        <v>298149</v>
       </c>
       <c r="AS221" s="7">
-        <v>273340</v>
+        <v>316001</v>
       </c>
       <c r="AT221" s="7">
-        <v>288586</v>
+        <v>335016</v>
       </c>
       <c r="AU221" s="7">
-        <v>299158</v>
+        <v>348976</v>
       </c>
       <c r="BC221" s="4" t="inlineStr">
         <is>
@@ -46958,7 +46808,7 @@
     <row outlineLevel="0" r="222">
       <c r="A222" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D052</t>
+          <t>Z17_B02_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B222" s="4" t="inlineStr">
@@ -46973,7 +46823,7 @@
       </c>
       <c r="D222" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="E222" s="4" t="inlineStr">
@@ -47011,61 +46861,61 @@
         <v>0</v>
       </c>
       <c r="AC222" s="7">
-        <v>209</v>
+        <v>4960</v>
       </c>
       <c r="AD222" s="7">
-        <v>212</v>
+        <v>5012</v>
       </c>
       <c r="AE222" s="7">
-        <v>207</v>
+        <v>4933</v>
       </c>
       <c r="AF222" s="7">
-        <v>254</v>
+        <v>5331</v>
       </c>
       <c r="AG222" s="7">
-        <v>299</v>
+        <v>5738</v>
       </c>
       <c r="AH222" s="7">
-        <v>331</v>
+        <v>6300</v>
       </c>
       <c r="AI222" s="7">
-        <v>382</v>
+        <v>6925</v>
       </c>
       <c r="AJ222" s="7">
-        <v>420</v>
+        <v>7577</v>
       </c>
       <c r="AK222" s="7">
-        <v>476</v>
+        <v>8348</v>
       </c>
       <c r="AL222" s="7">
-        <v>500</v>
+        <v>9244</v>
       </c>
       <c r="AM222" s="7">
-        <v>517</v>
+        <v>9746</v>
       </c>
       <c r="AN222" s="7">
-        <v>558</v>
+        <v>10119</v>
       </c>
       <c r="AO222" s="7">
-        <v>649</v>
+        <v>10576</v>
       </c>
       <c r="AP222" s="7">
-        <v>687</v>
+        <v>11525</v>
       </c>
       <c r="AQ222" s="7">
-        <v>681</v>
+        <v>13067</v>
       </c>
       <c r="AR222" s="7">
-        <v>838</v>
+        <v>15055</v>
       </c>
       <c r="AS222" s="7">
-        <v>924</v>
+        <v>17113</v>
       </c>
       <c r="AT222" s="7">
-        <v>1070</v>
+        <v>18315</v>
       </c>
       <c r="AU222" s="7">
-        <v>1190</v>
+        <v>19505</v>
       </c>
       <c r="BC222" s="4" t="inlineStr">
         <is>
@@ -47176,7 +47026,7 @@
     <row outlineLevel="0" r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D069</t>
+          <t>Z17_B02_P01_Ib01_I01_D035</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
@@ -47191,7 +47041,7 @@
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
@@ -47229,61 +47079,61 @@
         <v>0</v>
       </c>
       <c r="AC223" s="7">
-        <v>5848</v>
+        <v>129502</v>
       </c>
       <c r="AD223" s="7">
-        <v>6434</v>
+        <v>129631</v>
       </c>
       <c r="AE223" s="7">
-        <v>6766</v>
+        <v>124181</v>
       </c>
       <c r="AF223" s="7">
-        <v>8180</v>
+        <v>127067</v>
       </c>
       <c r="AG223" s="7">
-        <v>9482</v>
+        <v>131633</v>
       </c>
       <c r="AH223" s="7">
-        <v>10614</v>
+        <v>136445</v>
       </c>
       <c r="AI223" s="7">
-        <v>10946</v>
+        <v>140304</v>
       </c>
       <c r="AJ223" s="7">
-        <v>11741</v>
+        <v>150880</v>
       </c>
       <c r="AK223" s="7">
-        <v>12865</v>
+        <v>164098</v>
       </c>
       <c r="AL223" s="7">
-        <v>13837</v>
+        <v>176768</v>
       </c>
       <c r="AM223" s="7">
-        <v>14592</v>
+        <v>190403</v>
       </c>
       <c r="AN223" s="7">
-        <v>15317</v>
+        <v>204695</v>
       </c>
       <c r="AO223" s="7">
-        <v>16904</v>
+        <v>219307</v>
       </c>
       <c r="AP223" s="7">
-        <v>18429</v>
+        <v>236609</v>
       </c>
       <c r="AQ223" s="7">
-        <v>20214</v>
+        <v>251488</v>
       </c>
       <c r="AR223" s="7">
-        <v>22257</v>
+        <v>259999</v>
       </c>
       <c r="AS223" s="7">
-        <v>24624</v>
+        <v>273340</v>
       </c>
       <c r="AT223" s="7">
-        <v>27044</v>
+        <v>288586</v>
       </c>
       <c r="AU223" s="7">
-        <v>29123</v>
+        <v>299158</v>
       </c>
       <c r="BC223" s="4" t="inlineStr">
         <is>
@@ -47394,12 +47244,12 @@
     <row outlineLevel="0" r="224">
       <c r="A224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D052</t>
         </is>
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C224" s="4" t="inlineStr">
@@ -47409,7 +47259,7 @@
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
@@ -47434,83 +47284,74 @@
       </c>
       <c r="I224" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K224" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L224" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M224" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Z224" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AA224" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AB224" s="7">
-        <v>0.52</v>
-      </c>
       <c r="AC224" s="7">
-        <v>0.44</v>
+        <v>209</v>
       </c>
       <c r="AD224" s="7">
-        <v>0.49</v>
+        <v>212</v>
       </c>
       <c r="AE224" s="7">
-        <v>0.52</v>
+        <v>207</v>
       </c>
       <c r="AF224" s="7">
-        <v>0.46</v>
+        <v>254</v>
       </c>
       <c r="AG224" s="7">
-        <v>0.58</v>
+        <v>299</v>
       </c>
       <c r="AH224" s="7">
-        <v>0.53</v>
+        <v>331</v>
       </c>
       <c r="AI224" s="7">
-        <v>0.67</v>
+        <v>382</v>
       </c>
       <c r="AJ224" s="7">
-        <v>0.62</v>
+        <v>420</v>
       </c>
       <c r="AK224" s="7">
-        <v>0.71</v>
+        <v>476</v>
       </c>
       <c r="AL224" s="7">
-        <v>0.71</v>
+        <v>500</v>
       </c>
       <c r="AM224" s="7">
-        <v>0.81</v>
+        <v>517</v>
       </c>
       <c r="AN224" s="7">
-        <v>0.88</v>
+        <v>558</v>
       </c>
       <c r="AO224" s="7">
-        <v>0.94</v>
+        <v>649</v>
       </c>
       <c r="AP224" s="7">
-        <v>0.94</v>
+        <v>687</v>
       </c>
       <c r="AQ224" s="7">
-        <v>0.94</v>
+        <v>681</v>
       </c>
       <c r="AR224" s="7">
-        <v>0.98</v>
+        <v>838</v>
       </c>
       <c r="AS224" s="7">
-        <v>1.04</v>
+        <v>924</v>
       </c>
       <c r="AT224" s="7">
-        <v>1.15</v>
+        <v>1070</v>
       </c>
       <c r="AU224" s="7">
-        <v>1.02</v>
+        <v>1190</v>
       </c>
       <c r="BC224" s="4" t="inlineStr">
         <is>
@@ -47614,232 +47455,677 @@
       </c>
       <c r="CP224" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02_P01_Ib01_I01_D069</t>
+        </is>
+      </c>
+      <c r="B225" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C225" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D225" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_RESOTHER</t>
+        </is>
+      </c>
+      <c r="E225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I225" s="4" t="inlineStr">
+        <is>
+          <t>E_NUM</t>
+        </is>
+      </c>
+      <c r="K225" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M225" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC225" s="7">
+        <v>5848</v>
+      </c>
+      <c r="AD225" s="7">
+        <v>6434</v>
+      </c>
+      <c r="AE225" s="7">
+        <v>6766</v>
+      </c>
+      <c r="AF225" s="7">
+        <v>8180</v>
+      </c>
+      <c r="AG225" s="7">
+        <v>9482</v>
+      </c>
+      <c r="AH225" s="7">
+        <v>10614</v>
+      </c>
+      <c r="AI225" s="7">
+        <v>10946</v>
+      </c>
+      <c r="AJ225" s="7">
+        <v>11741</v>
+      </c>
+      <c r="AK225" s="7">
+        <v>12865</v>
+      </c>
+      <c r="AL225" s="7">
+        <v>13837</v>
+      </c>
+      <c r="AM225" s="7">
+        <v>14592</v>
+      </c>
+      <c r="AN225" s="7">
+        <v>15317</v>
+      </c>
+      <c r="AO225" s="7">
+        <v>16904</v>
+      </c>
+      <c r="AP225" s="7">
+        <v>18429</v>
+      </c>
+      <c r="AQ225" s="7">
+        <v>20214</v>
+      </c>
+      <c r="AR225" s="7">
+        <v>22257</v>
+      </c>
+      <c r="AS225" s="7">
+        <v>24624</v>
+      </c>
+      <c r="AT225" s="7">
+        <v>27044</v>
+      </c>
+      <c r="AU225" s="7">
+        <v>29123</v>
+      </c>
+      <c r="BC225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO225" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP225" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B226" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C226" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D226" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_IMP</t>
+        </is>
+      </c>
+      <c r="E226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I226" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="K226" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M226" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z226" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AA226" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AB226" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AC226" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AD226" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AE226" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AF226" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="AG226" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="AH226" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="AI226" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AJ226" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AK226" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AL226" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AM226" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AN226" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="AO226" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AP226" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AQ226" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AR226" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="AS226" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="AT226" s="7">
+        <v>1.15</v>
+      </c>
+      <c r="AU226" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="BC226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO226" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP226" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
-      <c r="B225" s="4" t="inlineStr">
+      <c r="B227" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C225" s="4" t="inlineStr">
+      <c r="C227" s="4" t="inlineStr">
         <is>
           <t>K_SERIES</t>
         </is>
       </c>
-      <c r="D225" s="4" t="inlineStr">
+      <c r="D227" s="4" t="inlineStr">
         <is>
           <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
-      <c r="E225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I225" s="4" t="inlineStr">
+      <c r="E227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I227" s="4" t="inlineStr">
         <is>
           <t>E_PRZNT</t>
         </is>
       </c>
-      <c r="K225" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M225" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z225" s="7">
+      <c r="K227" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M227" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z227" s="7">
         <v>0.36</v>
       </c>
-      <c r="AA225" s="7">
+      <c r="AA227" s="7">
         <v>0.49</v>
       </c>
-      <c r="AB225" s="7">
+      <c r="AB227" s="7">
         <v>0.49</v>
       </c>
-      <c r="AC225" s="7">
+      <c r="AC227" s="7">
         <v>0.4</v>
       </c>
-      <c r="AD225" s="7">
+      <c r="AD227" s="7">
         <v>0.45</v>
       </c>
-      <c r="AE225" s="7">
+      <c r="AE227" s="7">
         <v>0.45</v>
       </c>
-      <c r="AF225" s="7">
+      <c r="AF227" s="7">
         <v>0.36</v>
       </c>
-      <c r="AG225" s="7">
+      <c r="AG227" s="7">
         <v>0.52</v>
       </c>
-      <c r="AH225" s="7">
+      <c r="AH227" s="7">
         <v>0.47</v>
       </c>
-      <c r="AI225" s="7">
+      <c r="AI227" s="7">
         <v>0.54</v>
       </c>
-      <c r="AJ225" s="7">
+      <c r="AJ227" s="7">
         <v>0.54</v>
       </c>
-      <c r="AK225" s="7">
+      <c r="AK227" s="7">
         <v>0.62</v>
       </c>
-      <c r="AL225" s="7">
+      <c r="AL227" s="7">
         <v>0.66</v>
       </c>
-      <c r="AM225" s="7">
+      <c r="AM227" s="7">
         <v>0.76</v>
       </c>
-      <c r="AN225" s="7">
+      <c r="AN227" s="7">
         <v>0.82</v>
       </c>
-      <c r="AO225" s="7">
+      <c r="AO227" s="7">
         <v>0.88</v>
       </c>
-      <c r="AP225" s="7">
+      <c r="AP227" s="7">
         <v>0.89</v>
       </c>
-      <c r="AQ225" s="7">
+      <c r="AQ227" s="7">
         <v>0.89</v>
       </c>
-      <c r="AR225" s="7">
+      <c r="AR227" s="7">
         <v>0.92</v>
       </c>
-      <c r="AS225" s="7">
+      <c r="AS227" s="7">
         <v>0.92</v>
       </c>
-      <c r="AT225" s="7">
+      <c r="AT227" s="7">
         <v>1.02</v>
       </c>
-      <c r="AU225" s="7">
+      <c r="AU227" s="7">
         <v>0.92</v>
       </c>
-      <c r="BC225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO225" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP225" s="4" t="inlineStr">
+      <c r="BC227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO227" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP227" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -40754,7 +40754,7 @@
       </c>
       <c r="C193" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D193" s="4" t="inlineStr">
@@ -40921,7 +40921,7 @@
       </c>
       <c r="C194" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
@@ -41106,7 +41106,7 @@
       </c>
       <c r="C195" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D195" s="4" t="inlineStr">

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -40759,7 +40759,7 @@
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_123a</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
@@ -40926,7 +40926,7 @@
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_123b</t>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
@@ -41111,7 +41111,7 @@
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_123c</t>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -35536,10 +35536,13 @@
         <v>0</v>
       </c>
       <c r="AS177" s="7">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AT177" s="7">
-        <v>586</v>
+        <v>616</v>
+      </c>
+      <c r="AU177" s="7">
+        <v>499</v>
       </c>
       <c r="BC177" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -47381,12 +47381,12 @@
       </c>
       <c r="C232" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D232" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123a</t>
+          <t/>
         </is>
       </c>
       <c r="E232" s="4" t="inlineStr">
@@ -47548,12 +47548,12 @@
       </c>
       <c r="C233" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123b</t>
+          <t/>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
@@ -47733,12 +47733,12 @@
       </c>
       <c r="C234" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_123c</t>
+          <t/>
         </is>
       </c>
       <c r="E234" s="4" t="inlineStr">

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -52852,7 +52852,7 @@
         </is>
       </c>
       <c r="K258" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L258" s="6" t="b">
         <v>0</v>
@@ -53016,7 +53016,7 @@
         </is>
       </c>
       <c r="K259" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L259" s="6" t="b">
         <v>0</v>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -538,7 +538,7 @@
     <col customWidth="true" min="3" max="3" width="14.35546875"/>
     <col customWidth="true" min="4" max="4" width="36.1796875"/>
     <col customWidth="true" min="5" max="5" width="17.13671875"/>
-    <col customWidth="true" min="6" max="6" width="17.4296875"/>
+    <col customWidth="true" min="6" max="6" width="31.34765625"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
     <col customWidth="true" min="8" max="8" width="19.3359375"/>
     <col customWidth="true" min="9" max="9" width="17.72265625"/>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP268"/>
+  <dimension ref="A1:CP269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>K_ZUORDN</t>
+          <t>K_PRAEV</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -51971,14 +51971,8 @@
       <c r="M253" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AS253" s="7">
-        <v>999</v>
-      </c>
-      <c r="AT253" s="7">
-        <v>999</v>
-      </c>
-      <c r="AU253" s="7">
-        <v>999</v>
+      <c r="AV253" s="7">
+        <v>182</v>
       </c>
       <c r="BC253" s="4" t="inlineStr">
         <is>
@@ -52089,22 +52083,22 @@
     <row outlineLevel="0" r="254">
       <c r="A254" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01_D001</t>
+          <t>Z16_B02_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B254" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C254" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="D254" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="E254" s="4" t="inlineStr">
@@ -52129,53 +52123,20 @@
       </c>
       <c r="I254" s="4" t="inlineStr">
         <is>
-          <t>E_NN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K254" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L254" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M254" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ254" s="7">
-        <v>79</v>
-      </c>
-      <c r="AK254" s="7">
-        <v>78</v>
-      </c>
-      <c r="AL254" s="7">
-        <v>79</v>
-      </c>
-      <c r="AM254" s="7">
-        <v>81</v>
-      </c>
-      <c r="AN254" s="7">
-        <v>81</v>
-      </c>
-      <c r="AO254" s="7">
-        <v>81</v>
-      </c>
-      <c r="AP254" s="7">
-        <v>80</v>
-      </c>
-      <c r="AQ254" s="7">
-        <v>80</v>
-      </c>
-      <c r="AR254" s="7">
-        <v>80</v>
-      </c>
-      <c r="AS254" s="7">
-        <v>80</v>
-      </c>
-      <c r="AT254" s="7">
-        <v>79</v>
-      </c>
-      <c r="AU254" s="7">
-        <v>78</v>
+      <c r="AV254" s="7">
+        <v>33</v>
       </c>
       <c r="BC254" s="4" t="inlineStr">
         <is>
@@ -52279,29 +52240,29 @@
       </c>
       <c r="CP254" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="255">
       <c r="A255" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02_D001</t>
+          <t>Z16_B02_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C255" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
@@ -52330,46 +52291,16 @@
         </is>
       </c>
       <c r="K255" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L255" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M255" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AK255" s="7">
-        <v>16</v>
-      </c>
-      <c r="AL255" s="7">
-        <v>30</v>
-      </c>
-      <c r="AM255" s="7">
-        <v>30</v>
-      </c>
-      <c r="AN255" s="7">
-        <v>31</v>
-      </c>
-      <c r="AO255" s="7">
-        <v>32</v>
-      </c>
-      <c r="AP255" s="7">
-        <v>31</v>
-      </c>
-      <c r="AQ255" s="7">
-        <v>34</v>
-      </c>
-      <c r="AR255" s="7">
-        <v>36</v>
-      </c>
-      <c r="AS255" s="7">
-        <v>36</v>
-      </c>
-      <c r="AT255" s="7">
-        <v>30</v>
-      </c>
-      <c r="AU255" s="7">
-        <v>34</v>
+      <c r="AV255" s="7">
+        <v>149</v>
       </c>
       <c r="BC255" s="4" t="inlineStr">
         <is>
@@ -52473,39 +52404,39 @@
       </c>
       <c r="CP255" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="256">
       <c r="A256" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D001</t>
+          <t>Z16_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B256" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C256" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D256" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t/>
         </is>
       </c>
       <c r="E256" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t/>
         </is>
       </c>
       <c r="F256" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PRO</t>
+          <t/>
         </is>
       </c>
       <c r="G256" s="4" t="inlineStr">
@@ -52520,7 +52451,7 @@
       </c>
       <c r="I256" s="4" t="inlineStr">
         <is>
-          <t>E_NUMX</t>
+          <t>E_NN</t>
         </is>
       </c>
       <c r="K256" s="6" t="b">
@@ -52532,8 +52463,41 @@
       <c r="M256" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AJ256" s="7">
+        <v>79</v>
+      </c>
+      <c r="AK256" s="7">
+        <v>78</v>
+      </c>
+      <c r="AL256" s="7">
+        <v>79</v>
+      </c>
+      <c r="AM256" s="7">
+        <v>81</v>
+      </c>
+      <c r="AN256" s="7">
+        <v>81</v>
+      </c>
+      <c r="AO256" s="7">
+        <v>81</v>
+      </c>
+      <c r="AP256" s="7">
+        <v>80</v>
+      </c>
+      <c r="AQ256" s="7">
+        <v>80</v>
+      </c>
+      <c r="AR256" s="7">
+        <v>80</v>
+      </c>
+      <c r="AS256" s="7">
+        <v>80</v>
+      </c>
       <c r="AT256" s="7">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="AU256" s="7">
+        <v>78</v>
       </c>
       <c r="BC256" s="4" t="inlineStr">
         <is>
@@ -52637,39 +52601,39 @@
       </c>
       <c r="CP256" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="257">
       <c r="A257" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D002</t>
+          <t>Z16_B03_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C257" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t/>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t/>
         </is>
       </c>
       <c r="F257" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_CON</t>
+          <t/>
         </is>
       </c>
       <c r="G257" s="4" t="inlineStr">
@@ -52684,20 +52648,50 @@
       </c>
       <c r="I257" s="4" t="inlineStr">
         <is>
-          <t>E_NUMX</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K257" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L257" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M257" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AK257" s="7">
+        <v>16</v>
+      </c>
+      <c r="AL257" s="7">
+        <v>30</v>
+      </c>
+      <c r="AM257" s="7">
+        <v>30</v>
+      </c>
+      <c r="AN257" s="7">
+        <v>31</v>
+      </c>
+      <c r="AO257" s="7">
+        <v>32</v>
+      </c>
+      <c r="AP257" s="7">
+        <v>31</v>
+      </c>
+      <c r="AQ257" s="7">
+        <v>34</v>
+      </c>
+      <c r="AR257" s="7">
+        <v>36</v>
+      </c>
+      <c r="AS257" s="7">
+        <v>36</v>
+      </c>
       <c r="AT257" s="7">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="AU257" s="7">
+        <v>34</v>
       </c>
       <c r="BC257" s="4" t="inlineStr">
         <is>
@@ -52801,14 +52795,14 @@
       </c>
       <c r="CP257" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="258">
       <c r="A258" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D003</t>
+          <t>Z16_B04_P01_IB01_I01_D001</t>
         </is>
       </c>
       <c r="B258" s="4" t="inlineStr">
@@ -52823,7 +52817,7 @@
       </c>
       <c r="D258" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="E258" s="4" t="inlineStr">
@@ -52833,7 +52827,7 @@
       </c>
       <c r="F258" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PROTEC</t>
+          <t>A_BEWERTUNG_PRO</t>
         </is>
       </c>
       <c r="G258" s="4" t="inlineStr">
@@ -52855,13 +52849,13 @@
         <v>1</v>
       </c>
       <c r="L258" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M258" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AT258" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="BC258" s="4" t="inlineStr">
         <is>
@@ -52972,7 +52966,7 @@
     <row outlineLevel="0" r="259">
       <c r="A259" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D004</t>
+          <t>Z16_B04_P01_IB01_I01_D002</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
@@ -52987,7 +52981,7 @@
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
@@ -52997,7 +52991,7 @@
       </c>
       <c r="F259" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_CONTEC</t>
+          <t>A_BEWERTUNG_CON</t>
         </is>
       </c>
       <c r="G259" s="4" t="inlineStr">
@@ -53025,7 +53019,7 @@
         <v>0</v>
       </c>
       <c r="AT259" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC259" s="4" t="inlineStr">
         <is>
@@ -53136,32 +53130,32 @@
     <row outlineLevel="0" r="260">
       <c r="A260" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D001</t>
+          <t>Z16_B04_P01_IB01_I01_D003</t>
         </is>
       </c>
       <c r="B260" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C260" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D260" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_NETEXP</t>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="E260" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="F260" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_BEWERTUNG_PROTEC</t>
         </is>
       </c>
       <c r="G260" s="4" t="inlineStr">
@@ -53176,7 +53170,7 @@
       </c>
       <c r="I260" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K260" s="6" t="b">
@@ -53188,74 +53182,8 @@
       <c r="M260" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S260" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="T260" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="U260" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="V260" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W260" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="X260" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Y260" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Z260" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="AA260" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AB260" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AC260" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AD260" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AE260" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AF260" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AG260" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="AH260" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AI260" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AJ260" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AK260" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AL260" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="AM260" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AN260" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="AO260" s="7">
-        <v>0.67</v>
+      <c r="AT260" s="7">
+        <v>35</v>
       </c>
       <c r="BC260" s="4" t="inlineStr">
         <is>
@@ -53359,39 +53287,39 @@
       </c>
       <c r="CP260" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="261">
       <c r="A261" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D002</t>
+          <t>Z16_B04_P01_IB01_I01_D004</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C261" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_GRANTEQU</t>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="F261" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_BEWERTUNG_CONTEC</t>
         </is>
       </c>
       <c r="G261" s="4" t="inlineStr">
@@ -53406,35 +53334,20 @@
       </c>
       <c r="I261" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K261" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L261" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M261" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AP261" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="AQ261" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="AR261" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="AS261" s="7">
-        <v>0.76</v>
-      </c>
       <c r="AT261" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="AU261" s="7">
-        <v>0.82</v>
+        <v>5</v>
       </c>
       <c r="BC261" s="4" t="inlineStr">
         <is>
@@ -53538,19 +53451,19 @@
       </c>
       <c r="CP261" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="262">
       <c r="A262" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D001</t>
+          <t>Z17_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B262" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C262" s="4" t="inlineStr">
@@ -53585,74 +53498,104 @@
       </c>
       <c r="I262" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K262" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L262" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M262" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="S262" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="T262" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="U262" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="V262" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W262" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="X262" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Y262" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Z262" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AA262" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AB262" s="7">
+        <v>0.28</v>
+      </c>
       <c r="AC262" s="7">
-        <v>140519</v>
+        <v>0.36</v>
       </c>
       <c r="AD262" s="7">
-        <v>141289</v>
+        <v>0.36</v>
       </c>
       <c r="AE262" s="7">
-        <v>136087</v>
+        <v>0.37</v>
       </c>
       <c r="AF262" s="7">
-        <v>140832</v>
+        <v>0.38</v>
       </c>
       <c r="AG262" s="7">
-        <v>147152</v>
+        <v>0.35</v>
       </c>
       <c r="AH262" s="7">
-        <v>153690</v>
+        <v>0.39</v>
       </c>
       <c r="AI262" s="7">
-        <v>158557</v>
+        <v>0.39</v>
       </c>
       <c r="AJ262" s="7">
-        <v>170618</v>
+        <v>0.37</v>
       </c>
       <c r="AK262" s="7">
-        <v>185787</v>
+        <v>0.38</v>
       </c>
       <c r="AL262" s="7">
-        <v>200349</v>
+        <v>0.42</v>
       </c>
       <c r="AM262" s="7">
-        <v>215258</v>
+        <v>0.52</v>
       </c>
       <c r="AN262" s="7">
-        <v>230689</v>
+        <v>0.7</v>
       </c>
       <c r="AO262" s="7">
-        <v>247436</v>
+        <v>0.67</v>
       </c>
       <c r="AP262" s="7">
-        <v>267250</v>
+        <v>0.61</v>
       </c>
       <c r="AQ262" s="7">
-        <v>285450</v>
+        <v>0.61</v>
       </c>
       <c r="AR262" s="7">
-        <v>298149</v>
+        <v>0.73</v>
       </c>
       <c r="AS262" s="7">
-        <v>316001</v>
+        <v>0.76</v>
       </c>
       <c r="AT262" s="7">
-        <v>335016</v>
+        <v>0.85</v>
       </c>
       <c r="AU262" s="7">
-        <v>348976</v>
+        <v>0.82</v>
       </c>
       <c r="BC262" s="4" t="inlineStr">
         <is>
@@ -53756,14 +53699,14 @@
       </c>
       <c r="CP262" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="263">
       <c r="A263" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D018</t>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
@@ -53773,12 +53716,12 @@
       </c>
       <c r="C263" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t/>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
@@ -53807,70 +53750,70 @@
         </is>
       </c>
       <c r="K263" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L263" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M263" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC263" s="7">
-        <v>4960</v>
+        <v>140519</v>
       </c>
       <c r="AD263" s="7">
-        <v>5012</v>
+        <v>141289</v>
       </c>
       <c r="AE263" s="7">
-        <v>4933</v>
+        <v>136087</v>
       </c>
       <c r="AF263" s="7">
-        <v>5331</v>
+        <v>140832</v>
       </c>
       <c r="AG263" s="7">
-        <v>5738</v>
+        <v>147152</v>
       </c>
       <c r="AH263" s="7">
-        <v>6300</v>
+        <v>153690</v>
       </c>
       <c r="AI263" s="7">
-        <v>6925</v>
+        <v>158557</v>
       </c>
       <c r="AJ263" s="7">
-        <v>7577</v>
+        <v>170618</v>
       </c>
       <c r="AK263" s="7">
-        <v>8348</v>
+        <v>185787</v>
       </c>
       <c r="AL263" s="7">
-        <v>9244</v>
+        <v>200349</v>
       </c>
       <c r="AM263" s="7">
-        <v>9746</v>
+        <v>215258</v>
       </c>
       <c r="AN263" s="7">
-        <v>10119</v>
+        <v>230689</v>
       </c>
       <c r="AO263" s="7">
-        <v>10576</v>
+        <v>247436</v>
       </c>
       <c r="AP263" s="7">
-        <v>11525</v>
+        <v>267250</v>
       </c>
       <c r="AQ263" s="7">
-        <v>13067</v>
+        <v>285450</v>
       </c>
       <c r="AR263" s="7">
-        <v>15055</v>
+        <v>298149</v>
       </c>
       <c r="AS263" s="7">
-        <v>17113</v>
+        <v>316001</v>
       </c>
       <c r="AT263" s="7">
-        <v>18315</v>
+        <v>335016</v>
       </c>
       <c r="AU263" s="7">
-        <v>19505</v>
+        <v>348976</v>
       </c>
       <c r="BC263" s="4" t="inlineStr">
         <is>
@@ -53981,7 +53924,7 @@
     <row outlineLevel="0" r="264">
       <c r="A264" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D035</t>
+          <t>Z17_B02_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B264" s="4" t="inlineStr">
@@ -53996,7 +53939,7 @@
       </c>
       <c r="D264" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
@@ -54034,61 +53977,61 @@
         <v>0</v>
       </c>
       <c r="AC264" s="7">
-        <v>129502</v>
+        <v>4960</v>
       </c>
       <c r="AD264" s="7">
-        <v>129631</v>
+        <v>5012</v>
       </c>
       <c r="AE264" s="7">
-        <v>124181</v>
+        <v>4933</v>
       </c>
       <c r="AF264" s="7">
-        <v>127067</v>
+        <v>5331</v>
       </c>
       <c r="AG264" s="7">
-        <v>131633</v>
+        <v>5738</v>
       </c>
       <c r="AH264" s="7">
-        <v>136445</v>
+        <v>6300</v>
       </c>
       <c r="AI264" s="7">
-        <v>140304</v>
+        <v>6925</v>
       </c>
       <c r="AJ264" s="7">
-        <v>150880</v>
+        <v>7577</v>
       </c>
       <c r="AK264" s="7">
-        <v>164098</v>
+        <v>8348</v>
       </c>
       <c r="AL264" s="7">
-        <v>176768</v>
+        <v>9244</v>
       </c>
       <c r="AM264" s="7">
-        <v>190403</v>
+        <v>9746</v>
       </c>
       <c r="AN264" s="7">
-        <v>204695</v>
+        <v>10119</v>
       </c>
       <c r="AO264" s="7">
-        <v>219307</v>
+        <v>10576</v>
       </c>
       <c r="AP264" s="7">
-        <v>236609</v>
+        <v>11525</v>
       </c>
       <c r="AQ264" s="7">
-        <v>251488</v>
+        <v>13067</v>
       </c>
       <c r="AR264" s="7">
-        <v>259999</v>
+        <v>15055</v>
       </c>
       <c r="AS264" s="7">
-        <v>273340</v>
+        <v>17113</v>
       </c>
       <c r="AT264" s="7">
-        <v>288586</v>
+        <v>18315</v>
       </c>
       <c r="AU264" s="7">
-        <v>299158</v>
+        <v>19505</v>
       </c>
       <c r="BC264" s="4" t="inlineStr">
         <is>
@@ -54199,7 +54142,7 @@
     <row outlineLevel="0" r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D052</t>
+          <t>Z17_B02_P01_Ib01_I01_D035</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
@@ -54214,7 +54157,7 @@
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
@@ -54252,61 +54195,61 @@
         <v>0</v>
       </c>
       <c r="AC265" s="7">
-        <v>209</v>
+        <v>129502</v>
       </c>
       <c r="AD265" s="7">
-        <v>212</v>
+        <v>129631</v>
       </c>
       <c r="AE265" s="7">
-        <v>207</v>
+        <v>124181</v>
       </c>
       <c r="AF265" s="7">
-        <v>254</v>
+        <v>127067</v>
       </c>
       <c r="AG265" s="7">
-        <v>299</v>
+        <v>131633</v>
       </c>
       <c r="AH265" s="7">
-        <v>331</v>
+        <v>136445</v>
       </c>
       <c r="AI265" s="7">
-        <v>382</v>
+        <v>140304</v>
       </c>
       <c r="AJ265" s="7">
-        <v>420</v>
+        <v>150880</v>
       </c>
       <c r="AK265" s="7">
-        <v>476</v>
+        <v>164098</v>
       </c>
       <c r="AL265" s="7">
-        <v>500</v>
+        <v>176768</v>
       </c>
       <c r="AM265" s="7">
-        <v>517</v>
+        <v>190403</v>
       </c>
       <c r="AN265" s="7">
-        <v>558</v>
+        <v>204695</v>
       </c>
       <c r="AO265" s="7">
-        <v>649</v>
+        <v>219307</v>
       </c>
       <c r="AP265" s="7">
-        <v>687</v>
+        <v>236609</v>
       </c>
       <c r="AQ265" s="7">
-        <v>681</v>
+        <v>251488</v>
       </c>
       <c r="AR265" s="7">
-        <v>838</v>
+        <v>259999</v>
       </c>
       <c r="AS265" s="7">
-        <v>924</v>
+        <v>273340</v>
       </c>
       <c r="AT265" s="7">
-        <v>1070</v>
+        <v>288586</v>
       </c>
       <c r="AU265" s="7">
-        <v>1190</v>
+        <v>299158</v>
       </c>
       <c r="BC265" s="4" t="inlineStr">
         <is>
@@ -54417,7 +54360,7 @@
     <row outlineLevel="0" r="266">
       <c r="A266" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D069</t>
+          <t>Z17_B02_P01_Ib01_I01_D052</t>
         </is>
       </c>
       <c r="B266" s="4" t="inlineStr">
@@ -54432,7 +54375,7 @@
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
@@ -54470,61 +54413,61 @@
         <v>0</v>
       </c>
       <c r="AC266" s="7">
-        <v>5848</v>
+        <v>209</v>
       </c>
       <c r="AD266" s="7">
-        <v>6434</v>
+        <v>212</v>
       </c>
       <c r="AE266" s="7">
-        <v>6766</v>
+        <v>207</v>
       </c>
       <c r="AF266" s="7">
-        <v>8180</v>
+        <v>254</v>
       </c>
       <c r="AG266" s="7">
-        <v>9482</v>
+        <v>299</v>
       </c>
       <c r="AH266" s="7">
-        <v>10614</v>
+        <v>331</v>
       </c>
       <c r="AI266" s="7">
-        <v>10946</v>
+        <v>382</v>
       </c>
       <c r="AJ266" s="7">
-        <v>11741</v>
+        <v>420</v>
       </c>
       <c r="AK266" s="7">
-        <v>12865</v>
+        <v>476</v>
       </c>
       <c r="AL266" s="7">
-        <v>13837</v>
+        <v>500</v>
       </c>
       <c r="AM266" s="7">
-        <v>14592</v>
+        <v>517</v>
       </c>
       <c r="AN266" s="7">
-        <v>15317</v>
+        <v>558</v>
       </c>
       <c r="AO266" s="7">
-        <v>16904</v>
+        <v>649</v>
       </c>
       <c r="AP266" s="7">
-        <v>18429</v>
+        <v>687</v>
       </c>
       <c r="AQ266" s="7">
-        <v>20214</v>
+        <v>681</v>
       </c>
       <c r="AR266" s="7">
-        <v>22257</v>
+        <v>838</v>
       </c>
       <c r="AS266" s="7">
-        <v>24624</v>
+        <v>924</v>
       </c>
       <c r="AT266" s="7">
-        <v>27044</v>
+        <v>1070</v>
       </c>
       <c r="AU266" s="7">
-        <v>29123</v>
+        <v>1190</v>
       </c>
       <c r="BC266" s="4" t="inlineStr">
         <is>
@@ -54635,12 +54578,12 @@
     <row outlineLevel="0" r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D069</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C267" s="4" t="inlineStr">
@@ -54650,7 +54593,7 @@
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="E267" s="4" t="inlineStr">
@@ -54675,83 +54618,74 @@
       </c>
       <c r="I267" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K267" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L267" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M267" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Z267" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AA267" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AB267" s="7">
-        <v>0.52</v>
-      </c>
       <c r="AC267" s="7">
-        <v>0.44</v>
+        <v>5848</v>
       </c>
       <c r="AD267" s="7">
-        <v>0.49</v>
+        <v>6434</v>
       </c>
       <c r="AE267" s="7">
-        <v>0.52</v>
+        <v>6766</v>
       </c>
       <c r="AF267" s="7">
-        <v>0.46</v>
+        <v>8180</v>
       </c>
       <c r="AG267" s="7">
-        <v>0.58</v>
+        <v>9482</v>
       </c>
       <c r="AH267" s="7">
-        <v>0.53</v>
+        <v>10614</v>
       </c>
       <c r="AI267" s="7">
-        <v>0.67</v>
+        <v>10946</v>
       </c>
       <c r="AJ267" s="7">
-        <v>0.62</v>
+        <v>11741</v>
       </c>
       <c r="AK267" s="7">
-        <v>0.71</v>
+        <v>12865</v>
       </c>
       <c r="AL267" s="7">
-        <v>0.71</v>
+        <v>13837</v>
       </c>
       <c r="AM267" s="7">
-        <v>0.81</v>
+        <v>14592</v>
       </c>
       <c r="AN267" s="7">
-        <v>0.88</v>
+        <v>15317</v>
       </c>
       <c r="AO267" s="7">
-        <v>0.94</v>
+        <v>16904</v>
       </c>
       <c r="AP267" s="7">
-        <v>0.94</v>
+        <v>18429</v>
       </c>
       <c r="AQ267" s="7">
-        <v>0.94</v>
+        <v>20214</v>
       </c>
       <c r="AR267" s="7">
-        <v>0.98</v>
+        <v>22257</v>
       </c>
       <c r="AS267" s="7">
-        <v>1.04</v>
+        <v>24624</v>
       </c>
       <c r="AT267" s="7">
-        <v>1.15</v>
+        <v>27044</v>
       </c>
       <c r="AU267" s="7">
-        <v>1.02</v>
+        <v>29123</v>
       </c>
       <c r="BC267" s="4" t="inlineStr">
         <is>
@@ -54855,232 +54789,459 @@
       </c>
       <c r="CP267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="268">
       <c r="A268" s="4" t="inlineStr">
         <is>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B268" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C268" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D268" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_IMP</t>
+        </is>
+      </c>
+      <c r="E268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I268" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="K268" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M268" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z268" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AA268" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AB268" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AC268" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AD268" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AE268" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AF268" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="AG268" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="AH268" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="AI268" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AJ268" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AK268" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AL268" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AM268" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AN268" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="AO268" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AP268" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AQ268" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AR268" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="AS268" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="AT268" s="7">
+        <v>1.15</v>
+      </c>
+      <c r="AU268" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="BC268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO268" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP268" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="269">
+      <c r="A269" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
-      <c r="B268" s="4" t="inlineStr">
+      <c r="B269" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C268" s="4" t="inlineStr">
+      <c r="C269" s="4" t="inlineStr">
         <is>
           <t>K_SERIES</t>
         </is>
       </c>
-      <c r="D268" s="4" t="inlineStr">
+      <c r="D269" s="4" t="inlineStr">
         <is>
           <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
-      <c r="E268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I268" s="4" t="inlineStr">
+      <c r="E269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I269" s="4" t="inlineStr">
         <is>
           <t>E_PRZNT</t>
         </is>
       </c>
-      <c r="K268" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M268" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z268" s="7">
+      <c r="K269" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M269" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="7">
         <v>0.36</v>
       </c>
-      <c r="AA268" s="7">
+      <c r="AA269" s="7">
         <v>0.49</v>
       </c>
-      <c r="AB268" s="7">
+      <c r="AB269" s="7">
         <v>0.49</v>
       </c>
-      <c r="AC268" s="7">
+      <c r="AC269" s="7">
         <v>0.4</v>
       </c>
-      <c r="AD268" s="7">
+      <c r="AD269" s="7">
         <v>0.45</v>
       </c>
-      <c r="AE268" s="7">
+      <c r="AE269" s="7">
         <v>0.45</v>
       </c>
-      <c r="AF268" s="7">
+      <c r="AF269" s="7">
         <v>0.36</v>
       </c>
-      <c r="AG268" s="7">
+      <c r="AG269" s="7">
         <v>0.52</v>
       </c>
-      <c r="AH268" s="7">
+      <c r="AH269" s="7">
         <v>0.47</v>
       </c>
-      <c r="AI268" s="7">
+      <c r="AI269" s="7">
         <v>0.54</v>
       </c>
-      <c r="AJ268" s="7">
+      <c r="AJ269" s="7">
         <v>0.54</v>
       </c>
-      <c r="AK268" s="7">
+      <c r="AK269" s="7">
         <v>0.62</v>
       </c>
-      <c r="AL268" s="7">
+      <c r="AL269" s="7">
         <v>0.66</v>
       </c>
-      <c r="AM268" s="7">
+      <c r="AM269" s="7">
         <v>0.76</v>
       </c>
-      <c r="AN268" s="7">
+      <c r="AN269" s="7">
         <v>0.82</v>
       </c>
-      <c r="AO268" s="7">
+      <c r="AO269" s="7">
         <v>0.88</v>
       </c>
-      <c r="AP268" s="7">
+      <c r="AP269" s="7">
         <v>0.89</v>
       </c>
-      <c r="AQ268" s="7">
+      <c r="AQ269" s="7">
         <v>0.89</v>
       </c>
-      <c r="AR268" s="7">
+      <c r="AR269" s="7">
         <v>0.92</v>
       </c>
-      <c r="AS268" s="7">
+      <c r="AS269" s="7">
         <v>0.92</v>
       </c>
-      <c r="AT268" s="7">
+      <c r="AT269" s="7">
         <v>1.02</v>
       </c>
-      <c r="AU268" s="7">
+      <c r="AU269" s="7">
         <v>0.92</v>
       </c>
-      <c r="BC268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO268" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP268" s="4" t="inlineStr">
+      <c r="BC269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO269" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP269" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -26531,7 +26531,7 @@
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_ALL</t>
+          <t>A_RISIKO_DIFF</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
@@ -26556,11 +26556,11 @@
       </c>
       <c r="I135" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_PRZNTPKT</t>
         </is>
       </c>
       <c r="K135" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="6" t="b">
         <v>0</v>
@@ -26569,10 +26569,10 @@
         <v>0</v>
       </c>
       <c r="AP135" s="7">
-        <v>58.4</v>
+        <v>10.2</v>
       </c>
       <c r="AU135" s="7">
-        <v>55.8</v>
+        <v>21.1</v>
       </c>
       <c r="BC135" s="4" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>A_RISIKO_DIFF</t>
+          <t>A_RISIKO_ALL</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
@@ -27061,7 +27061,7 @@
         </is>
       </c>
       <c r="K138" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" s="6" t="b">
         <v>0</v>
@@ -27070,10 +27070,10 @@
         <v>0</v>
       </c>
       <c r="AP138" s="7">
-        <v>10.2</v>
+        <v>58.4</v>
       </c>
       <c r="AU138" s="7">
-        <v>21.1</v>
+        <v>55.8</v>
       </c>
       <c r="BC138" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -39842,7 +39842,7 @@
       </c>
       <c r="F196" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_GMN</t>
+          <t>A_GERMANY</t>
         </is>
       </c>
       <c r="G196" s="4" t="inlineStr">
@@ -40054,7 +40054,7 @@
       </c>
       <c r="F197" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EU</t>
+          <t>A_EU</t>
         </is>
       </c>
       <c r="G197" s="4" t="inlineStr">
@@ -40266,7 +40266,7 @@
       </c>
       <c r="F198" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_GMN</t>
+          <t>A_GERMANY</t>
         </is>
       </c>
       <c r="G198" s="4" t="inlineStr">
@@ -40478,7 +40478,7 @@
       </c>
       <c r="F199" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_EU</t>
+          <t>A_EU</t>
         </is>
       </c>
       <c r="G199" s="4" t="inlineStr">
@@ -40690,7 +40690,7 @@
       </c>
       <c r="F200" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_GMN</t>
+          <t>A_GERMANY</t>
         </is>
       </c>
       <c r="G200" s="4" t="inlineStr">
@@ -40890,7 +40890,7 @@
       </c>
       <c r="F201" s="4" t="inlineStr">
         <is>
-          <t>A_AREA_GMN</t>
+          <t>A_GERMANY</t>
         </is>
       </c>
       <c r="G201" s="4" t="inlineStr">

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -19162,9 +19162,6 @@
       <c r="M101" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AU101" s="7">
-        <v>99</v>
-      </c>
       <c r="BC101" s="4" t="inlineStr">
         <is>
           <t/>
@@ -48886,9 +48883,6 @@
       <c r="M239" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AV239" s="7">
-        <v>99.999</v>
-      </c>
       <c r="BC239" s="4" t="inlineStr">
         <is>
           <t/>
@@ -52911,15 +52905,6 @@
       </c>
       <c r="M257" s="6" t="b">
         <v>0</v>
-      </c>
-      <c r="AS257" s="7">
-        <v>999</v>
-      </c>
-      <c r="AT257" s="7">
-        <v>999</v>
-      </c>
-      <c r="AU257" s="7">
-        <v>999</v>
       </c>
       <c r="BC257" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -19162,6 +19162,9 @@
       <c r="M101" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AT101" s="7">
+        <v>-999</v>
+      </c>
       <c r="BC101" s="4" t="inlineStr">
         <is>
           <t/>
@@ -48882,6 +48885,9 @@
       </c>
       <c r="M239" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="AU239" s="7">
+        <v>-999</v>
       </c>
       <c r="BC239" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="AT101" s="7">
-        <v>-999</v>
+        <v>0</v>
       </c>
       <c r="BC101" s="4" t="inlineStr">
         <is>
@@ -48887,7 +48887,7 @@
         <v>0</v>
       </c>
       <c r="AU239" s="7">
-        <v>-999</v>
+        <v>0</v>
       </c>
       <c r="BC239" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -27194,12 +27194,12 @@
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_UNBEREIN</t>
+          <t>A_SERIES_UNBEREIN</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
@@ -27409,12 +27409,12 @@
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>K_CALCMETH</t>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>A_CALCMETH_BEREIN</t>
+          <t>A_SERIES_BEREIN</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
@@ -52910,6 +52910,15 @@
         <v>0</v>
       </c>
       <c r="M257" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS257" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT257" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU257" s="7">
         <v>0</v>
       </c>
       <c r="BC257" s="4" t="inlineStr">

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -26569,10 +26569,22 @@
         <v>0</v>
       </c>
       <c r="AP135" s="7">
-        <v>10.2</v>
+        <v>21.1</v>
+      </c>
+      <c r="AQ135" s="7">
+        <v>17.9</v>
+      </c>
+      <c r="AR135" s="7">
+        <v>18.4</v>
+      </c>
+      <c r="AS135" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="AT135" s="7">
+        <v>21.5</v>
       </c>
       <c r="AU135" s="7">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="BC135" s="4" t="inlineStr">
         <is>
@@ -26736,10 +26748,22 @@
         <v>0</v>
       </c>
       <c r="AP136" s="7">
-        <v>64.7</v>
+        <v>61</v>
+      </c>
+      <c r="AQ136" s="7">
+        <v>61</v>
+      </c>
+      <c r="AR136" s="7">
+        <v>65.2</v>
+      </c>
+      <c r="AS136" s="7">
+        <v>64.1</v>
+      </c>
+      <c r="AT136" s="7">
+        <v>63.2</v>
       </c>
       <c r="AU136" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BC136" s="4" t="inlineStr">
         <is>
@@ -26903,10 +26927,22 @@
         <v>0</v>
       </c>
       <c r="AP137" s="7">
-        <v>43.9</v>
+        <v>39.9</v>
+      </c>
+      <c r="AQ137" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="AR137" s="7">
+        <v>46.8</v>
+      </c>
+      <c r="AS137" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="AT137" s="7">
+        <v>41.6</v>
       </c>
       <c r="AU137" s="7">
-        <v>39.9</v>
+        <v>43.7</v>
       </c>
       <c r="BC137" s="4" t="inlineStr">
         <is>
@@ -27070,10 +27106,22 @@
         <v>0</v>
       </c>
       <c r="AP138" s="7">
-        <v>58.4</v>
+        <v>55.7</v>
+      </c>
+      <c r="AQ138" s="7">
+        <v>56.5</v>
+      </c>
+      <c r="AR138" s="7">
+        <v>60.3</v>
+      </c>
+      <c r="AS138" s="7">
+        <v>58.3</v>
+      </c>
+      <c r="AT138" s="7">
+        <v>56.6</v>
       </c>
       <c r="AU138" s="7">
-        <v>55.8</v>
+        <v>58.6</v>
       </c>
       <c r="BC138" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -1186,6 +1186,9 @@
       <c r="AU2" s="7">
         <v>13.1</v>
       </c>
+      <c r="AV2" s="7">
+        <v>999</v>
+      </c>
       <c r="BC2" s="4" t="inlineStr">
         <is>
           <t/>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -1186,9 +1186,6 @@
       <c r="AU2" s="7">
         <v>13.1</v>
       </c>
-      <c r="AV2" s="7">
-        <v>999</v>
-      </c>
       <c r="BC2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -19165,8 +19162,8 @@
       <c r="M101" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AT101" s="7">
-        <v>0</v>
+      <c r="AS101" s="7">
+        <v>7.35</v>
       </c>
       <c r="BC101" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -47389,25 +47389,37 @@
         <v>100</v>
       </c>
       <c r="AI231" s="7">
-        <v>95.751</v>
+        <v>94.484</v>
       </c>
       <c r="AJ231" s="7">
-        <v>95.038</v>
+        <v>96.041</v>
       </c>
       <c r="AK231" s="7">
-        <v>96.49</v>
+        <v>96.214</v>
       </c>
       <c r="AL231" s="7">
-        <v>90.044</v>
+        <v>91.212</v>
       </c>
       <c r="AM231" s="7">
-        <v>92.347</v>
+        <v>91.074</v>
       </c>
       <c r="AN231" s="7">
-        <v>95.038</v>
+        <v>93.649</v>
       </c>
       <c r="AO231" s="7">
-        <v>94.057</v>
+        <v>92.074</v>
+      </c>
+      <c r="AP231" s="7">
+        <v>91.277</v>
+      </c>
+      <c r="AQ231" s="7">
+        <v>91.437</v>
+      </c>
+      <c r="AR231" s="7">
+        <v>85.453</v>
+      </c>
+      <c r="AS231" s="7">
+        <v>85.704</v>
       </c>
       <c r="BC231" s="4" t="inlineStr">
         <is>
@@ -47574,25 +47586,37 @@
         <v>100</v>
       </c>
       <c r="AI232" s="7">
-        <v>97.395</v>
+        <v>95.633</v>
       </c>
       <c r="AJ232" s="7">
-        <v>97.977</v>
+        <v>98.382</v>
       </c>
       <c r="AK232" s="7">
-        <v>98.721</v>
+        <v>99.015</v>
       </c>
       <c r="AL232" s="7">
-        <v>91.772</v>
+        <v>93.073</v>
       </c>
       <c r="AM232" s="7">
-        <v>93.658</v>
+        <v>92.972</v>
       </c>
       <c r="AN232" s="7">
-        <v>93.839</v>
+        <v>95.48</v>
       </c>
       <c r="AO232" s="7">
-        <v>92.089</v>
+        <v>92.76</v>
+      </c>
+      <c r="AP232" s="7">
+        <v>91.319</v>
+      </c>
+      <c r="AQ232" s="7">
+        <v>89.373</v>
+      </c>
+      <c r="AR232" s="7">
+        <v>82.122</v>
+      </c>
+      <c r="AS232" s="7">
+        <v>83.139</v>
       </c>
       <c r="BC232" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -28462,7 +28462,7 @@
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_DIFFERENCE</t>
+          <t>A_SERIES_MUETTER</t>
         </is>
       </c>
       <c r="E145" s="4" t="inlineStr">
@@ -28494,61 +28494,61 @@
         <v>1</v>
       </c>
       <c r="L145" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M145" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AD145" s="7">
-        <v>21.18</v>
+        <v>14.747</v>
       </c>
       <c r="AE145" s="7">
-        <v>21.307</v>
+        <v>14.947</v>
       </c>
       <c r="AF145" s="7">
-        <v>22.583</v>
+        <v>15.51</v>
       </c>
       <c r="AG145" s="7">
-        <v>21.992</v>
+        <v>15.848</v>
       </c>
       <c r="AH145" s="7">
-        <v>21.806</v>
+        <v>16.244</v>
       </c>
       <c r="AI145" s="7">
-        <v>21.959</v>
+        <v>16.689</v>
       </c>
       <c r="AJ145" s="7">
-        <v>21.758</v>
+        <v>17.008</v>
       </c>
       <c r="AK145" s="7">
-        <v>21.236</v>
+        <v>17.23</v>
       </c>
       <c r="AL145" s="7">
-        <v>20.808</v>
+        <v>17.393</v>
       </c>
       <c r="AM145" s="7">
-        <v>20.472</v>
+        <v>17.576</v>
       </c>
       <c r="AN145" s="7">
-        <v>20.004</v>
+        <v>17.894</v>
       </c>
       <c r="AO145" s="7">
-        <v>19.586</v>
+        <v>18.037</v>
       </c>
       <c r="AP145" s="7">
-        <v>19.22</v>
+        <v>18.361</v>
       </c>
       <c r="AQ145" s="7">
-        <v>18.883</v>
+        <v>18.704</v>
       </c>
       <c r="AR145" s="7">
-        <v>18.085</v>
+        <v>18.443</v>
       </c>
       <c r="AS145" s="7">
-        <v>17.789</v>
+        <v>18.726</v>
       </c>
       <c r="AT145" s="7">
-        <v>17.917</v>
+        <v>19.107</v>
       </c>
       <c r="BC145" s="4" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
       </c>
       <c r="D146" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MUETTER</t>
+          <t>A_SERIES_VAETER</t>
         </is>
       </c>
       <c r="E146" s="4" t="inlineStr">
@@ -28703,7 +28703,7 @@
         </is>
       </c>
       <c r="K146" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" s="6" t="b">
         <v>0</v>
@@ -28712,55 +28712,55 @@
         <v>0</v>
       </c>
       <c r="AD146" s="7">
-        <v>14.747</v>
+        <v>35.927</v>
       </c>
       <c r="AE146" s="7">
-        <v>14.947</v>
+        <v>36.254</v>
       </c>
       <c r="AF146" s="7">
-        <v>15.51</v>
+        <v>38.093</v>
       </c>
       <c r="AG146" s="7">
-        <v>15.848</v>
+        <v>37.84</v>
       </c>
       <c r="AH146" s="7">
-        <v>16.244</v>
+        <v>38.05</v>
       </c>
       <c r="AI146" s="7">
-        <v>16.689</v>
+        <v>38.648</v>
       </c>
       <c r="AJ146" s="7">
-        <v>17.008</v>
+        <v>38.766</v>
       </c>
       <c r="AK146" s="7">
-        <v>17.23</v>
+        <v>38.466</v>
       </c>
       <c r="AL146" s="7">
-        <v>17.393</v>
+        <v>38.201</v>
       </c>
       <c r="AM146" s="7">
-        <v>17.576</v>
+        <v>38.048</v>
       </c>
       <c r="AN146" s="7">
-        <v>17.894</v>
+        <v>37.898</v>
       </c>
       <c r="AO146" s="7">
-        <v>18.037</v>
+        <v>37.623</v>
       </c>
       <c r="AP146" s="7">
-        <v>18.361</v>
+        <v>37.581</v>
       </c>
       <c r="AQ146" s="7">
-        <v>18.704</v>
+        <v>37.587</v>
       </c>
       <c r="AR146" s="7">
-        <v>18.443</v>
+        <v>36.528</v>
       </c>
       <c r="AS146" s="7">
-        <v>18.726</v>
+        <v>36.515</v>
       </c>
       <c r="AT146" s="7">
-        <v>19.107</v>
+        <v>37.024</v>
       </c>
       <c r="BC146" s="4" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_VAETER</t>
+          <t>A_SERIES_DIFFERENCE</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
@@ -28918,61 +28918,61 @@
         <v>0</v>
       </c>
       <c r="L147" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AD147" s="7">
-        <v>35.927</v>
+        <v>21.18</v>
       </c>
       <c r="AE147" s="7">
-        <v>36.254</v>
+        <v>21.307</v>
       </c>
       <c r="AF147" s="7">
-        <v>38.093</v>
+        <v>22.583</v>
       </c>
       <c r="AG147" s="7">
-        <v>37.84</v>
+        <v>21.992</v>
       </c>
       <c r="AH147" s="7">
-        <v>38.05</v>
+        <v>21.806</v>
       </c>
       <c r="AI147" s="7">
-        <v>38.648</v>
+        <v>21.959</v>
       </c>
       <c r="AJ147" s="7">
-        <v>38.766</v>
+        <v>21.758</v>
       </c>
       <c r="AK147" s="7">
-        <v>38.466</v>
+        <v>21.236</v>
       </c>
       <c r="AL147" s="7">
-        <v>38.201</v>
+        <v>20.808</v>
       </c>
       <c r="AM147" s="7">
-        <v>38.048</v>
+        <v>20.472</v>
       </c>
       <c r="AN147" s="7">
-        <v>37.898</v>
+        <v>20.004</v>
       </c>
       <c r="AO147" s="7">
-        <v>37.623</v>
+        <v>19.586</v>
       </c>
       <c r="AP147" s="7">
-        <v>37.581</v>
+        <v>19.22</v>
       </c>
       <c r="AQ147" s="7">
-        <v>37.587</v>
+        <v>18.883</v>
       </c>
       <c r="AR147" s="7">
-        <v>36.528</v>
+        <v>18.085</v>
       </c>
       <c r="AS147" s="7">
-        <v>36.515</v>
+        <v>17.789</v>
       </c>
       <c r="AT147" s="7">
-        <v>37.024</v>
+        <v>17.917</v>
       </c>
       <c r="BC147" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="K15" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="6" t="b">
         <v>0</v>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -24562,7 +24562,7 @@
       <c r="M125" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AT125" s="7">
+      <c r="AU125" s="7">
         <v>11.858</v>
       </c>
       <c r="BC125" s="4" t="inlineStr">
@@ -27338,6 +27338,9 @@
       <c r="AU139" s="7">
         <v>18</v>
       </c>
+      <c r="AV139" s="7">
+        <v>16</v>
+      </c>
       <c r="BC139" s="4" t="inlineStr">
         <is>
           <t/>
@@ -27517,6 +27520,9 @@
       <c r="AU140" s="7">
         <v>6</v>
       </c>
+      <c r="AV140" s="7">
+        <v>6</v>
+      </c>
       <c r="BC140" s="4" t="inlineStr">
         <is>
           <t/>
@@ -28548,7 +28554,10 @@
         <v>18.726</v>
       </c>
       <c r="AT145" s="7">
-        <v>19.107</v>
+        <v>19.073</v>
+      </c>
+      <c r="AU145" s="7">
+        <v>19.201</v>
       </c>
       <c r="BC145" s="4" t="inlineStr">
         <is>
@@ -28760,7 +28769,10 @@
         <v>36.515</v>
       </c>
       <c r="AT146" s="7">
-        <v>37.024</v>
+        <v>36.982</v>
+      </c>
+      <c r="AU146" s="7">
+        <v>36.783</v>
       </c>
       <c r="BC146" s="4" t="inlineStr">
         <is>
@@ -28972,7 +28984,10 @@
         <v>17.789</v>
       </c>
       <c r="AT147" s="7">
-        <v>17.917</v>
+        <v>17.909</v>
+      </c>
+      <c r="AU147" s="7">
+        <v>17.585</v>
       </c>
       <c r="BC147" s="4" t="inlineStr">
         <is>
@@ -49317,103 +49332,103 @@
         <v>100</v>
       </c>
       <c r="O241" s="7">
-        <v>96.321</v>
+        <v>96.341</v>
       </c>
       <c r="P241" s="7">
-        <v>92.356</v>
+        <v>92.389</v>
       </c>
       <c r="Q241" s="7">
-        <v>91.622</v>
+        <v>91.658</v>
       </c>
       <c r="R241" s="7">
-        <v>90.173</v>
+        <v>90.199</v>
       </c>
       <c r="S241" s="7">
-        <v>89.601</v>
+        <v>89.643</v>
       </c>
       <c r="T241" s="7">
-        <v>90.981</v>
+        <v>91.028</v>
       </c>
       <c r="U241" s="7">
-        <v>88.122</v>
+        <v>88.17</v>
       </c>
       <c r="V241" s="7">
-        <v>86.166</v>
+        <v>86.168</v>
       </c>
       <c r="W241" s="7">
-        <v>83.428</v>
+        <v>83.454</v>
       </c>
       <c r="X241" s="7">
-        <v>83.191</v>
+        <v>83.228</v>
       </c>
       <c r="Y241" s="7">
-        <v>84.363</v>
+        <v>84.385</v>
       </c>
       <c r="Z241" s="7">
-        <v>82.625</v>
+        <v>82.654</v>
       </c>
       <c r="AA241" s="7">
-        <v>81.935</v>
+        <v>81.98</v>
       </c>
       <c r="AB241" s="7">
-        <v>80.056</v>
+        <v>80.111</v>
       </c>
       <c r="AC241" s="7">
-        <v>78.96</v>
+        <v>79.028</v>
       </c>
       <c r="AD241" s="7">
-        <v>80.038</v>
+        <v>80.108</v>
       </c>
       <c r="AE241" s="7">
-        <v>76.819</v>
+        <v>76.891</v>
       </c>
       <c r="AF241" s="7">
-        <v>77.447</v>
+        <v>77.534</v>
       </c>
       <c r="AG241" s="7">
-        <v>71.946</v>
+        <v>72.043</v>
       </c>
       <c r="AH241" s="7">
-        <v>74.194</v>
+        <v>74.278</v>
       </c>
       <c r="AI241" s="7">
-        <v>72.307</v>
+        <v>72.4</v>
       </c>
       <c r="AJ241" s="7">
-        <v>73.121</v>
+        <v>73.219</v>
       </c>
       <c r="AK241" s="7">
-        <v>74.479</v>
+        <v>74.576</v>
       </c>
       <c r="AL241" s="7">
-        <v>71.233</v>
+        <v>71.347</v>
       </c>
       <c r="AM241" s="7">
-        <v>71.913</v>
+        <v>72.008</v>
       </c>
       <c r="AN241" s="7">
-        <v>71.539</v>
+        <v>71.646</v>
       </c>
       <c r="AO241" s="7">
-        <v>70.35</v>
+        <v>70.443</v>
       </c>
       <c r="AP241" s="7">
-        <v>68.1</v>
+        <v>68.098</v>
       </c>
       <c r="AQ241" s="7">
-        <v>63.707</v>
+        <v>63.722</v>
       </c>
       <c r="AR241" s="7">
-        <v>58.51</v>
+        <v>58.527</v>
       </c>
       <c r="AS241" s="7">
-        <v>60.736</v>
+        <v>60.798</v>
       </c>
       <c r="AT241" s="7">
-        <v>59.966</v>
+        <v>59.789</v>
       </c>
       <c r="AU241" s="7">
-        <v>53.888</v>
+        <v>53.659</v>
       </c>
       <c r="BC241" s="4" t="inlineStr">
         <is>
@@ -53682,6 +53697,9 @@
       <c r="AU261" s="7">
         <v>78</v>
       </c>
+      <c r="AV261" s="7">
+        <v>75</v>
+      </c>
       <c r="BC261" s="4" t="inlineStr">
         <is>
           <t/>
@@ -53875,6 +53893,9 @@
       </c>
       <c r="AU262" s="7">
         <v>34</v>
+      </c>
+      <c r="AV262" s="7">
+        <v>32</v>
       </c>
       <c r="BC262" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -537,7 +537,7 @@
     <col customWidth="true" min="2" max="2" width="24.4609375"/>
     <col customWidth="true" min="3" max="3" width="14.35546875"/>
     <col customWidth="true" min="4" max="4" width="36.1796875"/>
-    <col customWidth="true" min="5" max="5" width="17.13671875"/>
+    <col customWidth="true" min="5" max="5" width="29.1484375"/>
     <col customWidth="true" min="6" max="6" width="31.34765625"/>
     <col customWidth="true" min="7" max="7" width="13.8359375"/>
     <col customWidth="true" min="8" max="8" width="19.3359375"/>
@@ -32429,10 +32429,10 @@
         <v>-2.147</v>
       </c>
       <c r="AU164" s="7">
-        <v>-2.569</v>
+        <v>-2.48</v>
       </c>
       <c r="AV164" s="7">
-        <v>-2.625</v>
+        <v>-2.759</v>
       </c>
       <c r="BC164" s="4" t="inlineStr">
         <is>
@@ -32596,61 +32596,64 @@
         <v>0</v>
       </c>
       <c r="AC165" s="7">
-        <v>-2.315</v>
+        <v>-2.33</v>
       </c>
       <c r="AD165" s="7">
-        <v>-1.958</v>
+        <v>-2.001</v>
       </c>
       <c r="AE165" s="7">
-        <v>-0.822</v>
+        <v>-0.848</v>
       </c>
       <c r="AF165" s="7">
-        <v>-0.793</v>
+        <v>-0.789</v>
       </c>
       <c r="AG165" s="7">
-        <v>-0.597</v>
+        <v>-0.613</v>
       </c>
       <c r="AH165" s="7">
-        <v>-2.272</v>
+        <v>-2.258</v>
       </c>
       <c r="AI165" s="7">
-        <v>-1.183</v>
+        <v>-1.128</v>
       </c>
       <c r="AJ165" s="7">
-        <v>0.054</v>
+        <v>0.068</v>
       </c>
       <c r="AK165" s="7">
-        <v>0.706</v>
+        <v>0.741</v>
       </c>
       <c r="AL165" s="7">
-        <v>1.078</v>
+        <v>1.123</v>
       </c>
       <c r="AM165" s="7">
-        <v>1.091</v>
+        <v>1.066</v>
       </c>
       <c r="AN165" s="7">
-        <v>0.99</v>
+        <v>0.938</v>
       </c>
       <c r="AO165" s="7">
-        <v>0.697</v>
+        <v>0.628</v>
       </c>
       <c r="AP165" s="7">
-        <v>1.237</v>
+        <v>1.092</v>
       </c>
       <c r="AQ165" s="7">
-        <v>0.556</v>
+        <v>0.466</v>
       </c>
       <c r="AR165" s="7">
-        <v>-2.753</v>
+        <v>-2.689</v>
       </c>
       <c r="AS165" s="7">
-        <v>-2.616</v>
+        <v>-2.832</v>
       </c>
       <c r="AT165" s="7">
-        <v>-1.686</v>
+        <v>-1.729</v>
       </c>
       <c r="AU165" s="7">
-        <v>-2.037</v>
+        <v>-2.106</v>
+      </c>
+      <c r="AV165" s="7">
+        <v>-1.886</v>
       </c>
       <c r="BC165" s="4" t="inlineStr">
         <is>
@@ -33433,7 +33436,7 @@
         <v>21.5</v>
       </c>
       <c r="AV168" s="7">
-        <v>20.835</v>
+        <v>20.857</v>
       </c>
       <c r="BC168" s="4" t="inlineStr">
         <is>
@@ -33696,7 +33699,7 @@
         <v>42.78</v>
       </c>
       <c r="AV169" s="7">
-        <v>42.591</v>
+        <v>42.576</v>
       </c>
       <c r="BC169" s="4" t="inlineStr">
         <is>
@@ -54354,7 +54357,7 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t>K_BEWERTUNGTEC</t>
         </is>
       </c>
       <c r="F265" s="4" t="inlineStr">
@@ -54518,7 +54521,7 @@
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t>K_BEWERTUNGTEC</t>
         </is>
       </c>
       <c r="F266" s="4" t="inlineStr">

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP274"/>
+  <dimension ref="A1:CP272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -48630,6 +48630,9 @@
       <c r="AT237" s="7">
         <v>12.8</v>
       </c>
+      <c r="AU237" s="7">
+        <v>14</v>
+      </c>
       <c r="BC237" s="4" t="inlineStr">
         <is>
           <t/>
@@ -49144,31 +49147,31 @@
         <v>15.891</v>
       </c>
       <c r="AM240" s="7">
-        <v>15.386</v>
+        <v>15.089</v>
       </c>
       <c r="AN240" s="7">
-        <v>15.051</v>
+        <v>14.762</v>
       </c>
       <c r="AO240" s="7">
-        <v>14.627</v>
+        <v>14.347</v>
       </c>
       <c r="AP240" s="7">
-        <v>14.307</v>
+        <v>14.033</v>
       </c>
       <c r="AQ240" s="7">
-        <v>14.205</v>
+        <v>13.961</v>
       </c>
       <c r="AR240" s="7">
-        <v>14.39</v>
+        <v>14.199</v>
       </c>
       <c r="AS240" s="7">
-        <v>13.507</v>
+        <v>13.29</v>
       </c>
       <c r="AT240" s="7">
-        <v>12.727</v>
+        <v>12.479</v>
       </c>
       <c r="AU240" s="7">
-        <v>11.836</v>
+        <v>11.657</v>
       </c>
       <c r="BC240" s="4" t="inlineStr">
         <is>
@@ -53002,14 +53005,8 @@
       <c r="M257" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AS257" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT257" s="7">
-        <v>0</v>
-      </c>
       <c r="AU257" s="7">
-        <v>0</v>
+        <v>55843369</v>
       </c>
       <c r="BC257" s="4" t="inlineStr">
         <is>
@@ -54337,32 +54334,32 @@
     <row outlineLevel="0" r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D003</t>
+          <t>Z17_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C265" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t/>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNGTEC</t>
+          <t/>
         </is>
       </c>
       <c r="F265" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PROTEC</t>
+          <t/>
         </is>
       </c>
       <c r="G265" s="4" t="inlineStr">
@@ -54377,7 +54374,7 @@
       </c>
       <c r="I265" s="4" t="inlineStr">
         <is>
-          <t>E_NUMX</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K265" s="6" t="b">
@@ -54389,8 +54386,92 @@
       <c r="M265" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="S265" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="T265" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="U265" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="V265" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W265" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="X265" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Y265" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Z265" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AA265" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AB265" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AC265" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AD265" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AE265" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="AF265" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="AG265" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AH265" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="AI265" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="AJ265" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="AK265" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="AL265" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="AM265" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AN265" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AO265" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AP265" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AQ265" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="AR265" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="AS265" s="7">
+        <v>0.76</v>
+      </c>
       <c r="AT265" s="7">
-        <v>35</v>
+        <v>0.85</v>
+      </c>
+      <c r="AU265" s="7">
+        <v>0.82</v>
       </c>
       <c r="BC265" s="4" t="inlineStr">
         <is>
@@ -54494,39 +54575,39 @@
       </c>
       <c r="CP265" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="266">
       <c r="A266" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D004</t>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B266" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C266" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t/>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNGTEC</t>
+          <t/>
         </is>
       </c>
       <c r="F266" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_CONTEC</t>
+          <t/>
         </is>
       </c>
       <c r="G266" s="4" t="inlineStr">
@@ -54541,20 +54622,74 @@
       </c>
       <c r="I266" s="4" t="inlineStr">
         <is>
-          <t>E_NUMX</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K266" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L266" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M266" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AC266" s="7">
+        <v>140519</v>
+      </c>
+      <c r="AD266" s="7">
+        <v>141289</v>
+      </c>
+      <c r="AE266" s="7">
+        <v>136087</v>
+      </c>
+      <c r="AF266" s="7">
+        <v>140832</v>
+      </c>
+      <c r="AG266" s="7">
+        <v>147152</v>
+      </c>
+      <c r="AH266" s="7">
+        <v>153690</v>
+      </c>
+      <c r="AI266" s="7">
+        <v>158557</v>
+      </c>
+      <c r="AJ266" s="7">
+        <v>170618</v>
+      </c>
+      <c r="AK266" s="7">
+        <v>185787</v>
+      </c>
+      <c r="AL266" s="7">
+        <v>200349</v>
+      </c>
+      <c r="AM266" s="7">
+        <v>215258</v>
+      </c>
+      <c r="AN266" s="7">
+        <v>230689</v>
+      </c>
+      <c r="AO266" s="7">
+        <v>247436</v>
+      </c>
+      <c r="AP266" s="7">
+        <v>267250</v>
+      </c>
+      <c r="AQ266" s="7">
+        <v>285450</v>
+      </c>
+      <c r="AR266" s="7">
+        <v>298149</v>
+      </c>
+      <c r="AS266" s="7">
+        <v>316001</v>
+      </c>
       <c r="AT266" s="7">
-        <v>5</v>
+        <v>335016</v>
+      </c>
+      <c r="AU266" s="7">
+        <v>348976</v>
       </c>
       <c r="BC266" s="4" t="inlineStr">
         <is>
@@ -54658,29 +54793,29 @@
       </c>
       <c r="CP266" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C267" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="E267" s="4" t="inlineStr">
@@ -54705,11 +54840,11 @@
       </c>
       <c r="I267" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K267" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L267" s="6" t="b">
         <v>0</v>
@@ -54717,92 +54852,62 @@
       <c r="M267" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S267" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="T267" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="U267" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="V267" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W267" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="X267" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Y267" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Z267" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="AA267" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AB267" s="7">
-        <v>0.28</v>
-      </c>
       <c r="AC267" s="7">
-        <v>0.36</v>
+        <v>4960</v>
       </c>
       <c r="AD267" s="7">
-        <v>0.36</v>
+        <v>5012</v>
       </c>
       <c r="AE267" s="7">
-        <v>0.37</v>
+        <v>4933</v>
       </c>
       <c r="AF267" s="7">
-        <v>0.38</v>
+        <v>5331</v>
       </c>
       <c r="AG267" s="7">
-        <v>0.35</v>
+        <v>5738</v>
       </c>
       <c r="AH267" s="7">
-        <v>0.39</v>
+        <v>6300</v>
       </c>
       <c r="AI267" s="7">
-        <v>0.39</v>
+        <v>6925</v>
       </c>
       <c r="AJ267" s="7">
-        <v>0.37</v>
+        <v>7577</v>
       </c>
       <c r="AK267" s="7">
-        <v>0.38</v>
+        <v>8348</v>
       </c>
       <c r="AL267" s="7">
-        <v>0.42</v>
+        <v>9244</v>
       </c>
       <c r="AM267" s="7">
-        <v>0.52</v>
+        <v>9746</v>
       </c>
       <c r="AN267" s="7">
-        <v>0.7</v>
+        <v>10119</v>
       </c>
       <c r="AO267" s="7">
-        <v>0.67</v>
+        <v>10576</v>
       </c>
       <c r="AP267" s="7">
-        <v>0.61</v>
+        <v>11525</v>
       </c>
       <c r="AQ267" s="7">
-        <v>0.61</v>
+        <v>13067</v>
       </c>
       <c r="AR267" s="7">
-        <v>0.73</v>
+        <v>15055</v>
       </c>
       <c r="AS267" s="7">
-        <v>0.76</v>
+        <v>17113</v>
       </c>
       <c r="AT267" s="7">
-        <v>0.85</v>
+        <v>18315</v>
       </c>
       <c r="AU267" s="7">
-        <v>0.82</v>
+        <v>19505</v>
       </c>
       <c r="BC267" s="4" t="inlineStr">
         <is>
@@ -54906,14 +55011,14 @@
       </c>
       <c r="CP267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="268">
       <c r="A268" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D035</t>
         </is>
       </c>
       <c r="B268" s="4" t="inlineStr">
@@ -54923,12 +55028,12 @@
       </c>
       <c r="C268" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D268" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="E268" s="4" t="inlineStr">
@@ -54957,70 +55062,70 @@
         </is>
       </c>
       <c r="K268" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L268" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M268" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC268" s="7">
-        <v>140519</v>
+        <v>129502</v>
       </c>
       <c r="AD268" s="7">
-        <v>141289</v>
+        <v>129631</v>
       </c>
       <c r="AE268" s="7">
-        <v>136087</v>
+        <v>124181</v>
       </c>
       <c r="AF268" s="7">
-        <v>140832</v>
+        <v>127067</v>
       </c>
       <c r="AG268" s="7">
-        <v>147152</v>
+        <v>131633</v>
       </c>
       <c r="AH268" s="7">
-        <v>153690</v>
+        <v>136445</v>
       </c>
       <c r="AI268" s="7">
-        <v>158557</v>
+        <v>140304</v>
       </c>
       <c r="AJ268" s="7">
-        <v>170618</v>
+        <v>150880</v>
       </c>
       <c r="AK268" s="7">
-        <v>185787</v>
+        <v>164098</v>
       </c>
       <c r="AL268" s="7">
-        <v>200349</v>
+        <v>176768</v>
       </c>
       <c r="AM268" s="7">
-        <v>215258</v>
+        <v>190403</v>
       </c>
       <c r="AN268" s="7">
-        <v>230689</v>
+        <v>204695</v>
       </c>
       <c r="AO268" s="7">
-        <v>247436</v>
+        <v>219307</v>
       </c>
       <c r="AP268" s="7">
-        <v>267250</v>
+        <v>236609</v>
       </c>
       <c r="AQ268" s="7">
-        <v>285450</v>
+        <v>251488</v>
       </c>
       <c r="AR268" s="7">
-        <v>298149</v>
+        <v>259999</v>
       </c>
       <c r="AS268" s="7">
-        <v>316001</v>
+        <v>273340</v>
       </c>
       <c r="AT268" s="7">
-        <v>335016</v>
+        <v>288586</v>
       </c>
       <c r="AU268" s="7">
-        <v>348976</v>
+        <v>299158</v>
       </c>
       <c r="BC268" s="4" t="inlineStr">
         <is>
@@ -55131,7 +55236,7 @@
     <row outlineLevel="0" r="269">
       <c r="A269" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D018</t>
+          <t>Z17_B02_P01_Ib01_I01_D052</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
@@ -55146,7 +55251,7 @@
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
@@ -55184,61 +55289,61 @@
         <v>0</v>
       </c>
       <c r="AC269" s="7">
-        <v>4960</v>
+        <v>209</v>
       </c>
       <c r="AD269" s="7">
-        <v>5012</v>
+        <v>212</v>
       </c>
       <c r="AE269" s="7">
-        <v>4933</v>
+        <v>207</v>
       </c>
       <c r="AF269" s="7">
-        <v>5331</v>
+        <v>254</v>
       </c>
       <c r="AG269" s="7">
-        <v>5738</v>
+        <v>299</v>
       </c>
       <c r="AH269" s="7">
-        <v>6300</v>
+        <v>331</v>
       </c>
       <c r="AI269" s="7">
-        <v>6925</v>
+        <v>382</v>
       </c>
       <c r="AJ269" s="7">
-        <v>7577</v>
+        <v>420</v>
       </c>
       <c r="AK269" s="7">
-        <v>8348</v>
+        <v>476</v>
       </c>
       <c r="AL269" s="7">
-        <v>9244</v>
+        <v>500</v>
       </c>
       <c r="AM269" s="7">
-        <v>9746</v>
+        <v>517</v>
       </c>
       <c r="AN269" s="7">
-        <v>10119</v>
+        <v>558</v>
       </c>
       <c r="AO269" s="7">
-        <v>10576</v>
+        <v>649</v>
       </c>
       <c r="AP269" s="7">
-        <v>11525</v>
+        <v>687</v>
       </c>
       <c r="AQ269" s="7">
-        <v>13067</v>
+        <v>681</v>
       </c>
       <c r="AR269" s="7">
-        <v>15055</v>
+        <v>838</v>
       </c>
       <c r="AS269" s="7">
-        <v>17113</v>
+        <v>924</v>
       </c>
       <c r="AT269" s="7">
-        <v>18315</v>
+        <v>1070</v>
       </c>
       <c r="AU269" s="7">
-        <v>19505</v>
+        <v>1190</v>
       </c>
       <c r="BC269" s="4" t="inlineStr">
         <is>
@@ -55349,7 +55454,7 @@
     <row outlineLevel="0" r="270">
       <c r="A270" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D035</t>
+          <t>Z17_B02_P01_Ib01_I01_D069</t>
         </is>
       </c>
       <c r="B270" s="4" t="inlineStr">
@@ -55364,7 +55469,7 @@
       </c>
       <c r="D270" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="E270" s="4" t="inlineStr">
@@ -55402,61 +55507,61 @@
         <v>0</v>
       </c>
       <c r="AC270" s="7">
-        <v>129502</v>
+        <v>5848</v>
       </c>
       <c r="AD270" s="7">
-        <v>129631</v>
+        <v>6434</v>
       </c>
       <c r="AE270" s="7">
-        <v>124181</v>
+        <v>6766</v>
       </c>
       <c r="AF270" s="7">
-        <v>127067</v>
+        <v>8180</v>
       </c>
       <c r="AG270" s="7">
-        <v>131633</v>
+        <v>9482</v>
       </c>
       <c r="AH270" s="7">
-        <v>136445</v>
+        <v>10614</v>
       </c>
       <c r="AI270" s="7">
-        <v>140304</v>
+        <v>10946</v>
       </c>
       <c r="AJ270" s="7">
-        <v>150880</v>
+        <v>11741</v>
       </c>
       <c r="AK270" s="7">
-        <v>164098</v>
+        <v>12865</v>
       </c>
       <c r="AL270" s="7">
-        <v>176768</v>
+        <v>13837</v>
       </c>
       <c r="AM270" s="7">
-        <v>190403</v>
+        <v>14592</v>
       </c>
       <c r="AN270" s="7">
-        <v>204695</v>
+        <v>15317</v>
       </c>
       <c r="AO270" s="7">
-        <v>219307</v>
+        <v>16904</v>
       </c>
       <c r="AP270" s="7">
-        <v>236609</v>
+        <v>18429</v>
       </c>
       <c r="AQ270" s="7">
-        <v>251488</v>
+        <v>20214</v>
       </c>
       <c r="AR270" s="7">
-        <v>259999</v>
+        <v>22257</v>
       </c>
       <c r="AS270" s="7">
-        <v>273340</v>
+        <v>24624</v>
       </c>
       <c r="AT270" s="7">
-        <v>288586</v>
+        <v>27044</v>
       </c>
       <c r="AU270" s="7">
-        <v>299158</v>
+        <v>29123</v>
       </c>
       <c r="BC270" s="4" t="inlineStr">
         <is>
@@ -55567,12 +55672,12 @@
     <row outlineLevel="0" r="271">
       <c r="A271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D052</t>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C271" s="4" t="inlineStr">
@@ -55582,7 +55687,7 @@
       </c>
       <c r="D271" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_IMP</t>
         </is>
       </c>
       <c r="E271" s="4" t="inlineStr">
@@ -55607,74 +55712,83 @@
       </c>
       <c r="I271" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K271" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L271" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M271" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Z271" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AA271" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AB271" s="7">
+        <v>0.52</v>
+      </c>
       <c r="AC271" s="7">
-        <v>209</v>
+        <v>0.44</v>
       </c>
       <c r="AD271" s="7">
-        <v>212</v>
+        <v>0.49</v>
       </c>
       <c r="AE271" s="7">
-        <v>207</v>
+        <v>0.52</v>
       </c>
       <c r="AF271" s="7">
-        <v>254</v>
+        <v>0.46</v>
       </c>
       <c r="AG271" s="7">
-        <v>299</v>
+        <v>0.58</v>
       </c>
       <c r="AH271" s="7">
-        <v>331</v>
+        <v>0.53</v>
       </c>
       <c r="AI271" s="7">
-        <v>382</v>
+        <v>0.67</v>
       </c>
       <c r="AJ271" s="7">
-        <v>420</v>
+        <v>0.62</v>
       </c>
       <c r="AK271" s="7">
-        <v>476</v>
+        <v>0.71</v>
       </c>
       <c r="AL271" s="7">
-        <v>500</v>
+        <v>0.71</v>
       </c>
       <c r="AM271" s="7">
-        <v>517</v>
+        <v>0.81</v>
       </c>
       <c r="AN271" s="7">
-        <v>558</v>
+        <v>0.88</v>
       </c>
       <c r="AO271" s="7">
-        <v>649</v>
+        <v>0.94</v>
       </c>
       <c r="AP271" s="7">
-        <v>687</v>
+        <v>0.94</v>
       </c>
       <c r="AQ271" s="7">
-        <v>681</v>
+        <v>0.94</v>
       </c>
       <c r="AR271" s="7">
-        <v>838</v>
+        <v>0.98</v>
       </c>
       <c r="AS271" s="7">
-        <v>924</v>
+        <v>1.04</v>
       </c>
       <c r="AT271" s="7">
-        <v>1070</v>
+        <v>1.15</v>
       </c>
       <c r="AU271" s="7">
-        <v>1190</v>
+        <v>1.02</v>
       </c>
       <c r="BC271" s="4" t="inlineStr">
         <is>
@@ -55778,19 +55892,19 @@
       </c>
       <c r="CP271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="272">
       <c r="A272" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D069</t>
+          <t>Z17_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B272" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C272" s="4" t="inlineStr">
@@ -55800,7 +55914,7 @@
       </c>
       <c r="D272" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
       <c r="E272" s="4" t="inlineStr">
@@ -55825,7 +55939,7 @@
       </c>
       <c r="I272" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K272" s="6" t="b">
@@ -55837,62 +55951,71 @@
       <c r="M272" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="Z272" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="AA272" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AB272" s="7">
+        <v>0.49</v>
+      </c>
       <c r="AC272" s="7">
-        <v>5848</v>
+        <v>0.4</v>
       </c>
       <c r="AD272" s="7">
-        <v>6434</v>
+        <v>0.45</v>
       </c>
       <c r="AE272" s="7">
-        <v>6766</v>
+        <v>0.45</v>
       </c>
       <c r="AF272" s="7">
-        <v>8180</v>
+        <v>0.36</v>
       </c>
       <c r="AG272" s="7">
-        <v>9482</v>
+        <v>0.52</v>
       </c>
       <c r="AH272" s="7">
-        <v>10614</v>
+        <v>0.47</v>
       </c>
       <c r="AI272" s="7">
-        <v>10946</v>
+        <v>0.54</v>
       </c>
       <c r="AJ272" s="7">
-        <v>11741</v>
+        <v>0.54</v>
       </c>
       <c r="AK272" s="7">
-        <v>12865</v>
+        <v>0.62</v>
       </c>
       <c r="AL272" s="7">
-        <v>13837</v>
+        <v>0.66</v>
       </c>
       <c r="AM272" s="7">
-        <v>14592</v>
+        <v>0.76</v>
       </c>
       <c r="AN272" s="7">
-        <v>15317</v>
+        <v>0.82</v>
       </c>
       <c r="AO272" s="7">
-        <v>16904</v>
+        <v>0.88</v>
       </c>
       <c r="AP272" s="7">
-        <v>18429</v>
+        <v>0.89</v>
       </c>
       <c r="AQ272" s="7">
-        <v>20214</v>
+        <v>0.89</v>
       </c>
       <c r="AR272" s="7">
-        <v>22257</v>
+        <v>0.92</v>
       </c>
       <c r="AS272" s="7">
-        <v>24624</v>
+        <v>0.92</v>
       </c>
       <c r="AT272" s="7">
-        <v>27044</v>
+        <v>1.02</v>
       </c>
       <c r="AU272" s="7">
-        <v>29123</v>
+        <v>0.92</v>
       </c>
       <c r="BC272" s="4" t="inlineStr">
         <is>
@@ -55995,460 +56118,6 @@
         </is>
       </c>
       <c r="CP272" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="273">
-      <c r="A273" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01_D001</t>
-        </is>
-      </c>
-      <c r="B273" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C273" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D273" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_IMP</t>
-        </is>
-      </c>
-      <c r="E273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I273" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNT</t>
-        </is>
-      </c>
-      <c r="K273" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M273" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AA273" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AB273" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AC273" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AD273" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AE273" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AF273" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="AG273" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="AH273" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="AI273" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="AJ273" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="AK273" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="AL273" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="AM273" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="AN273" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="AO273" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AP273" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AQ273" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="AR273" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="AS273" s="7">
-        <v>1.04</v>
-      </c>
-      <c r="AT273" s="7">
-        <v>1.15</v>
-      </c>
-      <c r="AU273" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="BC273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO273" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP273" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="274">
-      <c r="A274" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01_D002</t>
-        </is>
-      </c>
-      <c r="B274" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
-        </is>
-      </c>
-      <c r="C274" s="4" t="inlineStr">
-        <is>
-          <t>K_SERIES</t>
-        </is>
-      </c>
-      <c r="D274" s="4" t="inlineStr">
-        <is>
-          <t>A_SERIES_PROCIMP</t>
-        </is>
-      </c>
-      <c r="E274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I274" s="4" t="inlineStr">
-        <is>
-          <t>E_PRZNT</t>
-        </is>
-      </c>
-      <c r="K274" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M274" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z274" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AA274" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AB274" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="AC274" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="AD274" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="AE274" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="AF274" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AG274" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AH274" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="AI274" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="AJ274" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="AK274" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="AL274" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="AM274" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="AN274" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="AO274" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="AP274" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="AQ274" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="AR274" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AS274" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="AT274" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="AU274" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="BC274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO274" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP274" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP272"/>
+  <dimension ref="A1:CP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -53117,22 +53117,22 @@
     <row outlineLevel="0" r="258">
       <c r="A258" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D001</t>
+          <t>Z15_B04_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B258" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z15_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C258" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="D258" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEKTOREN_25</t>
         </is>
       </c>
       <c r="E258" s="4" t="inlineStr">
@@ -53157,20 +53157,20 @@
       </c>
       <c r="I258" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_HA</t>
         </is>
       </c>
       <c r="K258" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L258" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AV258" s="7">
-        <v>182</v>
+      <c r="AU258" s="7">
+        <v>2505544</v>
       </c>
       <c r="BC258" s="4" t="inlineStr">
         <is>
@@ -53274,29 +53274,29 @@
       </c>
       <c r="CP258" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z15_B04_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="259">
       <c r="A259" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D002</t>
+          <t>Z15_B04_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z15_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C259" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t>A_SEKTOREN_55bc</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
@@ -53321,7 +53321,7 @@
       </c>
       <c r="I259" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_HA</t>
         </is>
       </c>
       <c r="K259" s="6" t="b">
@@ -53333,8 +53333,8 @@
       <c r="M259" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AV259" s="7">
-        <v>33</v>
+      <c r="AU259" s="7">
+        <v>12008491</v>
       </c>
       <c r="BC259" s="4" t="inlineStr">
         <is>
@@ -53438,29 +53438,29 @@
       </c>
       <c r="CP259" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z15_B04_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="260">
       <c r="A260" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D003</t>
+          <t>Z15_B04_P01_Ib01_I01_D004</t>
         </is>
       </c>
       <c r="B260" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z15_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C260" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="D260" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SEKTOREN_51</t>
         </is>
       </c>
       <c r="E260" s="4" t="inlineStr">
@@ -53485,7 +53485,7 @@
       </c>
       <c r="I260" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_HA</t>
         </is>
       </c>
       <c r="K260" s="6" t="b">
@@ -53497,8 +53497,8 @@
       <c r="M260" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AV260" s="7">
-        <v>149</v>
+      <c r="AU260" s="7">
+        <v>41329334</v>
       </c>
       <c r="BC260" s="4" t="inlineStr">
         <is>
@@ -53602,19 +53602,19 @@
       </c>
       <c r="CP260" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z15_B04_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="261">
       <c r="A261" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01_D001</t>
+          <t>Z16_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C261" s="4" t="inlineStr">
@@ -53649,7 +53649,7 @@
       </c>
       <c r="I261" s="4" t="inlineStr">
         <is>
-          <t>E_NN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K261" s="6" t="b">
@@ -53661,44 +53661,8 @@
       <c r="M261" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ261" s="7">
-        <v>79</v>
-      </c>
-      <c r="AK261" s="7">
-        <v>78</v>
-      </c>
-      <c r="AL261" s="7">
-        <v>79</v>
-      </c>
-      <c r="AM261" s="7">
-        <v>81</v>
-      </c>
-      <c r="AN261" s="7">
-        <v>81</v>
-      </c>
-      <c r="AO261" s="7">
-        <v>81</v>
-      </c>
-      <c r="AP261" s="7">
-        <v>80</v>
-      </c>
-      <c r="AQ261" s="7">
-        <v>80</v>
-      </c>
-      <c r="AR261" s="7">
-        <v>80</v>
-      </c>
-      <c r="AS261" s="7">
-        <v>80</v>
-      </c>
-      <c r="AT261" s="7">
-        <v>79</v>
-      </c>
-      <c r="AU261" s="7">
-        <v>78</v>
-      </c>
       <c r="AV261" s="7">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="BC261" s="4" t="inlineStr">
         <is>
@@ -53802,29 +53766,29 @@
       </c>
       <c r="CP261" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="262">
       <c r="A262" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02_D001</t>
+          <t>Z16_B02_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B262" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C262" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="D262" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="E262" s="4" t="inlineStr">
@@ -53853,49 +53817,16 @@
         </is>
       </c>
       <c r="K262" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L262" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M262" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AK262" s="7">
-        <v>16</v>
-      </c>
-      <c r="AL262" s="7">
-        <v>30</v>
-      </c>
-      <c r="AM262" s="7">
-        <v>30</v>
-      </c>
-      <c r="AN262" s="7">
-        <v>31</v>
-      </c>
-      <c r="AO262" s="7">
-        <v>32</v>
-      </c>
-      <c r="AP262" s="7">
-        <v>31</v>
-      </c>
-      <c r="AQ262" s="7">
-        <v>34</v>
-      </c>
-      <c r="AR262" s="7">
-        <v>36</v>
-      </c>
-      <c r="AS262" s="7">
-        <v>36</v>
-      </c>
-      <c r="AT262" s="7">
-        <v>30</v>
-      </c>
-      <c r="AU262" s="7">
-        <v>34</v>
-      </c>
       <c r="AV262" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BC262" s="4" t="inlineStr">
         <is>
@@ -53999,39 +53930,39 @@
       </c>
       <c r="CP262" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="263">
       <c r="A263" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D001</t>
+          <t>Z16_B02_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C263" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t/>
         </is>
       </c>
       <c r="F263" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PRO</t>
+          <t/>
         </is>
       </c>
       <c r="G263" s="4" t="inlineStr">
@@ -54046,20 +53977,20 @@
       </c>
       <c r="I263" s="4" t="inlineStr">
         <is>
-          <t>E_NUMX</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K263" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L263" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M263" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AT263" s="7">
-        <v>4</v>
+      <c r="AV263" s="7">
+        <v>149</v>
       </c>
       <c r="BC263" s="4" t="inlineStr">
         <is>
@@ -54163,39 +54094,39 @@
       </c>
       <c r="CP263" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="264">
       <c r="A264" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D002</t>
+          <t>Z16_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B264" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C264" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D264" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t/>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t/>
         </is>
       </c>
       <c r="F264" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_CON</t>
+          <t/>
         </is>
       </c>
       <c r="G264" s="4" t="inlineStr">
@@ -54210,20 +54141,56 @@
       </c>
       <c r="I264" s="4" t="inlineStr">
         <is>
-          <t>E_NUMX</t>
+          <t>E_NN</t>
         </is>
       </c>
       <c r="K264" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L264" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M264" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AJ264" s="7">
+        <v>79</v>
+      </c>
+      <c r="AK264" s="7">
+        <v>78</v>
+      </c>
+      <c r="AL264" s="7">
+        <v>79</v>
+      </c>
+      <c r="AM264" s="7">
+        <v>81</v>
+      </c>
+      <c r="AN264" s="7">
+        <v>81</v>
+      </c>
+      <c r="AO264" s="7">
+        <v>81</v>
+      </c>
+      <c r="AP264" s="7">
+        <v>80</v>
+      </c>
+      <c r="AQ264" s="7">
+        <v>80</v>
+      </c>
+      <c r="AR264" s="7">
+        <v>80</v>
+      </c>
+      <c r="AS264" s="7">
+        <v>80</v>
+      </c>
       <c r="AT264" s="7">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="AU264" s="7">
+        <v>78</v>
+      </c>
+      <c r="AV264" s="7">
+        <v>75</v>
       </c>
       <c r="BC264" s="4" t="inlineStr">
         <is>
@@ -54327,19 +54294,19 @@
       </c>
       <c r="CP264" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D001</t>
+          <t>Z16_B03_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C265" s="4" t="inlineStr">
@@ -54374,104 +54341,53 @@
       </c>
       <c r="I265" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K265" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L265" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M265" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S265" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="T265" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="U265" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="V265" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W265" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="X265" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Y265" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Z265" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="AA265" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AB265" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AC265" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AD265" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AE265" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AF265" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AG265" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="AH265" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AI265" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AJ265" s="7">
-        <v>0.37</v>
-      </c>
       <c r="AK265" s="7">
-        <v>0.38</v>
+        <v>16</v>
       </c>
       <c r="AL265" s="7">
-        <v>0.42</v>
+        <v>30</v>
       </c>
       <c r="AM265" s="7">
-        <v>0.52</v>
+        <v>30</v>
       </c>
       <c r="AN265" s="7">
-        <v>0.7</v>
+        <v>31</v>
       </c>
       <c r="AO265" s="7">
-        <v>0.67</v>
+        <v>32</v>
       </c>
       <c r="AP265" s="7">
-        <v>0.61</v>
+        <v>31</v>
       </c>
       <c r="AQ265" s="7">
-        <v>0.61</v>
+        <v>34</v>
       </c>
       <c r="AR265" s="7">
-        <v>0.73</v>
+        <v>36</v>
       </c>
       <c r="AS265" s="7">
-        <v>0.76</v>
+        <v>36</v>
       </c>
       <c r="AT265" s="7">
-        <v>0.85</v>
+        <v>30</v>
       </c>
       <c r="AU265" s="7">
-        <v>0.82</v>
+        <v>34</v>
+      </c>
+      <c r="AV265" s="7">
+        <v>32</v>
       </c>
       <c r="BC265" s="4" t="inlineStr">
         <is>
@@ -54575,39 +54491,39 @@
       </c>
       <c r="CP265" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="266">
       <c r="A266" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D001</t>
+          <t>Z16_B04_P01_IB01_I01_D001</t>
         </is>
       </c>
       <c r="B266" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C266" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="F266" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_BEWERTUNG_PRO</t>
         </is>
       </c>
       <c r="G266" s="4" t="inlineStr">
@@ -54622,7 +54538,7 @@
       </c>
       <c r="I266" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K266" s="6" t="b">
@@ -54634,62 +54550,8 @@
       <c r="M266" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC266" s="7">
-        <v>140519</v>
-      </c>
-      <c r="AD266" s="7">
-        <v>141289</v>
-      </c>
-      <c r="AE266" s="7">
-        <v>136087</v>
-      </c>
-      <c r="AF266" s="7">
-        <v>140832</v>
-      </c>
-      <c r="AG266" s="7">
-        <v>147152</v>
-      </c>
-      <c r="AH266" s="7">
-        <v>153690</v>
-      </c>
-      <c r="AI266" s="7">
-        <v>158557</v>
-      </c>
-      <c r="AJ266" s="7">
-        <v>170618</v>
-      </c>
-      <c r="AK266" s="7">
-        <v>185787</v>
-      </c>
-      <c r="AL266" s="7">
-        <v>200349</v>
-      </c>
-      <c r="AM266" s="7">
-        <v>215258</v>
-      </c>
-      <c r="AN266" s="7">
-        <v>230689</v>
-      </c>
-      <c r="AO266" s="7">
-        <v>247436</v>
-      </c>
-      <c r="AP266" s="7">
-        <v>267250</v>
-      </c>
-      <c r="AQ266" s="7">
-        <v>285450</v>
-      </c>
-      <c r="AR266" s="7">
-        <v>298149</v>
-      </c>
-      <c r="AS266" s="7">
-        <v>316001</v>
-      </c>
       <c r="AT266" s="7">
-        <v>335016</v>
-      </c>
-      <c r="AU266" s="7">
-        <v>348976</v>
+        <v>4</v>
       </c>
       <c r="BC266" s="4" t="inlineStr">
         <is>
@@ -54793,19 +54655,19 @@
       </c>
       <c r="CP266" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D018</t>
+          <t>Z16_B04_P01_IB01_I01_D002</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C267" s="4" t="inlineStr">
@@ -54815,17 +54677,17 @@
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="F267" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_BEWERTUNG_CON</t>
         </is>
       </c>
       <c r="G267" s="4" t="inlineStr">
@@ -54840,11 +54702,11 @@
       </c>
       <c r="I267" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K267" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L267" s="6" t="b">
         <v>0</v>
@@ -54852,62 +54714,8 @@
       <c r="M267" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC267" s="7">
-        <v>4960</v>
-      </c>
-      <c r="AD267" s="7">
-        <v>5012</v>
-      </c>
-      <c r="AE267" s="7">
-        <v>4933</v>
-      </c>
-      <c r="AF267" s="7">
-        <v>5331</v>
-      </c>
-      <c r="AG267" s="7">
-        <v>5738</v>
-      </c>
-      <c r="AH267" s="7">
-        <v>6300</v>
-      </c>
-      <c r="AI267" s="7">
-        <v>6925</v>
-      </c>
-      <c r="AJ267" s="7">
-        <v>7577</v>
-      </c>
-      <c r="AK267" s="7">
-        <v>8348</v>
-      </c>
-      <c r="AL267" s="7">
-        <v>9244</v>
-      </c>
-      <c r="AM267" s="7">
-        <v>9746</v>
-      </c>
-      <c r="AN267" s="7">
-        <v>10119</v>
-      </c>
-      <c r="AO267" s="7">
-        <v>10576</v>
-      </c>
-      <c r="AP267" s="7">
-        <v>11525</v>
-      </c>
-      <c r="AQ267" s="7">
-        <v>13067</v>
-      </c>
-      <c r="AR267" s="7">
-        <v>15055</v>
-      </c>
-      <c r="AS267" s="7">
-        <v>17113</v>
-      </c>
       <c r="AT267" s="7">
-        <v>18315</v>
-      </c>
-      <c r="AU267" s="7">
-        <v>19505</v>
+        <v>7</v>
       </c>
       <c r="BC267" s="4" t="inlineStr">
         <is>
@@ -55011,19 +54819,19 @@
       </c>
       <c r="CP267" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="268">
       <c r="A268" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D035</t>
+          <t>Z16_B04_P01_IB01_I01_D003</t>
         </is>
       </c>
       <c r="B268" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C268" s="4" t="inlineStr">
@@ -55033,17 +54841,17 @@
       </c>
       <c r="D268" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="E268" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="F268" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_BEWERTUNG_PROTEC</t>
         </is>
       </c>
       <c r="G268" s="4" t="inlineStr">
@@ -55058,74 +54866,20 @@
       </c>
       <c r="I268" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K268" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L268" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M268" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC268" s="7">
-        <v>129502</v>
-      </c>
-      <c r="AD268" s="7">
-        <v>129631</v>
-      </c>
-      <c r="AE268" s="7">
-        <v>124181</v>
-      </c>
-      <c r="AF268" s="7">
-        <v>127067</v>
-      </c>
-      <c r="AG268" s="7">
-        <v>131633</v>
-      </c>
-      <c r="AH268" s="7">
-        <v>136445</v>
-      </c>
-      <c r="AI268" s="7">
-        <v>140304</v>
-      </c>
-      <c r="AJ268" s="7">
-        <v>150880</v>
-      </c>
-      <c r="AK268" s="7">
-        <v>164098</v>
-      </c>
-      <c r="AL268" s="7">
-        <v>176768</v>
-      </c>
-      <c r="AM268" s="7">
-        <v>190403</v>
-      </c>
-      <c r="AN268" s="7">
-        <v>204695</v>
-      </c>
-      <c r="AO268" s="7">
-        <v>219307</v>
-      </c>
-      <c r="AP268" s="7">
-        <v>236609</v>
-      </c>
-      <c r="AQ268" s="7">
-        <v>251488</v>
-      </c>
-      <c r="AR268" s="7">
-        <v>259999</v>
-      </c>
-      <c r="AS268" s="7">
-        <v>273340</v>
-      </c>
       <c r="AT268" s="7">
-        <v>288586</v>
-      </c>
-      <c r="AU268" s="7">
-        <v>299158</v>
+        <v>35</v>
       </c>
       <c r="BC268" s="4" t="inlineStr">
         <is>
@@ -55229,19 +54983,19 @@
       </c>
       <c r="CP268" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="269">
       <c r="A269" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D052</t>
+          <t>Z16_B04_P01_IB01_I01_D004</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C269" s="4" t="inlineStr">
@@ -55251,17 +55005,17 @@
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="F269" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_BEWERTUNG_CONTEC</t>
         </is>
       </c>
       <c r="G269" s="4" t="inlineStr">
@@ -55276,11 +55030,11 @@
       </c>
       <c r="I269" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K269" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L269" s="6" t="b">
         <v>0</v>
@@ -55288,62 +55042,8 @@
       <c r="M269" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC269" s="7">
-        <v>209</v>
-      </c>
-      <c r="AD269" s="7">
-        <v>212</v>
-      </c>
-      <c r="AE269" s="7">
-        <v>207</v>
-      </c>
-      <c r="AF269" s="7">
-        <v>254</v>
-      </c>
-      <c r="AG269" s="7">
-        <v>299</v>
-      </c>
-      <c r="AH269" s="7">
-        <v>331</v>
-      </c>
-      <c r="AI269" s="7">
-        <v>382</v>
-      </c>
-      <c r="AJ269" s="7">
-        <v>420</v>
-      </c>
-      <c r="AK269" s="7">
-        <v>476</v>
-      </c>
-      <c r="AL269" s="7">
-        <v>500</v>
-      </c>
-      <c r="AM269" s="7">
-        <v>517</v>
-      </c>
-      <c r="AN269" s="7">
-        <v>558</v>
-      </c>
-      <c r="AO269" s="7">
-        <v>649</v>
-      </c>
-      <c r="AP269" s="7">
-        <v>687</v>
-      </c>
-      <c r="AQ269" s="7">
-        <v>681</v>
-      </c>
-      <c r="AR269" s="7">
-        <v>838</v>
-      </c>
-      <c r="AS269" s="7">
-        <v>924</v>
-      </c>
       <c r="AT269" s="7">
-        <v>1070</v>
-      </c>
-      <c r="AU269" s="7">
-        <v>1190</v>
+        <v>5</v>
       </c>
       <c r="BC269" s="4" t="inlineStr">
         <is>
@@ -55447,29 +55147,29 @@
       </c>
       <c r="CP269" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="270">
       <c r="A270" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D069</t>
+          <t>Z17_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B270" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C270" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D270" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t/>
         </is>
       </c>
       <c r="E270" s="4" t="inlineStr">
@@ -55494,11 +55194,11 @@
       </c>
       <c r="I270" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K270" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L270" s="6" t="b">
         <v>0</v>
@@ -55506,62 +55206,92 @@
       <c r="M270" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="S270" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="T270" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="U270" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="V270" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W270" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="X270" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Y270" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Z270" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AA270" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AB270" s="7">
+        <v>0.28</v>
+      </c>
       <c r="AC270" s="7">
-        <v>5848</v>
+        <v>0.36</v>
       </c>
       <c r="AD270" s="7">
-        <v>6434</v>
+        <v>0.36</v>
       </c>
       <c r="AE270" s="7">
-        <v>6766</v>
+        <v>0.37</v>
       </c>
       <c r="AF270" s="7">
-        <v>8180</v>
+        <v>0.38</v>
       </c>
       <c r="AG270" s="7">
-        <v>9482</v>
+        <v>0.35</v>
       </c>
       <c r="AH270" s="7">
-        <v>10614</v>
+        <v>0.39</v>
       </c>
       <c r="AI270" s="7">
-        <v>10946</v>
+        <v>0.39</v>
       </c>
       <c r="AJ270" s="7">
-        <v>11741</v>
+        <v>0.37</v>
       </c>
       <c r="AK270" s="7">
-        <v>12865</v>
+        <v>0.38</v>
       </c>
       <c r="AL270" s="7">
-        <v>13837</v>
+        <v>0.42</v>
       </c>
       <c r="AM270" s="7">
-        <v>14592</v>
+        <v>0.52</v>
       </c>
       <c r="AN270" s="7">
-        <v>15317</v>
+        <v>0.7</v>
       </c>
       <c r="AO270" s="7">
-        <v>16904</v>
+        <v>0.67</v>
       </c>
       <c r="AP270" s="7">
-        <v>18429</v>
+        <v>0.61</v>
       </c>
       <c r="AQ270" s="7">
-        <v>20214</v>
+        <v>0.61</v>
       </c>
       <c r="AR270" s="7">
-        <v>22257</v>
+        <v>0.73</v>
       </c>
       <c r="AS270" s="7">
-        <v>24624</v>
+        <v>0.76</v>
       </c>
       <c r="AT270" s="7">
-        <v>27044</v>
+        <v>0.85</v>
       </c>
       <c r="AU270" s="7">
-        <v>29123</v>
+        <v>0.82</v>
       </c>
       <c r="BC270" s="4" t="inlineStr">
         <is>
@@ -55665,29 +55395,29 @@
       </c>
       <c r="CP270" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="271">
       <c r="A271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C271" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D271" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t/>
         </is>
       </c>
       <c r="E271" s="4" t="inlineStr">
@@ -55712,7 +55442,7 @@
       </c>
       <c r="I271" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K271" s="6" t="b">
@@ -55724,71 +55454,62 @@
       <c r="M271" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Z271" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AA271" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AB271" s="7">
-        <v>0.52</v>
-      </c>
       <c r="AC271" s="7">
-        <v>0.44</v>
+        <v>140519</v>
       </c>
       <c r="AD271" s="7">
-        <v>0.49</v>
+        <v>141289</v>
       </c>
       <c r="AE271" s="7">
-        <v>0.52</v>
+        <v>136087</v>
       </c>
       <c r="AF271" s="7">
-        <v>0.46</v>
+        <v>140832</v>
       </c>
       <c r="AG271" s="7">
-        <v>0.58</v>
+        <v>147152</v>
       </c>
       <c r="AH271" s="7">
-        <v>0.53</v>
+        <v>153690</v>
       </c>
       <c r="AI271" s="7">
-        <v>0.67</v>
+        <v>158557</v>
       </c>
       <c r="AJ271" s="7">
-        <v>0.62</v>
+        <v>170618</v>
       </c>
       <c r="AK271" s="7">
-        <v>0.71</v>
+        <v>185787</v>
       </c>
       <c r="AL271" s="7">
-        <v>0.71</v>
+        <v>200349</v>
       </c>
       <c r="AM271" s="7">
-        <v>0.81</v>
+        <v>215258</v>
       </c>
       <c r="AN271" s="7">
-        <v>0.88</v>
+        <v>230689</v>
       </c>
       <c r="AO271" s="7">
-        <v>0.94</v>
+        <v>247436</v>
       </c>
       <c r="AP271" s="7">
-        <v>0.94</v>
+        <v>267250</v>
       </c>
       <c r="AQ271" s="7">
-        <v>0.94</v>
+        <v>285450</v>
       </c>
       <c r="AR271" s="7">
-        <v>0.98</v>
+        <v>298149</v>
       </c>
       <c r="AS271" s="7">
-        <v>1.04</v>
+        <v>316001</v>
       </c>
       <c r="AT271" s="7">
-        <v>1.15</v>
+        <v>335016</v>
       </c>
       <c r="AU271" s="7">
-        <v>1.02</v>
+        <v>348976</v>
       </c>
       <c r="BC271" s="4" t="inlineStr">
         <is>
@@ -55892,232 +55613,1331 @@
       </c>
       <c r="CP271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="272">
       <c r="A272" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02_P01_Ib01_I01_D018</t>
+        </is>
+      </c>
+      <c r="B272" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C272" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D272" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_STUDLDC</t>
+        </is>
+      </c>
+      <c r="E272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I272" s="4" t="inlineStr">
+        <is>
+          <t>E_NUM</t>
+        </is>
+      </c>
+      <c r="K272" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M272" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="7">
+        <v>4960</v>
+      </c>
+      <c r="AD272" s="7">
+        <v>5012</v>
+      </c>
+      <c r="AE272" s="7">
+        <v>4933</v>
+      </c>
+      <c r="AF272" s="7">
+        <v>5331</v>
+      </c>
+      <c r="AG272" s="7">
+        <v>5738</v>
+      </c>
+      <c r="AH272" s="7">
+        <v>6300</v>
+      </c>
+      <c r="AI272" s="7">
+        <v>6925</v>
+      </c>
+      <c r="AJ272" s="7">
+        <v>7577</v>
+      </c>
+      <c r="AK272" s="7">
+        <v>8348</v>
+      </c>
+      <c r="AL272" s="7">
+        <v>9244</v>
+      </c>
+      <c r="AM272" s="7">
+        <v>9746</v>
+      </c>
+      <c r="AN272" s="7">
+        <v>10119</v>
+      </c>
+      <c r="AO272" s="7">
+        <v>10576</v>
+      </c>
+      <c r="AP272" s="7">
+        <v>11525</v>
+      </c>
+      <c r="AQ272" s="7">
+        <v>13067</v>
+      </c>
+      <c r="AR272" s="7">
+        <v>15055</v>
+      </c>
+      <c r="AS272" s="7">
+        <v>17113</v>
+      </c>
+      <c r="AT272" s="7">
+        <v>18315</v>
+      </c>
+      <c r="AU272" s="7">
+        <v>19505</v>
+      </c>
+      <c r="BC272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO272" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP272" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="273">
+      <c r="A273" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01_D035</t>
+        </is>
+      </c>
+      <c r="B273" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C273" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D273" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_STUDOTHER</t>
+        </is>
+      </c>
+      <c r="E273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I273" s="4" t="inlineStr">
+        <is>
+          <t>E_NUM</t>
+        </is>
+      </c>
+      <c r="K273" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M273" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC273" s="7">
+        <v>129502</v>
+      </c>
+      <c r="AD273" s="7">
+        <v>129631</v>
+      </c>
+      <c r="AE273" s="7">
+        <v>124181</v>
+      </c>
+      <c r="AF273" s="7">
+        <v>127067</v>
+      </c>
+      <c r="AG273" s="7">
+        <v>131633</v>
+      </c>
+      <c r="AH273" s="7">
+        <v>136445</v>
+      </c>
+      <c r="AI273" s="7">
+        <v>140304</v>
+      </c>
+      <c r="AJ273" s="7">
+        <v>150880</v>
+      </c>
+      <c r="AK273" s="7">
+        <v>164098</v>
+      </c>
+      <c r="AL273" s="7">
+        <v>176768</v>
+      </c>
+      <c r="AM273" s="7">
+        <v>190403</v>
+      </c>
+      <c r="AN273" s="7">
+        <v>204695</v>
+      </c>
+      <c r="AO273" s="7">
+        <v>219307</v>
+      </c>
+      <c r="AP273" s="7">
+        <v>236609</v>
+      </c>
+      <c r="AQ273" s="7">
+        <v>251488</v>
+      </c>
+      <c r="AR273" s="7">
+        <v>259999</v>
+      </c>
+      <c r="AS273" s="7">
+        <v>273340</v>
+      </c>
+      <c r="AT273" s="7">
+        <v>288586</v>
+      </c>
+      <c r="AU273" s="7">
+        <v>299158</v>
+      </c>
+      <c r="BC273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO273" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP273" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="274">
+      <c r="A274" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01_D052</t>
+        </is>
+      </c>
+      <c r="B274" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C274" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D274" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_RESLDC</t>
+        </is>
+      </c>
+      <c r="E274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I274" s="4" t="inlineStr">
+        <is>
+          <t>E_NUM</t>
+        </is>
+      </c>
+      <c r="K274" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M274" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC274" s="7">
+        <v>209</v>
+      </c>
+      <c r="AD274" s="7">
+        <v>212</v>
+      </c>
+      <c r="AE274" s="7">
+        <v>207</v>
+      </c>
+      <c r="AF274" s="7">
+        <v>254</v>
+      </c>
+      <c r="AG274" s="7">
+        <v>299</v>
+      </c>
+      <c r="AH274" s="7">
+        <v>331</v>
+      </c>
+      <c r="AI274" s="7">
+        <v>382</v>
+      </c>
+      <c r="AJ274" s="7">
+        <v>420</v>
+      </c>
+      <c r="AK274" s="7">
+        <v>476</v>
+      </c>
+      <c r="AL274" s="7">
+        <v>500</v>
+      </c>
+      <c r="AM274" s="7">
+        <v>517</v>
+      </c>
+      <c r="AN274" s="7">
+        <v>558</v>
+      </c>
+      <c r="AO274" s="7">
+        <v>649</v>
+      </c>
+      <c r="AP274" s="7">
+        <v>687</v>
+      </c>
+      <c r="AQ274" s="7">
+        <v>681</v>
+      </c>
+      <c r="AR274" s="7">
+        <v>838</v>
+      </c>
+      <c r="AS274" s="7">
+        <v>924</v>
+      </c>
+      <c r="AT274" s="7">
+        <v>1070</v>
+      </c>
+      <c r="AU274" s="7">
+        <v>1190</v>
+      </c>
+      <c r="BC274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO274" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP274" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="275">
+      <c r="A275" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01_D069</t>
+        </is>
+      </c>
+      <c r="B275" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C275" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D275" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_RESOTHER</t>
+        </is>
+      </c>
+      <c r="E275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I275" s="4" t="inlineStr">
+        <is>
+          <t>E_NUM</t>
+        </is>
+      </c>
+      <c r="K275" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M275" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC275" s="7">
+        <v>5848</v>
+      </c>
+      <c r="AD275" s="7">
+        <v>6434</v>
+      </c>
+      <c r="AE275" s="7">
+        <v>6766</v>
+      </c>
+      <c r="AF275" s="7">
+        <v>8180</v>
+      </c>
+      <c r="AG275" s="7">
+        <v>9482</v>
+      </c>
+      <c r="AH275" s="7">
+        <v>10614</v>
+      </c>
+      <c r="AI275" s="7">
+        <v>10946</v>
+      </c>
+      <c r="AJ275" s="7">
+        <v>11741</v>
+      </c>
+      <c r="AK275" s="7">
+        <v>12865</v>
+      </c>
+      <c r="AL275" s="7">
+        <v>13837</v>
+      </c>
+      <c r="AM275" s="7">
+        <v>14592</v>
+      </c>
+      <c r="AN275" s="7">
+        <v>15317</v>
+      </c>
+      <c r="AO275" s="7">
+        <v>16904</v>
+      </c>
+      <c r="AP275" s="7">
+        <v>18429</v>
+      </c>
+      <c r="AQ275" s="7">
+        <v>20214</v>
+      </c>
+      <c r="AR275" s="7">
+        <v>22257</v>
+      </c>
+      <c r="AS275" s="7">
+        <v>24624</v>
+      </c>
+      <c r="AT275" s="7">
+        <v>27044</v>
+      </c>
+      <c r="AU275" s="7">
+        <v>29123</v>
+      </c>
+      <c r="BC275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO275" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP275" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="276">
+      <c r="A276" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B276" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C276" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D276" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_IMP</t>
+        </is>
+      </c>
+      <c r="E276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I276" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="K276" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M276" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z276" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AA276" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AB276" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AC276" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AD276" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AE276" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AF276" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="AG276" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="AH276" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="AI276" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AJ276" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AK276" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AL276" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AM276" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AN276" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="AO276" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AP276" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AQ276" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AR276" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="AS276" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="AT276" s="7">
+        <v>1.15</v>
+      </c>
+      <c r="AU276" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="BC276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO276" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP276" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="277">
+      <c r="A277" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
-      <c r="B272" s="4" t="inlineStr">
+      <c r="B277" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C272" s="4" t="inlineStr">
+      <c r="C277" s="4" t="inlineStr">
         <is>
           <t>K_SERIES</t>
         </is>
       </c>
-      <c r="D272" s="4" t="inlineStr">
+      <c r="D277" s="4" t="inlineStr">
         <is>
           <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
-      <c r="E272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I272" s="4" t="inlineStr">
+      <c r="E277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I277" s="4" t="inlineStr">
         <is>
           <t>E_PRZNT</t>
         </is>
       </c>
-      <c r="K272" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M272" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z272" s="7">
+      <c r="K277" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M277" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z277" s="7">
         <v>0.36</v>
       </c>
-      <c r="AA272" s="7">
+      <c r="AA277" s="7">
         <v>0.49</v>
       </c>
-      <c r="AB272" s="7">
+      <c r="AB277" s="7">
         <v>0.49</v>
       </c>
-      <c r="AC272" s="7">
+      <c r="AC277" s="7">
         <v>0.4</v>
       </c>
-      <c r="AD272" s="7">
+      <c r="AD277" s="7">
         <v>0.45</v>
       </c>
-      <c r="AE272" s="7">
+      <c r="AE277" s="7">
         <v>0.45</v>
       </c>
-      <c r="AF272" s="7">
+      <c r="AF277" s="7">
         <v>0.36</v>
       </c>
-      <c r="AG272" s="7">
+      <c r="AG277" s="7">
         <v>0.52</v>
       </c>
-      <c r="AH272" s="7">
+      <c r="AH277" s="7">
         <v>0.47</v>
       </c>
-      <c r="AI272" s="7">
+      <c r="AI277" s="7">
         <v>0.54</v>
       </c>
-      <c r="AJ272" s="7">
+      <c r="AJ277" s="7">
         <v>0.54</v>
       </c>
-      <c r="AK272" s="7">
+      <c r="AK277" s="7">
         <v>0.62</v>
       </c>
-      <c r="AL272" s="7">
+      <c r="AL277" s="7">
         <v>0.66</v>
       </c>
-      <c r="AM272" s="7">
+      <c r="AM277" s="7">
         <v>0.76</v>
       </c>
-      <c r="AN272" s="7">
+      <c r="AN277" s="7">
         <v>0.82</v>
       </c>
-      <c r="AO272" s="7">
+      <c r="AO277" s="7">
         <v>0.88</v>
       </c>
-      <c r="AP272" s="7">
+      <c r="AP277" s="7">
         <v>0.89</v>
       </c>
-      <c r="AQ272" s="7">
+      <c r="AQ277" s="7">
         <v>0.89</v>
       </c>
-      <c r="AR272" s="7">
+      <c r="AR277" s="7">
         <v>0.92</v>
       </c>
-      <c r="AS272" s="7">
+      <c r="AS277" s="7">
         <v>0.92</v>
       </c>
-      <c r="AT272" s="7">
+      <c r="AT277" s="7">
         <v>1.02</v>
       </c>
-      <c r="AU272" s="7">
+      <c r="AU277" s="7">
         <v>0.92</v>
       </c>
-      <c r="BC272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO272" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP272" s="4" t="inlineStr">
+      <c r="BC277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP277" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -30968,6 +30968,9 @@
       <c r="AU157" s="7">
         <v>21.6</v>
       </c>
+      <c r="AV157" s="7">
+        <v>22.4</v>
+      </c>
       <c r="BC157" s="4" t="inlineStr">
         <is>
           <t/>
@@ -31178,13 +31181,16 @@
         <v>45.5</v>
       </c>
       <c r="AS158" s="7">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="AT158" s="7">
         <v>46.3</v>
       </c>
       <c r="AU158" s="7">
-        <v>52.5</v>
+        <v>52.9</v>
+      </c>
+      <c r="AV158" s="7">
+        <v>54.4</v>
       </c>
       <c r="BC158" s="4" t="inlineStr">
         <is>
@@ -36261,6 +36267,9 @@
       <c r="AT180" s="7">
         <v>3.07</v>
       </c>
+      <c r="AU180" s="7">
+        <v>3.1</v>
+      </c>
       <c r="BC180" s="4" t="inlineStr">
         <is>
           <t/>
@@ -36500,6 +36509,9 @@
       <c r="AT181" s="7">
         <v>0.45</v>
       </c>
+      <c r="AU181" s="7">
+        <v>0.44</v>
+      </c>
       <c r="BC181" s="4" t="inlineStr">
         <is>
           <t/>
@@ -36739,6 +36751,9 @@
       <c r="AT182" s="7">
         <v>0.56</v>
       </c>
+      <c r="AU182" s="7">
+        <v>0.54</v>
+      </c>
       <c r="BC182" s="4" t="inlineStr">
         <is>
           <t/>
@@ -36978,6 +36993,9 @@
       <c r="AT183" s="7">
         <v>2.07</v>
       </c>
+      <c r="AU183" s="7">
+        <v>2.12</v>
+      </c>
       <c r="BC183" s="4" t="inlineStr">
         <is>
           <t/>
@@ -43266,25 +43284,28 @@
         <v>90.332</v>
       </c>
       <c r="AN211" s="7">
-        <v>90.365</v>
+        <v>90.394</v>
       </c>
       <c r="AO211" s="7">
-        <v>90.203</v>
+        <v>90.232</v>
       </c>
       <c r="AP211" s="7">
-        <v>89.88</v>
+        <v>89.909</v>
       </c>
       <c r="AQ211" s="7">
-        <v>89.744</v>
+        <v>89.773</v>
       </c>
       <c r="AR211" s="7">
-        <v>89.351</v>
+        <v>89.379</v>
       </c>
       <c r="AS211" s="7">
-        <v>89.066</v>
+        <v>89.095</v>
       </c>
       <c r="AT211" s="7">
-        <v>89.986</v>
+        <v>90.014</v>
+      </c>
+      <c r="AU211" s="7">
+        <v>89.945</v>
       </c>
       <c r="BC211" s="4" t="inlineStr">
         <is>
@@ -43496,25 +43517,28 @@
         <v>97.237</v>
       </c>
       <c r="AN212" s="7">
-        <v>97.983</v>
+        <v>97.608</v>
       </c>
       <c r="AO212" s="7">
-        <v>98.154</v>
+        <v>97.778</v>
       </c>
       <c r="AP212" s="7">
-        <v>98.38</v>
+        <v>98.004</v>
       </c>
       <c r="AQ212" s="7">
-        <v>98.465</v>
+        <v>98.089</v>
       </c>
       <c r="AR212" s="7">
-        <v>98.182</v>
+        <v>97.807</v>
       </c>
       <c r="AS212" s="7">
-        <v>98.01</v>
+        <v>97.635</v>
       </c>
       <c r="AT212" s="7">
-        <v>99.275</v>
+        <v>90.895</v>
+      </c>
+      <c r="AU212" s="7">
+        <v>99.181</v>
       </c>
       <c r="BC212" s="4" t="inlineStr">
         <is>
@@ -43726,25 +43750,28 @@
         <v>87.056</v>
       </c>
       <c r="AN213" s="7">
-        <v>86.799</v>
+        <v>86.927</v>
       </c>
       <c r="AO213" s="7">
-        <v>86.485</v>
+        <v>86.613</v>
       </c>
       <c r="AP213" s="7">
-        <v>85.973</v>
+        <v>86.099</v>
       </c>
       <c r="AQ213" s="7">
-        <v>85.743</v>
+        <v>85.87</v>
       </c>
       <c r="AR213" s="7">
-        <v>85.38</v>
+        <v>85.506</v>
       </c>
       <c r="AS213" s="7">
-        <v>85.116</v>
+        <v>85.242</v>
       </c>
       <c r="AT213" s="7">
-        <v>85.895</v>
+        <v>86.022</v>
+      </c>
+      <c r="AU213" s="7">
+        <v>85.837</v>
       </c>
       <c r="BC213" s="4" t="inlineStr">
         <is>
@@ -43908,52 +43935,52 @@
         <v>0</v>
       </c>
       <c r="X214" s="7">
-        <v>1854.062</v>
+        <v>1853.467</v>
       </c>
       <c r="Y214" s="7">
-        <v>1838.803</v>
+        <v>1838.213</v>
       </c>
       <c r="Z214" s="7">
-        <v>1821.977</v>
+        <v>1821.393</v>
       </c>
       <c r="AA214" s="7">
-        <v>1803.284</v>
+        <v>1802.705</v>
       </c>
       <c r="AB214" s="7">
-        <v>1784.352</v>
+        <v>1783.78</v>
       </c>
       <c r="AC214" s="7">
-        <v>1766.733</v>
+        <v>1766.167</v>
       </c>
       <c r="AD214" s="7">
-        <v>1748.132</v>
+        <v>1747.571</v>
       </c>
       <c r="AE214" s="7">
-        <v>1730.352</v>
+        <v>1729.797</v>
       </c>
       <c r="AF214" s="7">
-        <v>1710.307</v>
+        <v>1709.759</v>
       </c>
       <c r="AG214" s="7">
-        <v>1694.28</v>
+        <v>1693.736</v>
       </c>
       <c r="AH214" s="7">
-        <v>1681.729</v>
+        <v>1681.19</v>
       </c>
       <c r="AI214" s="7">
-        <v>1668.888</v>
+        <v>1668.353</v>
       </c>
       <c r="AJ214" s="7">
-        <v>1664.808</v>
+        <v>1664.274</v>
       </c>
       <c r="AK214" s="7">
-        <v>1661.983</v>
+        <v>1661.45</v>
       </c>
       <c r="AL214" s="7">
-        <v>1660.694</v>
+        <v>1660.161</v>
       </c>
       <c r="AM214" s="7">
-        <v>1674.81</v>
+        <v>1674.273</v>
       </c>
       <c r="AN214" s="7">
         <v>1675.431</v>
@@ -43975,6 +44002,9 @@
       </c>
       <c r="AT214" s="7">
         <v>1668.389</v>
+      </c>
+      <c r="AU214" s="7">
+        <v>1667.11</v>
       </c>
       <c r="BC214" s="4" t="inlineStr">
         <is>
@@ -44138,52 +44168,52 @@
         <v>0</v>
       </c>
       <c r="X215" s="7">
-        <v>3398.556</v>
+        <v>3411.596</v>
       </c>
       <c r="Y215" s="7">
-        <v>3384.981</v>
+        <v>3397.97</v>
       </c>
       <c r="Z215" s="7">
-        <v>3367.915</v>
+        <v>3380.838</v>
       </c>
       <c r="AA215" s="7">
-        <v>3348.367</v>
+        <v>3361.215</v>
       </c>
       <c r="AB215" s="7">
-        <v>3327.384</v>
+        <v>3340.152</v>
       </c>
       <c r="AC215" s="7">
-        <v>3311.494</v>
+        <v>3324.201</v>
       </c>
       <c r="AD215" s="7">
-        <v>3296.41</v>
+        <v>3309.058</v>
       </c>
       <c r="AE215" s="7">
-        <v>3281.903</v>
+        <v>3294.496</v>
       </c>
       <c r="AF215" s="7">
-        <v>3262.576</v>
+        <v>3275.095</v>
       </c>
       <c r="AG215" s="7">
-        <v>3247.815</v>
+        <v>3260.277</v>
       </c>
       <c r="AH215" s="7">
-        <v>3240.292</v>
+        <v>3252.726</v>
       </c>
       <c r="AI215" s="7">
-        <v>3226.06</v>
+        <v>3238.439</v>
       </c>
       <c r="AJ215" s="7">
-        <v>3238.135</v>
+        <v>3250.561</v>
       </c>
       <c r="AK215" s="7">
-        <v>3249.607</v>
+        <v>3262.076</v>
       </c>
       <c r="AL215" s="7">
-        <v>3267.353</v>
+        <v>3279.89</v>
       </c>
       <c r="AM215" s="7">
-        <v>3304.669</v>
+        <v>3317.349</v>
       </c>
       <c r="AN215" s="7">
         <v>3329.999</v>
@@ -44205,6 +44235,9 @@
       </c>
       <c r="AT215" s="7">
         <v>3373.914</v>
+      </c>
+      <c r="AU215" s="7">
+        <v>3383.647</v>
       </c>
       <c r="BC215" s="4" t="inlineStr">
         <is>
@@ -44368,52 +44401,52 @@
         <v>0</v>
       </c>
       <c r="X216" s="7">
-        <v>1401.418</v>
+        <v>1399.352</v>
       </c>
       <c r="Y216" s="7">
-        <v>1387.603</v>
+        <v>1385.558</v>
       </c>
       <c r="Z216" s="7">
-        <v>1372.746</v>
+        <v>1370.722</v>
       </c>
       <c r="AA216" s="7">
-        <v>1356.159</v>
+        <v>1354.16</v>
       </c>
       <c r="AB216" s="7">
-        <v>1339.638</v>
+        <v>1337.663</v>
       </c>
       <c r="AC216" s="7">
-        <v>1323.032</v>
+        <v>1321.082</v>
       </c>
       <c r="AD216" s="7">
-        <v>1304.908</v>
+        <v>1302.984</v>
       </c>
       <c r="AE216" s="7">
-        <v>1287.655</v>
+        <v>1285.757</v>
       </c>
       <c r="AF216" s="7">
-        <v>1268.845</v>
+        <v>1266.974</v>
       </c>
       <c r="AG216" s="7">
-        <v>1253.642</v>
+        <v>1251.794</v>
       </c>
       <c r="AH216" s="7">
-        <v>1240.431</v>
+        <v>1238.602</v>
       </c>
       <c r="AI216" s="7">
-        <v>1230.603</v>
+        <v>1228.789</v>
       </c>
       <c r="AJ216" s="7">
-        <v>1222.874</v>
+        <v>1221.071</v>
       </c>
       <c r="AK216" s="7">
-        <v>1216.889</v>
+        <v>1215.095</v>
       </c>
       <c r="AL216" s="7">
-        <v>1212.151</v>
+        <v>1210.365</v>
       </c>
       <c r="AM216" s="7">
-        <v>1220.017</v>
+        <v>1218.218</v>
       </c>
       <c r="AN216" s="7">
         <v>1216.413</v>
@@ -44435,6 +44468,9 @@
       </c>
       <c r="AT216" s="7">
         <v>1203.752</v>
+      </c>
+      <c r="AU216" s="7">
+        <v>1201.166</v>
       </c>
       <c r="BC216" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -36002,13 +36002,13 @@
         <v>0</v>
       </c>
       <c r="AS179" s="7">
-        <v>493</v>
+        <v>407</v>
       </c>
       <c r="AT179" s="7">
-        <v>616</v>
+        <v>532</v>
       </c>
       <c r="AU179" s="7">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="BC179" s="4" t="inlineStr">
         <is>
@@ -48497,7 +48497,7 @@
         <v>0</v>
       </c>
       <c r="AV236" s="7">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="BC236" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -43535,7 +43535,7 @@
         <v>97.635</v>
       </c>
       <c r="AT212" s="7">
-        <v>90.895</v>
+        <v>98.895</v>
       </c>
       <c r="AU212" s="7">
         <v>99.181</v>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP277"/>
+  <dimension ref="A1:CP278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17633,12 +17633,12 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_AIRPOLL</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_AIRPOLL_TOTAL</t>
         </is>
       </c>
       <c r="E94" s="4" t="inlineStr">
@@ -48454,12 +48454,12 @@
       </c>
       <c r="C236" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D236" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_KULTUR</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
@@ -48488,7 +48488,7 @@
         </is>
       </c>
       <c r="K236" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236" s="6" t="b">
         <v>0</v>
@@ -48608,22 +48608,22 @@
     <row outlineLevel="0" r="237">
       <c r="A237" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01_D001</t>
+          <t>Z12_B02_P02_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I01</t>
+          <t>Z12_B02_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C237" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_AUDIOVIS</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
@@ -48648,35 +48648,32 @@
       </c>
       <c r="I237" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K237" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L237" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M237" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AS237" s="7">
-        <v>12.6</v>
-      </c>
-      <c r="AT237" s="7">
-        <v>12.8</v>
-      </c>
-      <c r="AU237" s="7">
-        <v>14</v>
+      <c r="BB237" s="7">
+        <v>82</v>
       </c>
       <c r="BC237" s="4" t="inlineStr">
         <is>
-          <t/>
-        </is>
+          <t>01.03.2023 – 30.08.2023</t>
+        </is>
+      </c>
+      <c r="BD237" s="7">
+        <v>234</v>
       </c>
       <c r="BE237" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>01.09.2023 – 30.08.2024</t>
         </is>
       </c>
       <c r="BG237" s="4" t="inlineStr">
@@ -48771,19 +48768,19 @@
       </c>
       <c r="CP237" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01</t>
+          <t>Z12_B02_P02_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="238">
       <c r="A238" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02_D001</t>
+          <t>Z12_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B238" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I02</t>
+          <t>Z12_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C238" s="4" t="inlineStr">
@@ -48818,7 +48815,7 @@
       </c>
       <c r="I238" s="4" t="inlineStr">
         <is>
-          <t>E_IDX2015</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K238" s="6" t="b">
@@ -48830,29 +48827,14 @@
       <c r="M238" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AM238" s="7">
-        <v>100</v>
-      </c>
-      <c r="AN238" s="7">
-        <v>99.954</v>
-      </c>
-      <c r="AO238" s="7">
-        <v>99.679</v>
-      </c>
-      <c r="AP238" s="7">
-        <v>99.854</v>
-      </c>
-      <c r="AQ238" s="7">
-        <v>100.427</v>
-      </c>
-      <c r="AR238" s="7">
-        <v>101.93</v>
-      </c>
       <c r="AS238" s="7">
-        <v>102.998</v>
+        <v>12.6</v>
       </c>
       <c r="AT238" s="7">
-        <v>101.606</v>
+        <v>12.8</v>
+      </c>
+      <c r="AU238" s="7">
+        <v>14</v>
       </c>
       <c r="BC238" s="4" t="inlineStr">
         <is>
@@ -48963,12 +48945,12 @@
     <row outlineLevel="0" r="239">
       <c r="A239" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I03_D001</t>
+          <t>Z12_B03_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01_Ib01_I03</t>
+          <t>Z12_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
@@ -49003,7 +48985,7 @@
       </c>
       <c r="I239" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX2015</t>
         </is>
       </c>
       <c r="K239" s="6" t="b">
@@ -49015,8 +48997,29 @@
       <c r="M239" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AU239" s="7">
-        <v>0</v>
+      <c r="AM239" s="7">
+        <v>100</v>
+      </c>
+      <c r="AN239" s="7">
+        <v>99.954</v>
+      </c>
+      <c r="AO239" s="7">
+        <v>99.679</v>
+      </c>
+      <c r="AP239" s="7">
+        <v>99.854</v>
+      </c>
+      <c r="AQ239" s="7">
+        <v>100.427</v>
+      </c>
+      <c r="AR239" s="7">
+        <v>101.93</v>
+      </c>
+      <c r="AS239" s="7">
+        <v>102.998</v>
+      </c>
+      <c r="AT239" s="7">
+        <v>101.606</v>
       </c>
       <c r="BC239" s="4" t="inlineStr">
         <is>
@@ -49127,12 +49130,12 @@
     <row outlineLevel="0" r="240">
       <c r="A240" s="4" t="inlineStr">
         <is>
-          <t>Z12_B04_P01_Ib01_I01_D001</t>
+          <t>Z12_B03_P01_Ib01_I03_D001</t>
         </is>
       </c>
       <c r="B240" s="4" t="inlineStr">
         <is>
-          <t>Z12_B04_P01_Ib01_I01</t>
+          <t>Z12_B03_P01_Ib01_I03</t>
         </is>
       </c>
       <c r="C240" s="4" t="inlineStr">
@@ -49179,35 +49182,8 @@
       <c r="M240" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AL240" s="7">
-        <v>15.891</v>
-      </c>
-      <c r="AM240" s="7">
-        <v>15.089</v>
-      </c>
-      <c r="AN240" s="7">
-        <v>14.762</v>
-      </c>
-      <c r="AO240" s="7">
-        <v>14.347</v>
-      </c>
-      <c r="AP240" s="7">
-        <v>14.033</v>
-      </c>
-      <c r="AQ240" s="7">
-        <v>13.961</v>
-      </c>
-      <c r="AR240" s="7">
-        <v>14.199</v>
-      </c>
-      <c r="AS240" s="7">
-        <v>13.29</v>
-      </c>
-      <c r="AT240" s="7">
-        <v>12.479</v>
-      </c>
       <c r="AU240" s="7">
-        <v>11.657</v>
+        <v>0</v>
       </c>
       <c r="BC240" s="4" t="inlineStr">
         <is>
@@ -49311,19 +49287,19 @@
       </c>
       <c r="CP240" s="4" t="inlineStr">
         <is>
-          <t>Z12_B04_P01_Ib01</t>
+          <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="241">
       <c r="A241" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01_D001</t>
+          <t>Z12_B04_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01_I01</t>
+          <t>Z12_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
@@ -49358,7 +49334,7 @@
       </c>
       <c r="I241" s="4" t="inlineStr">
         <is>
-          <t>E_IDX_1990</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K241" s="6" t="b">
@@ -49370,107 +49346,35 @@
       <c r="M241" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N241" s="7">
-        <v>100</v>
-      </c>
-      <c r="O241" s="7">
-        <v>96.341</v>
-      </c>
-      <c r="P241" s="7">
-        <v>92.389</v>
-      </c>
-      <c r="Q241" s="7">
-        <v>91.658</v>
-      </c>
-      <c r="R241" s="7">
-        <v>90.199</v>
-      </c>
-      <c r="S241" s="7">
-        <v>89.643</v>
-      </c>
-      <c r="T241" s="7">
-        <v>91.028</v>
-      </c>
-      <c r="U241" s="7">
-        <v>88.17</v>
-      </c>
-      <c r="V241" s="7">
-        <v>86.168</v>
-      </c>
-      <c r="W241" s="7">
-        <v>83.454</v>
-      </c>
-      <c r="X241" s="7">
-        <v>83.228</v>
-      </c>
-      <c r="Y241" s="7">
-        <v>84.385</v>
-      </c>
-      <c r="Z241" s="7">
-        <v>82.654</v>
-      </c>
-      <c r="AA241" s="7">
-        <v>81.98</v>
-      </c>
-      <c r="AB241" s="7">
-        <v>80.111</v>
-      </c>
-      <c r="AC241" s="7">
-        <v>79.028</v>
-      </c>
-      <c r="AD241" s="7">
-        <v>80.108</v>
-      </c>
-      <c r="AE241" s="7">
-        <v>76.891</v>
-      </c>
-      <c r="AF241" s="7">
-        <v>77.534</v>
-      </c>
-      <c r="AG241" s="7">
-        <v>72.043</v>
-      </c>
-      <c r="AH241" s="7">
-        <v>74.278</v>
-      </c>
-      <c r="AI241" s="7">
-        <v>72.4</v>
-      </c>
-      <c r="AJ241" s="7">
-        <v>73.219</v>
-      </c>
-      <c r="AK241" s="7">
-        <v>74.576</v>
-      </c>
       <c r="AL241" s="7">
-        <v>71.347</v>
+        <v>15.891</v>
       </c>
       <c r="AM241" s="7">
-        <v>72.008</v>
+        <v>15.089</v>
       </c>
       <c r="AN241" s="7">
-        <v>71.646</v>
+        <v>14.762</v>
       </c>
       <c r="AO241" s="7">
-        <v>70.443</v>
+        <v>14.347</v>
       </c>
       <c r="AP241" s="7">
-        <v>68.098</v>
+        <v>14.033</v>
       </c>
       <c r="AQ241" s="7">
-        <v>63.722</v>
+        <v>13.961</v>
       </c>
       <c r="AR241" s="7">
-        <v>58.527</v>
+        <v>14.199</v>
       </c>
       <c r="AS241" s="7">
-        <v>60.798</v>
+        <v>13.29</v>
       </c>
       <c r="AT241" s="7">
-        <v>59.789</v>
+        <v>12.479</v>
       </c>
       <c r="AU241" s="7">
-        <v>53.659</v>
+        <v>11.657</v>
       </c>
       <c r="BC241" s="4" t="inlineStr">
         <is>
@@ -49574,19 +49478,19 @@
       </c>
       <c r="CP241" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01_Ib01</t>
+          <t>Z12_B04_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="242">
       <c r="A242" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01_D001</t>
+          <t>Z13_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B242" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01_I01</t>
+          <t>Z13_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C242" s="4" t="inlineStr">
@@ -49621,7 +49525,7 @@
       </c>
       <c r="I242" s="4" t="inlineStr">
         <is>
-          <t>E_BNEUR</t>
+          <t>E_IDX_1990</t>
         </is>
       </c>
       <c r="K242" s="6" t="b">
@@ -49633,44 +49537,110 @@
       <c r="M242" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N242" s="7">
+        <v>100</v>
+      </c>
+      <c r="O242" s="7">
+        <v>96.341</v>
+      </c>
+      <c r="P242" s="7">
+        <v>92.389</v>
+      </c>
+      <c r="Q242" s="7">
+        <v>91.658</v>
+      </c>
+      <c r="R242" s="7">
+        <v>90.199</v>
+      </c>
+      <c r="S242" s="7">
+        <v>89.643</v>
+      </c>
+      <c r="T242" s="7">
+        <v>91.028</v>
+      </c>
+      <c r="U242" s="7">
+        <v>88.17</v>
+      </c>
+      <c r="V242" s="7">
+        <v>86.168</v>
+      </c>
+      <c r="W242" s="7">
+        <v>83.454</v>
+      </c>
+      <c r="X242" s="7">
+        <v>83.228</v>
+      </c>
+      <c r="Y242" s="7">
+        <v>84.385</v>
+      </c>
+      <c r="Z242" s="7">
+        <v>82.654</v>
+      </c>
+      <c r="AA242" s="7">
+        <v>81.98</v>
+      </c>
+      <c r="AB242" s="7">
+        <v>80.111</v>
+      </c>
+      <c r="AC242" s="7">
+        <v>79.028</v>
+      </c>
+      <c r="AD242" s="7">
+        <v>80.108</v>
+      </c>
+      <c r="AE242" s="7">
+        <v>76.891</v>
+      </c>
+      <c r="AF242" s="7">
+        <v>77.534</v>
+      </c>
+      <c r="AG242" s="7">
+        <v>72.043</v>
+      </c>
+      <c r="AH242" s="7">
+        <v>74.278</v>
+      </c>
       <c r="AI242" s="7">
-        <v>1.56</v>
+        <v>72.4</v>
       </c>
       <c r="AJ242" s="7">
-        <v>1.66</v>
+        <v>73.219</v>
       </c>
       <c r="AK242" s="7">
-        <v>1.95</v>
+        <v>74.576</v>
       </c>
       <c r="AL242" s="7">
-        <v>2.34</v>
+        <v>71.347</v>
       </c>
       <c r="AM242" s="7">
-        <v>2.684</v>
+        <v>72.008</v>
       </c>
       <c r="AN242" s="7">
-        <v>3.362</v>
+        <v>71.646</v>
       </c>
       <c r="AO242" s="7">
-        <v>3.65</v>
+        <v>70.443</v>
       </c>
       <c r="AP242" s="7">
-        <v>3.37</v>
+        <v>68.098</v>
       </c>
       <c r="AQ242" s="7">
-        <v>4.34</v>
+        <v>63.722</v>
       </c>
       <c r="AR242" s="7">
-        <v>5.09</v>
+        <v>58.527</v>
       </c>
       <c r="AS242" s="7">
-        <v>5.34</v>
+        <v>60.798</v>
       </c>
       <c r="AT242" s="7">
-        <v>6.39</v>
+        <v>59.789</v>
       </c>
       <c r="AU242" s="7">
-        <v>5.66</v>
+        <v>53.659</v>
+      </c>
+      <c r="AV242" s="7">
+        <v>51.821</v>
       </c>
       <c r="BC242" s="4" t="inlineStr">
         <is>
@@ -49774,19 +49744,19 @@
       </c>
       <c r="CP242" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02_Ib01</t>
+          <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="243">
       <c r="A243" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01_D001</t>
+          <t>Z13_B01_P02_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I01</t>
+          <t>Z13_B01_P02_Ib01_I01</t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
@@ -49821,7 +49791,7 @@
       </c>
       <c r="I243" s="4" t="inlineStr">
         <is>
-          <t>E_MILIGPL</t>
+          <t>E_BNEUR</t>
         </is>
       </c>
       <c r="K243" s="6" t="b">
@@ -49833,74 +49803,44 @@
       <c r="M243" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="W243" s="7">
-        <v>3.918</v>
-      </c>
-      <c r="X243" s="7">
-        <v>3.832</v>
-      </c>
-      <c r="Y243" s="7">
-        <v>3.958</v>
-      </c>
-      <c r="Z243" s="7">
-        <v>4.182</v>
-      </c>
-      <c r="AA243" s="7">
-        <v>3.741</v>
-      </c>
-      <c r="AB243" s="7">
-        <v>3.582</v>
-      </c>
-      <c r="AC243" s="7">
-        <v>3.577</v>
-      </c>
-      <c r="AD243" s="7">
-        <v>3.515</v>
-      </c>
-      <c r="AE243" s="7">
-        <v>3.524</v>
-      </c>
-      <c r="AF243" s="7">
-        <v>3.686</v>
-      </c>
-      <c r="AG243" s="7">
-        <v>3.602</v>
-      </c>
-      <c r="AH243" s="7">
-        <v>3.754</v>
-      </c>
       <c r="AI243" s="7">
-        <v>3.785</v>
+        <v>1.56</v>
       </c>
       <c r="AJ243" s="7">
-        <v>3.447</v>
+        <v>1.66</v>
       </c>
       <c r="AK243" s="7">
-        <v>3.41</v>
+        <v>1.95</v>
       </c>
       <c r="AL243" s="7">
-        <v>3.352</v>
+        <v>2.34</v>
       </c>
       <c r="AM243" s="7">
-        <v>3.146</v>
+        <v>2.684</v>
       </c>
       <c r="AN243" s="7">
-        <v>2.954</v>
+        <v>3.362</v>
       </c>
       <c r="AO243" s="7">
-        <v>3.191</v>
+        <v>3.65</v>
       </c>
       <c r="AP243" s="7">
-        <v>3.145</v>
+        <v>3.37</v>
       </c>
       <c r="AQ243" s="7">
-        <v>3.17</v>
+        <v>4.34</v>
       </c>
       <c r="AR243" s="7">
-        <v>3.071</v>
+        <v>5.09</v>
       </c>
       <c r="AS243" s="7">
-        <v>3.196</v>
+        <v>5.34</v>
+      </c>
+      <c r="AT243" s="7">
+        <v>6.39</v>
+      </c>
+      <c r="AU243" s="7">
+        <v>5.66</v>
       </c>
       <c r="BC243" s="4" t="inlineStr">
         <is>
@@ -50004,19 +49944,19 @@
       </c>
       <c r="CP243" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01</t>
+          <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="244">
       <c r="A244" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02_D001</t>
+          <t>Z14_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B244" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib01_I02</t>
+          <t>Z14_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C244" s="4" t="inlineStr">
@@ -50064,73 +50004,73 @@
         <v>0</v>
       </c>
       <c r="W244" s="7">
-        <v>4.131</v>
+        <v>3.918</v>
       </c>
       <c r="X244" s="7">
-        <v>4.022</v>
+        <v>3.832</v>
       </c>
       <c r="Y244" s="7">
-        <v>3.833</v>
+        <v>3.958</v>
       </c>
       <c r="Z244" s="7">
-        <v>3.76</v>
+        <v>4.182</v>
       </c>
       <c r="AA244" s="7">
-        <v>3.617</v>
+        <v>3.741</v>
       </c>
       <c r="AB244" s="7">
-        <v>3.583</v>
+        <v>3.582</v>
       </c>
       <c r="AC244" s="7">
-        <v>3.552</v>
+        <v>3.577</v>
       </c>
       <c r="AD244" s="7">
-        <v>3.558</v>
+        <v>3.515</v>
       </c>
       <c r="AE244" s="7">
-        <v>3.481</v>
+        <v>3.524</v>
       </c>
       <c r="AF244" s="7">
-        <v>3.446</v>
+        <v>3.686</v>
       </c>
       <c r="AG244" s="7">
-        <v>3.381</v>
+        <v>3.602</v>
       </c>
       <c r="AH244" s="7">
-        <v>3.385</v>
+        <v>3.754</v>
       </c>
       <c r="AI244" s="7">
-        <v>3.296</v>
+        <v>3.785</v>
       </c>
       <c r="AJ244" s="7">
-        <v>3.169</v>
+        <v>3.447</v>
       </c>
       <c r="AK244" s="7">
-        <v>3.157</v>
+        <v>3.41</v>
       </c>
       <c r="AL244" s="7">
-        <v>3.086</v>
+        <v>3.352</v>
       </c>
       <c r="AM244" s="7">
-        <v>2.978</v>
+        <v>3.146</v>
       </c>
       <c r="AN244" s="7">
-        <v>2.921</v>
+        <v>2.954</v>
       </c>
       <c r="AO244" s="7">
-        <v>2.975</v>
+        <v>3.191</v>
       </c>
       <c r="AP244" s="7">
-        <v>2.838</v>
+        <v>3.145</v>
       </c>
       <c r="AQ244" s="7">
-        <v>2.815</v>
+        <v>3.17</v>
       </c>
       <c r="AR244" s="7">
-        <v>2.756</v>
+        <v>3.071</v>
       </c>
       <c r="AS244" s="7">
-        <v>2.75</v>
+        <v>3.196</v>
       </c>
       <c r="BC244" s="4" t="inlineStr">
         <is>
@@ -50241,22 +50181,22 @@
     <row outlineLevel="0" r="245">
       <c r="A245" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01_D001</t>
+          <t>Z14_B01_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01</t>
+          <t>Z14_B01_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C245" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_COMMEXPL</t>
+          <t/>
         </is>
       </c>
       <c r="E245" s="4" t="inlineStr">
@@ -50281,7 +50221,7 @@
       </c>
       <c r="I245" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_MILIGPL</t>
         </is>
       </c>
       <c r="K245" s="6" t="b">
@@ -50293,65 +50233,74 @@
       <c r="M245" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="W245" s="7">
+        <v>4.131</v>
+      </c>
+      <c r="X245" s="7">
+        <v>4.022</v>
+      </c>
+      <c r="Y245" s="7">
+        <v>3.833</v>
+      </c>
+      <c r="Z245" s="7">
+        <v>3.76</v>
+      </c>
       <c r="AA245" s="7">
-        <v>33.333</v>
+        <v>3.617</v>
       </c>
       <c r="AB245" s="7">
-        <v>24.242</v>
+        <v>3.583</v>
       </c>
       <c r="AC245" s="7">
-        <v>24.242</v>
+        <v>3.552</v>
       </c>
       <c r="AD245" s="7">
-        <v>18.182</v>
+        <v>3.558</v>
       </c>
       <c r="AE245" s="7">
-        <v>24.242</v>
+        <v>3.481</v>
       </c>
       <c r="AF245" s="7">
-        <v>30.303</v>
+        <v>3.446</v>
       </c>
       <c r="AG245" s="7">
-        <v>30.303</v>
+        <v>3.381</v>
       </c>
       <c r="AH245" s="7">
-        <v>33.333</v>
+        <v>3.385</v>
       </c>
       <c r="AI245" s="7">
-        <v>45.455</v>
+        <v>3.296</v>
       </c>
       <c r="AJ245" s="7">
-        <v>45.455</v>
+        <v>3.169</v>
       </c>
       <c r="AK245" s="7">
-        <v>45.455</v>
+        <v>3.157</v>
       </c>
       <c r="AL245" s="7">
-        <v>36.364</v>
+        <v>3.086</v>
       </c>
       <c r="AM245" s="7">
-        <v>39.394</v>
+        <v>2.978</v>
       </c>
       <c r="AN245" s="7">
-        <v>48.485</v>
+        <v>2.921</v>
       </c>
       <c r="AO245" s="7">
-        <v>47.059</v>
+        <v>2.975</v>
       </c>
       <c r="AP245" s="7">
-        <v>50</v>
+        <v>2.838</v>
       </c>
       <c r="AQ245" s="7">
-        <v>44.118</v>
+        <v>2.815</v>
       </c>
       <c r="AR245" s="7">
-        <v>47.059</v>
+        <v>2.756</v>
       </c>
       <c r="AS245" s="7">
-        <v>58.824</v>
-      </c>
-      <c r="AT245" s="7">
-        <v>61.765</v>
+        <v>2.75</v>
       </c>
       <c r="BC245" s="4" t="inlineStr">
         <is>
@@ -50455,14 +50404,14 @@
       </c>
       <c r="CP245" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02</t>
+          <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="246">
       <c r="A246" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01_D002</t>
+          <t>Z14_B01_P01_Ib02_I01_D001</t>
         </is>
       </c>
       <c r="B246" s="4" t="inlineStr">
@@ -50482,12 +50431,12 @@
       </c>
       <c r="E246" s="4" t="inlineStr">
         <is>
-          <t>K_SEA</t>
+          <t/>
         </is>
       </c>
       <c r="F246" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_N</t>
+          <t/>
         </is>
       </c>
       <c r="G246" s="4" t="inlineStr">
@@ -50506,73 +50455,73 @@
         </is>
       </c>
       <c r="K246" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L246" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M246" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AA246" s="7">
-        <v>40</v>
+        <v>33.333</v>
       </c>
       <c r="AB246" s="7">
-        <v>28</v>
+        <v>24.242</v>
       </c>
       <c r="AC246" s="7">
-        <v>24</v>
+        <v>24.242</v>
       </c>
       <c r="AD246" s="7">
-        <v>20</v>
+        <v>18.182</v>
       </c>
       <c r="AE246" s="7">
-        <v>24</v>
+        <v>24.242</v>
       </c>
       <c r="AF246" s="7">
-        <v>32</v>
+        <v>30.303</v>
       </c>
       <c r="AG246" s="7">
-        <v>28</v>
+        <v>30.303</v>
       </c>
       <c r="AH246" s="7">
-        <v>32</v>
+        <v>33.333</v>
       </c>
       <c r="AI246" s="7">
-        <v>40</v>
+        <v>45.455</v>
       </c>
       <c r="AJ246" s="7">
-        <v>36</v>
+        <v>45.455</v>
       </c>
       <c r="AK246" s="7">
-        <v>40</v>
+        <v>45.455</v>
       </c>
       <c r="AL246" s="7">
-        <v>32</v>
+        <v>36.364</v>
       </c>
       <c r="AM246" s="7">
-        <v>40</v>
+        <v>39.394</v>
       </c>
       <c r="AN246" s="7">
-        <v>48</v>
+        <v>48.485</v>
       </c>
       <c r="AO246" s="7">
-        <v>42.308</v>
+        <v>47.059</v>
       </c>
       <c r="AP246" s="7">
         <v>50</v>
       </c>
       <c r="AQ246" s="7">
-        <v>38.462</v>
+        <v>44.118</v>
       </c>
       <c r="AR246" s="7">
-        <v>42.308</v>
+        <v>47.059</v>
       </c>
       <c r="AS246" s="7">
-        <v>57.692</v>
+        <v>58.824</v>
       </c>
       <c r="AT246" s="7">
-        <v>53.846</v>
+        <v>61.765</v>
       </c>
       <c r="BC246" s="4" t="inlineStr">
         <is>
@@ -50683,7 +50632,7 @@
     <row outlineLevel="0" r="247">
       <c r="A247" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01_D003</t>
+          <t>Z14_B01_P01_Ib02_I01_D002</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
@@ -50708,7 +50657,7 @@
       </c>
       <c r="F247" s="4" t="inlineStr">
         <is>
-          <t>A_SEA_B</t>
+          <t>A_SEA_N</t>
         </is>
       </c>
       <c r="G247" s="4" t="inlineStr">
@@ -50736,64 +50685,64 @@
         <v>0</v>
       </c>
       <c r="AA247" s="7">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AB247" s="7">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AC247" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD247" s="7">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AE247" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF247" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG247" s="7">
-        <v>37.5</v>
+        <v>28</v>
       </c>
       <c r="AH247" s="7">
-        <v>37.5</v>
+        <v>32</v>
       </c>
       <c r="AI247" s="7">
-        <v>62.5</v>
+        <v>40</v>
       </c>
       <c r="AJ247" s="7">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AK247" s="7">
-        <v>62.5</v>
+        <v>40</v>
       </c>
       <c r="AL247" s="7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM247" s="7">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="AN247" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO247" s="7">
-        <v>62.5</v>
+        <v>42.308</v>
       </c>
       <c r="AP247" s="7">
         <v>50</v>
       </c>
       <c r="AQ247" s="7">
-        <v>62.5</v>
+        <v>38.462</v>
       </c>
       <c r="AR247" s="7">
-        <v>62.5</v>
+        <v>42.308</v>
       </c>
       <c r="AS247" s="7">
-        <v>62.5</v>
+        <v>57.692</v>
       </c>
       <c r="AT247" s="7">
-        <v>87.5</v>
+        <v>53.846</v>
       </c>
       <c r="BC247" s="4" t="inlineStr">
         <is>
@@ -50904,7 +50853,7 @@
     <row outlineLevel="0" r="248">
       <c r="A248" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01_Ib02_I01_D004</t>
+          <t>Z14_B01_P01_Ib02_I01_D003</t>
         </is>
       </c>
       <c r="B248" s="4" t="inlineStr">
@@ -50919,17 +50868,17 @@
       </c>
       <c r="D248" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_MSYEXAMINED</t>
+          <t>A_SERIES_COMMEXPL</t>
         </is>
       </c>
       <c r="E248" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEA</t>
         </is>
       </c>
       <c r="F248" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEA_B</t>
         </is>
       </c>
       <c r="G248" s="4" t="inlineStr">
@@ -50957,64 +50906,64 @@
         <v>0</v>
       </c>
       <c r="AA248" s="7">
-        <v>42.308</v>
+        <v>12.5</v>
       </c>
       <c r="AB248" s="7">
-        <v>42.308</v>
+        <v>12.5</v>
       </c>
       <c r="AC248" s="7">
-        <v>42.308</v>
+        <v>25</v>
       </c>
       <c r="AD248" s="7">
-        <v>42.308</v>
+        <v>12.5</v>
       </c>
       <c r="AE248" s="7">
-        <v>42.308</v>
+        <v>25</v>
       </c>
       <c r="AF248" s="7">
-        <v>42.308</v>
+        <v>25</v>
       </c>
       <c r="AG248" s="7">
-        <v>42.308</v>
+        <v>37.5</v>
       </c>
       <c r="AH248" s="7">
-        <v>42.308</v>
+        <v>37.5</v>
       </c>
       <c r="AI248" s="7">
-        <v>42.308</v>
+        <v>62.5</v>
       </c>
       <c r="AJ248" s="7">
-        <v>42.308</v>
+        <v>75</v>
       </c>
       <c r="AK248" s="7">
-        <v>42.308</v>
+        <v>62.5</v>
       </c>
       <c r="AL248" s="7">
-        <v>42.308</v>
+        <v>50</v>
       </c>
       <c r="AM248" s="7">
-        <v>42.308</v>
+        <v>37.5</v>
       </c>
       <c r="AN248" s="7">
-        <v>42.308</v>
+        <v>50</v>
       </c>
       <c r="AO248" s="7">
-        <v>43.59</v>
+        <v>62.5</v>
       </c>
       <c r="AP248" s="7">
-        <v>43.59</v>
+        <v>50</v>
       </c>
       <c r="AQ248" s="7">
-        <v>43.59</v>
+        <v>62.5</v>
       </c>
       <c r="AR248" s="7">
-        <v>43.59</v>
+        <v>62.5</v>
       </c>
       <c r="AS248" s="7">
-        <v>43.59</v>
+        <v>62.5</v>
       </c>
       <c r="AT248" s="7">
-        <v>43.59</v>
+        <v>87.5</v>
       </c>
       <c r="BC248" s="4" t="inlineStr">
         <is>
@@ -51125,22 +51074,22 @@
     <row outlineLevel="0" r="249">
       <c r="A249" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D001</t>
+          <t>Z14_B01_P01_Ib02_I01_D004</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01</t>
+          <t>Z14_B01_P01_Ib02_I01</t>
         </is>
       </c>
       <c r="C249" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_MSYEXAMINED</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
@@ -51165,107 +51114,77 @@
       </c>
       <c r="I249" s="4" t="inlineStr">
         <is>
-          <t>E_IDX_2030</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K249" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L249" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M249" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N249" s="7">
-        <v>136.263</v>
-      </c>
-      <c r="O249" s="7">
-        <v>127.755</v>
-      </c>
-      <c r="P249" s="7">
-        <v>119.916</v>
-      </c>
-      <c r="Q249" s="7">
-        <v>126.218</v>
-      </c>
-      <c r="R249" s="7">
-        <v>126.751</v>
-      </c>
-      <c r="S249" s="7">
-        <v>113.45</v>
-      </c>
-      <c r="T249" s="7">
-        <v>119.46</v>
-      </c>
-      <c r="U249" s="7">
-        <v>108.517</v>
-      </c>
-      <c r="V249" s="7">
-        <v>102.154</v>
-      </c>
-      <c r="W249" s="7">
-        <v>108.982</v>
-      </c>
-      <c r="X249" s="7">
-        <v>101.831</v>
-      </c>
-      <c r="Y249" s="7">
-        <v>99.816</v>
-      </c>
-      <c r="Z249" s="7">
-        <v>93.221</v>
-      </c>
       <c r="AA249" s="7">
-        <v>89.021</v>
+        <v>42.308</v>
       </c>
       <c r="AB249" s="7">
-        <v>92.82</v>
+        <v>42.308</v>
       </c>
       <c r="AC249" s="7">
-        <v>91.002</v>
+        <v>42.308</v>
       </c>
       <c r="AD249" s="7">
-        <v>86.532</v>
+        <v>42.308</v>
       </c>
       <c r="AE249" s="7">
-        <v>87.294</v>
+        <v>42.308</v>
       </c>
       <c r="AF249" s="7">
-        <v>88.442</v>
+        <v>42.308</v>
       </c>
       <c r="AG249" s="7">
-        <v>82.514</v>
+        <v>42.308</v>
       </c>
       <c r="AH249" s="7">
-        <v>79.533</v>
+        <v>42.308</v>
       </c>
       <c r="AI249" s="7">
-        <v>77.341</v>
+        <v>42.308</v>
       </c>
       <c r="AJ249" s="7">
-        <v>80.342</v>
+        <v>42.308</v>
       </c>
       <c r="AK249" s="7">
-        <v>76.917</v>
+        <v>42.308</v>
       </c>
       <c r="AL249" s="7">
-        <v>75.893</v>
+        <v>42.308</v>
       </c>
       <c r="AM249" s="7">
-        <v>79.976</v>
+        <v>42.308</v>
       </c>
       <c r="AN249" s="7">
-        <v>79.954</v>
+        <v>42.308</v>
       </c>
       <c r="AO249" s="7">
-        <v>75.555</v>
+        <v>43.59</v>
       </c>
       <c r="AP249" s="7">
-        <v>73.664</v>
+        <v>43.59</v>
       </c>
       <c r="AQ249" s="7">
-        <v>75.343</v>
+        <v>43.59</v>
+      </c>
+      <c r="AR249" s="7">
+        <v>43.59</v>
+      </c>
+      <c r="AS249" s="7">
+        <v>43.59</v>
+      </c>
+      <c r="AT249" s="7">
+        <v>43.59</v>
       </c>
       <c r="BC249" s="4" t="inlineStr">
         <is>
@@ -51369,14 +51288,14 @@
       </c>
       <c r="CP249" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01</t>
+          <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="250">
       <c r="A250" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D002</t>
+          <t>Z15_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B250" s="4" t="inlineStr">
@@ -51386,12 +51305,12 @@
       </c>
       <c r="C250" s="4" t="inlineStr">
         <is>
-          <t>K_SUBINDEX</t>
+          <t/>
         </is>
       </c>
       <c r="D250" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FOREST</t>
+          <t/>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
@@ -51420,103 +51339,103 @@
         </is>
       </c>
       <c r="K250" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L250" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M250" s="6" t="b">
         <v>0</v>
       </c>
       <c r="N250" s="7">
-        <v>93.091</v>
+        <v>136.263</v>
       </c>
       <c r="O250" s="7">
-        <v>85.588</v>
+        <v>127.755</v>
       </c>
       <c r="P250" s="7">
-        <v>82.071</v>
+        <v>119.916</v>
       </c>
       <c r="Q250" s="7">
-        <v>82.621</v>
+        <v>126.218</v>
       </c>
       <c r="R250" s="7">
-        <v>83.248</v>
+        <v>126.751</v>
       </c>
       <c r="S250" s="7">
-        <v>73.519</v>
+        <v>113.45</v>
       </c>
       <c r="T250" s="7">
-        <v>80.348</v>
+        <v>119.46</v>
       </c>
       <c r="U250" s="7">
-        <v>80.014</v>
+        <v>108.517</v>
       </c>
       <c r="V250" s="7">
-        <v>72.826</v>
+        <v>102.154</v>
       </c>
       <c r="W250" s="7">
-        <v>77.245</v>
+        <v>108.982</v>
       </c>
       <c r="X250" s="7">
-        <v>74.171</v>
+        <v>101.831</v>
       </c>
       <c r="Y250" s="7">
-        <v>74.499</v>
+        <v>99.816</v>
       </c>
       <c r="Z250" s="7">
-        <v>71.959</v>
+        <v>93.221</v>
       </c>
       <c r="AA250" s="7">
-        <v>72.261</v>
+        <v>89.021</v>
       </c>
       <c r="AB250" s="7">
-        <v>73.984</v>
+        <v>92.82</v>
       </c>
       <c r="AC250" s="7">
-        <v>74.393</v>
+        <v>91.002</v>
       </c>
       <c r="AD250" s="7">
-        <v>75.605</v>
+        <v>86.532</v>
       </c>
       <c r="AE250" s="7">
-        <v>71.83</v>
+        <v>87.294</v>
       </c>
       <c r="AF250" s="7">
-        <v>78.006</v>
+        <v>88.442</v>
       </c>
       <c r="AG250" s="7">
-        <v>70.084</v>
+        <v>82.514</v>
       </c>
       <c r="AH250" s="7">
-        <v>76.674</v>
+        <v>79.533</v>
       </c>
       <c r="AI250" s="7">
-        <v>75.961</v>
+        <v>77.341</v>
       </c>
       <c r="AJ250" s="7">
-        <v>83.793</v>
+        <v>80.342</v>
       </c>
       <c r="AK250" s="7">
-        <v>81.828</v>
+        <v>76.917</v>
       </c>
       <c r="AL250" s="7">
-        <v>77.085</v>
+        <v>75.893</v>
       </c>
       <c r="AM250" s="7">
-        <v>82.96</v>
+        <v>79.976</v>
       </c>
       <c r="AN250" s="7">
-        <v>80.307</v>
+        <v>79.954</v>
       </c>
       <c r="AO250" s="7">
-        <v>79.886</v>
+        <v>75.555</v>
       </c>
       <c r="AP250" s="7">
-        <v>78.388</v>
+        <v>73.664</v>
       </c>
       <c r="AQ250" s="7">
-        <v>80.942</v>
+        <v>75.343</v>
       </c>
       <c r="BC250" s="4" t="inlineStr">
         <is>
@@ -51627,7 +51546,7 @@
     <row outlineLevel="0" r="251">
       <c r="A251" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D003</t>
+          <t>Z15_B01_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
@@ -51642,7 +51561,7 @@
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_SETTLEMNT</t>
+          <t>A_SUBINDEX_FOREST</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
@@ -51680,94 +51599,94 @@
         <v>0</v>
       </c>
       <c r="N251" s="7">
-        <v>93.241</v>
+        <v>93.091</v>
       </c>
       <c r="O251" s="7">
-        <v>87.239</v>
+        <v>85.588</v>
       </c>
       <c r="P251" s="7">
-        <v>83.472</v>
+        <v>82.071</v>
       </c>
       <c r="Q251" s="7">
-        <v>91.762</v>
+        <v>82.621</v>
       </c>
       <c r="R251" s="7">
-        <v>87.149</v>
+        <v>83.248</v>
       </c>
       <c r="S251" s="7">
-        <v>92.875</v>
+        <v>73.519</v>
       </c>
       <c r="T251" s="7">
-        <v>104.822</v>
+        <v>80.348</v>
       </c>
       <c r="U251" s="7">
-        <v>96.197</v>
+        <v>80.014</v>
       </c>
       <c r="V251" s="7">
-        <v>93.287</v>
+        <v>72.826</v>
       </c>
       <c r="W251" s="7">
-        <v>90.942</v>
+        <v>77.245</v>
       </c>
       <c r="X251" s="7">
-        <v>85.785</v>
+        <v>74.171</v>
       </c>
       <c r="Y251" s="7">
-        <v>83.764</v>
+        <v>74.499</v>
       </c>
       <c r="Z251" s="7">
-        <v>76.126</v>
+        <v>71.959</v>
       </c>
       <c r="AA251" s="7">
-        <v>72.063</v>
+        <v>72.261</v>
       </c>
       <c r="AB251" s="7">
-        <v>80.454</v>
+        <v>73.984</v>
       </c>
       <c r="AC251" s="7">
-        <v>76.663</v>
+        <v>74.393</v>
       </c>
       <c r="AD251" s="7">
-        <v>74.543</v>
+        <v>75.605</v>
       </c>
       <c r="AE251" s="7">
-        <v>76.435</v>
+        <v>71.83</v>
       </c>
       <c r="AF251" s="7">
-        <v>69.799</v>
+        <v>78.006</v>
       </c>
       <c r="AG251" s="7">
-        <v>71.961</v>
+        <v>70.084</v>
       </c>
       <c r="AH251" s="7">
-        <v>73.897</v>
+        <v>76.674</v>
       </c>
       <c r="AI251" s="7">
-        <v>80.694</v>
+        <v>75.961</v>
       </c>
       <c r="AJ251" s="7">
-        <v>78.344</v>
+        <v>83.793</v>
       </c>
       <c r="AK251" s="7">
-        <v>75.87</v>
+        <v>81.828</v>
       </c>
       <c r="AL251" s="7">
-        <v>77.492</v>
+        <v>77.085</v>
       </c>
       <c r="AM251" s="7">
-        <v>78.863</v>
+        <v>82.96</v>
       </c>
       <c r="AN251" s="7">
-        <v>81.23</v>
+        <v>80.307</v>
       </c>
       <c r="AO251" s="7">
-        <v>81.395</v>
+        <v>79.886</v>
       </c>
       <c r="AP251" s="7">
-        <v>78.902</v>
+        <v>78.388</v>
       </c>
       <c r="AQ251" s="7">
-        <v>80.262</v>
+        <v>80.942</v>
       </c>
       <c r="BC251" s="4" t="inlineStr">
         <is>
@@ -51878,7 +51797,7 @@
     <row outlineLevel="0" r="252">
       <c r="A252" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D004</t>
+          <t>Z15_B01_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B252" s="4" t="inlineStr">
@@ -51893,7 +51812,7 @@
       </c>
       <c r="D252" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_FARMLAND</t>
+          <t>A_SUBINDEX_SETTLEMNT</t>
         </is>
       </c>
       <c r="E252" s="4" t="inlineStr">
@@ -51931,94 +51850,94 @@
         <v>0</v>
       </c>
       <c r="N252" s="7">
-        <v>183.023</v>
+        <v>93.241</v>
       </c>
       <c r="O252" s="7">
-        <v>174.228</v>
+        <v>87.239</v>
       </c>
       <c r="P252" s="7">
-        <v>161.626</v>
+        <v>83.472</v>
       </c>
       <c r="Q252" s="7">
-        <v>171.814</v>
+        <v>91.762</v>
       </c>
       <c r="R252" s="7">
-        <v>172.437</v>
+        <v>87.149</v>
       </c>
       <c r="S252" s="7">
-        <v>149.018</v>
+        <v>92.875</v>
       </c>
       <c r="T252" s="7">
-        <v>155.384</v>
+        <v>104.822</v>
       </c>
       <c r="U252" s="7">
-        <v>136.613</v>
+        <v>96.197</v>
       </c>
       <c r="V252" s="7">
-        <v>128.139</v>
+        <v>93.287</v>
       </c>
       <c r="W252" s="7">
-        <v>138.234</v>
+        <v>90.942</v>
       </c>
       <c r="X252" s="7">
-        <v>127.657</v>
+        <v>85.785</v>
       </c>
       <c r="Y252" s="7">
-        <v>121.82</v>
+        <v>83.764</v>
       </c>
       <c r="Z252" s="7">
-        <v>112.012</v>
+        <v>76.126</v>
       </c>
       <c r="AA252" s="7">
-        <v>104.203</v>
+        <v>72.063</v>
       </c>
       <c r="AB252" s="7">
-        <v>108.229</v>
+        <v>80.454</v>
       </c>
       <c r="AC252" s="7">
-        <v>106.132</v>
+        <v>76.663</v>
       </c>
       <c r="AD252" s="7">
-        <v>97.626</v>
+        <v>74.543</v>
       </c>
       <c r="AE252" s="7">
-        <v>98.24</v>
+        <v>76.435</v>
       </c>
       <c r="AF252" s="7">
-        <v>98.093</v>
+        <v>69.799</v>
       </c>
       <c r="AG252" s="7">
-        <v>92.29</v>
+        <v>71.961</v>
       </c>
       <c r="AH252" s="7">
-        <v>82.998</v>
+        <v>73.897</v>
       </c>
       <c r="AI252" s="7">
-        <v>76.914</v>
+        <v>80.694</v>
       </c>
       <c r="AJ252" s="7">
-        <v>78.849</v>
+        <v>78.344</v>
       </c>
       <c r="AK252" s="7">
-        <v>73.706</v>
+        <v>75.87</v>
       </c>
       <c r="AL252" s="7">
-        <v>73.317</v>
+        <v>77.492</v>
       </c>
       <c r="AM252" s="7">
-        <v>77.665</v>
+        <v>78.863</v>
       </c>
       <c r="AN252" s="7">
-        <v>77.989</v>
+        <v>81.23</v>
       </c>
       <c r="AO252" s="7">
-        <v>70.006</v>
+        <v>81.395</v>
       </c>
       <c r="AP252" s="7">
-        <v>68.249</v>
+        <v>78.902</v>
       </c>
       <c r="AQ252" s="7">
-        <v>69.854</v>
+        <v>80.262</v>
       </c>
       <c r="BC252" s="4" t="inlineStr">
         <is>
@@ -52129,7 +52048,7 @@
     <row outlineLevel="0" r="253">
       <c r="A253" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D005</t>
+          <t>Z15_B01_P01_Ib01_I01_D004</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
@@ -52144,7 +52063,7 @@
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_WATERS</t>
+          <t>A_SUBINDEX_FARMLAND</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
@@ -52182,94 +52101,94 @@
         <v>0</v>
       </c>
       <c r="N253" s="7">
-        <v>85.274</v>
+        <v>183.023</v>
       </c>
       <c r="O253" s="7">
-        <v>71.432</v>
+        <v>174.228</v>
       </c>
       <c r="P253" s="7">
-        <v>69.485</v>
+        <v>161.626</v>
       </c>
       <c r="Q253" s="7">
-        <v>70.155</v>
+        <v>171.814</v>
       </c>
       <c r="R253" s="7">
-        <v>77.507</v>
+        <v>172.437</v>
       </c>
       <c r="S253" s="7">
-        <v>79.066</v>
+        <v>149.018</v>
       </c>
       <c r="T253" s="7">
-        <v>71.816</v>
+        <v>155.384</v>
       </c>
       <c r="U253" s="7">
-        <v>65.963</v>
+        <v>136.613</v>
       </c>
       <c r="V253" s="7">
-        <v>68.413</v>
+        <v>128.139</v>
       </c>
       <c r="W253" s="7">
-        <v>78.883</v>
+        <v>138.234</v>
       </c>
       <c r="X253" s="7">
-        <v>74.293</v>
+        <v>127.657</v>
       </c>
       <c r="Y253" s="7">
-        <v>85.388</v>
+        <v>121.82</v>
       </c>
       <c r="Z253" s="7">
-        <v>84.779</v>
+        <v>112.012</v>
       </c>
       <c r="AA253" s="7">
-        <v>85.529</v>
+        <v>104.203</v>
       </c>
       <c r="AB253" s="7">
-        <v>87.869</v>
+        <v>108.229</v>
       </c>
       <c r="AC253" s="7">
-        <v>83.447</v>
+        <v>106.132</v>
       </c>
       <c r="AD253" s="7">
-        <v>79.224</v>
+        <v>97.626</v>
       </c>
       <c r="AE253" s="7">
-        <v>93.401</v>
+        <v>98.24</v>
       </c>
       <c r="AF253" s="7">
-        <v>97.148</v>
+        <v>98.093</v>
       </c>
       <c r="AG253" s="7">
-        <v>84.889</v>
+        <v>92.29</v>
       </c>
       <c r="AH253" s="7">
-        <v>78.303</v>
+        <v>82.998</v>
       </c>
       <c r="AI253" s="7">
-        <v>79.024</v>
+        <v>76.914</v>
       </c>
       <c r="AJ253" s="7">
-        <v>80.419</v>
+        <v>78.849</v>
       </c>
       <c r="AK253" s="7">
-        <v>80.194</v>
+        <v>73.706</v>
       </c>
       <c r="AL253" s="7">
-        <v>83.581</v>
+        <v>73.317</v>
       </c>
       <c r="AM253" s="7">
-        <v>84.605</v>
+        <v>77.665</v>
       </c>
       <c r="AN253" s="7">
-        <v>87.489</v>
+        <v>77.989</v>
       </c>
       <c r="AO253" s="7">
-        <v>83.014</v>
+        <v>70.006</v>
       </c>
       <c r="AP253" s="7">
-        <v>80.063</v>
+        <v>68.249</v>
       </c>
       <c r="AQ253" s="7">
-        <v>79.856</v>
+        <v>69.854</v>
       </c>
       <c r="BC253" s="4" t="inlineStr">
         <is>
@@ -52380,7 +52299,7 @@
     <row outlineLevel="0" r="254">
       <c r="A254" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01_Ib01_I01_D006</t>
+          <t>Z15_B01_P01_Ib01_I01_D005</t>
         </is>
       </c>
       <c r="B254" s="4" t="inlineStr">
@@ -52395,7 +52314,7 @@
       </c>
       <c r="D254" s="4" t="inlineStr">
         <is>
-          <t>A_SUBINDEX_COAST</t>
+          <t>A_SUBINDEX_WATERS</t>
         </is>
       </c>
       <c r="E254" s="4" t="inlineStr">
@@ -52433,91 +52352,94 @@
         <v>0</v>
       </c>
       <c r="N254" s="7">
-        <v>85.916</v>
+        <v>85.274</v>
       </c>
       <c r="O254" s="7">
-        <v>90.028</v>
+        <v>71.432</v>
       </c>
       <c r="P254" s="7">
-        <v>111.2</v>
+        <v>69.485</v>
       </c>
       <c r="Q254" s="7">
-        <v>99.726</v>
+        <v>70.155</v>
       </c>
       <c r="R254" s="7">
-        <v>113.608</v>
+        <v>77.507</v>
       </c>
       <c r="S254" s="7">
-        <v>116.409</v>
+        <v>79.066</v>
       </c>
       <c r="T254" s="7">
-        <v>100.1</v>
+        <v>71.816</v>
       </c>
       <c r="U254" s="7">
-        <v>105.099</v>
+        <v>65.963</v>
       </c>
       <c r="V254" s="7">
-        <v>109.743</v>
+        <v>68.413</v>
       </c>
       <c r="W254" s="7">
-        <v>109.177</v>
+        <v>78.883</v>
       </c>
       <c r="X254" s="7">
-        <v>111.739</v>
+        <v>74.293</v>
       </c>
       <c r="Y254" s="7">
-        <v>115.139</v>
+        <v>85.388</v>
       </c>
       <c r="Z254" s="7">
-        <v>107.665</v>
+        <v>84.779</v>
       </c>
       <c r="AA254" s="7">
-        <v>107.229</v>
+        <v>85.529</v>
       </c>
       <c r="AB254" s="7">
-        <v>96.337</v>
+        <v>87.869</v>
       </c>
       <c r="AC254" s="7">
-        <v>94.49</v>
+        <v>83.447</v>
       </c>
       <c r="AD254" s="7">
-        <v>94.579</v>
+        <v>79.224</v>
       </c>
       <c r="AE254" s="7">
-        <v>95.955</v>
+        <v>93.401</v>
       </c>
       <c r="AF254" s="7">
-        <v>91.275</v>
+        <v>97.148</v>
       </c>
       <c r="AG254" s="7">
-        <v>82.846</v>
+        <v>84.889</v>
       </c>
       <c r="AH254" s="7">
-        <v>82.839</v>
+        <v>78.303</v>
       </c>
       <c r="AI254" s="7">
-        <v>85.591</v>
+        <v>79.024</v>
       </c>
       <c r="AJ254" s="7">
-        <v>83.182</v>
+        <v>80.419</v>
       </c>
       <c r="AK254" s="7">
-        <v>81.026</v>
+        <v>80.194</v>
       </c>
       <c r="AL254" s="7">
-        <v>83.91</v>
+        <v>83.581</v>
       </c>
       <c r="AM254" s="7">
-        <v>81.405</v>
+        <v>84.605</v>
       </c>
       <c r="AN254" s="7">
-        <v>87.558</v>
+        <v>87.489</v>
       </c>
       <c r="AO254" s="7">
-        <v>81.979</v>
+        <v>83.014</v>
       </c>
       <c r="AP254" s="7">
-        <v>77.614</v>
+        <v>80.063</v>
+      </c>
+      <c r="AQ254" s="7">
+        <v>79.856</v>
       </c>
       <c r="BC254" s="4" t="inlineStr">
         <is>
@@ -52628,22 +52550,22 @@
     <row outlineLevel="0" r="255">
       <c r="A255" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01_D001</t>
+          <t>Z15_B01_P01_Ib01_I01_D006</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01_I01</t>
+          <t>Z15_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C255" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SUBINDEX</t>
         </is>
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SUBINDEX_COAST</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
@@ -52668,41 +52590,104 @@
       </c>
       <c r="I255" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_IDX_2030</t>
         </is>
       </c>
       <c r="K255" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L255" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M255" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N255" s="7">
+        <v>85.916</v>
+      </c>
+      <c r="O255" s="7">
+        <v>90.028</v>
+      </c>
+      <c r="P255" s="7">
+        <v>111.2</v>
+      </c>
+      <c r="Q255" s="7">
+        <v>99.726</v>
+      </c>
+      <c r="R255" s="7">
+        <v>113.608</v>
+      </c>
+      <c r="S255" s="7">
+        <v>116.409</v>
+      </c>
+      <c r="T255" s="7">
+        <v>100.1</v>
+      </c>
+      <c r="U255" s="7">
+        <v>105.099</v>
+      </c>
+      <c r="V255" s="7">
+        <v>109.743</v>
+      </c>
+      <c r="W255" s="7">
+        <v>109.177</v>
+      </c>
       <c r="X255" s="7">
-        <v>84.377</v>
+        <v>111.739</v>
+      </c>
+      <c r="Y255" s="7">
+        <v>115.139</v>
+      </c>
+      <c r="Z255" s="7">
+        <v>107.665</v>
+      </c>
+      <c r="AA255" s="7">
+        <v>107.229</v>
+      </c>
+      <c r="AB255" s="7">
+        <v>96.337</v>
       </c>
       <c r="AC255" s="7">
-        <v>79.447</v>
+        <v>94.49</v>
+      </c>
+      <c r="AD255" s="7">
+        <v>94.579</v>
+      </c>
+      <c r="AE255" s="7">
+        <v>95.955</v>
+      </c>
+      <c r="AF255" s="7">
+        <v>91.275</v>
+      </c>
+      <c r="AG255" s="7">
+        <v>82.846</v>
       </c>
       <c r="AH255" s="7">
-        <v>75.752</v>
+        <v>82.839</v>
+      </c>
+      <c r="AI255" s="7">
+        <v>85.591</v>
+      </c>
+      <c r="AJ255" s="7">
+        <v>83.182</v>
+      </c>
+      <c r="AK255" s="7">
+        <v>81.026</v>
+      </c>
+      <c r="AL255" s="7">
+        <v>83.91</v>
       </c>
       <c r="AM255" s="7">
-        <v>68.677</v>
+        <v>81.405</v>
       </c>
       <c r="AN255" s="7">
-        <v>71.592</v>
+        <v>87.558</v>
       </c>
       <c r="AO255" s="7">
-        <v>71.334</v>
+        <v>81.979</v>
       </c>
       <c r="AP255" s="7">
-        <v>68.811</v>
-      </c>
-      <c r="AQ255" s="7">
-        <v>68.513</v>
+        <v>77.614</v>
       </c>
       <c r="BC255" s="4" t="inlineStr">
         <is>
@@ -52806,19 +52791,19 @@
       </c>
       <c r="CP255" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01_Ib01</t>
+          <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="256">
       <c r="A256" s="4" t="inlineStr">
         <is>
-          <t>Z15_B03_P01_Ib01_I01_D001</t>
+          <t>Z15_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B256" s="4" t="inlineStr">
         <is>
-          <t>Z15_B03_P01_Ib01_I01</t>
+          <t>Z15_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C256" s="4" t="inlineStr">
@@ -52857,28 +52842,37 @@
         </is>
       </c>
       <c r="K256" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M256" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AD256" s="7">
-        <v>4.18</v>
-      </c>
-      <c r="AG256" s="7">
-        <v>4.23</v>
-      </c>
-      <c r="AJ256" s="7">
-        <v>4.29</v>
+      <c r="X256" s="7">
+        <v>84.377</v>
+      </c>
+      <c r="AC256" s="7">
+        <v>79.447</v>
+      </c>
+      <c r="AH256" s="7">
+        <v>75.752</v>
       </c>
       <c r="AM256" s="7">
-        <v>4.31</v>
+        <v>68.677</v>
+      </c>
+      <c r="AN256" s="7">
+        <v>71.592</v>
+      </c>
+      <c r="AO256" s="7">
+        <v>71.334</v>
       </c>
       <c r="AP256" s="7">
-        <v>5.19</v>
+        <v>68.811</v>
+      </c>
+      <c r="AQ256" s="7">
+        <v>68.513</v>
       </c>
       <c r="BC256" s="4" t="inlineStr">
         <is>
@@ -52982,19 +52976,19 @@
       </c>
       <c r="CP256" s="4" t="inlineStr">
         <is>
-          <t>Z15_B03_P01_Ib01</t>
+          <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="257">
       <c r="A257" s="4" t="inlineStr">
         <is>
-          <t>Z15_B04_P01_Ib01_I01_D001</t>
+          <t>Z15_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>Z15_B04_P01_Ib01_I01</t>
+          <t>Z15_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C257" s="4" t="inlineStr">
@@ -53029,11 +53023,11 @@
       </c>
       <c r="I257" s="4" t="inlineStr">
         <is>
-          <t>E_HA</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K257" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L257" s="6" t="b">
         <v>0</v>
@@ -53041,8 +53035,20 @@
       <c r="M257" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AU257" s="7">
-        <v>55843369</v>
+      <c r="AD257" s="7">
+        <v>4.18</v>
+      </c>
+      <c r="AG257" s="7">
+        <v>4.23</v>
+      </c>
+      <c r="AJ257" s="7">
+        <v>4.29</v>
+      </c>
+      <c r="AM257" s="7">
+        <v>4.31</v>
+      </c>
+      <c r="AP257" s="7">
+        <v>5.19</v>
       </c>
       <c r="BC257" s="4" t="inlineStr">
         <is>
@@ -53146,14 +53152,14 @@
       </c>
       <c r="CP257" s="4" t="inlineStr">
         <is>
-          <t>Z15_B04_P01_Ib01</t>
+          <t>Z15_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="258">
       <c r="A258" s="4" t="inlineStr">
         <is>
-          <t>Z15_B04_P01_Ib01_I01_D002</t>
+          <t>Z15_B04_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B258" s="4" t="inlineStr">
@@ -53163,12 +53169,12 @@
       </c>
       <c r="C258" s="4" t="inlineStr">
         <is>
-          <t>K_SEKTOREN</t>
+          <t/>
         </is>
       </c>
       <c r="D258" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_25</t>
+          <t/>
         </is>
       </c>
       <c r="E258" s="4" t="inlineStr">
@@ -53197,7 +53203,7 @@
         </is>
       </c>
       <c r="K258" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L258" s="6" t="b">
         <v>0</v>
@@ -53206,7 +53212,7 @@
         <v>0</v>
       </c>
       <c r="AU258" s="7">
-        <v>2505544</v>
+        <v>55843369</v>
       </c>
       <c r="BC258" s="4" t="inlineStr">
         <is>
@@ -53317,7 +53323,7 @@
     <row outlineLevel="0" r="259">
       <c r="A259" s="4" t="inlineStr">
         <is>
-          <t>Z15_B04_P01_Ib01_I01_D003</t>
+          <t>Z15_B04_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
@@ -53332,7 +53338,7 @@
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_55bc</t>
+          <t>A_SEKTOREN_25</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
@@ -53370,7 +53376,7 @@
         <v>0</v>
       </c>
       <c r="AU259" s="7">
-        <v>12008491</v>
+        <v>2505544</v>
       </c>
       <c r="BC259" s="4" t="inlineStr">
         <is>
@@ -53481,7 +53487,7 @@
     <row outlineLevel="0" r="260">
       <c r="A260" s="4" t="inlineStr">
         <is>
-          <t>Z15_B04_P01_Ib01_I01_D004</t>
+          <t>Z15_B04_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B260" s="4" t="inlineStr">
@@ -53496,7 +53502,7 @@
       </c>
       <c r="D260" s="4" t="inlineStr">
         <is>
-          <t>A_SEKTOREN_51</t>
+          <t>A_SEKTOREN_55bc</t>
         </is>
       </c>
       <c r="E260" s="4" t="inlineStr">
@@ -53534,7 +53540,7 @@
         <v>0</v>
       </c>
       <c r="AU260" s="7">
-        <v>41329334</v>
+        <v>12008491</v>
       </c>
       <c r="BC260" s="4" t="inlineStr">
         <is>
@@ -53645,22 +53651,22 @@
     <row outlineLevel="0" r="261">
       <c r="A261" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D001</t>
+          <t>Z15_B04_P01_Ib01_I01_D004</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01</t>
+          <t>Z15_B04_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C261" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEKTOREN</t>
         </is>
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEKTOREN_51</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
@@ -53685,20 +53691,20 @@
       </c>
       <c r="I261" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_HA</t>
         </is>
       </c>
       <c r="K261" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L261" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M261" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AV261" s="7">
-        <v>182</v>
+      <c r="AU261" s="7">
+        <v>41329334</v>
       </c>
       <c r="BC261" s="4" t="inlineStr">
         <is>
@@ -53802,14 +53808,14 @@
       </c>
       <c r="CP261" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01</t>
+          <t>Z15_B04_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="262">
       <c r="A262" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D002</t>
+          <t>Z16_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B262" s="4" t="inlineStr">
@@ -53819,12 +53825,12 @@
       </c>
       <c r="C262" s="4" t="inlineStr">
         <is>
-          <t>K_SEX</t>
+          <t/>
         </is>
       </c>
       <c r="D262" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_F</t>
+          <t/>
         </is>
       </c>
       <c r="E262" s="4" t="inlineStr">
@@ -53853,16 +53859,16 @@
         </is>
       </c>
       <c r="K262" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L262" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M262" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AV262" s="7">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="BC262" s="4" t="inlineStr">
         <is>
@@ -53973,7 +53979,7 @@
     <row outlineLevel="0" r="263">
       <c r="A263" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01_Ib01_I01_D003</t>
+          <t>Z16_B02_P01_Ib01_I01_D002</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
@@ -53988,7 +53994,7 @@
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>A_SEX_M</t>
+          <t>A_SEX_F</t>
         </is>
       </c>
       <c r="E263" s="4" t="inlineStr">
@@ -54026,7 +54032,7 @@
         <v>0</v>
       </c>
       <c r="AV263" s="7">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="BC263" s="4" t="inlineStr">
         <is>
@@ -54137,22 +54143,22 @@
     <row outlineLevel="0" r="264">
       <c r="A264" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01_D001</t>
+          <t>Z16_B02_P01_Ib01_I01_D003</t>
         </is>
       </c>
       <c r="B264" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I01</t>
+          <t>Z16_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C264" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SEX</t>
         </is>
       </c>
       <c r="D264" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SEX_M</t>
         </is>
       </c>
       <c r="E264" s="4" t="inlineStr">
@@ -54177,56 +54183,20 @@
       </c>
       <c r="I264" s="4" t="inlineStr">
         <is>
-          <t>E_NN</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K264" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L264" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M264" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ264" s="7">
-        <v>79</v>
-      </c>
-      <c r="AK264" s="7">
-        <v>78</v>
-      </c>
-      <c r="AL264" s="7">
-        <v>79</v>
-      </c>
-      <c r="AM264" s="7">
-        <v>81</v>
-      </c>
-      <c r="AN264" s="7">
-        <v>81</v>
-      </c>
-      <c r="AO264" s="7">
-        <v>81</v>
-      </c>
-      <c r="AP264" s="7">
-        <v>80</v>
-      </c>
-      <c r="AQ264" s="7">
-        <v>80</v>
-      </c>
-      <c r="AR264" s="7">
-        <v>80</v>
-      </c>
-      <c r="AS264" s="7">
-        <v>80</v>
-      </c>
-      <c r="AT264" s="7">
-        <v>79</v>
-      </c>
-      <c r="AU264" s="7">
-        <v>78</v>
-      </c>
       <c r="AV264" s="7">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="BC264" s="4" t="inlineStr">
         <is>
@@ -54330,19 +54300,19 @@
       </c>
       <c r="CP264" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01</t>
+          <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02_D001</t>
+          <t>Z16_B03_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01_Ib01_I02</t>
+          <t>Z16_B03_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C265" s="4" t="inlineStr">
@@ -54377,7 +54347,7 @@
       </c>
       <c r="I265" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_NN</t>
         </is>
       </c>
       <c r="K265" s="6" t="b">
@@ -54389,41 +54359,44 @@
       <c r="M265" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AJ265" s="7">
+        <v>79</v>
+      </c>
       <c r="AK265" s="7">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="AL265" s="7">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="AM265" s="7">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="AN265" s="7">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="AO265" s="7">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="AP265" s="7">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="AQ265" s="7">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AR265" s="7">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AS265" s="7">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AT265" s="7">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="AU265" s="7">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="AV265" s="7">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="BC265" s="4" t="inlineStr">
         <is>
@@ -54534,32 +54507,32 @@
     <row outlineLevel="0" r="266">
       <c r="A266" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D001</t>
+          <t>Z16_B03_P01_Ib01_I02_D001</t>
         </is>
       </c>
       <c r="B266" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01</t>
+          <t>Z16_B03_P01_Ib01_I02</t>
         </is>
       </c>
       <c r="C266" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_EFF</t>
+          <t/>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>K_BEWERTUNG</t>
+          <t/>
         </is>
       </c>
       <c r="F266" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PRO</t>
+          <t/>
         </is>
       </c>
       <c r="G266" s="4" t="inlineStr">
@@ -54574,7 +54547,7 @@
       </c>
       <c r="I266" s="4" t="inlineStr">
         <is>
-          <t>E_NUMX</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K266" s="6" t="b">
@@ -54586,8 +54559,41 @@
       <c r="M266" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="AK266" s="7">
+        <v>16</v>
+      </c>
+      <c r="AL266" s="7">
+        <v>30</v>
+      </c>
+      <c r="AM266" s="7">
+        <v>30</v>
+      </c>
+      <c r="AN266" s="7">
+        <v>31</v>
+      </c>
+      <c r="AO266" s="7">
+        <v>32</v>
+      </c>
+      <c r="AP266" s="7">
+        <v>31</v>
+      </c>
+      <c r="AQ266" s="7">
+        <v>34</v>
+      </c>
+      <c r="AR266" s="7">
+        <v>36</v>
+      </c>
+      <c r="AS266" s="7">
+        <v>36</v>
+      </c>
       <c r="AT266" s="7">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="AU266" s="7">
+        <v>34</v>
+      </c>
+      <c r="AV266" s="7">
+        <v>32</v>
       </c>
       <c r="BC266" s="4" t="inlineStr">
         <is>
@@ -54691,14 +54697,14 @@
       </c>
       <c r="CP266" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01</t>
+          <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D002</t>
+          <t>Z16_B04_P01_IB01_I01_D001</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
@@ -54723,7 +54729,7 @@
       </c>
       <c r="F267" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_CON</t>
+          <t>A_BEWERTUNG_PRO</t>
         </is>
       </c>
       <c r="G267" s="4" t="inlineStr">
@@ -54745,13 +54751,13 @@
         <v>1</v>
       </c>
       <c r="L267" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M267" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AT267" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC267" s="4" t="inlineStr">
         <is>
@@ -54862,7 +54868,7 @@
     <row outlineLevel="0" r="268">
       <c r="A268" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D003</t>
+          <t>Z16_B04_P01_IB01_I01_D002</t>
         </is>
       </c>
       <c r="B268" s="4" t="inlineStr">
@@ -54877,7 +54883,7 @@
       </c>
       <c r="D268" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_FATFTEC</t>
+          <t>A_SERIES_EFF</t>
         </is>
       </c>
       <c r="E268" s="4" t="inlineStr">
@@ -54887,7 +54893,7 @@
       </c>
       <c r="F268" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_PROTEC</t>
+          <t>A_BEWERTUNG_CON</t>
         </is>
       </c>
       <c r="G268" s="4" t="inlineStr">
@@ -54909,13 +54915,13 @@
         <v>1</v>
       </c>
       <c r="L268" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M268" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AT268" s="7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="BC268" s="4" t="inlineStr">
         <is>
@@ -55026,7 +55032,7 @@
     <row outlineLevel="0" r="269">
       <c r="A269" s="4" t="inlineStr">
         <is>
-          <t>Z16_B04_P01_IB01_I01_D004</t>
+          <t>Z16_B04_P01_IB01_I01_D003</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
@@ -55051,7 +55057,7 @@
       </c>
       <c r="F269" s="4" t="inlineStr">
         <is>
-          <t>A_BEWERTUNG_CONTEC</t>
+          <t>A_BEWERTUNG_PROTEC</t>
         </is>
       </c>
       <c r="G269" s="4" t="inlineStr">
@@ -55073,13 +55079,13 @@
         <v>1</v>
       </c>
       <c r="L269" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M269" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AT269" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="BC269" s="4" t="inlineStr">
         <is>
@@ -55190,32 +55196,32 @@
     <row outlineLevel="0" r="270">
       <c r="A270" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01_D001</t>
+          <t>Z16_B04_P01_IB01_I01_D004</t>
         </is>
       </c>
       <c r="B270" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01_I01</t>
+          <t>Z16_B04_P01_IB01_I01</t>
         </is>
       </c>
       <c r="C270" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_SERIES</t>
         </is>
       </c>
       <c r="D270" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_SERIES_FATFTEC</t>
         </is>
       </c>
       <c r="E270" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>K_BEWERTUNG</t>
         </is>
       </c>
       <c r="F270" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>A_BEWERTUNG_CONTEC</t>
         </is>
       </c>
       <c r="G270" s="4" t="inlineStr">
@@ -55230,7 +55236,7 @@
       </c>
       <c r="I270" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUMX</t>
         </is>
       </c>
       <c r="K270" s="6" t="b">
@@ -55242,92 +55248,8 @@
       <c r="M270" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S270" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="T270" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="U270" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="V270" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="W270" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="X270" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Y270" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="Z270" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="AA270" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AB270" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="AC270" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AD270" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="AE270" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AF270" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AG270" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="AH270" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AI270" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="AJ270" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="AK270" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="AL270" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="AM270" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AN270" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="AO270" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="AP270" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="AQ270" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="AR270" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="AS270" s="7">
-        <v>0.76</v>
-      </c>
       <c r="AT270" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="AU270" s="7">
-        <v>0.82</v>
+        <v>5</v>
       </c>
       <c r="BC270" s="4" t="inlineStr">
         <is>
@@ -55431,19 +55353,19 @@
       </c>
       <c r="CP270" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01_P01_Ib01</t>
+          <t>Z16_B04_P01_IB01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="271">
       <c r="A271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D001</t>
+          <t>Z17_B01_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01</t>
+          <t>Z17_B01_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C271" s="4" t="inlineStr">
@@ -55478,74 +55400,104 @@
       </c>
       <c r="I271" s="4" t="inlineStr">
         <is>
-          <t>E_NUM</t>
+          <t>E_PRZNT</t>
         </is>
       </c>
       <c r="K271" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L271" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M271" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="S271" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="T271" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="U271" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="V271" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="W271" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="X271" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Y271" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Z271" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="AA271" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="AB271" s="7">
+        <v>0.28</v>
+      </c>
       <c r="AC271" s="7">
-        <v>140519</v>
+        <v>0.36</v>
       </c>
       <c r="AD271" s="7">
-        <v>141289</v>
+        <v>0.36</v>
       </c>
       <c r="AE271" s="7">
-        <v>136087</v>
+        <v>0.37</v>
       </c>
       <c r="AF271" s="7">
-        <v>140832</v>
+        <v>0.38</v>
       </c>
       <c r="AG271" s="7">
-        <v>147152</v>
+        <v>0.35</v>
       </c>
       <c r="AH271" s="7">
-        <v>153690</v>
+        <v>0.39</v>
       </c>
       <c r="AI271" s="7">
-        <v>158557</v>
+        <v>0.39</v>
       </c>
       <c r="AJ271" s="7">
-        <v>170618</v>
+        <v>0.37</v>
       </c>
       <c r="AK271" s="7">
-        <v>185787</v>
+        <v>0.38</v>
       </c>
       <c r="AL271" s="7">
-        <v>200349</v>
+        <v>0.42</v>
       </c>
       <c r="AM271" s="7">
-        <v>215258</v>
+        <v>0.52</v>
       </c>
       <c r="AN271" s="7">
-        <v>230689</v>
+        <v>0.7</v>
       </c>
       <c r="AO271" s="7">
-        <v>247436</v>
+        <v>0.67</v>
       </c>
       <c r="AP271" s="7">
-        <v>267250</v>
+        <v>0.61</v>
       </c>
       <c r="AQ271" s="7">
-        <v>285450</v>
+        <v>0.61</v>
       </c>
       <c r="AR271" s="7">
-        <v>298149</v>
+        <v>0.73</v>
       </c>
       <c r="AS271" s="7">
-        <v>316001</v>
+        <v>0.76</v>
       </c>
       <c r="AT271" s="7">
-        <v>335016</v>
+        <v>0.85</v>
       </c>
       <c r="AU271" s="7">
-        <v>348976</v>
+        <v>0.82</v>
       </c>
       <c r="BC271" s="4" t="inlineStr">
         <is>
@@ -55649,14 +55601,14 @@
       </c>
       <c r="CP271" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01</t>
+          <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="272">
       <c r="A272" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D018</t>
+          <t>Z17_B02_P01_Ib01_I01_D001</t>
         </is>
       </c>
       <c r="B272" s="4" t="inlineStr">
@@ -55666,12 +55618,12 @@
       </c>
       <c r="C272" s="4" t="inlineStr">
         <is>
-          <t>K_SERIES</t>
+          <t/>
         </is>
       </c>
       <c r="D272" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDLDC</t>
+          <t/>
         </is>
       </c>
       <c r="E272" s="4" t="inlineStr">
@@ -55700,70 +55652,70 @@
         </is>
       </c>
       <c r="K272" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M272" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC272" s="7">
-        <v>4960</v>
+        <v>140519</v>
       </c>
       <c r="AD272" s="7">
-        <v>5012</v>
+        <v>141289</v>
       </c>
       <c r="AE272" s="7">
-        <v>4933</v>
+        <v>136087</v>
       </c>
       <c r="AF272" s="7">
-        <v>5331</v>
+        <v>140832</v>
       </c>
       <c r="AG272" s="7">
-        <v>5738</v>
+        <v>147152</v>
       </c>
       <c r="AH272" s="7">
-        <v>6300</v>
+        <v>153690</v>
       </c>
       <c r="AI272" s="7">
-        <v>6925</v>
+        <v>158557</v>
       </c>
       <c r="AJ272" s="7">
-        <v>7577</v>
+        <v>170618</v>
       </c>
       <c r="AK272" s="7">
-        <v>8348</v>
+        <v>185787</v>
       </c>
       <c r="AL272" s="7">
-        <v>9244</v>
+        <v>200349</v>
       </c>
       <c r="AM272" s="7">
-        <v>9746</v>
+        <v>215258</v>
       </c>
       <c r="AN272" s="7">
-        <v>10119</v>
+        <v>230689</v>
       </c>
       <c r="AO272" s="7">
-        <v>10576</v>
+        <v>247436</v>
       </c>
       <c r="AP272" s="7">
-        <v>11525</v>
+        <v>267250</v>
       </c>
       <c r="AQ272" s="7">
-        <v>13067</v>
+        <v>285450</v>
       </c>
       <c r="AR272" s="7">
-        <v>15055</v>
+        <v>298149</v>
       </c>
       <c r="AS272" s="7">
-        <v>17113</v>
+        <v>316001</v>
       </c>
       <c r="AT272" s="7">
-        <v>18315</v>
+        <v>335016</v>
       </c>
       <c r="AU272" s="7">
-        <v>19505</v>
+        <v>348976</v>
       </c>
       <c r="BC272" s="4" t="inlineStr">
         <is>
@@ -55874,7 +55826,7 @@
     <row outlineLevel="0" r="273">
       <c r="A273" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D035</t>
+          <t>Z17_B02_P01_Ib01_I01_D018</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
@@ -55889,7 +55841,7 @@
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_STUDOTHER</t>
+          <t>A_SERIES_STUDLDC</t>
         </is>
       </c>
       <c r="E273" s="4" t="inlineStr">
@@ -55927,61 +55879,61 @@
         <v>0</v>
       </c>
       <c r="AC273" s="7">
-        <v>129502</v>
+        <v>4960</v>
       </c>
       <c r="AD273" s="7">
-        <v>129631</v>
+        <v>5012</v>
       </c>
       <c r="AE273" s="7">
-        <v>124181</v>
+        <v>4933</v>
       </c>
       <c r="AF273" s="7">
-        <v>127067</v>
+        <v>5331</v>
       </c>
       <c r="AG273" s="7">
-        <v>131633</v>
+        <v>5738</v>
       </c>
       <c r="AH273" s="7">
-        <v>136445</v>
+        <v>6300</v>
       </c>
       <c r="AI273" s="7">
-        <v>140304</v>
+        <v>6925</v>
       </c>
       <c r="AJ273" s="7">
-        <v>150880</v>
+        <v>7577</v>
       </c>
       <c r="AK273" s="7">
-        <v>164098</v>
+        <v>8348</v>
       </c>
       <c r="AL273" s="7">
-        <v>176768</v>
+        <v>9244</v>
       </c>
       <c r="AM273" s="7">
-        <v>190403</v>
+        <v>9746</v>
       </c>
       <c r="AN273" s="7">
-        <v>204695</v>
+        <v>10119</v>
       </c>
       <c r="AO273" s="7">
-        <v>219307</v>
+        <v>10576</v>
       </c>
       <c r="AP273" s="7">
-        <v>236609</v>
+        <v>11525</v>
       </c>
       <c r="AQ273" s="7">
-        <v>251488</v>
+        <v>13067</v>
       </c>
       <c r="AR273" s="7">
-        <v>259999</v>
+        <v>15055</v>
       </c>
       <c r="AS273" s="7">
-        <v>273340</v>
+        <v>17113</v>
       </c>
       <c r="AT273" s="7">
-        <v>288586</v>
+        <v>18315</v>
       </c>
       <c r="AU273" s="7">
-        <v>299158</v>
+        <v>19505</v>
       </c>
       <c r="BC273" s="4" t="inlineStr">
         <is>
@@ -56092,7 +56044,7 @@
     <row outlineLevel="0" r="274">
       <c r="A274" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D052</t>
+          <t>Z17_B02_P01_Ib01_I01_D035</t>
         </is>
       </c>
       <c r="B274" s="4" t="inlineStr">
@@ -56107,7 +56059,7 @@
       </c>
       <c r="D274" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESLDC</t>
+          <t>A_SERIES_STUDOTHER</t>
         </is>
       </c>
       <c r="E274" s="4" t="inlineStr">
@@ -56145,61 +56097,61 @@
         <v>0</v>
       </c>
       <c r="AC274" s="7">
-        <v>209</v>
+        <v>129502</v>
       </c>
       <c r="AD274" s="7">
-        <v>212</v>
+        <v>129631</v>
       </c>
       <c r="AE274" s="7">
-        <v>207</v>
+        <v>124181</v>
       </c>
       <c r="AF274" s="7">
-        <v>254</v>
+        <v>127067</v>
       </c>
       <c r="AG274" s="7">
-        <v>299</v>
+        <v>131633</v>
       </c>
       <c r="AH274" s="7">
-        <v>331</v>
+        <v>136445</v>
       </c>
       <c r="AI274" s="7">
-        <v>382</v>
+        <v>140304</v>
       </c>
       <c r="AJ274" s="7">
-        <v>420</v>
+        <v>150880</v>
       </c>
       <c r="AK274" s="7">
-        <v>476</v>
+        <v>164098</v>
       </c>
       <c r="AL274" s="7">
-        <v>500</v>
+        <v>176768</v>
       </c>
       <c r="AM274" s="7">
-        <v>517</v>
+        <v>190403</v>
       </c>
       <c r="AN274" s="7">
-        <v>558</v>
+        <v>204695</v>
       </c>
       <c r="AO274" s="7">
-        <v>649</v>
+        <v>219307</v>
       </c>
       <c r="AP274" s="7">
-        <v>687</v>
+        <v>236609</v>
       </c>
       <c r="AQ274" s="7">
-        <v>681</v>
+        <v>251488</v>
       </c>
       <c r="AR274" s="7">
-        <v>838</v>
+        <v>259999</v>
       </c>
       <c r="AS274" s="7">
-        <v>924</v>
+        <v>273340</v>
       </c>
       <c r="AT274" s="7">
-        <v>1070</v>
+        <v>288586</v>
       </c>
       <c r="AU274" s="7">
-        <v>1190</v>
+        <v>299158</v>
       </c>
       <c r="BC274" s="4" t="inlineStr">
         <is>
@@ -56310,7 +56262,7 @@
     <row outlineLevel="0" r="275">
       <c r="A275" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02_P01_Ib01_I01_D069</t>
+          <t>Z17_B02_P01_Ib01_I01_D052</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
@@ -56325,7 +56277,7 @@
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_RESOTHER</t>
+          <t>A_SERIES_RESLDC</t>
         </is>
       </c>
       <c r="E275" s="4" t="inlineStr">
@@ -56363,61 +56315,61 @@
         <v>0</v>
       </c>
       <c r="AC275" s="7">
-        <v>5848</v>
+        <v>209</v>
       </c>
       <c r="AD275" s="7">
-        <v>6434</v>
+        <v>212</v>
       </c>
       <c r="AE275" s="7">
-        <v>6766</v>
+        <v>207</v>
       </c>
       <c r="AF275" s="7">
-        <v>8180</v>
+        <v>254</v>
       </c>
       <c r="AG275" s="7">
-        <v>9482</v>
+        <v>299</v>
       </c>
       <c r="AH275" s="7">
-        <v>10614</v>
+        <v>331</v>
       </c>
       <c r="AI275" s="7">
-        <v>10946</v>
+        <v>382</v>
       </c>
       <c r="AJ275" s="7">
-        <v>11741</v>
+        <v>420</v>
       </c>
       <c r="AK275" s="7">
-        <v>12865</v>
+        <v>476</v>
       </c>
       <c r="AL275" s="7">
-        <v>13837</v>
+        <v>500</v>
       </c>
       <c r="AM275" s="7">
-        <v>14592</v>
+        <v>517</v>
       </c>
       <c r="AN275" s="7">
-        <v>15317</v>
+        <v>558</v>
       </c>
       <c r="AO275" s="7">
-        <v>16904</v>
+        <v>649</v>
       </c>
       <c r="AP275" s="7">
-        <v>18429</v>
+        <v>687</v>
       </c>
       <c r="AQ275" s="7">
-        <v>20214</v>
+        <v>681</v>
       </c>
       <c r="AR275" s="7">
-        <v>22257</v>
+        <v>838</v>
       </c>
       <c r="AS275" s="7">
-        <v>24624</v>
+        <v>924</v>
       </c>
       <c r="AT275" s="7">
-        <v>27044</v>
+        <v>1070</v>
       </c>
       <c r="AU275" s="7">
-        <v>29123</v>
+        <v>1190</v>
       </c>
       <c r="BC275" s="4" t="inlineStr">
         <is>
@@ -56528,12 +56480,12 @@
     <row outlineLevel="0" r="276">
       <c r="A276" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01_D001</t>
+          <t>Z17_B02_P01_Ib01_I01_D069</t>
         </is>
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01_I01</t>
+          <t>Z17_B02_P01_Ib01_I01</t>
         </is>
       </c>
       <c r="C276" s="4" t="inlineStr">
@@ -56543,7 +56495,7 @@
       </c>
       <c r="D276" s="4" t="inlineStr">
         <is>
-          <t>A_SERIES_IMP</t>
+          <t>A_SERIES_RESOTHER</t>
         </is>
       </c>
       <c r="E276" s="4" t="inlineStr">
@@ -56568,83 +56520,74 @@
       </c>
       <c r="I276" s="4" t="inlineStr">
         <is>
-          <t>E_PRZNT</t>
+          <t>E_NUM</t>
         </is>
       </c>
       <c r="K276" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L276" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M276" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Z276" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="AA276" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="AB276" s="7">
-        <v>0.52</v>
-      </c>
       <c r="AC276" s="7">
-        <v>0.44</v>
+        <v>5848</v>
       </c>
       <c r="AD276" s="7">
-        <v>0.49</v>
+        <v>6434</v>
       </c>
       <c r="AE276" s="7">
-        <v>0.52</v>
+        <v>6766</v>
       </c>
       <c r="AF276" s="7">
-        <v>0.46</v>
+        <v>8180</v>
       </c>
       <c r="AG276" s="7">
-        <v>0.58</v>
+        <v>9482</v>
       </c>
       <c r="AH276" s="7">
-        <v>0.53</v>
+        <v>10614</v>
       </c>
       <c r="AI276" s="7">
-        <v>0.67</v>
+        <v>10946</v>
       </c>
       <c r="AJ276" s="7">
-        <v>0.62</v>
+        <v>11741</v>
       </c>
       <c r="AK276" s="7">
-        <v>0.71</v>
+        <v>12865</v>
       </c>
       <c r="AL276" s="7">
-        <v>0.71</v>
+        <v>13837</v>
       </c>
       <c r="AM276" s="7">
-        <v>0.81</v>
+        <v>14592</v>
       </c>
       <c r="AN276" s="7">
-        <v>0.88</v>
+        <v>15317</v>
       </c>
       <c r="AO276" s="7">
-        <v>0.94</v>
+        <v>16904</v>
       </c>
       <c r="AP276" s="7">
-        <v>0.94</v>
+        <v>18429</v>
       </c>
       <c r="AQ276" s="7">
-        <v>0.94</v>
+        <v>20214</v>
       </c>
       <c r="AR276" s="7">
-        <v>0.98</v>
+        <v>22257</v>
       </c>
       <c r="AS276" s="7">
-        <v>1.04</v>
+        <v>24624</v>
       </c>
       <c r="AT276" s="7">
-        <v>1.15</v>
+        <v>27044</v>
       </c>
       <c r="AU276" s="7">
-        <v>1.02</v>
+        <v>29123</v>
       </c>
       <c r="BC276" s="4" t="inlineStr">
         <is>
@@ -56748,232 +56691,459 @@
       </c>
       <c r="CP276" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03_P01_Ib01</t>
+          <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="277">
       <c r="A277" s="4" t="inlineStr">
         <is>
+          <t>Z17_B03_P01_Ib01_I01_D001</t>
+        </is>
+      </c>
+      <c r="B277" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01_I01</t>
+        </is>
+      </c>
+      <c r="C277" s="4" t="inlineStr">
+        <is>
+          <t>K_SERIES</t>
+        </is>
+      </c>
+      <c r="D277" s="4" t="inlineStr">
+        <is>
+          <t>A_SERIES_IMP</t>
+        </is>
+      </c>
+      <c r="E277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I277" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="K277" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L277" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M277" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z277" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AA277" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AB277" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AC277" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AD277" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AE277" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="AF277" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="AG277" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="AH277" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="AI277" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AJ277" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AK277" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AL277" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AM277" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AN277" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="AO277" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AP277" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AQ277" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="AR277" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="AS277" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="AT277" s="7">
+        <v>1.15</v>
+      </c>
+      <c r="AU277" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="BC277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO277" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP277" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="278">
+      <c r="A278" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03_P01_Ib01_I01_D002</t>
         </is>
       </c>
-      <c r="B277" s="4" t="inlineStr">
+      <c r="B278" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01_I01</t>
         </is>
       </c>
-      <c r="C277" s="4" t="inlineStr">
+      <c r="C278" s="4" t="inlineStr">
         <is>
           <t>K_SERIES</t>
         </is>
       </c>
-      <c r="D277" s="4" t="inlineStr">
+      <c r="D278" s="4" t="inlineStr">
         <is>
           <t>A_SERIES_PROCIMP</t>
         </is>
       </c>
-      <c r="E277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I277" s="4" t="inlineStr">
+      <c r="E278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I278" s="4" t="inlineStr">
         <is>
           <t>E_PRZNT</t>
         </is>
       </c>
-      <c r="K277" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L277" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M277" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z277" s="7">
+      <c r="K278" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M278" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z278" s="7">
         <v>0.36</v>
       </c>
-      <c r="AA277" s="7">
+      <c r="AA278" s="7">
         <v>0.49</v>
       </c>
-      <c r="AB277" s="7">
+      <c r="AB278" s="7">
         <v>0.49</v>
       </c>
-      <c r="AC277" s="7">
+      <c r="AC278" s="7">
         <v>0.4</v>
       </c>
-      <c r="AD277" s="7">
+      <c r="AD278" s="7">
         <v>0.45</v>
       </c>
-      <c r="AE277" s="7">
+      <c r="AE278" s="7">
         <v>0.45</v>
       </c>
-      <c r="AF277" s="7">
+      <c r="AF278" s="7">
         <v>0.36</v>
       </c>
-      <c r="AG277" s="7">
+      <c r="AG278" s="7">
         <v>0.52</v>
       </c>
-      <c r="AH277" s="7">
+      <c r="AH278" s="7">
         <v>0.47</v>
       </c>
-      <c r="AI277" s="7">
+      <c r="AI278" s="7">
         <v>0.54</v>
       </c>
-      <c r="AJ277" s="7">
+      <c r="AJ278" s="7">
         <v>0.54</v>
       </c>
-      <c r="AK277" s="7">
+      <c r="AK278" s="7">
         <v>0.62</v>
       </c>
-      <c r="AL277" s="7">
+      <c r="AL278" s="7">
         <v>0.66</v>
       </c>
-      <c r="AM277" s="7">
+      <c r="AM278" s="7">
         <v>0.76</v>
       </c>
-      <c r="AN277" s="7">
+      <c r="AN278" s="7">
         <v>0.82</v>
       </c>
-      <c r="AO277" s="7">
+      <c r="AO278" s="7">
         <v>0.88</v>
       </c>
-      <c r="AP277" s="7">
+      <c r="AP278" s="7">
         <v>0.89</v>
       </c>
-      <c r="AQ277" s="7">
+      <c r="AQ278" s="7">
         <v>0.89</v>
       </c>
-      <c r="AR277" s="7">
+      <c r="AR278" s="7">
         <v>0.92</v>
       </c>
-      <c r="AS277" s="7">
+      <c r="AS278" s="7">
         <v>0.92</v>
       </c>
-      <c r="AT277" s="7">
+      <c r="AT278" s="7">
         <v>1.02</v>
       </c>
-      <c r="AU277" s="7">
+      <c r="AU278" s="7">
         <v>0.92</v>
       </c>
-      <c r="BC277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BE277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BG277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BI277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BK277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BM277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BO277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BQ277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BS277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BU277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BW277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="BY277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CA277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CG277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CI277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CK277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CM277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CO277" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CP277" s="4" t="inlineStr">
+      <c r="BC278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BE278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BG278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BI278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BK278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BM278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BO278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BQ278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BS278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BU278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BW278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BY278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CA278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CC278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CE278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CG278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CI278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CK278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CM278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CO278" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="CP278" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -48665,7 +48665,7 @@
       </c>
       <c r="BC237" s="4" t="inlineStr">
         <is>
-          <t>01.03.2023 – 30.08.2023</t>
+          <t>01.03.2023 - 30.08.2023</t>
         </is>
       </c>
       <c r="BD237" s="7">
@@ -48673,7 +48673,7 @@
       </c>
       <c r="BE237" s="4" t="inlineStr">
         <is>
-          <t>01.09.2023 – 30.08.2024</t>
+          <t>01.09.2023 - 30.08.2024</t>
         </is>
       </c>
       <c r="BG237" s="4" t="inlineStr">

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -587,7 +587,7 @@
     <col customWidth="true" min="52" max="52" width="9.375"/>
     <col customWidth="true" min="53" max="53" width="9.375"/>
     <col customWidth="true" min="54" max="54" width="13.8359375"/>
-    <col customWidth="true" min="55" max="55" width="13.8359375"/>
+    <col customWidth="true" min="55" max="55" width="16.40625"/>
     <col customWidth="true" min="56" max="56" width="13.8359375"/>
     <col customWidth="true" min="57" max="57" width="13.8359375"/>
     <col customWidth="true" min="58" max="58" width="13.8359375"/>
@@ -37351,121 +37351,121 @@
       <c r="M185" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AM185" s="7">
+      <c r="BB185" s="7">
         <v>6.7</v>
       </c>
-      <c r="AN185" s="7">
+      <c r="BC185" s="4" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BD185" s="7">
         <v>7.1</v>
       </c>
-      <c r="AO185" s="7">
+      <c r="BE185" s="4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="BF185" s="7">
         <v>8</v>
       </c>
-      <c r="BB185" s="7">
+      <c r="BG185" s="4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="BH185" s="7">
         <v>9</v>
       </c>
-      <c r="BC185" s="4" t="inlineStr">
+      <c r="BI185" s="4" t="inlineStr">
         <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="BD185" s="7">
+      <c r="BJ185" s="7">
         <v>10.5</v>
       </c>
-      <c r="BE185" s="4" t="inlineStr">
+      <c r="BK185" s="4" t="inlineStr">
         <is>
           <t>2019/1</t>
         </is>
       </c>
-      <c r="BF185" s="7">
+      <c r="BL185" s="7">
         <v>11.8</v>
       </c>
-      <c r="BG185" s="4" t="inlineStr">
+      <c r="BM185" s="4" t="inlineStr">
         <is>
           <t>2019/2</t>
         </is>
       </c>
-      <c r="BH185" s="7">
+      <c r="BN185" s="7">
         <v>13.8</v>
       </c>
-      <c r="BI185" s="4" t="inlineStr">
+      <c r="BO185" s="4" t="inlineStr">
         <is>
           <t>2020/1</t>
         </is>
       </c>
-      <c r="BJ185" s="7">
+      <c r="BP185" s="7">
         <v>14.5</v>
       </c>
-      <c r="BK185" s="4" t="inlineStr">
+      <c r="BQ185" s="4" t="inlineStr">
         <is>
           <t>2020/2</t>
         </is>
       </c>
-      <c r="BL185" s="7">
+      <c r="BR185" s="7">
         <v>15.4</v>
       </c>
-      <c r="BM185" s="4" t="inlineStr">
+      <c r="BS185" s="4" t="inlineStr">
         <is>
           <t>2021/1</t>
         </is>
       </c>
-      <c r="BO185" s="4" t="inlineStr">
+      <c r="BU185" s="4" t="inlineStr">
         <is>
           <t>2021/2</t>
         </is>
       </c>
-      <c r="BP185" s="7">
+      <c r="BV185" s="7">
         <v>18.2</v>
       </c>
-      <c r="BQ185" s="4" t="inlineStr">
+      <c r="BW185" s="4" t="inlineStr">
         <is>
           <t>2022/1</t>
         </is>
       </c>
-      <c r="BR185" s="7">
+      <c r="BX185" s="7">
         <v>23.2</v>
       </c>
-      <c r="BS185" s="4" t="inlineStr">
+      <c r="BY185" s="4" t="inlineStr">
         <is>
           <t>2022/2</t>
         </is>
       </c>
-      <c r="BT185" s="7">
+      <c r="BZ185" s="7">
         <v>28.2</v>
       </c>
-      <c r="BU185" s="4" t="inlineStr">
+      <c r="CA185" s="4" t="inlineStr">
         <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="BV185" s="7">
+      <c r="CB185" s="7">
         <v>32.1</v>
       </c>
-      <c r="BW185" s="4" t="inlineStr">
+      <c r="CC185" s="4" t="inlineStr">
         <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="BX185" s="7">
+      <c r="CD185" s="7">
         <v>35.69</v>
       </c>
-      <c r="BY185" s="4" t="inlineStr">
+      <c r="CE185" s="4" t="inlineStr">
         <is>
           <t>2024/1</t>
-        </is>
-      </c>
-      <c r="CA185" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CC185" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="CE185" s="4" t="inlineStr">
-        <is>
-          <t/>
         </is>
       </c>
       <c r="CG185" s="4" t="inlineStr">
@@ -46311,6 +46311,9 @@
       <c r="AU225" s="7">
         <v>13</v>
       </c>
+      <c r="AV225" s="7">
+        <v>12.6</v>
+      </c>
       <c r="BC225" s="4" t="inlineStr">
         <is>
           <t/>
@@ -46514,6 +46517,9 @@
       <c r="AU226" s="7">
         <v>13.9</v>
       </c>
+      <c r="AV226" s="7">
+        <v>13.4</v>
+      </c>
       <c r="BC226" s="4" t="inlineStr">
         <is>
           <t/>
@@ -46716,6 +46722,9 @@
       </c>
       <c r="AU227" s="7">
         <v>12.1</v>
+      </c>
+      <c r="AV227" s="7">
+        <v>11.7</v>
       </c>
       <c r="BC227" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -55096,6 +55096,9 @@
       <c r="AT269" s="7">
         <v>35</v>
       </c>
+      <c r="AU269" s="7">
+        <v>37</v>
+      </c>
       <c r="BC269" s="4" t="inlineStr">
         <is>
           <t/>
@@ -55259,6 +55262,9 @@
       </c>
       <c r="AT270" s="7">
         <v>5</v>
+      </c>
+      <c r="AU270" s="7">
+        <v>3</v>
       </c>
       <c r="BC270" s="4" t="inlineStr">
         <is>

--- a/Exp_data.xlsx
+++ b/Exp_data.xlsx
@@ -33170,7 +33170,7 @@
         <v>58.7</v>
       </c>
       <c r="AR167" s="7">
-        <v>68</v>
+        <v>68.1</v>
       </c>
       <c r="AS167" s="7">
         <v>68.1</v>
@@ -33180,6 +33180,9 @@
       </c>
       <c r="AU167" s="7">
         <v>62.9</v>
+      </c>
+      <c r="AV167" s="7">
+        <v>62.5</v>
       </c>
       <c r="BC167" s="4" t="inlineStr">
         <is>
